--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,20 +610,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52572</v>
+        <v>50619</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Might</t>
+          <t>Anub'ar Stalker's Gloves</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Reputation</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -631,15 +631,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50402</v>
+        <v>52572</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Vengeance</t>
+          <t>Ashen Band of Endless Might</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -673,7 +673,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -694,15 +694,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50400</v>
+        <v>50402</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Wisdom</t>
+          <t>Ashen Band of Endless Vengeance</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -715,15 +715,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50400</v>
+        <v>50402</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Wisdom</t>
+          <t>Ashen Band of Endless Vengeance</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -757,20 +757,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50707</v>
+        <v>50400</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Astrylian's Sutured Cinch</t>
+          <t>Ashen Band of Endless Wisdom</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Reputation</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -778,20 +778,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50604</v>
+        <v>50400</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Band of the Bone Colossus</t>
+          <t>Ashen Band of Endless Wisdom</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Reputation</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -799,20 +799,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>49894</v>
+        <v>50707</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Blessed Cenarion Boots</t>
+          <t>Astrylian's Sutured Cinch</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Craft</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -820,15 +820,15 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50724</v>
+        <v>50604</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Blood Queen's Crimson Choker</t>
+          <t>Band of the Bone Colossus</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -841,20 +841,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50639</v>
+        <v>50604</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Blood-Soaked Saronite Stompers</t>
+          <t>Band of the Bone Colossus</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -862,20 +862,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>50639</v>
+        <v>50458</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Blood-Soaked Saronite Stompers</t>
+          <t>Bizuri's Totem of Shattered Ice</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -883,20 +883,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50639</v>
+        <v>49894</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Blood-Soaked Saronite Stompers</t>
+          <t>Blessed Cenarion Boots</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Craft</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -904,15 +904,15 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50732</v>
+        <v>50724</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
+          <t>Blood Queen's Crimson Choker</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -925,15 +925,15 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50609</v>
+        <v>50639</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Bone Sentinel's Amulet</t>
+          <t>Blood-Soaked Saronite Stompers</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -946,15 +946,15 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50609</v>
+        <v>50639</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Bone Sentinel's Amulet</t>
+          <t>Blood-Soaked Saronite Stompers</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -967,20 +967,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>50630</v>
+        <v>50639</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Bracers of Eternal Dreaming</t>
+          <t>Blood-Soaked Saronite Stompers</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -988,20 +988,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>50630</v>
+        <v>50732</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Bracers of Eternal Dreaming</t>
+          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1009,15 +1009,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50616</v>
+        <v>50609</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Bulwark of Smouldering Steel</t>
+          <t>Bone Sentinel's Amulet</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1030,40 +1030,36 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47146</v>
+        <v>50609</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Chalice of Searing Light</t>
+          <t>Bone Sentinel's Amulet</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>50620</v>
+        <v>50630</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Coldwraith Links</t>
+          <t>Bracers of Eternal Dreaming</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1076,15 +1072,15 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50620</v>
+        <v>50630</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Coldwraith Links</t>
+          <t>Bracers of Eternal Dreaming</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1097,20 +1093,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50620</v>
+        <v>50616</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Coldwraith Links</t>
+          <t>Bulwark of Smouldering Steel</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1118,15 +1114,15 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51842</v>
+        <v>47146</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Collar of Haughty Disdain</t>
+          <t>Chalice of Searing Light</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1134,20 +1130,24 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Coldwraith Links</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1160,15 +1160,15 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Coldwraith Links</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1181,15 +1181,15 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Coldwraith Links</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1202,20 +1202,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52030</v>
+        <v>51842</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Collar of Haughty Disdain</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1223,7 +1223,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1244,7 +1244,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1265,7 +1265,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1286,7 +1286,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -1307,7 +1307,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1349,20 +1349,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>51928</v>
+        <v>52030</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Corrupted Silverplate Leggings</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -1370,20 +1370,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>50613</v>
+        <v>52030</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1391,20 +1391,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50721</v>
+        <v>52030</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Crypt Keeper's Bracers</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1412,20 +1412,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>50686</v>
+        <v>52030</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Death Surgeon's Sleeves</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1433,20 +1433,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>50686</v>
+        <v>51928</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Death Surgeon's Sleeves</t>
+          <t>Corrupted Silverplate Leggings</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -1454,15 +1454,15 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>47131</v>
+        <v>50613</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Death's Verdict</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1470,24 +1470,20 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>50363</v>
+        <v>50721</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Crypt Keeper's Bracers</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1500,20 +1496,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>50363</v>
+        <v>50686</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death Surgeon's Sleeves</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -1521,20 +1517,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>50363</v>
+        <v>50686</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death Surgeon's Sleeves</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1542,36 +1538,40 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death's Verdict</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>50733</v>
+        <v>50363</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -1609,16 +1609,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>50733</v>
+        <v>50363</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -1626,20 +1626,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>50650</v>
+        <v>50363</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Fallen Lord's Handguards</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -1647,20 +1647,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>50690</v>
+        <v>50363</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Fleshrending Gauntlets</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -1668,15 +1668,15 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>50628</v>
+        <v>50348</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1689,20 +1689,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -1710,20 +1710,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>50607</v>
+        <v>50733</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Frostbitten Fur Boots</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -1731,15 +1731,15 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>50618</v>
+        <v>50650</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Fallen Lord's Handguards</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1752,20 +1752,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>50618</v>
+        <v>50690</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Fleshrending Gauntlets</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -1773,15 +1773,15 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>50606</v>
+        <v>50628</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Gendarme's Cuirass</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1794,20 +1794,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>50730</v>
+        <v>50628</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Glorenzelg, High-Blade of the Silver Hand</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -1815,20 +1815,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>50730</v>
+        <v>50607</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Glorenzelg, High-Blade of the Silver Hand</t>
+          <t>Frostbitten Fur Boots</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -1836,15 +1836,15 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>50668</v>
+        <v>50618</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Greatcloak of the Turned Champion</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1857,15 +1857,15 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>50668</v>
+        <v>50618</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Greatcloak of the Turned Champion</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1878,20 +1878,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>50668</v>
+        <v>50606</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Greatcloak of the Turned Champion</t>
+          <t>Gendarme's Cuirass</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -1899,15 +1899,15 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>50737</v>
+        <v>50730</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Havoc's Call, Blade of Lordaeron Kings</t>
+          <t>Glorenzelg, High-Blade of the Silver Hand</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1920,15 +1920,15 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>50737</v>
+        <v>50730</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Havoc's Call, Blade of Lordaeron Kings</t>
+          <t>Glorenzelg, High-Blade of the Silver Hand</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1941,15 +1941,15 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>50700</v>
+        <v>50668</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Holiday's Grace</t>
+          <t>Greatcloak of the Turned Champion</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1966,16 +1966,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>50454</v>
+        <v>50668</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Idol of the Black Willow</t>
+          <t>Greatcloak of the Turned Champion</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -1983,20 +1983,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>50454</v>
+        <v>50668</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Idol of the Black Willow</t>
+          <t>Greatcloak of the Turned Champion</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -2004,20 +2004,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>50456</v>
+        <v>50737</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Idol of the Crying Moon</t>
+          <t>Havoc's Call, Blade of Lordaeron Kings</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -2025,20 +2025,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>51882</v>
+        <v>50737</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Kilt of Untreated Wounds</t>
+          <t>Havoc's Call, Blade of Lordaeron Kings</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -2046,20 +2046,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>50712</v>
+        <v>50737</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Landsoul's Horned Greathelm</t>
+          <t>Havoc's Call, Blade of Lordaeron Kings</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -2067,20 +2067,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>40705</v>
+        <v>50700</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Libram of Renewal</t>
+          <t>Holiday's Grace</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -2088,20 +2088,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>50702</v>
+        <v>50454</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Lingering Illness</t>
+          <t>Idol of the Black Willow</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -2109,20 +2109,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>50702</v>
+        <v>50454</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Lingering Illness</t>
+          <t>Idol of the Black Willow</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -2130,20 +2130,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>50610</v>
+        <v>50456</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Marrowgar's Frigid Eye</t>
+          <t>Idol of the Crying Moon</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -2151,15 +2151,15 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>50636</v>
+        <v>51882</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Memory of Malygos</t>
+          <t>Kilt of Untreated Wounds</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2172,20 +2172,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>50636</v>
+        <v>50712</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Memory of Malygos</t>
+          <t>Landsoul's Horned Greathelm</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -2193,20 +2193,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>50636</v>
+        <v>40705</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Memory of Malygos</t>
+          <t>Libram of Renewal</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -2214,15 +2214,15 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>46051</v>
+        <v>50702</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Meteorite Crystal</t>
+          <t>Lingering Illness</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2230,29 +2230,25 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>50631</v>
+        <v>50702</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Nightmare Ender</t>
+          <t>Lingering Illness</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -2260,20 +2256,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>50631</v>
+        <v>50610</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Nightmare Ender</t>
+          <t>Marrowgar's Frigid Eye</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -2281,15 +2277,15 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>50735</v>
+        <v>50636</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Oathbinder, Charge of the Ranger-General</t>
+          <t>Memory of Malygos</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2302,20 +2298,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>50365</v>
+        <v>50636</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Memory of Malygos</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -2323,20 +2319,20 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>50699</v>
+        <v>50636</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Memory of Malygos</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -2348,37 +2344,41 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>50699</v>
+        <v>46051</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Meteorite Crystal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>50699</v>
+        <v>50688</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Nerub'ar Stalker's Cord</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -2386,20 +2386,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>50699</v>
+        <v>50631</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Nightmare Ender</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -2407,20 +2407,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>50705</v>
+        <v>50631</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Professor's Bloodied Smock</t>
+          <t>Nightmare Ender</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -2428,20 +2428,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>50705</v>
+        <v>50735</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Professor's Bloodied Smock</t>
+          <t>Oathbinder, Charge of the Ranger-General</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -2449,15 +2449,15 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>52029</v>
+        <v>50365</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2470,20 +2470,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -2491,20 +2491,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -2512,20 +2512,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -2533,20 +2533,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -2554,20 +2554,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>52029</v>
+        <v>50705</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Professor's Bloodied Smock</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -2575,20 +2575,20 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>52029</v>
+        <v>50705</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Professor's Bloodied Smock</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -2617,20 +2617,20 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>50674</v>
+        <v>52029</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Raging Behemoth's Shoulderplates</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -2638,20 +2638,20 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -2659,20 +2659,20 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -2680,20 +2680,20 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>50680</v>
+        <v>52029</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Rot-Resistant Breastplate</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -2701,20 +2701,20 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>50734</v>
+        <v>52029</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -2722,20 +2722,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>50717</v>
+        <v>52029</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -2743,20 +2743,20 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>50717</v>
+        <v>52029</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -2764,20 +2764,20 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>50717</v>
+        <v>52029</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -2785,20 +2785,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>50624</v>
+        <v>52029</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Scourge Reaver's Legplates</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -2806,20 +2806,20 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>49623</v>
+        <v>52029</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Shadowmourne</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Legendary</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -2827,20 +2827,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>47673</v>
+        <v>52029</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Sigil of Virulence</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Emblems of Triumph</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -2848,15 +2848,15 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>50633</v>
+        <v>50674</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Raging Behemoth's Shoulderplates</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2869,20 +2869,20 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>50633</v>
+        <v>50664</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -2890,20 +2890,20 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>50633</v>
+        <v>50664</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -2911,15 +2911,15 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>50657</v>
+        <v>50680</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Skeleton Lord's Circle</t>
+          <t>Rot-Resistant Breastplate</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -2932,15 +2932,15 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>47059</v>
+        <v>50734</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Solace of the Defeated</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2953,15 +2953,15 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>47059</v>
+        <v>50734</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Solace of the Defeated</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2969,54 +2969,46 @@
           <t>2</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>47059</v>
+        <v>50717</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Solace of the Defeated</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>37111</v>
+        <v>50717</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Soul Preserver</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -3024,20 +3016,20 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>50635</v>
+        <v>50717</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Sundial of Eternal Dusk</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -3045,20 +3037,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>50635</v>
+        <v>50655</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Sundial of Eternal Dusk</t>
+          <t>Scourge Hunter's Vambraces</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -3066,20 +3058,20 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>50635</v>
+        <v>50624</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Sundial of Eternal Dusk</t>
+          <t>Scourge Reaver's Legplates</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -3087,20 +3079,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>51832</v>
+        <v>49623</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Taiga Bindings</t>
+          <t>Shadowmourne</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Legendary</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -3108,15 +3100,15 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>50670</v>
+        <v>50653</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Shadowvault Slayer's Cloak</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3129,20 +3121,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>50670</v>
+        <v>47673</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Sigil of Virulence</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Emblems of Triumph</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -3150,20 +3142,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>50670</v>
+        <v>50633</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -3171,90 +3163,78 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>46017</v>
+        <v>50633</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>46017</v>
+        <v>50633</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>46017</v>
+        <v>50633</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>50714</v>
+        <v>50657</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Valanar's Other Signet Ring</t>
+          <t>Skeleton Lord's Circle</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3271,11 +3251,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>52028</v>
+        <v>47059</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3288,15 +3268,15 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>52028</v>
+        <v>47059</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3304,20 +3284,24 @@
           <t>2</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>52028</v>
+        <v>47059</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3325,25 +3309,29 @@
           <t>3</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>52028</v>
+        <v>37111</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Soul Preserver</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -3351,20 +3339,20 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>52028</v>
+        <v>50635</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Sundial of Eternal Dusk</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -3376,16 +3364,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>52028</v>
+        <v>50635</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Sundial of Eternal Dusk</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -3393,20 +3381,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>52028</v>
+        <v>50635</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Sundial of Eternal Dusk</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -3414,20 +3402,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>52028</v>
+        <v>51832</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Taiga Bindings</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -3435,20 +3423,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -3456,20 +3444,20 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -3481,16 +3469,16 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -3498,20 +3486,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>52028</v>
+        <v>50711</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Treads of the Wasteland</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -3519,78 +3507,90 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>47545</v>
+        <v>46017</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>47545</v>
+        <v>46017</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>47545</v>
+        <v>46017</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr"/>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>51946</v>
+        <v>50714</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Warmace of Menethil</t>
+          <t>Valanar's Other Signet Ring</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3603,15 +3603,15 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3624,15 +3624,15 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3645,15 +3645,15 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3666,23 +3666,380 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
+          <t>Linacool</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Skotia</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Skotia</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Skotia</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Skotia</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Fuldrak</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Nordton</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Fuldrak</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>51946</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Warmace of Menethil</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Fuldrak</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Nordton</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
           <t>Gosseyn</t>
         </is>
       </c>
-      <c r="B153" t="n">
+      <c r="B170" t="n">
         <v>50677</v>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>Winding Sheet</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2067,20 +2067,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>50700</v>
+        <v>50737</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Holiday's Grace</t>
+          <t>Havoc's Call, Blade of Lordaeron Kings</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -2088,20 +2088,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>50454</v>
+        <v>50700</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Idol of the Black Willow</t>
+          <t>Holiday's Grace</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -2130,15 +2130,15 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>50456</v>
+        <v>50454</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Idol of the Crying Moon</t>
+          <t>Idol of the Black Willow</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2151,20 +2151,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>51882</v>
+        <v>50456</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Kilt of Untreated Wounds</t>
+          <t>Idol of the Crying Moon</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -2172,15 +2172,15 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>50712</v>
+        <v>51882</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Landsoul's Horned Greathelm</t>
+          <t>Kilt of Untreated Wounds</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2193,20 +2193,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>40705</v>
+        <v>50712</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Libram of Renewal</t>
+          <t>Landsoul's Horned Greathelm</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -2214,20 +2214,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>50702</v>
+        <v>40705</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Lingering Illness</t>
+          <t>Libram of Renewal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -2235,7 +2235,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -2256,20 +2256,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>50610</v>
+        <v>50702</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Marrowgar's Frigid Eye</t>
+          <t>Lingering Illness</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -2277,15 +2277,15 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>50636</v>
+        <v>50610</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Memory of Malygos</t>
+          <t>Marrowgar's Frigid Eye</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2298,7 +2298,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -2319,7 +2319,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -2340,40 +2340,36 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>46051</v>
+        <v>50636</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Meteorite Crystal</t>
+          <t>Memory of Malygos</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>50688</v>
+        <v>46051</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Nerub'ar Stalker's Cord</t>
+          <t>Meteorite Crystal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2381,20 +2377,24 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>50631</v>
+        <v>50688</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Nightmare Ender</t>
+          <t>Nerub'ar Stalker's Cord</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2407,7 +2407,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -2428,20 +2428,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>50735</v>
+        <v>50631</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Oathbinder, Charge of the Ranger-General</t>
+          <t>Nightmare Ender</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -2449,15 +2449,15 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>50365</v>
+        <v>50735</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Oathbinder, Charge of the Ranger-General</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2470,15 +2470,15 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2491,7 +2491,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -2512,7 +2512,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -2533,7 +2533,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -2554,20 +2554,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>50705</v>
+        <v>50699</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Professor's Bloodied Smock</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -2575,7 +2575,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -2596,20 +2596,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>52029</v>
+        <v>50705</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Professor's Bloodied Smock</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -2680,7 +2680,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -2764,7 +2764,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -2848,20 +2848,20 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>50674</v>
+        <v>52029</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Raging Behemoth's Shoulderplates</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -2869,15 +2869,15 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>50664</v>
+        <v>50674</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Raging Behemoth's Shoulderplates</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2890,7 +2890,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -2915,16 +2915,16 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>50680</v>
+        <v>50664</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Rot-Resistant Breastplate</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -2932,15 +2932,15 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>50734</v>
+        <v>50680</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Rot-Resistant Breastplate</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2953,7 +2953,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -2974,20 +2974,20 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>50717</v>
+        <v>50734</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -2995,7 +2995,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -3016,7 +3016,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -3037,20 +3037,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>50655</v>
+        <v>50717</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Scourge Hunter's Vambraces</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -3058,15 +3058,15 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>50624</v>
+        <v>50655</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Scourge Reaver's Legplates</t>
+          <t>Scourge Hunter's Vambraces</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3079,20 +3079,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>49623</v>
+        <v>50624</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Shadowmourne</t>
+          <t>Scourge Reaver's Legplates</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Legendary</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -3100,20 +3100,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>50653</v>
+        <v>49623</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Shadowvault Slayer's Cloak</t>
+          <t>Shadowmourne</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Legendary</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -3121,20 +3121,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>47673</v>
+        <v>50653</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Sigil of Virulence</t>
+          <t>Shadowvault Slayer's Cloak</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Emblems of Triumph</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -3142,20 +3142,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>50633</v>
+        <v>47673</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Sigil of Virulence</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Triumph</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -3163,7 +3163,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -3184,7 +3184,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -3205,7 +3205,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -3226,20 +3226,20 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>50657</v>
+        <v>50633</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Skeleton Lord's Circle</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -3247,15 +3247,15 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>47059</v>
+        <v>50657</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Solace of the Defeated</t>
+          <t>Skeleton Lord's Circle</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -3281,19 +3281,15 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -3306,7 +3302,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -3318,41 +3314,45 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>37111</v>
+        <v>47059</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Soul Preserver</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>50635</v>
+        <v>37111</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Sundial of Eternal Dusk</t>
+          <t>Soul Preserver</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -3360,7 +3360,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -3381,7 +3381,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -3402,20 +3402,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>51832</v>
+        <v>50635</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Taiga Bindings</t>
+          <t>Sundial of Eternal Dusk</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -3423,15 +3423,15 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>50670</v>
+        <v>51832</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Taiga Bindings</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3444,7 +3444,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -3465,7 +3465,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -3486,20 +3486,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>50711</v>
+        <v>50670</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Treads of the Wasteland</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -3507,32 +3507,28 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>46017</v>
+        <v>50711</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Treads of the Wasteland</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -3557,7 +3553,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -3582,36 +3578,40 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>50714</v>
+        <v>46017</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Valanar's Other Signet Ring</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr"/>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>52028</v>
+        <v>50714</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Valanar's Other Signet Ring</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -3687,7 +3687,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -3855,20 +3855,20 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -3876,7 +3876,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
@@ -3897,7 +3897,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
@@ -3918,20 +3918,20 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>51946</v>
+        <v>47545</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Warmace of Menethil</t>
+          <t>Vereesa's Dexterity</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E165" t="inlineStr"/>
@@ -3943,11 +3943,11 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>50343</v>
+        <v>51946</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Warmace of Menethil</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -3960,7 +3960,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E167" t="inlineStr"/>
@@ -3981,7 +3981,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
@@ -4002,7 +4002,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
@@ -4023,23 +4023,44 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
           <t>Gosseyn</t>
         </is>
       </c>
-      <c r="B170" t="n">
+      <c r="B171" t="n">
         <v>50677</v>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>Winding Sheet</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,15 +631,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52572</v>
+        <v>50398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Might</t>
+          <t>Ashen Band of Endless Destruction</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -652,15 +652,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50402</v>
+        <v>52572</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Vengeance</t>
+          <t>Ashen Band of Endless Might</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -673,7 +673,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -715,7 +715,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -736,15 +736,15 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50400</v>
+        <v>50402</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Wisdom</t>
+          <t>Ashen Band of Endless Vengeance</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -757,7 +757,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -778,7 +778,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -799,20 +799,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50707</v>
+        <v>50400</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Astrylian's Sutured Cinch</t>
+          <t>Ashen Band of Endless Wisdom</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Reputation</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -824,11 +824,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50604</v>
+        <v>50707</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Band of the Bone Colossus</t>
+          <t>Astrylian's Sutured Cinch</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -841,7 +841,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -854,7 +854,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>50458</v>
+        <v>50604</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Bizuri's Totem of Shattered Ice</t>
+          <t>Band of the Bone Colossus</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -883,20 +883,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49894</v>
+        <v>50691</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Blessed Cenarion Boots</t>
+          <t>Belt of Broken Bones</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Craft</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -904,20 +904,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50724</v>
+        <v>50458</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Blood Queen's Crimson Choker</t>
+          <t>Bizuri's Totem of Shattered Ice</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -925,20 +925,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50639</v>
+        <v>49894</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Blood-Soaked Saronite Stompers</t>
+          <t>Blessed Cenarion Boots</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Craft</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -946,20 +946,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Blood-Soaked Saronite Stompers</t>
+          <t>Blood Queen's Crimson Choker</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -967,20 +967,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Blood-Soaked Saronite Stompers</t>
+          <t>Blood Queen's Crimson Choker</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -988,15 +988,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>50732</v>
+        <v>50639</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
+          <t>Blood-Soaked Saronite Stompers</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1009,20 +1009,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50609</v>
+        <v>50639</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Bone Sentinel's Amulet</t>
+          <t>Blood-Soaked Saronite Stompers</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1030,20 +1030,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>50609</v>
+        <v>50639</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Bone Sentinel's Amulet</t>
+          <t>Blood-Soaked Saronite Stompers</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1051,15 +1051,15 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>50630</v>
+        <v>50732</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Bracers of Eternal Dreaming</t>
+          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1072,15 +1072,15 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50630</v>
+        <v>50732</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Bracers of Eternal Dreaming</t>
+          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1093,15 +1093,15 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50616</v>
+        <v>50609</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bulwark of Smouldering Steel</t>
+          <t>Bone Sentinel's Amulet</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1114,40 +1114,36 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>47146</v>
+        <v>50609</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Chalice of Searing Light</t>
+          <t>Bone Sentinel's Amulet</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50620</v>
+        <v>50660</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Coldwraith Links</t>
+          <t>Boneguard Commander's Pauldrons</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1160,20 +1156,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50620</v>
+        <v>50611</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Coldwraith Links</t>
+          <t>Bracers of Dark Reckoning</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1181,20 +1177,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>50620</v>
+        <v>50630</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Coldwraith Links</t>
+          <t>Bracers of Eternal Dreaming</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1202,20 +1198,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>51842</v>
+        <v>50630</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Collar of Haughty Disdain</t>
+          <t>Bracers of Eternal Dreaming</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1223,15 +1219,15 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>52030</v>
+        <v>50640</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Broken Ram Skull Helm</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1244,20 +1240,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>52030</v>
+        <v>50616</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Bulwark of Smouldering Steel</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1269,37 +1265,41 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52030</v>
+        <v>47146</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Chalice of Searing Light</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Coldwraith Links</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -1307,20 +1307,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Coldwraith Links</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1328,20 +1328,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Coldwraith Links</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1349,20 +1349,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>52030</v>
+        <v>51842</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Collar of Haughty Disdain</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -1370,7 +1370,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1391,7 +1391,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1412,7 +1412,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1433,20 +1433,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>51928</v>
+        <v>52030</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Corrupted Silverplate Leggings</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -1458,16 +1458,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>50613</v>
+        <v>52030</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -1479,16 +1479,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>50721</v>
+        <v>52030</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Crypt Keeper's Bracers</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -1496,20 +1496,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>50686</v>
+        <v>52030</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Death Surgeon's Sleeves</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -1521,16 +1521,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>50686</v>
+        <v>52030</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Death Surgeon's Sleeves</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1538,45 +1538,41 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>47131</v>
+        <v>52030</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Death's Verdict</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>50363</v>
+        <v>52030</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -1584,20 +1580,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>50363</v>
+        <v>52030</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -1605,20 +1601,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>50363</v>
+        <v>52030</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -1626,20 +1622,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>50363</v>
+        <v>50684</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Corpse-Impaling Spike</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -1647,20 +1643,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>50363</v>
+        <v>50356</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Corroded Skeleton Key</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -1668,15 +1664,15 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>50348</v>
+        <v>51928</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Corrupted Silverplate Leggings</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1689,15 +1685,15 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>50733</v>
+        <v>50613</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1710,15 +1706,15 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>50733</v>
+        <v>50613</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1735,11 +1731,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>50650</v>
+        <v>50721</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Fallen Lord's Handguards</t>
+          <t>Crypt Keeper's Bracers</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1752,15 +1748,15 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>50690</v>
+        <v>50686</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Fleshrending Gauntlets</t>
+          <t>Death Surgeon's Sleeves</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1773,20 +1769,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>50628</v>
+        <v>50686</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Death Surgeon's Sleeves</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -1794,36 +1790,40 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>50628</v>
+        <v>47131</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Death's Verdict</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>50607</v>
+        <v>50363</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Frostbitten Fur Boots</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1840,16 +1840,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>50618</v>
+        <v>50363</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -1861,16 +1861,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>50618</v>
+        <v>50363</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -1878,20 +1878,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>50606</v>
+        <v>50363</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Gendarme's Cuirass</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -1899,20 +1899,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>50730</v>
+        <v>50363</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Glorenzelg, High-Blade of the Silver Hand</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -1920,20 +1920,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>50730</v>
+        <v>50622</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Glorenzelg, High-Blade of the Silver Hand</t>
+          <t>Devium's Eternally Cold Ring</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -1941,15 +1941,15 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>50668</v>
+        <v>50348</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Greatcloak of the Turned Champion</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1962,15 +1962,15 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>50668</v>
+        <v>50348</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Greatcloak of the Turned Champion</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1983,20 +1983,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>50668</v>
+        <v>50733</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Greatcloak of the Turned Champion</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -2004,20 +2004,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>50737</v>
+        <v>50733</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Havoc's Call, Blade of Lordaeron Kings</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -2025,20 +2025,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>50737</v>
+        <v>50650</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Havoc's Call, Blade of Lordaeron Kings</t>
+          <t>Fallen Lord's Handguards</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -2046,20 +2046,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>50737</v>
+        <v>50690</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Havoc's Call, Blade of Lordaeron Kings</t>
+          <t>Fleshrending Gauntlets</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -2067,20 +2067,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>50737</v>
+        <v>50628</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Havoc's Call, Blade of Lordaeron Kings</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -2088,20 +2088,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>50700</v>
+        <v>50628</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Holiday's Grace</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -2109,20 +2109,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>50454</v>
+        <v>50628</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Idol of the Black Willow</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -2130,20 +2130,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>50454</v>
+        <v>50607</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Idol of the Black Willow</t>
+          <t>Frostbitten Fur Boots</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -2151,20 +2151,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>50456</v>
+        <v>50618</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Idol of the Crying Moon</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -2172,20 +2172,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>51882</v>
+        <v>50618</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Kilt of Untreated Wounds</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -2197,11 +2197,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>50712</v>
+        <v>50606</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Landsoul's Horned Greathelm</t>
+          <t>Gendarme's Cuirass</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2214,20 +2214,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>40705</v>
+        <v>50730</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Libram of Renewal</t>
+          <t>Glorenzelg, High-Blade of the Silver Hand</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -2235,20 +2235,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>50702</v>
+        <v>50730</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Lingering Illness</t>
+          <t>Glorenzelg, High-Blade of the Silver Hand</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -2256,20 +2256,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>50702</v>
+        <v>50668</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Lingering Illness</t>
+          <t>Greatcloak of the Turned Champion</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -2281,16 +2281,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>50610</v>
+        <v>50668</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Marrowgar's Frigid Eye</t>
+          <t>Greatcloak of the Turned Champion</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -2298,20 +2298,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>50636</v>
+        <v>50668</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Memory of Malygos</t>
+          <t>Greatcloak of the Turned Champion</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -2319,20 +2319,20 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>50636</v>
+        <v>50625</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Memory of Malygos</t>
+          <t>Grinning Skull Greatboots</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -2340,20 +2340,20 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>50636</v>
+        <v>50737</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Memory of Malygos</t>
+          <t>Havoc's Call, Blade of Lordaeron Kings</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -2361,27 +2361,23 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>46051</v>
+        <v>50737</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Meteorite Crystal</t>
+          <t>Havoc's Call, Blade of Lordaeron Kings</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2390,16 +2386,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>50688</v>
+        <v>50737</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Nerub'ar Stalker's Cord</t>
+          <t>Havoc's Call, Blade of Lordaeron Kings</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -2407,20 +2403,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>50631</v>
+        <v>50737</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Nightmare Ender</t>
+          <t>Havoc's Call, Blade of Lordaeron Kings</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -2428,20 +2424,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>50631</v>
+        <v>50700</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Nightmare Ender</t>
+          <t>Holiday's Grace</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -2449,15 +2445,15 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>50735</v>
+        <v>50729</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Oathbinder, Charge of the Ranger-General</t>
+          <t>Icecrown Glacial Wall</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2470,20 +2466,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>50365</v>
+        <v>50454</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Idol of the Black Willow</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -2491,20 +2487,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>50699</v>
+        <v>50454</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Idol of the Black Willow</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -2512,20 +2508,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>50699</v>
+        <v>50456</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Idol of the Crying Moon</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -2533,20 +2529,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>50699</v>
+        <v>50642</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Juggernaut Band</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -2554,20 +2550,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>50699</v>
+        <v>51882</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Kilt of Untreated Wounds</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -2575,15 +2571,15 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>50705</v>
+        <v>50712</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Professor's Bloodied Smock</t>
+          <t>Landsoul's Horned Greathelm</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2596,20 +2592,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>50705</v>
+        <v>40705</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Professor's Bloodied Smock</t>
+          <t>Libram of Renewal</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -2617,20 +2613,20 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>52029</v>
+        <v>50461</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Libram of the Eternal Tower</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -2638,20 +2634,20 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>52029</v>
+        <v>50702</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Lingering Illness</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -2659,20 +2655,20 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>52029</v>
+        <v>50702</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Lingering Illness</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -2680,20 +2676,20 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>52029</v>
+        <v>50610</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Marrowgar's Frigid Eye</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -2701,20 +2697,20 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>52029</v>
+        <v>50636</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Memory of Malygos</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -2722,20 +2718,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>52029</v>
+        <v>50636</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Memory of Malygos</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -2743,20 +2739,20 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>52029</v>
+        <v>50636</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Memory of Malygos</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -2764,41 +2760,45 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>52029</v>
+        <v>46051</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Meteorite Crystal</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>52029</v>
+        <v>50738</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Mithrios, Bronzebeard's Legacy</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -2810,16 +2810,16 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>52029</v>
+        <v>50688</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Nerub'ar Stalker's Cord</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -2827,20 +2827,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>52029</v>
+        <v>50631</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Nightmare Ender</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -2848,20 +2848,20 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>52029</v>
+        <v>50631</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Nightmare Ender</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -2869,15 +2869,15 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>50674</v>
+        <v>50627</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Raging Behemoth's Shoulderplates</t>
+          <t>Noose of Malachite</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2890,15 +2890,15 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>50664</v>
+        <v>50735</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Oathbinder, Charge of the Ranger-General</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2911,20 +2911,20 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>50664</v>
+        <v>50365</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -2932,15 +2932,15 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>50680</v>
+        <v>50699</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Rot-Resistant Breastplate</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2953,20 +2953,20 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>50734</v>
+        <v>50699</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -2974,20 +2974,20 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>50734</v>
+        <v>50699</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -2995,20 +2995,20 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>50717</v>
+        <v>50699</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -3016,20 +3016,20 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>50717</v>
+        <v>50699</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -3037,20 +3037,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>50717</v>
+        <v>50705</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>Professor's Bloodied Smock</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -3058,20 +3058,20 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>50655</v>
+        <v>50705</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Scourge Hunter's Vambraces</t>
+          <t>Professor's Bloodied Smock</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -3079,15 +3079,15 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>50624</v>
+        <v>52029</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Scourge Reaver's Legplates</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3100,20 +3100,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>49623</v>
+        <v>52029</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Shadowmourne</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Legendary</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -3121,20 +3121,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>50653</v>
+        <v>52029</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Shadowvault Slayer's Cloak</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -3142,20 +3142,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>47673</v>
+        <v>52029</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Sigil of Virulence</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Emblems of Triumph</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -3163,20 +3163,20 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>50633</v>
+        <v>52029</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -3188,16 +3188,16 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>50633</v>
+        <v>52029</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -3205,20 +3205,20 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>50633</v>
+        <v>52029</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -3226,20 +3226,20 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>50633</v>
+        <v>52029</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -3247,20 +3247,20 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>50657</v>
+        <v>52029</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Skeleton Lord's Circle</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -3268,20 +3268,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>47059</v>
+        <v>52029</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Solace of the Defeated</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -3289,70 +3289,62 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>47059</v>
+        <v>52029</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Solace of the Defeated</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>47059</v>
+        <v>52029</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Solace of the Defeated</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>37111</v>
+        <v>50674</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Soul Preserver</t>
+          <t>Raging Behemoth's Shoulderplates</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -3360,15 +3352,15 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>50635</v>
+        <v>47188</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Sundial of Eternal Dusk</t>
+          <t>Reign of the Unliving</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3381,20 +3373,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>50635</v>
+        <v>50664</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Sundial of Eternal Dusk</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -3402,20 +3394,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>50635</v>
+        <v>50664</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Sundial of Eternal Dusk</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -3423,20 +3415,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>51832</v>
+        <v>50664</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Taiga Bindings</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -3444,15 +3436,15 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>50670</v>
+        <v>50680</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Rot-Resistant Breastplate</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3465,20 +3457,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>50670</v>
+        <v>50718</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Royal Crimson Cloak</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -3486,20 +3478,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>50670</v>
+        <v>50734</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -3511,16 +3503,16 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>50711</v>
+        <v>50734</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Treads of the Wasteland</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
@@ -3528,52 +3520,44 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>46017</v>
+        <v>50722</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>San'layn Ritualist Gloves</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>46017</v>
+        <v>50717</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3582,23 +3566,19 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>46017</v>
+        <v>50717</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3607,16 +3587,16 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>50714</v>
+        <v>50717</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Valanar's Other Signet Ring</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
@@ -3624,15 +3604,15 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>52028</v>
+        <v>50655</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Scourge Hunter's Vambraces</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3645,20 +3625,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>52028</v>
+        <v>50624</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Scourge Reaver's Legplates</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
@@ -3666,20 +3646,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>52028</v>
+        <v>50719</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -3687,20 +3667,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>52028</v>
+        <v>49623</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Shadowmourne</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Legendary</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -3708,20 +3688,20 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>52028</v>
+        <v>50653</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Shadowvault Slayer's Cloak</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
@@ -3729,20 +3709,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>52028</v>
+        <v>47673</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Sigil of Virulence</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Emblems of Triumph</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -3750,20 +3730,20 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>52028</v>
+        <v>50633</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
@@ -3771,20 +3751,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>52028</v>
+        <v>50633</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
@@ -3796,16 +3776,16 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>52028</v>
+        <v>50633</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
@@ -3813,20 +3793,20 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>52028</v>
+        <v>50633</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -3834,20 +3814,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>52028</v>
+        <v>50364</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Sindragosa's Flawless Fang</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -3855,20 +3835,20 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>52028</v>
+        <v>50657</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Skeleton Lord's Circle</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -3876,15 +3856,15 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>47545</v>
+        <v>47059</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -3897,15 +3877,15 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>47545</v>
+        <v>47059</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -3913,20 +3893,24 @@
           <t>2</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>47545</v>
+        <v>47059</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -3934,25 +3918,29 @@
           <t>3</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>51946</v>
+        <v>37111</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Warmace of Menethil</t>
+          <t>Soul Preserver</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="E166" t="inlineStr"/>
@@ -3960,15 +3948,15 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>50343</v>
+        <v>50635</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Sundial of Eternal Dusk</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -3981,15 +3969,15 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>50343</v>
+        <v>50635</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Sundial of Eternal Dusk</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4002,15 +3990,15 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>50343</v>
+        <v>50635</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Sundial of Eternal Dusk</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4023,20 +4011,20 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>50343</v>
+        <v>51832</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Taiga Bindings</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E170" t="inlineStr"/>
@@ -4044,23 +4032,749 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
+          <t>Krikhammer</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>50716</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Taldaram's Plated Fists</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Euphemià</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>50651</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>The Lady's Brittle Bracers</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Fuldrak</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>50670</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Toskk's Maximized Wristguards</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Nordton</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>50670</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Toskk's Maximized Wristguards</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>50670</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Toskk's Maximized Wristguards</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>50711</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Treads of the Wasteland</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Linacool</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>46017</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Seina</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>46017</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Skotia</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>46017</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Supermerguez</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>50714</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Valanar's Other Signet Ring</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Linacool</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Linacool</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Linacool</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Linacool</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Skotia</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Skotia</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Skotia</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Skotia</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Euphemià</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Euphemià</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Euphemià</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Euphemià</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Fuldrak</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Nordton</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Fuldrak</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>51946</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Warmace of Menethil</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Fuldrak</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Nordton</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
           <t>Gosseyn</t>
         </is>
       </c>
-      <c r="B171" t="n">
+      <c r="B205" t="n">
         <v>50677</v>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Winding Sheet</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ABC061-D2D5-4D2F-BA3B-BC8BC45880F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E8DE51-0693-4ADA-B6E9-651AC5C46225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="166">
   <si>
     <t>player</t>
   </si>
@@ -109,6 +109,9 @@
     <t>Reputation</t>
   </si>
   <si>
+    <t>Äspï</t>
+  </si>
+  <si>
     <t>Ashen Band of Endless Destruction</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
     <t>Ashen Band of Endless Might</t>
   </si>
   <si>
+    <t>Aurallia</t>
+  </si>
+  <si>
     <t>Ashen Band of Endless Vengeance</t>
   </si>
   <si>
@@ -316,6 +322,9 @@
     <t>Last Word</t>
   </si>
   <si>
+    <t>Leggings of Northern Lights</t>
+  </si>
+  <si>
     <t>Libram of Defiance</t>
   </si>
   <si>
@@ -388,12 +397,27 @@
     <t>20</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>Reign of the Unliving</t>
   </si>
   <si>
     <t>Ring of Rapid Ascent</t>
   </si>
   <si>
+    <t>Robe of the Waking Nightmare</t>
+  </si>
+  <si>
     <t>Rot-Resistant Breastplate</t>
   </si>
   <si>
@@ -472,16 +496,16 @@
     <t>Vanquisher's Mark of Sanctification</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>Vereesa's Dexterity</t>
@@ -856,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E273"/>
+  <dimension ref="A1:E306"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,13 +1089,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>50398</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -1079,13 +1103,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>50398</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
@@ -1093,13 +1117,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B17">
-        <v>52572</v>
+        <v>50398</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
@@ -1107,10 +1131,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>50402</v>
+        <v>52572</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -1121,13 +1145,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>50402</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
@@ -1135,13 +1159,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>50402</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
@@ -1155,7 +1179,7 @@
         <v>50402</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
@@ -1163,13 +1187,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>50402</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1177,13 +1201,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>50400</v>
+        <v>50402</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
@@ -1191,13 +1215,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>50402</v>
+      </c>
+      <c r="C24" t="s">
         <v>34</v>
-      </c>
-      <c r="B24">
-        <v>50400</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
@@ -1211,7 +1235,7 @@
         <v>50400</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -1219,52 +1243,52 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <v>50707</v>
+        <v>50400</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B27">
-        <v>50604</v>
+        <v>50400</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>50604</v>
+        <v>50707</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>50691</v>
+        <v>50604</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
@@ -1275,10 +1299,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>50691</v>
+        <v>50604</v>
       </c>
       <c r="C30" t="s">
         <v>38</v>
@@ -1289,13 +1313,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>50682</v>
+        <v>50691</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1303,38 +1327,38 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B32">
-        <v>50458</v>
+        <v>50691</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B33">
-        <v>50458</v>
+        <v>50682</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>49894</v>
+        <v>50458</v>
       </c>
       <c r="C34" t="s">
         <v>42</v>
@@ -1345,41 +1369,41 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>50724</v>
+        <v>50458</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B36">
-        <v>50724</v>
+        <v>49894</v>
       </c>
       <c r="C36" t="s">
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -1387,13 +1411,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B38">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -1401,13 +1425,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B39">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
@@ -1415,80 +1439,80 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>50639</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>50639</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>50687</v>
+        <v>50639</v>
       </c>
       <c r="C42" t="s">
         <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B43">
-        <v>50732</v>
+        <v>50639</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B44">
-        <v>50732</v>
+        <v>50639</v>
       </c>
       <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
         <v>48</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B45">
-        <v>50672</v>
+        <v>50687</v>
       </c>
       <c r="C45" t="s">
         <v>49</v>
@@ -1499,94 +1523,94 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B46">
-        <v>50672</v>
+        <v>50732</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B47">
-        <v>50672</v>
+        <v>50732</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B48">
-        <v>50609</v>
+        <v>50732</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B49">
-        <v>50609</v>
+        <v>50672</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B50">
-        <v>50660</v>
+        <v>50672</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B51">
-        <v>50660</v>
+        <v>50672</v>
       </c>
       <c r="C51" t="s">
         <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B52">
-        <v>50611</v>
+        <v>50609</v>
       </c>
       <c r="C52" t="s">
         <v>52</v>
@@ -1597,10 +1621,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B53">
-        <v>50611</v>
+        <v>50609</v>
       </c>
       <c r="C53" t="s">
         <v>52</v>
@@ -1611,10 +1635,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B54">
-        <v>50630</v>
+        <v>50660</v>
       </c>
       <c r="C54" t="s">
         <v>53</v>
@@ -1625,10 +1649,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B55">
-        <v>50630</v>
+        <v>50660</v>
       </c>
       <c r="C55" t="s">
         <v>53</v>
@@ -1639,10 +1663,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B56">
-        <v>50640</v>
+        <v>50611</v>
       </c>
       <c r="C56" t="s">
         <v>54</v>
@@ -1653,58 +1677,55 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B57">
-        <v>50616</v>
+        <v>50611</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B58">
-        <v>50616</v>
+        <v>50630</v>
       </c>
       <c r="C58" t="s">
         <v>55</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B59">
-        <v>47146</v>
+        <v>50630</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B60">
-        <v>50620</v>
+        <v>50640</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1712,1069 +1733,1075 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B61">
-        <v>50620</v>
+        <v>50616</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B62">
-        <v>50620</v>
+        <v>50616</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B63">
-        <v>50620</v>
+        <v>47146</v>
       </c>
       <c r="C63" t="s">
         <v>58</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B64">
         <v>50620</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D64" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B65">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B66">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B67">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B68">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B69">
         <v>52030</v>
       </c>
       <c r="C69" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D69" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B70">
         <v>52030</v>
       </c>
       <c r="C70" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D70" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B71">
         <v>52030</v>
       </c>
       <c r="C71" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D71" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B72">
         <v>52030</v>
       </c>
       <c r="C72" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D72" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B73">
         <v>52030</v>
       </c>
       <c r="C73" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D73" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B74">
         <v>52030</v>
       </c>
       <c r="C74" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D74" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B75">
         <v>52030</v>
       </c>
       <c r="C75" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B76">
         <v>52030</v>
       </c>
       <c r="C76" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B77">
         <v>52030</v>
       </c>
       <c r="C77" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D77" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B78">
         <v>52030</v>
       </c>
       <c r="C78" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D78" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B79">
         <v>52030</v>
       </c>
       <c r="C79" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D79" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B80">
         <v>52030</v>
       </c>
       <c r="C80" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D80" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81">
+        <v>52030</v>
+      </c>
+      <c r="C81" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82">
+        <v>52030</v>
+      </c>
+      <c r="C82" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>30</v>
-      </c>
-      <c r="B81">
-        <v>50684</v>
-      </c>
-      <c r="C81" t="s">
-        <v>71</v>
-      </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>37</v>
-      </c>
-      <c r="B82">
-        <v>50356</v>
-      </c>
-      <c r="C82" t="s">
-        <v>72</v>
-      </c>
-      <c r="D82" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>26</v>
       </c>
       <c r="B83">
+        <v>52030</v>
+      </c>
+      <c r="C83" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84">
+        <v>52030</v>
+      </c>
+      <c r="C84" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85">
+        <v>50684</v>
+      </c>
+      <c r="C85" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86">
+        <v>50684</v>
+      </c>
+      <c r="C86" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87">
         <v>50356</v>
-      </c>
-      <c r="C83" t="s">
-        <v>72</v>
-      </c>
-      <c r="D83" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>34</v>
-      </c>
-      <c r="B84">
-        <v>51928</v>
-      </c>
-      <c r="C84" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85">
-        <v>50613</v>
-      </c>
-      <c r="C85" t="s">
-        <v>74</v>
-      </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>30</v>
-      </c>
-      <c r="B86">
-        <v>50613</v>
-      </c>
-      <c r="C86" t="s">
-        <v>74</v>
-      </c>
-      <c r="D86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87">
-        <v>50613</v>
       </c>
       <c r="C87" t="s">
         <v>74</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B88">
-        <v>50721</v>
+        <v>50356</v>
       </c>
       <c r="C88" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89">
+        <v>51928</v>
+      </c>
+      <c r="C89" t="s">
         <v>75</v>
       </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>17</v>
-      </c>
-      <c r="B89">
-        <v>50686</v>
-      </c>
-      <c r="C89" t="s">
-        <v>76</v>
-      </c>
       <c r="D89" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B90">
-        <v>50686</v>
+        <v>50613</v>
       </c>
       <c r="C90" t="s">
         <v>76</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B91">
-        <v>47131</v>
+        <v>50613</v>
       </c>
       <c r="C91" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92">
+        <v>50613</v>
+      </c>
+      <c r="C92" t="s">
+        <v>76</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93">
+        <v>50613</v>
+      </c>
+      <c r="C93" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94">
+        <v>50721</v>
+      </c>
+      <c r="C94" t="s">
         <v>77</v>
       </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>15</v>
-      </c>
-      <c r="B92">
-        <v>47131</v>
-      </c>
-      <c r="C92" t="s">
-        <v>77</v>
-      </c>
-      <c r="D92" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93">
-        <v>47131</v>
-      </c>
-      <c r="C93" t="s">
-        <v>77</v>
-      </c>
-      <c r="D93" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94">
-        <v>50363</v>
-      </c>
-      <c r="C94" t="s">
-        <v>78</v>
-      </c>
       <c r="D94" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B95">
-        <v>50363</v>
+        <v>50686</v>
       </c>
       <c r="C95" t="s">
         <v>78</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B96">
-        <v>50363</v>
+        <v>50686</v>
       </c>
       <c r="C96" t="s">
         <v>78</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B97">
-        <v>50363</v>
+        <v>50686</v>
       </c>
       <c r="C97" t="s">
         <v>78</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>5</v>
       </c>
       <c r="B98">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C98" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D98" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>15</v>
       </c>
       <c r="B99">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C99" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D99" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="E99" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>8</v>
       </c>
       <c r="B100">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C100" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D100" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B101">
-        <v>50622</v>
+        <v>47131</v>
       </c>
       <c r="C101" t="s">
         <v>79</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="E101" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B102">
-        <v>50622</v>
+        <v>50363</v>
       </c>
       <c r="C102" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B103">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C103" t="s">
         <v>80</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B104">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C104" t="s">
         <v>80</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B105">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C105" t="s">
         <v>80</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B106">
-        <v>50733</v>
+        <v>50363</v>
       </c>
       <c r="C106" t="s">
+        <v>80</v>
+      </c>
+      <c r="D106" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107">
+        <v>50363</v>
+      </c>
+      <c r="C107" t="s">
+        <v>80</v>
+      </c>
+      <c r="D107" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108">
+        <v>50363</v>
+      </c>
+      <c r="C108" t="s">
+        <v>80</v>
+      </c>
+      <c r="D108" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109">
+        <v>50363</v>
+      </c>
+      <c r="C109" t="s">
+        <v>80</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110">
+        <v>50622</v>
+      </c>
+      <c r="C110" t="s">
         <v>81</v>
       </c>
-      <c r="D106" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>12</v>
-      </c>
-      <c r="B107">
-        <v>50733</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111">
+        <v>50622</v>
+      </c>
+      <c r="C111" t="s">
         <v>81</v>
       </c>
-      <c r="D107" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108">
-        <v>50733</v>
-      </c>
-      <c r="C108" t="s">
-        <v>81</v>
-      </c>
-      <c r="D108" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>34</v>
-      </c>
-      <c r="B109">
-        <v>50650</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112">
+        <v>50348</v>
+      </c>
+      <c r="C112" t="s">
         <v>82</v>
       </c>
-      <c r="D109" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>17</v>
-      </c>
-      <c r="B110">
-        <v>50628</v>
-      </c>
-      <c r="C110" t="s">
-        <v>83</v>
-      </c>
-      <c r="D110" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>34</v>
-      </c>
-      <c r="B111">
-        <v>50628</v>
-      </c>
-      <c r="C111" t="s">
-        <v>83</v>
-      </c>
-      <c r="D111" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>30</v>
-      </c>
-      <c r="B112">
-        <v>50628</v>
-      </c>
-      <c r="C112" t="s">
-        <v>83</v>
-      </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B113">
-        <v>50628</v>
+        <v>50348</v>
       </c>
       <c r="C113" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B114">
-        <v>50607</v>
+        <v>50348</v>
       </c>
       <c r="C114" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D114" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B115">
-        <v>50618</v>
+        <v>50348</v>
       </c>
       <c r="C115" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B116">
-        <v>50618</v>
+        <v>50733</v>
       </c>
       <c r="C116" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B117">
-        <v>50618</v>
+        <v>50733</v>
       </c>
       <c r="C117" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B118">
-        <v>50730</v>
+        <v>50733</v>
       </c>
       <c r="C118" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B119">
-        <v>50730</v>
+        <v>50733</v>
       </c>
       <c r="C119" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B120">
-        <v>50730</v>
+        <v>50650</v>
       </c>
       <c r="C120" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D120" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B121">
-        <v>50730</v>
+        <v>50628</v>
       </c>
       <c r="C121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B122">
-        <v>50668</v>
+        <v>50628</v>
       </c>
       <c r="C122" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D122" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B123">
-        <v>50668</v>
+        <v>50628</v>
       </c>
       <c r="C123" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B124">
-        <v>50668</v>
+        <v>50628</v>
       </c>
       <c r="C124" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D124" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B125">
-        <v>50625</v>
+        <v>50628</v>
       </c>
       <c r="C125" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B126">
-        <v>50625</v>
+        <v>50607</v>
       </c>
       <c r="C126" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B127">
-        <v>50737</v>
+        <v>50607</v>
       </c>
       <c r="C127" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B128">
-        <v>50737</v>
+        <v>50618</v>
       </c>
       <c r="C128" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B129">
-        <v>50700</v>
+        <v>50618</v>
       </c>
       <c r="C129" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B130">
-        <v>50698</v>
+        <v>50618</v>
       </c>
       <c r="C130" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B131">
-        <v>50729</v>
+        <v>50618</v>
       </c>
       <c r="C131" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B132">
-        <v>50729</v>
+        <v>50730</v>
       </c>
       <c r="C132" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B133">
-        <v>50454</v>
+        <v>50730</v>
       </c>
       <c r="C133" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D133" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B134">
-        <v>50454</v>
+        <v>50730</v>
       </c>
       <c r="C134" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D134" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B135">
-        <v>50456</v>
+        <v>50730</v>
       </c>
       <c r="C135" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D135" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B136">
-        <v>50642</v>
+        <v>50668</v>
       </c>
       <c r="C136" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
@@ -2782,44 +2809,44 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B137">
-        <v>51882</v>
+        <v>50668</v>
       </c>
       <c r="C137" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D137" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B138">
-        <v>50708</v>
+        <v>50668</v>
       </c>
       <c r="C138" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D138" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B139">
-        <v>50708</v>
+        <v>50625</v>
       </c>
       <c r="C139" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -2827,41 +2854,41 @@
         <v>26</v>
       </c>
       <c r="B140">
-        <v>47664</v>
+        <v>50625</v>
       </c>
       <c r="C140" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D140" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B141">
-        <v>40705</v>
+        <v>50737</v>
       </c>
       <c r="C141" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D141" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B142">
-        <v>50461</v>
+        <v>50737</v>
       </c>
       <c r="C142" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D142" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -2869,10 +2896,10 @@
         <v>17</v>
       </c>
       <c r="B143">
-        <v>50702</v>
+        <v>50700</v>
       </c>
       <c r="C143" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
@@ -2880,778 +2907,775 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>23</v>
+      </c>
+      <c r="B144">
+        <v>50698</v>
+      </c>
+      <c r="C144" t="s">
+        <v>93</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>39</v>
+      </c>
+      <c r="B145">
+        <v>50729</v>
+      </c>
+      <c r="C145" t="s">
+        <v>94</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>26</v>
+      </c>
+      <c r="B146">
+        <v>50729</v>
+      </c>
+      <c r="C146" t="s">
+        <v>94</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147">
+        <v>50454</v>
+      </c>
+      <c r="C147" t="s">
+        <v>95</v>
+      </c>
+      <c r="D147" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>20</v>
+      </c>
+      <c r="B148">
+        <v>50454</v>
+      </c>
+      <c r="C148" t="s">
+        <v>95</v>
+      </c>
+      <c r="D148" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149">
+        <v>50456</v>
+      </c>
+      <c r="C149" t="s">
+        <v>96</v>
+      </c>
+      <c r="D149" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B150">
+        <v>50642</v>
+      </c>
+      <c r="C150" t="s">
+        <v>97</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151">
+        <v>51882</v>
+      </c>
+      <c r="C151" t="s">
+        <v>98</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152">
+        <v>50708</v>
+      </c>
+      <c r="C152" t="s">
+        <v>99</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153">
+        <v>50708</v>
+      </c>
+      <c r="C153" t="s">
+        <v>99</v>
+      </c>
+      <c r="D153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>33</v>
+      </c>
+      <c r="B154">
+        <v>50645</v>
+      </c>
+      <c r="C154" t="s">
+        <v>100</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>26</v>
+      </c>
+      <c r="B155">
+        <v>47664</v>
+      </c>
+      <c r="C155" t="s">
+        <v>101</v>
+      </c>
+      <c r="D155" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>36</v>
+      </c>
+      <c r="B156">
+        <v>40705</v>
+      </c>
+      <c r="C156" t="s">
+        <v>103</v>
+      </c>
+      <c r="D156" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>39</v>
+      </c>
+      <c r="B157">
+        <v>50461</v>
+      </c>
+      <c r="C157" t="s">
+        <v>105</v>
+      </c>
+      <c r="D157" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>17</v>
+      </c>
+      <c r="B158">
+        <v>50702</v>
+      </c>
+      <c r="C158" t="s">
+        <v>106</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>21</v>
       </c>
-      <c r="B144">
+      <c r="B159">
         <v>50702</v>
       </c>
-      <c r="C144" t="s">
-        <v>103</v>
-      </c>
-      <c r="D144" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="C159" t="s">
+        <v>106</v>
+      </c>
+      <c r="D159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>20</v>
       </c>
-      <c r="B145">
+      <c r="B160">
         <v>50610</v>
       </c>
-      <c r="C145" t="s">
-        <v>104</v>
-      </c>
-      <c r="D145" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="C160" t="s">
+        <v>107</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>19</v>
       </c>
-      <c r="B146">
+      <c r="B161">
         <v>50636</v>
       </c>
-      <c r="C146" t="s">
-        <v>105</v>
-      </c>
-      <c r="D146" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>20</v>
-      </c>
-      <c r="B147">
-        <v>50636</v>
-      </c>
-      <c r="C147" t="s">
-        <v>105</v>
-      </c>
-      <c r="D147" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>21</v>
-      </c>
-      <c r="B148">
-        <v>50636</v>
-      </c>
-      <c r="C148" t="s">
-        <v>105</v>
-      </c>
-      <c r="D148" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>34</v>
-      </c>
-      <c r="B149">
-        <v>46051</v>
-      </c>
-      <c r="C149" t="s">
-        <v>106</v>
-      </c>
-      <c r="D149" t="s">
-        <v>7</v>
-      </c>
-      <c r="E149" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150">
-        <v>50693</v>
-      </c>
-      <c r="C150" t="s">
-        <v>107</v>
-      </c>
-      <c r="D150" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>8</v>
-      </c>
-      <c r="B151">
-        <v>50693</v>
-      </c>
-      <c r="C151" t="s">
-        <v>107</v>
-      </c>
-      <c r="D151" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>37</v>
-      </c>
-      <c r="B152">
-        <v>50738</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="C161" t="s">
         <v>108</v>
       </c>
-      <c r="D152" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>24</v>
-      </c>
-      <c r="B153">
-        <v>50688</v>
-      </c>
-      <c r="C153" t="s">
-        <v>109</v>
-      </c>
-      <c r="D153" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>17</v>
-      </c>
-      <c r="B154">
-        <v>50631</v>
-      </c>
-      <c r="C154" t="s">
-        <v>110</v>
-      </c>
-      <c r="D154" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>21</v>
-      </c>
-      <c r="B155">
-        <v>50631</v>
-      </c>
-      <c r="C155" t="s">
-        <v>110</v>
-      </c>
-      <c r="D155" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>37</v>
-      </c>
-      <c r="B156">
-        <v>50627</v>
-      </c>
-      <c r="C156" t="s">
-        <v>111</v>
-      </c>
-      <c r="D156" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>13</v>
-      </c>
-      <c r="B157">
-        <v>50735</v>
-      </c>
-      <c r="C157" t="s">
-        <v>112</v>
-      </c>
-      <c r="D157" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>21</v>
-      </c>
-      <c r="B158">
-        <v>50365</v>
-      </c>
-      <c r="C158" t="s">
-        <v>113</v>
-      </c>
-      <c r="D158" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>23</v>
-      </c>
-      <c r="B159">
-        <v>50365</v>
-      </c>
-      <c r="C159" t="s">
-        <v>113</v>
-      </c>
-      <c r="D159" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>17</v>
-      </c>
-      <c r="B160">
-        <v>50699</v>
-      </c>
-      <c r="C160" t="s">
-        <v>114</v>
-      </c>
-      <c r="D160" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>34</v>
-      </c>
-      <c r="B161">
-        <v>50699</v>
-      </c>
-      <c r="C161" t="s">
-        <v>114</v>
-      </c>
       <c r="D161" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>20</v>
       </c>
       <c r="B162">
-        <v>50699</v>
+        <v>50636</v>
       </c>
       <c r="C162" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D162" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>21</v>
       </c>
       <c r="B163">
+        <v>50636</v>
+      </c>
+      <c r="C163" t="s">
+        <v>108</v>
+      </c>
+      <c r="D163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>36</v>
+      </c>
+      <c r="B164">
+        <v>46051</v>
+      </c>
+      <c r="C164" t="s">
+        <v>109</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165">
+        <v>50693</v>
+      </c>
+      <c r="C165" t="s">
+        <v>110</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166">
+        <v>50693</v>
+      </c>
+      <c r="C166" t="s">
+        <v>110</v>
+      </c>
+      <c r="D166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>39</v>
+      </c>
+      <c r="B167">
+        <v>50738</v>
+      </c>
+      <c r="C167" t="s">
+        <v>111</v>
+      </c>
+      <c r="D167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>24</v>
+      </c>
+      <c r="B168">
+        <v>50688</v>
+      </c>
+      <c r="C168" t="s">
+        <v>112</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>33</v>
+      </c>
+      <c r="B169">
+        <v>50688</v>
+      </c>
+      <c r="C169" t="s">
+        <v>112</v>
+      </c>
+      <c r="D169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170">
+        <v>50631</v>
+      </c>
+      <c r="C170" t="s">
+        <v>113</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171">
+        <v>50631</v>
+      </c>
+      <c r="C171" t="s">
+        <v>113</v>
+      </c>
+      <c r="D171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>39</v>
+      </c>
+      <c r="B172">
+        <v>50627</v>
+      </c>
+      <c r="C172" t="s">
+        <v>114</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173">
+        <v>50735</v>
+      </c>
+      <c r="C173" t="s">
+        <v>115</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>33</v>
+      </c>
+      <c r="B174">
+        <v>50735</v>
+      </c>
+      <c r="C174" t="s">
+        <v>115</v>
+      </c>
+      <c r="D174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175">
+        <v>50365</v>
+      </c>
+      <c r="C175" t="s">
+        <v>116</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>23</v>
+      </c>
+      <c r="B176">
+        <v>50365</v>
+      </c>
+      <c r="C176" t="s">
+        <v>116</v>
+      </c>
+      <c r="D176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>29</v>
+      </c>
+      <c r="B177">
+        <v>50365</v>
+      </c>
+      <c r="C177" t="s">
+        <v>116</v>
+      </c>
+      <c r="D177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>17</v>
+      </c>
+      <c r="B178">
         <v>50699</v>
-      </c>
-      <c r="C163" t="s">
-        <v>114</v>
-      </c>
-      <c r="D163" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>30</v>
-      </c>
-      <c r="B164">
-        <v>50699</v>
-      </c>
-      <c r="C164" t="s">
-        <v>114</v>
-      </c>
-      <c r="D164" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>23</v>
-      </c>
-      <c r="B165">
-        <v>50699</v>
-      </c>
-      <c r="C165" t="s">
-        <v>114</v>
-      </c>
-      <c r="D165" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B166">
-        <v>50659</v>
-      </c>
-      <c r="C166" t="s">
-        <v>115</v>
-      </c>
-      <c r="D166" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>8</v>
-      </c>
-      <c r="B167">
-        <v>50659</v>
-      </c>
-      <c r="C167" t="s">
-        <v>115</v>
-      </c>
-      <c r="D167" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>19</v>
-      </c>
-      <c r="B168">
-        <v>50705</v>
-      </c>
-      <c r="C168" t="s">
-        <v>116</v>
-      </c>
-      <c r="D168" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>20</v>
-      </c>
-      <c r="B169">
-        <v>50705</v>
-      </c>
-      <c r="C169" t="s">
-        <v>116</v>
-      </c>
-      <c r="D169" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>10</v>
-      </c>
-      <c r="B170">
-        <v>52029</v>
-      </c>
-      <c r="C170" t="s">
-        <v>117</v>
-      </c>
-      <c r="D170" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>10</v>
-      </c>
-      <c r="B171">
-        <v>52029</v>
-      </c>
-      <c r="C171" t="s">
-        <v>117</v>
-      </c>
-      <c r="D171" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>10</v>
-      </c>
-      <c r="B172">
-        <v>52029</v>
-      </c>
-      <c r="C172" t="s">
-        <v>117</v>
-      </c>
-      <c r="D172" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>10</v>
-      </c>
-      <c r="B173">
-        <v>52029</v>
-      </c>
-      <c r="C173" t="s">
-        <v>117</v>
-      </c>
-      <c r="D173" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>12</v>
-      </c>
-      <c r="B174">
-        <v>52029</v>
-      </c>
-      <c r="C174" t="s">
-        <v>117</v>
-      </c>
-      <c r="D174" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>12</v>
-      </c>
-      <c r="B175">
-        <v>52029</v>
-      </c>
-      <c r="C175" t="s">
-        <v>117</v>
-      </c>
-      <c r="D175" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>12</v>
-      </c>
-      <c r="B176">
-        <v>52029</v>
-      </c>
-      <c r="C176" t="s">
-        <v>117</v>
-      </c>
-      <c r="D176" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>12</v>
-      </c>
-      <c r="B177">
-        <v>52029</v>
-      </c>
-      <c r="C177" t="s">
-        <v>117</v>
-      </c>
-      <c r="D177" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>24</v>
-      </c>
-      <c r="B178">
-        <v>52029</v>
       </c>
       <c r="C178" t="s">
         <v>117</v>
       </c>
       <c r="D178" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B179">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C179" t="s">
         <v>117</v>
       </c>
       <c r="D179" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B180">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C180" t="s">
         <v>117</v>
       </c>
       <c r="D180" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B181">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C181" t="s">
         <v>117</v>
       </c>
       <c r="D181" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B182">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C182" t="s">
         <v>117</v>
       </c>
       <c r="D182" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>23</v>
       </c>
       <c r="B183">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C183" t="s">
         <v>117</v>
       </c>
       <c r="D183" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B184">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C184" t="s">
         <v>117</v>
       </c>
       <c r="D184" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B185">
-        <v>52029</v>
+        <v>50659</v>
       </c>
       <c r="C185" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D185" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B186">
-        <v>52029</v>
+        <v>50659</v>
       </c>
       <c r="C186" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D186" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B187">
-        <v>52029</v>
+        <v>50705</v>
       </c>
       <c r="C187" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>20</v>
+      </c>
+      <c r="B188">
+        <v>50705</v>
+      </c>
+      <c r="C188" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>15</v>
-      </c>
-      <c r="B188">
-        <v>52029</v>
-      </c>
-      <c r="C188" t="s">
-        <v>117</v>
-      </c>
       <c r="D188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B189">
         <v>52029</v>
       </c>
       <c r="C189" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D189" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B190">
-        <v>47188</v>
+        <v>52029</v>
       </c>
       <c r="C190" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D190" t="s">
-        <v>7</v>
-      </c>
-      <c r="E190" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B191">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C191" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D191" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B192">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C192" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B193">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C193" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D193" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B194">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C194" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D194" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B195">
-        <v>50680</v>
+        <v>52029</v>
       </c>
       <c r="C195" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D195" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B196">
-        <v>50718</v>
+        <v>52029</v>
       </c>
       <c r="C196" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D196" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B197">
-        <v>50718</v>
+        <v>52029</v>
       </c>
       <c r="C197" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B198">
-        <v>50734</v>
+        <v>52029</v>
       </c>
       <c r="C198" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D198" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -3659,220 +3683,223 @@
         <v>24</v>
       </c>
       <c r="B199">
-        <v>50734</v>
+        <v>52029</v>
       </c>
       <c r="C199" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B200">
-        <v>50734</v>
+        <v>52029</v>
       </c>
       <c r="C200" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D200" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B201">
-        <v>50722</v>
+        <v>52029</v>
       </c>
       <c r="C201" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D201" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B202">
-        <v>50717</v>
+        <v>52029</v>
       </c>
       <c r="C202" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D202" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B203">
-        <v>50717</v>
+        <v>52029</v>
       </c>
       <c r="C203" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B204">
-        <v>50717</v>
+        <v>52029</v>
       </c>
       <c r="C204" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D204" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B205">
-        <v>50655</v>
+        <v>52029</v>
       </c>
       <c r="C205" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D205" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B206">
-        <v>50624</v>
+        <v>52029</v>
       </c>
       <c r="C206" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D206" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B207">
-        <v>50624</v>
+        <v>52029</v>
       </c>
       <c r="C207" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B208">
-        <v>50719</v>
+        <v>52029</v>
       </c>
       <c r="C208" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D208" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B209">
-        <v>49623</v>
+        <v>52029</v>
       </c>
       <c r="C209" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D209" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B210">
-        <v>50653</v>
+        <v>52029</v>
       </c>
       <c r="C210" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D210" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B211">
-        <v>50653</v>
+        <v>52029</v>
       </c>
       <c r="C211" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B212">
-        <v>47673</v>
+        <v>52029</v>
       </c>
       <c r="C212" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D212" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B213">
-        <v>50459</v>
+        <v>47188</v>
       </c>
       <c r="C213" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D213" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="E213" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B214">
-        <v>50633</v>
+        <v>50664</v>
       </c>
       <c r="C214" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D214" t="s">
         <v>7</v>
@@ -3880,13 +3907,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B215">
-        <v>50633</v>
+        <v>50664</v>
       </c>
       <c r="C215" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D215" t="s">
         <v>9</v>
@@ -3894,13 +3921,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B216">
-        <v>50633</v>
+        <v>50664</v>
       </c>
       <c r="C216" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D216" t="s">
         <v>14</v>
@@ -3908,13 +3935,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B217">
-        <v>50633</v>
+        <v>50664</v>
       </c>
       <c r="C217" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D217" t="s">
         <v>16</v>
@@ -3922,27 +3949,27 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B218">
-        <v>50633</v>
+        <v>50664</v>
       </c>
       <c r="C218" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D218" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B219">
-        <v>50364</v>
+        <v>50629</v>
       </c>
       <c r="C219" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D219" t="s">
         <v>7</v>
@@ -3950,27 +3977,27 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B220">
-        <v>50364</v>
+        <v>50680</v>
       </c>
       <c r="C220" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B221">
-        <v>50657</v>
+        <v>50718</v>
       </c>
       <c r="C221" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D221" t="s">
         <v>7</v>
@@ -3978,16 +4005,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B222">
-        <v>47059</v>
+        <v>50718</v>
       </c>
       <c r="C222" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D222" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -3995,727 +4022,1189 @@
         <v>17</v>
       </c>
       <c r="B223">
-        <v>47059</v>
+        <v>50734</v>
       </c>
       <c r="C223" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
-      </c>
-      <c r="E223" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
+        <v>24</v>
+      </c>
+      <c r="B224">
+        <v>50734</v>
+      </c>
+      <c r="C224" t="s">
+        <v>134</v>
+      </c>
+      <c r="D224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>23</v>
+      </c>
+      <c r="B225">
+        <v>50734</v>
+      </c>
+      <c r="C225" t="s">
+        <v>134</v>
+      </c>
+      <c r="D225" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>31</v>
+      </c>
+      <c r="B226">
+        <v>50722</v>
+      </c>
+      <c r="C226" t="s">
+        <v>135</v>
+      </c>
+      <c r="D226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>19</v>
+      </c>
+      <c r="B227">
+        <v>50717</v>
+      </c>
+      <c r="C227" t="s">
+        <v>136</v>
+      </c>
+      <c r="D227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>20</v>
       </c>
-      <c r="B224">
+      <c r="B228">
+        <v>50717</v>
+      </c>
+      <c r="C228" t="s">
+        <v>136</v>
+      </c>
+      <c r="D228" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>21</v>
+      </c>
+      <c r="B229">
+        <v>50717</v>
+      </c>
+      <c r="C229" t="s">
+        <v>136</v>
+      </c>
+      <c r="D229" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>24</v>
+      </c>
+      <c r="B230">
+        <v>50655</v>
+      </c>
+      <c r="C230" t="s">
+        <v>137</v>
+      </c>
+      <c r="D230" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>33</v>
+      </c>
+      <c r="B231">
+        <v>50655</v>
+      </c>
+      <c r="C231" t="s">
+        <v>137</v>
+      </c>
+      <c r="D231" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232">
+        <v>50624</v>
+      </c>
+      <c r="C232" t="s">
+        <v>138</v>
+      </c>
+      <c r="D232" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>8</v>
+      </c>
+      <c r="B233">
+        <v>50624</v>
+      </c>
+      <c r="C233" t="s">
+        <v>138</v>
+      </c>
+      <c r="D233" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>31</v>
+      </c>
+      <c r="B234">
+        <v>50719</v>
+      </c>
+      <c r="C234" t="s">
+        <v>139</v>
+      </c>
+      <c r="D234" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>29</v>
+      </c>
+      <c r="B235">
+        <v>50719</v>
+      </c>
+      <c r="C235" t="s">
+        <v>139</v>
+      </c>
+      <c r="D235" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236">
+        <v>49623</v>
+      </c>
+      <c r="C236" t="s">
+        <v>140</v>
+      </c>
+      <c r="D236" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>24</v>
+      </c>
+      <c r="B237">
+        <v>50653</v>
+      </c>
+      <c r="C237" t="s">
+        <v>142</v>
+      </c>
+      <c r="D237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>15</v>
+      </c>
+      <c r="B238">
+        <v>50653</v>
+      </c>
+      <c r="C238" t="s">
+        <v>142</v>
+      </c>
+      <c r="D238" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>8</v>
+      </c>
+      <c r="B239">
+        <v>47673</v>
+      </c>
+      <c r="C239" t="s">
+        <v>143</v>
+      </c>
+      <c r="D239" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240">
+        <v>50459</v>
+      </c>
+      <c r="C240" t="s">
+        <v>144</v>
+      </c>
+      <c r="D240" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>10</v>
+      </c>
+      <c r="B241">
+        <v>50633</v>
+      </c>
+      <c r="C241" t="s">
+        <v>145</v>
+      </c>
+      <c r="D241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>12</v>
+      </c>
+      <c r="B242">
+        <v>50633</v>
+      </c>
+      <c r="C242" t="s">
+        <v>145</v>
+      </c>
+      <c r="D242" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>13</v>
+      </c>
+      <c r="B243">
+        <v>50633</v>
+      </c>
+      <c r="C243" t="s">
+        <v>145</v>
+      </c>
+      <c r="D243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>24</v>
+      </c>
+      <c r="B244">
+        <v>50633</v>
+      </c>
+      <c r="C244" t="s">
+        <v>145</v>
+      </c>
+      <c r="D244" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>15</v>
+      </c>
+      <c r="B245">
+        <v>50633</v>
+      </c>
+      <c r="C245" t="s">
+        <v>145</v>
+      </c>
+      <c r="D245" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>33</v>
+      </c>
+      <c r="B246">
+        <v>50633</v>
+      </c>
+      <c r="C246" t="s">
+        <v>145</v>
+      </c>
+      <c r="D246" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>39</v>
+      </c>
+      <c r="B247">
+        <v>50364</v>
+      </c>
+      <c r="C247" t="s">
+        <v>146</v>
+      </c>
+      <c r="D247" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>26</v>
+      </c>
+      <c r="B248">
+        <v>50364</v>
+      </c>
+      <c r="C248" t="s">
+        <v>146</v>
+      </c>
+      <c r="D248" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>5</v>
+      </c>
+      <c r="B249">
+        <v>50657</v>
+      </c>
+      <c r="C249" t="s">
+        <v>147</v>
+      </c>
+      <c r="D249" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>19</v>
+      </c>
+      <c r="B250">
         <v>47059</v>
       </c>
-      <c r="C224" t="s">
-        <v>140</v>
-      </c>
-      <c r="D224" t="s">
+      <c r="C250" t="s">
+        <v>148</v>
+      </c>
+      <c r="D250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>17</v>
+      </c>
+      <c r="B251">
+        <v>47059</v>
+      </c>
+      <c r="C251" t="s">
+        <v>148</v>
+      </c>
+      <c r="D251" t="s">
+        <v>9</v>
+      </c>
+      <c r="E251" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>20</v>
+      </c>
+      <c r="B252">
+        <v>47059</v>
+      </c>
+      <c r="C252" t="s">
+        <v>148</v>
+      </c>
+      <c r="D252" t="s">
         <v>14</v>
       </c>
-      <c r="E224" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>34</v>
-      </c>
-      <c r="B225">
+      <c r="E252" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>36</v>
+      </c>
+      <c r="B253">
         <v>37111</v>
-      </c>
-      <c r="C225" t="s">
-        <v>141</v>
-      </c>
-      <c r="D225" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>19</v>
-      </c>
-      <c r="B226">
-        <v>50635</v>
-      </c>
-      <c r="C226" t="s">
-        <v>142</v>
-      </c>
-      <c r="D226" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>20</v>
-      </c>
-      <c r="B227">
-        <v>50635</v>
-      </c>
-      <c r="C227" t="s">
-        <v>142</v>
-      </c>
-      <c r="D227" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>21</v>
-      </c>
-      <c r="B228">
-        <v>50635</v>
-      </c>
-      <c r="C228" t="s">
-        <v>142</v>
-      </c>
-      <c r="D228" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>37</v>
-      </c>
-      <c r="B229">
-        <v>50716</v>
-      </c>
-      <c r="C229" t="s">
-        <v>143</v>
-      </c>
-      <c r="D229" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>30</v>
-      </c>
-      <c r="B230">
-        <v>50651</v>
-      </c>
-      <c r="C230" t="s">
-        <v>144</v>
-      </c>
-      <c r="D230" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>10</v>
-      </c>
-      <c r="B231">
-        <v>50670</v>
-      </c>
-      <c r="C231" t="s">
-        <v>145</v>
-      </c>
-      <c r="D231" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>12</v>
-      </c>
-      <c r="B232">
-        <v>50670</v>
-      </c>
-      <c r="C232" t="s">
-        <v>145</v>
-      </c>
-      <c r="D232" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>13</v>
-      </c>
-      <c r="B233">
-        <v>50670</v>
-      </c>
-      <c r="C233" t="s">
-        <v>145</v>
-      </c>
-      <c r="D233" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>15</v>
-      </c>
-      <c r="B234">
-        <v>50670</v>
-      </c>
-      <c r="C234" t="s">
-        <v>145</v>
-      </c>
-      <c r="D234" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>24</v>
-      </c>
-      <c r="B235">
-        <v>50711</v>
-      </c>
-      <c r="C235" t="s">
-        <v>146</v>
-      </c>
-      <c r="D235" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>20</v>
-      </c>
-      <c r="B236">
-        <v>46017</v>
-      </c>
-      <c r="C236" t="s">
-        <v>147</v>
-      </c>
-      <c r="D236" t="s">
-        <v>133</v>
-      </c>
-      <c r="E236" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>19</v>
-      </c>
-      <c r="B237">
-        <v>46017</v>
-      </c>
-      <c r="C237" t="s">
-        <v>147</v>
-      </c>
-      <c r="D237" t="s">
-        <v>133</v>
-      </c>
-      <c r="E237" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>34</v>
-      </c>
-      <c r="B238">
-        <v>46017</v>
-      </c>
-      <c r="C238" t="s">
-        <v>147</v>
-      </c>
-      <c r="D238" t="s">
-        <v>133</v>
-      </c>
-      <c r="E238" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>21</v>
-      </c>
-      <c r="B239">
-        <v>50714</v>
-      </c>
-      <c r="C239" t="s">
-        <v>148</v>
-      </c>
-      <c r="D239" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>19</v>
-      </c>
-      <c r="B240">
-        <v>52028</v>
-      </c>
-      <c r="C240" t="s">
-        <v>149</v>
-      </c>
-      <c r="D240" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>19</v>
-      </c>
-      <c r="B241">
-        <v>52028</v>
-      </c>
-      <c r="C241" t="s">
-        <v>149</v>
-      </c>
-      <c r="D241" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>19</v>
-      </c>
-      <c r="B242">
-        <v>52028</v>
-      </c>
-      <c r="C242" t="s">
-        <v>149</v>
-      </c>
-      <c r="D242" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>19</v>
-      </c>
-      <c r="B243">
-        <v>52028</v>
-      </c>
-      <c r="C243" t="s">
-        <v>149</v>
-      </c>
-      <c r="D243" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>20</v>
-      </c>
-      <c r="B244">
-        <v>52028</v>
-      </c>
-      <c r="C244" t="s">
-        <v>149</v>
-      </c>
-      <c r="D244" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>20</v>
-      </c>
-      <c r="B245">
-        <v>52028</v>
-      </c>
-      <c r="C245" t="s">
-        <v>149</v>
-      </c>
-      <c r="D245" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>20</v>
-      </c>
-      <c r="B246">
-        <v>52028</v>
-      </c>
-      <c r="C246" t="s">
-        <v>149</v>
-      </c>
-      <c r="D246" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>20</v>
-      </c>
-      <c r="B247">
-        <v>52028</v>
-      </c>
-      <c r="C247" t="s">
-        <v>149</v>
-      </c>
-      <c r="D247" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>13</v>
-      </c>
-      <c r="B248">
-        <v>52028</v>
-      </c>
-      <c r="C248" t="s">
-        <v>149</v>
-      </c>
-      <c r="D248" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>13</v>
-      </c>
-      <c r="B249">
-        <v>52028</v>
-      </c>
-      <c r="C249" t="s">
-        <v>149</v>
-      </c>
-      <c r="D249" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>13</v>
-      </c>
-      <c r="B250">
-        <v>52028</v>
-      </c>
-      <c r="C250" t="s">
-        <v>149</v>
-      </c>
-      <c r="D250" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>13</v>
-      </c>
-      <c r="B251">
-        <v>52028</v>
-      </c>
-      <c r="C251" t="s">
-        <v>149</v>
-      </c>
-      <c r="D251" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>30</v>
-      </c>
-      <c r="B252">
-        <v>52028</v>
-      </c>
-      <c r="C252" t="s">
-        <v>149</v>
-      </c>
-      <c r="D252" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>30</v>
-      </c>
-      <c r="B253">
-        <v>52028</v>
       </c>
       <c r="C253" t="s">
         <v>149</v>
       </c>
       <c r="D253" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B254">
+        <v>50635</v>
+      </c>
+      <c r="C254" t="s">
+        <v>150</v>
+      </c>
+      <c r="D254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>20</v>
+      </c>
+      <c r="B255">
+        <v>50635</v>
+      </c>
+      <c r="C255" t="s">
+        <v>150</v>
+      </c>
+      <c r="D255" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>21</v>
+      </c>
+      <c r="B256">
+        <v>50635</v>
+      </c>
+      <c r="C256" t="s">
+        <v>150</v>
+      </c>
+      <c r="D256" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>39</v>
+      </c>
+      <c r="B257">
+        <v>50716</v>
+      </c>
+      <c r="C257" t="s">
+        <v>151</v>
+      </c>
+      <c r="D257" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>31</v>
+      </c>
+      <c r="B258">
+        <v>50651</v>
+      </c>
+      <c r="C258" t="s">
+        <v>152</v>
+      </c>
+      <c r="D258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>10</v>
+      </c>
+      <c r="B259">
+        <v>50670</v>
+      </c>
+      <c r="C259" t="s">
+        <v>153</v>
+      </c>
+      <c r="D259" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>12</v>
+      </c>
+      <c r="B260">
+        <v>50670</v>
+      </c>
+      <c r="C260" t="s">
+        <v>153</v>
+      </c>
+      <c r="D260" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>13</v>
+      </c>
+      <c r="B261">
+        <v>50670</v>
+      </c>
+      <c r="C261" t="s">
+        <v>153</v>
+      </c>
+      <c r="D261" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>15</v>
+      </c>
+      <c r="B262">
+        <v>50670</v>
+      </c>
+      <c r="C262" t="s">
+        <v>153</v>
+      </c>
+      <c r="D262" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>24</v>
+      </c>
+      <c r="B263">
+        <v>50711</v>
+      </c>
+      <c r="C263" t="s">
+        <v>154</v>
+      </c>
+      <c r="D263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>20</v>
+      </c>
+      <c r="B264">
+        <v>46017</v>
+      </c>
+      <c r="C264" t="s">
+        <v>155</v>
+      </c>
+      <c r="D264" t="s">
+        <v>141</v>
+      </c>
+      <c r="E264" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>19</v>
+      </c>
+      <c r="B265">
+        <v>46017</v>
+      </c>
+      <c r="C265" t="s">
+        <v>155</v>
+      </c>
+      <c r="D265" t="s">
+        <v>141</v>
+      </c>
+      <c r="E265" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>36</v>
+      </c>
+      <c r="B266">
+        <v>46017</v>
+      </c>
+      <c r="C266" t="s">
+        <v>155</v>
+      </c>
+      <c r="D266" t="s">
+        <v>141</v>
+      </c>
+      <c r="E266" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>21</v>
+      </c>
+      <c r="B267">
+        <v>50714</v>
+      </c>
+      <c r="C267" t="s">
+        <v>156</v>
+      </c>
+      <c r="D267" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>19</v>
+      </c>
+      <c r="B268">
         <v>52028</v>
       </c>
-      <c r="C254" t="s">
-        <v>149</v>
-      </c>
-      <c r="D254" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>30</v>
-      </c>
-      <c r="B255">
+      <c r="C268" t="s">
+        <v>157</v>
+      </c>
+      <c r="D268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>19</v>
+      </c>
+      <c r="B269">
         <v>52028</v>
       </c>
-      <c r="C255" t="s">
-        <v>149</v>
-      </c>
-      <c r="D255" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>5</v>
-      </c>
-      <c r="B256">
+      <c r="C269" t="s">
+        <v>157</v>
+      </c>
+      <c r="D269" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>19</v>
+      </c>
+      <c r="B270">
         <v>52028</v>
       </c>
-      <c r="C256" t="s">
-        <v>149</v>
-      </c>
-      <c r="D256" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>5</v>
-      </c>
-      <c r="B257">
-        <v>52028</v>
-      </c>
-      <c r="C257" t="s">
-        <v>149</v>
-      </c>
-      <c r="D257" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>5</v>
-      </c>
-      <c r="B258">
-        <v>52028</v>
-      </c>
-      <c r="C258" t="s">
-        <v>149</v>
-      </c>
-      <c r="D258" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>5</v>
-      </c>
-      <c r="B259">
-        <v>52028</v>
-      </c>
-      <c r="C259" t="s">
-        <v>149</v>
-      </c>
-      <c r="D259" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>8</v>
-      </c>
-      <c r="B260">
-        <v>52028</v>
-      </c>
-      <c r="C260" t="s">
-        <v>149</v>
-      </c>
-      <c r="D260" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>8</v>
-      </c>
-      <c r="B261">
-        <v>52028</v>
-      </c>
-      <c r="C261" t="s">
-        <v>149</v>
-      </c>
-      <c r="D261" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>8</v>
-      </c>
-      <c r="B262">
-        <v>52028</v>
-      </c>
-      <c r="C262" t="s">
-        <v>149</v>
-      </c>
-      <c r="D262" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>8</v>
-      </c>
-      <c r="B263">
-        <v>52028</v>
-      </c>
-      <c r="C263" t="s">
-        <v>149</v>
-      </c>
-      <c r="D263" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>10</v>
-      </c>
-      <c r="B264">
-        <v>47545</v>
-      </c>
-      <c r="C264" t="s">
-        <v>154</v>
-      </c>
-      <c r="D264" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>12</v>
-      </c>
-      <c r="B265">
-        <v>47545</v>
-      </c>
-      <c r="C265" t="s">
-        <v>154</v>
-      </c>
-      <c r="D265" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>13</v>
-      </c>
-      <c r="B266">
-        <v>47545</v>
-      </c>
-      <c r="C266" t="s">
-        <v>154</v>
-      </c>
-      <c r="D266" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>10</v>
-      </c>
-      <c r="B267">
-        <v>51946</v>
-      </c>
-      <c r="C267" t="s">
-        <v>155</v>
-      </c>
-      <c r="D267" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>10</v>
-      </c>
-      <c r="B268">
-        <v>50343</v>
-      </c>
-      <c r="C268" t="s">
-        <v>156</v>
-      </c>
-      <c r="D268" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>12</v>
-      </c>
-      <c r="B269">
-        <v>50343</v>
-      </c>
-      <c r="C269" t="s">
-        <v>156</v>
-      </c>
-      <c r="D269" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>13</v>
-      </c>
-      <c r="B270">
-        <v>50343</v>
-      </c>
       <c r="C270" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D270" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B271">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C271" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D271" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B272">
-        <v>50677</v>
+        <v>52028</v>
       </c>
       <c r="C272" t="s">
         <v>157</v>
       </c>
       <c r="D272" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B273">
-        <v>50677</v>
+        <v>52028</v>
       </c>
       <c r="C273" t="s">
         <v>157</v>
       </c>
       <c r="D273" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>20</v>
+      </c>
+      <c r="B274">
+        <v>52028</v>
+      </c>
+      <c r="C274" t="s">
+        <v>157</v>
+      </c>
+      <c r="D274" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>20</v>
+      </c>
+      <c r="B275">
+        <v>52028</v>
+      </c>
+      <c r="C275" t="s">
+        <v>157</v>
+      </c>
+      <c r="D275" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>13</v>
+      </c>
+      <c r="B276">
+        <v>52028</v>
+      </c>
+      <c r="C276" t="s">
+        <v>157</v>
+      </c>
+      <c r="D276" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>13</v>
+      </c>
+      <c r="B277">
+        <v>52028</v>
+      </c>
+      <c r="C277" t="s">
+        <v>157</v>
+      </c>
+      <c r="D277" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>13</v>
+      </c>
+      <c r="B278">
+        <v>52028</v>
+      </c>
+      <c r="C278" t="s">
+        <v>157</v>
+      </c>
+      <c r="D278" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>13</v>
+      </c>
+      <c r="B279">
+        <v>52028</v>
+      </c>
+      <c r="C279" t="s">
+        <v>157</v>
+      </c>
+      <c r="D279" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>31</v>
+      </c>
+      <c r="B280">
+        <v>52028</v>
+      </c>
+      <c r="C280" t="s">
+        <v>157</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>31</v>
+      </c>
+      <c r="B281">
+        <v>52028</v>
+      </c>
+      <c r="C281" t="s">
+        <v>157</v>
+      </c>
+      <c r="D281" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>31</v>
+      </c>
+      <c r="B282">
+        <v>52028</v>
+      </c>
+      <c r="C282" t="s">
+        <v>157</v>
+      </c>
+      <c r="D282" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>31</v>
+      </c>
+      <c r="B283">
+        <v>52028</v>
+      </c>
+      <c r="C283" t="s">
+        <v>157</v>
+      </c>
+      <c r="D283" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>5</v>
+      </c>
+      <c r="B284">
+        <v>52028</v>
+      </c>
+      <c r="C284" t="s">
+        <v>157</v>
+      </c>
+      <c r="D284" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>5</v>
+      </c>
+      <c r="B285">
+        <v>52028</v>
+      </c>
+      <c r="C285" t="s">
+        <v>157</v>
+      </c>
+      <c r="D285" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>5</v>
+      </c>
+      <c r="B286">
+        <v>52028</v>
+      </c>
+      <c r="C286" t="s">
+        <v>157</v>
+      </c>
+      <c r="D286" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287">
+        <v>52028</v>
+      </c>
+      <c r="C287" t="s">
+        <v>157</v>
+      </c>
+      <c r="D287" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>8</v>
+      </c>
+      <c r="B288">
+        <v>52028</v>
+      </c>
+      <c r="C288" t="s">
+        <v>157</v>
+      </c>
+      <c r="D288" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>8</v>
+      </c>
+      <c r="B289">
+        <v>52028</v>
+      </c>
+      <c r="C289" t="s">
+        <v>157</v>
+      </c>
+      <c r="D289" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>8</v>
+      </c>
+      <c r="B290">
+        <v>52028</v>
+      </c>
+      <c r="C290" t="s">
+        <v>157</v>
+      </c>
+      <c r="D290" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>8</v>
+      </c>
+      <c r="B291">
+        <v>52028</v>
+      </c>
+      <c r="C291" t="s">
+        <v>157</v>
+      </c>
+      <c r="D291" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>29</v>
+      </c>
+      <c r="B292">
+        <v>52028</v>
+      </c>
+      <c r="C292" t="s">
+        <v>157</v>
+      </c>
+      <c r="D292" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>29</v>
+      </c>
+      <c r="B293">
+        <v>52028</v>
+      </c>
+      <c r="C293" t="s">
+        <v>157</v>
+      </c>
+      <c r="D293" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>29</v>
+      </c>
+      <c r="B294">
+        <v>52028</v>
+      </c>
+      <c r="C294" t="s">
+        <v>157</v>
+      </c>
+      <c r="D294" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>29</v>
+      </c>
+      <c r="B295">
+        <v>52028</v>
+      </c>
+      <c r="C295" t="s">
+        <v>157</v>
+      </c>
+      <c r="D295" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>10</v>
+      </c>
+      <c r="B296">
+        <v>47545</v>
+      </c>
+      <c r="C296" t="s">
+        <v>162</v>
+      </c>
+      <c r="D296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>12</v>
+      </c>
+      <c r="B297">
+        <v>47545</v>
+      </c>
+      <c r="C297" t="s">
+        <v>162</v>
+      </c>
+      <c r="D297" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>13</v>
+      </c>
+      <c r="B298">
+        <v>47545</v>
+      </c>
+      <c r="C298" t="s">
+        <v>162</v>
+      </c>
+      <c r="D298" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>33</v>
+      </c>
+      <c r="B299">
+        <v>47545</v>
+      </c>
+      <c r="C299" t="s">
+        <v>162</v>
+      </c>
+      <c r="D299" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>10</v>
+      </c>
+      <c r="B300">
+        <v>51946</v>
+      </c>
+      <c r="C300" t="s">
+        <v>163</v>
+      </c>
+      <c r="D300" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>10</v>
+      </c>
+      <c r="B301">
+        <v>50343</v>
+      </c>
+      <c r="C301" t="s">
+        <v>164</v>
+      </c>
+      <c r="D301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>12</v>
+      </c>
+      <c r="B302">
+        <v>50343</v>
+      </c>
+      <c r="C302" t="s">
+        <v>164</v>
+      </c>
+      <c r="D302" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>13</v>
+      </c>
+      <c r="B303">
+        <v>50343</v>
+      </c>
+      <c r="C303" t="s">
+        <v>164</v>
+      </c>
+      <c r="D303" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>24</v>
+      </c>
+      <c r="B304">
+        <v>50343</v>
+      </c>
+      <c r="C304" t="s">
+        <v>164</v>
+      </c>
+      <c r="D304" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>5</v>
+      </c>
+      <c r="B305">
+        <v>50677</v>
+      </c>
+      <c r="C305" t="s">
+        <v>165</v>
+      </c>
+      <c r="D305" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>8</v>
+      </c>
+      <c r="B306">
+        <v>50677</v>
+      </c>
+      <c r="C306" t="s">
+        <v>165</v>
+      </c>
+      <c r="D306" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E323"/>
+  <dimension ref="A1:E340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,7 +736,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -757,7 +757,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -799,7 +799,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -820,15 +820,15 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52572</v>
+        <v>50398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Might</t>
+          <t>Ashen Band of Endless Destruction</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -841,15 +841,15 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50402</v>
+        <v>52572</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Vengeance</t>
+          <t>Ashen Band of Endless Might</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -862,7 +862,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -883,7 +883,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -904,7 +904,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -925,7 +925,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -946,7 +946,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -967,15 +967,15 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>50400</v>
+        <v>50402</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Wisdom</t>
+          <t>Ashen Band of Endless Vengeance</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1030,20 +1030,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>50707</v>
+        <v>50400</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Astrylian's Sutured Cinch</t>
+          <t>Ashen Band of Endless Wisdom</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Reputation</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1055,11 +1055,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>50604</v>
+        <v>50707</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Band of the Bone Colossus</t>
+          <t>Astrylian's Sutured Cinch</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1093,20 +1093,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50691</v>
+        <v>50604</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Belt of Broken Bones</t>
+          <t>Band of the Bone Colossus</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1114,7 +1114,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1139,16 +1139,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50682</v>
+        <v>50691</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Bile-Encrusted Medallion</t>
+          <t>Belt of Broken Bones</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1156,20 +1156,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50458</v>
+        <v>50682</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Bizuri's Totem of Shattered Ice</t>
+          <t>Bile-Encrusted Medallion</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1198,20 +1198,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49894</v>
+        <v>50458</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Blessed Cenarion Boots</t>
+          <t>Bizuri's Totem of Shattered Ice</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Craft</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1219,20 +1219,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50724</v>
+        <v>49894</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Blood Queen's Crimson Choker</t>
+          <t>Blessed Cenarion Boots</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Craft</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1240,7 +1240,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1261,7 +1261,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1282,7 +1282,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -1303,20 +1303,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Blood-Soaked Saronite Stompers</t>
+          <t>Blood Queen's Crimson Choker</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1324,20 +1324,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Blood-Soaked Saronite Stompers</t>
+          <t>Blood Queen's Crimson Choker</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1345,7 +1345,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -1366,7 +1366,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1387,7 +1387,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1408,20 +1408,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>50687</v>
+        <v>50639</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Bloodsunder's Bracers</t>
+          <t>Blood-Soaked Saronite Stompers</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1429,20 +1429,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>50732</v>
+        <v>50639</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
+          <t>Blood-Soaked Saronite Stompers</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -1450,20 +1450,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>50732</v>
+        <v>50687</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
+          <t>Bloodsunder's Bracers</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -1471,7 +1471,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -1492,7 +1492,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -1513,20 +1513,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>50672</v>
+        <v>50732</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Bloodvenom Blade</t>
+          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1534,20 +1534,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>50672</v>
+        <v>50732</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Bloodvenom Blade</t>
+          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -1555,7 +1555,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -1576,20 +1576,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>50609</v>
+        <v>50672</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Bone Sentinel's Amulet</t>
+          <t>Bloodvenom Blade</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -1597,20 +1597,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>50609</v>
+        <v>50672</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Bone Sentinel's Amulet</t>
+          <t>Bloodvenom Blade</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -1618,15 +1618,15 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>50660</v>
+        <v>50609</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Boneguard Commander's Pauldrons</t>
+          <t>Bone Sentinel's Amulet</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1639,15 +1639,15 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>50660</v>
+        <v>50609</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Boneguard Commander's Pauldrons</t>
+          <t>Bone Sentinel's Amulet</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1664,11 +1664,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>50611</v>
+        <v>50660</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Bracers of Dark Reckoning</t>
+          <t>Boneguard Commander's Pauldrons</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1685,11 +1685,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>50611</v>
+        <v>50660</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bracers of Dark Reckoning</t>
+          <t>Boneguard Commander's Pauldrons</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1702,15 +1702,15 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>50630</v>
+        <v>50611</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Bracers of Eternal Dreaming</t>
+          <t>Bracers of Dark Reckoning</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1723,15 +1723,15 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>50630</v>
+        <v>50611</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Bracers of Eternal Dreaming</t>
+          <t>Bracers of Dark Reckoning</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1744,15 +1744,15 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>50640</v>
+        <v>50630</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Broken Ram Skull Helm</t>
+          <t>Bracers of Eternal Dreaming</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1765,20 +1765,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>50616</v>
+        <v>50630</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Bulwark of Smouldering Steel</t>
+          <t>Bracers of Eternal Dreaming</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -1786,20 +1786,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>50616</v>
+        <v>50640</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Bulwark of Smouldering Steel</t>
+          <t>Broken Ram Skull Helm</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -1807,15 +1807,15 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>47146</v>
+        <v>50616</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Chalice of Searing Light</t>
+          <t>Bulwark of Smouldering Steel</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1823,29 +1823,25 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>50620</v>
+        <v>50616</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Coldwraith Links</t>
+          <t>Bulwark of Smouldering Steel</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -1853,28 +1849,32 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>50620</v>
+        <v>47146</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Coldwraith Links</t>
+          <t>Chalice of Searing Light</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -1916,7 +1916,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -1937,20 +1937,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Coldwraith Links</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -1958,20 +1958,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Coldwraith Links</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -2021,7 +2021,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -2042,7 +2042,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -2063,7 +2063,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -2084,7 +2084,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -2147,7 +2147,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -2189,7 +2189,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -2210,7 +2210,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -2273,20 +2273,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>50684</v>
+        <v>52030</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Corpse-Impaling Spike</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -2294,20 +2294,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>50684</v>
+        <v>52030</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Corpse-Impaling Spike</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -2315,7 +2315,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -2336,20 +2336,20 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>50356</v>
+        <v>50684</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Corroded Skeleton Key</t>
+          <t>Corpse-Impaling Spike</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -2357,20 +2357,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>50356</v>
+        <v>50684</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Corroded Skeleton Key</t>
+          <t>Corpse-Impaling Spike</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -2378,20 +2378,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>51928</v>
+        <v>50356</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Corrupted Silverplate Leggings</t>
+          <t>Corroded Skeleton Key</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -2399,20 +2399,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>50613</v>
+        <v>50356</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Corroded Skeleton Key</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -2420,20 +2420,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>50613</v>
+        <v>51928</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Corrupted Silverplate Leggings</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -2441,7 +2441,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -2462,7 +2462,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -2483,7 +2483,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -2504,20 +2504,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>50721</v>
+        <v>50613</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Crypt Keeper's Bracers</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -2525,20 +2525,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>50686</v>
+        <v>50613</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Death Surgeon's Sleeves</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -2546,20 +2546,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>50686</v>
+        <v>50613</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Death Surgeon's Sleeves</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -2567,20 +2567,20 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>50686</v>
+        <v>50721</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Death Surgeon's Sleeves</t>
+          <t>Crypt Keeper's Bracers</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -2588,15 +2588,15 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>47131</v>
+        <v>50686</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Death's Verdict</t>
+          <t>Death Surgeon's Sleeves</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2609,15 +2609,15 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>47131</v>
+        <v>50686</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Death's Verdict</t>
+          <t>Death Surgeon's Sleeves</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2625,24 +2625,20 @@
           <t>2</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>47131</v>
+        <v>50686</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Death's Verdict</t>
+          <t>Death Surgeon's Sleeves</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2650,16 +2646,12 @@
           <t>3</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2672,82 +2664,90 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death's Verdict</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death's Verdict</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death's Verdict</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -2768,7 +2768,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -2789,7 +2789,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -2810,7 +2810,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -2831,7 +2831,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -2852,20 +2852,20 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>50622</v>
+        <v>50363</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Devium's Eternally Cold Ring</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -2873,20 +2873,20 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>50622</v>
+        <v>50363</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Devium's Eternally Cold Ring</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -2894,20 +2894,20 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -2915,20 +2915,20 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>50348</v>
+        <v>50622</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Devium's Eternally Cold Ring</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -2936,20 +2936,20 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>50348</v>
+        <v>50622</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Devium's Eternally Cold Ring</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -2957,7 +2957,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -2978,7 +2978,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -2999,20 +2999,20 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -3020,20 +3020,20 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -3041,20 +3041,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -3062,20 +3062,20 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -3083,15 +3083,15 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>50650</v>
+        <v>50733</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Fallen Lord's Handguards</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3104,20 +3104,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -3125,20 +3125,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -3146,20 +3146,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -3167,20 +3167,20 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>50628</v>
+        <v>50650</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fallen Lord's Handguards</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -3209,7 +3209,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -3230,20 +3230,20 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Frostbitten Fur Boots</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -3251,20 +3251,20 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Frostbitten Fur Boots</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -3272,20 +3272,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>50618</v>
+        <v>50628</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -3293,20 +3293,20 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>50618</v>
+        <v>50628</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -3314,20 +3314,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>50618</v>
+        <v>50628</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -3335,20 +3335,20 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>50618</v>
+        <v>50607</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Frostbitten Fur Boots</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -3356,20 +3356,20 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>50730</v>
+        <v>50607</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Glorenzelg, High-Blade of the Silver Hand</t>
+          <t>Frostbitten Fur Boots</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -3377,20 +3377,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>50730</v>
+        <v>50618</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Glorenzelg, High-Blade of the Silver Hand</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -3398,20 +3398,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>50730</v>
+        <v>50618</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Glorenzelg, High-Blade of the Silver Hand</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>50730</v>
+        <v>50618</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Glorenzelg, High-Blade of the Silver Hand</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -3440,20 +3440,20 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>50668</v>
+        <v>50618</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Greatcloak of the Turned Champion</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -3461,20 +3461,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>50668</v>
+        <v>50730</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Greatcloak of the Turned Champion</t>
+          <t>Glorenzelg, High-Blade of the Silver Hand</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -3482,20 +3482,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>50668</v>
+        <v>50730</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Greatcloak of the Turned Champion</t>
+          <t>Glorenzelg, High-Blade of the Silver Hand</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -3503,20 +3503,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>50625</v>
+        <v>50730</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Grinning Skull Greatboots</t>
+          <t>Glorenzelg, High-Blade of the Silver Hand</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
@@ -3524,20 +3524,20 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>50625</v>
+        <v>50730</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Grinning Skull Greatboots</t>
+          <t>Glorenzelg, High-Blade of the Silver Hand</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
@@ -3545,15 +3545,15 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>50737</v>
+        <v>50668</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Havoc's Call, Blade of Lordaeron Kings</t>
+          <t>Greatcloak of the Turned Champion</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3566,15 +3566,15 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>50737</v>
+        <v>50668</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Havoc's Call, Blade of Lordaeron Kings</t>
+          <t>Greatcloak of the Turned Champion</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3587,20 +3587,20 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>50700</v>
+        <v>50668</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Holiday's Grace</t>
+          <t>Greatcloak of the Turned Champion</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
@@ -3608,15 +3608,15 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>50698</v>
+        <v>50625</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Horrific Flesh Epaulets</t>
+          <t>Grinning Skull Greatboots</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3629,20 +3629,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>50729</v>
+        <v>50625</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Icecrown Glacial Wall</t>
+          <t>Grinning Skull Greatboots</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
@@ -3650,20 +3650,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>50729</v>
+        <v>50663</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Icecrown Glacial Wall</t>
+          <t>Gunship Captain's Mittens</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -3671,20 +3671,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>50454</v>
+        <v>50737</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Idol of the Black Willow</t>
+          <t>Havoc's Call, Blade of Lordaeron Kings</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -3692,20 +3692,20 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>50454</v>
+        <v>50737</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Idol of the Black Willow</t>
+          <t>Havoc's Call, Blade of Lordaeron Kings</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
@@ -3713,20 +3713,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>50456</v>
+        <v>50700</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Idol of the Crying Moon</t>
+          <t>Holiday's Grace</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -3734,15 +3734,15 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>50642</v>
+        <v>50698</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Juggernaut Band</t>
+          <t>Horrific Flesh Epaulets</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3755,15 +3755,15 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>51882</v>
+        <v>50729</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Kilt of Untreated Wounds</t>
+          <t>Icecrown Glacial Wall</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3776,20 +3776,20 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>50708</v>
+        <v>50729</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Last Word</t>
+          <t>Icecrown Glacial Wall</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
@@ -3797,20 +3797,20 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>50708</v>
+        <v>50454</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Last Word</t>
+          <t>Idol of the Black Willow</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -3818,20 +3818,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>50645</v>
+        <v>50454</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Leggings of Northern Lights</t>
+          <t>Idol of the Black Willow</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -3839,20 +3839,20 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>47664</v>
+        <v>50456</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Libram of Defiance</t>
+          <t>Idol of the Crying Moon</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Emblems of Triumph</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -3860,20 +3860,20 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>40705</v>
+        <v>50457</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Libram of Renewal</t>
+          <t>Idol of the Lunar Eclipse</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>50461</v>
+        <v>50642</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Libram of the Eternal Tower</t>
+          <t>Juggernaut Band</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
@@ -3906,11 +3906,11 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>50702</v>
+        <v>51882</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Lingering Illness</t>
+          <t>Kilt of Untreated Wounds</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -3923,20 +3923,20 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>50702</v>
+        <v>50708</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Lingering Illness</t>
+          <t>Last Word</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E166" t="inlineStr"/>
@@ -3944,20 +3944,20 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>50610</v>
+        <v>50708</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Marrowgar's Frigid Eye</t>
+          <t>Last Word</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E167" t="inlineStr"/>
@@ -3965,15 +3965,15 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>50636</v>
+        <v>50645</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Memory of Malygos</t>
+          <t>Leggings of Northern Lights</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -3986,20 +3986,20 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>50636</v>
+        <v>47664</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Memory of Malygos</t>
+          <t>Libram of Defiance</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Emblems of Triumph</t>
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
@@ -4007,20 +4007,20 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>50636</v>
+        <v>40705</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Memory of Malygos</t>
+          <t>Libram of Renewal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="E170" t="inlineStr"/>
@@ -4028,40 +4028,36 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>46051</v>
+        <v>50461</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Meteorite Crystal</t>
+          <t>Libram of the Eternal Tower</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>Emblems of Frost</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>50693</v>
+        <v>50702</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Might of Blight</t>
+          <t>Lingering Illness</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4074,15 +4070,15 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>50693</v>
+        <v>50702</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Might of Blight</t>
+          <t>Lingering Illness</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4095,15 +4091,15 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>50738</v>
+        <v>50610</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Mithrios, Bronzebeard's Legacy</t>
+          <t>Marrowgar's Frigid Eye</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4116,15 +4112,15 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>50688</v>
+        <v>50636</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Nerub'ar Stalker's Cord</t>
+          <t>Memory of Malygos</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4137,15 +4133,15 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>50688</v>
+        <v>50636</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Nerub'ar Stalker's Cord</t>
+          <t>Memory of Malygos</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4158,20 +4154,20 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>50631</v>
+        <v>50636</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Nightmare Ender</t>
+          <t>Memory of Malygos</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -4179,36 +4175,40 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>50631</v>
+        <v>46051</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Nightmare Ender</t>
+          <t>Meteorite Crystal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>50627</v>
+        <v>50693</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Noose of Malachite</t>
+          <t>Might of Blight</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4221,20 +4221,20 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>50735</v>
+        <v>50693</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Oathbinder, Charge of the Ranger-General</t>
+          <t>Might of Blight</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
@@ -4242,20 +4242,20 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>50735</v>
+        <v>50738</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Oathbinder, Charge of the Ranger-General</t>
+          <t>Mithrios, Bronzebeard's Legacy</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
@@ -4263,15 +4263,15 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>50365</v>
+        <v>50688</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Nerub'ar Stalker's Cord</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4284,15 +4284,15 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>50365</v>
+        <v>50688</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Nerub'ar Stalker's Cord</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4305,20 +4305,20 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>50365</v>
+        <v>50631</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Nightmare Ender</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E184" t="inlineStr"/>
@@ -4326,20 +4326,20 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>50365</v>
+        <v>50631</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Nightmare Ender</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
@@ -4347,15 +4347,15 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>50699</v>
+        <v>50627</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Noose of Malachite</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4368,20 +4368,20 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>50699</v>
+        <v>50735</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Oathbinder, Charge of the Ranger-General</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
@@ -4389,20 +4389,20 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>50699</v>
+        <v>50735</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Oathbinder, Charge of the Ranger-General</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
@@ -4414,16 +4414,16 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E189" t="inlineStr"/>
@@ -4431,20 +4431,20 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
@@ -4452,20 +4452,20 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E191" t="inlineStr"/>
@@ -4473,20 +4473,20 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E192" t="inlineStr"/>
@@ -4494,20 +4494,20 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
@@ -4515,15 +4515,15 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>50659</v>
+        <v>50699</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Polar Bear Claw Bracers</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4536,15 +4536,15 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>50659</v>
+        <v>50699</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Polar Bear Claw Bracers</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4557,20 +4557,20 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>50705</v>
+        <v>50699</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Professor's Bloodied Smock</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
@@ -4578,20 +4578,20 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>50705</v>
+        <v>50699</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Professor's Bloodied Smock</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E197" t="inlineStr"/>
@@ -4599,20 +4599,20 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
@@ -4620,20 +4620,20 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
@@ -4641,20 +4641,20 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -4662,20 +4662,20 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E201" t="inlineStr"/>
@@ -4683,20 +4683,20 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
@@ -4704,20 +4704,20 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>52029</v>
+        <v>50659</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Polar Bear Claw Bracers</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E203" t="inlineStr"/>
@@ -4725,20 +4725,20 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>52029</v>
+        <v>50659</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Polar Bear Claw Bracers</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
@@ -4746,20 +4746,20 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>52029</v>
+        <v>50705</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Professor's Bloodied Smock</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -4767,20 +4767,20 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>52029</v>
+        <v>50705</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Professor's Bloodied Smock</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E206" t="inlineStr"/>
@@ -4788,7 +4788,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
@@ -4809,7 +4809,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -4830,7 +4830,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
@@ -4851,7 +4851,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
@@ -4872,7 +4872,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -4906,7 +4906,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
@@ -4914,7 +4914,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -4935,7 +4935,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -4956,7 +4956,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
@@ -4977,7 +4977,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
@@ -4998,7 +4998,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
@@ -5019,7 +5019,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
@@ -5040,7 +5040,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -5061,7 +5061,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -5082,7 +5082,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
@@ -5103,45 +5103,41 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>47188</v>
+        <v>52029</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Reign of the Unliving</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
@@ -5149,20 +5145,20 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -5170,20 +5166,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
@@ -5191,20 +5187,20 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -5212,20 +5208,20 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5233,20 +5229,20 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5254,20 +5250,20 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>50629</v>
+        <v>52029</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Robe of the Waking Nightmare</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5275,20 +5271,20 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>50629</v>
+        <v>52029</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Robe of the Waking Nightmare</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -5296,15 +5292,15 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>50680</v>
+        <v>47188</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Rot-Resistant Breastplate</t>
+          <t>Reign of the Unliving</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -5312,20 +5308,24 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr"/>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>50718</v>
+        <v>50664</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Royal Crimson Cloak</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5338,15 +5338,15 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>50718</v>
+        <v>50664</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Royal Crimson Cloak</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5359,20 +5359,20 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>50734</v>
+        <v>50664</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -5380,20 +5380,20 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>50734</v>
+        <v>50664</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -5401,20 +5401,20 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>50734</v>
+        <v>50664</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -5422,20 +5422,20 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>50722</v>
+        <v>50664</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>San'layn Ritualist Gloves</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -5443,20 +5443,20 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>50717</v>
+        <v>50664</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -5464,20 +5464,20 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>50717</v>
+        <v>50629</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>Robe of the Waking Nightmare</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -5485,20 +5485,20 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>50717</v>
+        <v>50629</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>Robe of the Waking Nightmare</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -5506,15 +5506,15 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>50655</v>
+        <v>50680</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Scourge Hunter's Vambraces</t>
+          <t>Rot-Resistant Breastplate</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5527,20 +5527,20 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>50655</v>
+        <v>50718</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Scourge Hunter's Vambraces</t>
+          <t>Royal Crimson Cloak</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
@@ -5548,20 +5548,20 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>50624</v>
+        <v>50718</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Scourge Reaver's Legplates</t>
+          <t>Royal Crimson Cloak</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
@@ -5569,20 +5569,20 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>50624</v>
+        <v>50734</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Scourge Reaver's Legplates</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -5590,20 +5590,20 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>50719</v>
+        <v>50734</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Shadow Silk Spindle</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -5611,20 +5611,20 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>50719</v>
+        <v>50734</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Shadow Silk Spindle</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E246" t="inlineStr"/>
@@ -5632,20 +5632,20 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>50719</v>
+        <v>50734</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Shadow Silk Spindle</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -5653,20 +5653,20 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>49623</v>
+        <v>50722</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Shadowmourne</t>
+          <t>San'layn Ritualist Gloves</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Legendary</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -5674,15 +5674,15 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>50653</v>
+        <v>50717</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Shadowvault Slayer's Cloak</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -5695,15 +5695,15 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>50653</v>
+        <v>50717</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Shadowvault Slayer's Cloak</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -5716,20 +5716,20 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>47673</v>
+        <v>50717</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Sigil of Virulence</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Emblems of Triumph</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -5737,20 +5737,20 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>50459</v>
+        <v>50655</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Sigil of the Hanged Man</t>
+          <t>Scourge Hunter's Vambraces</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -5758,20 +5758,20 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>50633</v>
+        <v>50655</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Scourge Hunter's Vambraces</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E253" t="inlineStr"/>
@@ -5779,20 +5779,20 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>50633</v>
+        <v>50624</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Scourge Reaver's Legplates</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E254" t="inlineStr"/>
@@ -5800,20 +5800,20 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>50633</v>
+        <v>50624</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Scourge Reaver's Legplates</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E255" t="inlineStr"/>
@@ -5821,20 +5821,20 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>50633</v>
+        <v>50719</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E256" t="inlineStr"/>
@@ -5842,20 +5842,20 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>50633</v>
+        <v>50719</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -5863,20 +5863,20 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>50633</v>
+        <v>50719</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
@@ -5884,20 +5884,20 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>50364</v>
+        <v>50719</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Sindragosa's Flawless Fang</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
@@ -5905,20 +5905,20 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>50364</v>
+        <v>49623</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Sindragosa's Flawless Fang</t>
+          <t>Shadowmourne</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Legendary</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -5926,15 +5926,15 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>50657</v>
+        <v>50653</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Skeleton Lord's Circle</t>
+          <t>Shadowvault Slayer's Cloak</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -5947,20 +5947,20 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>47059</v>
+        <v>50653</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Solace of the Defeated</t>
+          <t>Shadowvault Slayer's Cloak</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
@@ -5968,70 +5968,62 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>47059</v>
+        <v>47673</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Solace of the Defeated</t>
+          <t>Sigil of Virulence</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>Emblems of Triumph</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>47059</v>
+        <v>50459</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Solace of the Defeated</t>
+          <t>Sigil of the Hanged Man</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>Emblems of Frost</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>37111</v>
+        <v>50633</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Soul Preserver</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -6039,20 +6031,20 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>50635</v>
+        <v>50633</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Sundial of Eternal Dusk</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E266" t="inlineStr"/>
@@ -6060,20 +6052,20 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>50635</v>
+        <v>50633</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Sundial of Eternal Dusk</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -6081,20 +6073,20 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>50635</v>
+        <v>50633</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Sundial of Eternal Dusk</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -6102,20 +6094,20 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>50716</v>
+        <v>50633</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Taldaram's Plated Fists</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E269" t="inlineStr"/>
@@ -6123,20 +6115,20 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>50651</v>
+        <v>50633</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>The Lady's Brittle Bracers</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E270" t="inlineStr"/>
@@ -6144,20 +6136,20 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>50651</v>
+        <v>50364</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>The Lady's Brittle Bracers</t>
+          <t>Sindragosa's Flawless Fang</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
@@ -6165,20 +6157,20 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>50670</v>
+        <v>50364</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Sindragosa's Flawless Fang</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E272" t="inlineStr"/>
@@ -6186,20 +6178,20 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>50670</v>
+        <v>50657</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Skeleton Lord's Circle</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
@@ -6207,20 +6199,20 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>50670</v>
+        <v>47059</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E274" t="inlineStr"/>
@@ -6228,119 +6220,115 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>50670</v>
+        <v>47059</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>50711</v>
+        <v>47059</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Treads of the Wasteland</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>46017</v>
+        <v>37111</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Soul Preserver</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>46017</v>
+        <v>50635</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Sundial of Eternal Dusk</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>46017</v>
+        <v>50635</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Sundial of Eternal Dusk</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -6349,16 +6337,16 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>50714</v>
+        <v>50635</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Valanar's Other Signet Ring</t>
+          <t>Sundial of Eternal Dusk</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -6366,15 +6354,15 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>52028</v>
+        <v>50716</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Taldaram's Plated Fists</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -6387,20 +6375,20 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>52028</v>
+        <v>50651</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>The Lady's Brittle Bracers</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E282" t="inlineStr"/>
@@ -6408,20 +6396,20 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>52028</v>
+        <v>50651</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>The Lady's Brittle Bracers</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -6429,20 +6417,20 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>52028</v>
+        <v>50651</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>The Lady's Brittle Bracers</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -6450,20 +6438,20 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
@@ -6471,20 +6459,20 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Nordton</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E286" t="inlineStr"/>
@@ -6492,20 +6480,20 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E287" t="inlineStr"/>
@@ -6513,20 +6501,20 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E288" t="inlineStr"/>
@@ -6534,20 +6522,20 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>52028</v>
+        <v>50711</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Treads of the Wasteland</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E289" t="inlineStr"/>
@@ -6555,83 +6543,95 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr"/>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr"/>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr"/>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>52028</v>
+        <v>50714</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Valanar's Other Signet Ring</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -6639,7 +6639,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -6660,7 +6660,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -6673,7 +6673,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -6681,7 +6681,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -6702,7 +6702,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -6723,7 +6723,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -6744,7 +6744,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -6765,7 +6765,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -6778,7 +6778,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -6786,7 +6786,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -6799,7 +6799,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -6807,7 +6807,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
@@ -6828,7 +6828,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
@@ -6849,7 +6849,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -6862,7 +6862,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E304" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E305" t="inlineStr"/>
@@ -6891,7 +6891,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -6912,7 +6912,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -6933,7 +6933,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
@@ -6954,7 +6954,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E309" t="inlineStr"/>
@@ -6975,7 +6975,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E310" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E311" t="inlineStr"/>
@@ -7017,7 +7017,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -7030,7 +7030,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E312" t="inlineStr"/>
@@ -7038,20 +7038,20 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E313" t="inlineStr"/>
@@ -7059,20 +7059,20 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
@@ -7080,20 +7080,20 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
@@ -7101,20 +7101,20 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E316" t="inlineStr"/>
@@ -7122,20 +7122,20 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>51946</v>
+        <v>52028</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Warmace of Menethil</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E317" t="inlineStr"/>
@@ -7143,20 +7143,20 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E318" t="inlineStr"/>
@@ -7164,20 +7164,20 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Nordton</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E319" t="inlineStr"/>
@@ -7185,20 +7185,20 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E320" t="inlineStr"/>
@@ -7206,20 +7206,20 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E321" t="inlineStr"/>
@@ -7227,20 +7227,20 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>50677</v>
+        <v>52028</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Winding Sheet</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E322" t="inlineStr"/>
@@ -7248,23 +7248,380 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
+          <t>Pamage</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Pamage</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Pamage</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Wishnourson</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Wishnourson</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Wishnourson</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Wishnourson</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Fuldrak</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Nordton</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Aurallia</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Fuldrak</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>51946</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Warmace of Menethil</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Fuldrak</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Nordton</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Iryastra</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>50677</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Winding Sheet</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
           <t>Gosseyn</t>
         </is>
       </c>
-      <c r="B323" t="n">
+      <c r="B340" t="n">
         <v>50677</v>
       </c>
-      <c r="C323" t="inlineStr">
+      <c r="C340" t="inlineStr">
         <is>
           <t>Winding Sheet</t>
         </is>
       </c>
-      <c r="D323" t="inlineStr">
+      <c r="D340" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E323" t="inlineStr"/>
+      <c r="E340" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E356"/>
+  <dimension ref="A1:E373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,7 +715,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -736,7 +736,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -778,7 +778,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -799,7 +799,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -841,7 +841,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -862,7 +862,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -883,7 +883,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -925,7 +925,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -946,7 +946,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -967,15 +967,15 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>50400</v>
+        <v>50402</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Wisdom</t>
+          <t>Ashen Band of Endless Vengeance</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1009,7 +1009,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1030,7 +1030,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1051,20 +1051,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>50707</v>
+        <v>50400</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Astrylian's Sutured Cinch</t>
+          <t>Ashen Band of Endless Wisdom</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Reputation</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1076,11 +1076,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50604</v>
+        <v>50707</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Band of the Bone Colossus</t>
+          <t>Astrylian's Sutured Cinch</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1093,15 +1093,15 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50604</v>
+        <v>50707</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Band of the Bone Colossus</t>
+          <t>Astrylian's Sutured Cinch</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1114,15 +1114,15 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50691</v>
+        <v>50604</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Belt of Broken Bones</t>
+          <t>Band of the Bone Colossus</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1135,15 +1135,15 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50691</v>
+        <v>50604</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Belt of Broken Bones</t>
+          <t>Band of the Bone Colossus</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1156,20 +1156,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50682</v>
+        <v>50604</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Bile-Encrusted Medallion</t>
+          <t>Band of the Bone Colossus</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1177,20 +1177,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>50458</v>
+        <v>50691</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Bizuri's Totem of Shattered Ice</t>
+          <t>Belt of Broken Bones</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1198,20 +1198,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50458</v>
+        <v>50691</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Bizuri's Totem of Shattered Ice</t>
+          <t>Belt of Broken Bones</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1219,20 +1219,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>49894</v>
+        <v>50682</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Blessed Cenarion Boots</t>
+          <t>Bile-Encrusted Medallion</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Craft</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1240,20 +1240,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50724</v>
+        <v>50458</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Blood Queen's Crimson Choker</t>
+          <t>Bizuri's Totem of Shattered Ice</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1261,20 +1261,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50724</v>
+        <v>50458</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Blood Queen's Crimson Choker</t>
+          <t>Bizuri's Totem of Shattered Ice</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1282,20 +1282,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50724</v>
+        <v>49894</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Blood Queen's Crimson Choker</t>
+          <t>Blessed Cenarion Boots</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Craft</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -1303,7 +1303,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1324,7 +1324,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1345,7 +1345,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -1366,20 +1366,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Blood-Soaked Saronite Stompers</t>
+          <t>Blood Queen's Crimson Choker</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1387,20 +1387,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Blood-Soaked Saronite Stompers</t>
+          <t>Blood Queen's Crimson Choker</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1408,20 +1408,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Blood-Soaked Saronite Stompers</t>
+          <t>Blood Queen's Crimson Choker</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1429,7 +1429,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -1450,20 +1450,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>50687</v>
+        <v>50639</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Bloodsunder's Bracers</t>
+          <t>Blood-Soaked Saronite Stompers</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -1471,20 +1471,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>50732</v>
+        <v>50639</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
+          <t>Blood-Soaked Saronite Stompers</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -1492,20 +1492,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>50732</v>
+        <v>50639</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
+          <t>Blood-Soaked Saronite Stompers</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -1513,20 +1513,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>50732</v>
+        <v>50687</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
+          <t>Bloodsunder's Bracers</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1534,7 +1534,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -1555,20 +1555,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>50672</v>
+        <v>50732</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Bloodvenom Blade</t>
+          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -1576,20 +1576,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>50672</v>
+        <v>50732</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Bloodvenom Blade</t>
+          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -1597,20 +1597,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>50672</v>
+        <v>50732</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Bloodvenom Blade</t>
+          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -1618,15 +1618,15 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>50609</v>
+        <v>50672</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Bone Sentinel's Amulet</t>
+          <t>Bloodvenom Blade</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1639,15 +1639,15 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>50609</v>
+        <v>50672</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Bone Sentinel's Amulet</t>
+          <t>Bloodvenom Blade</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1660,20 +1660,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>50660</v>
+        <v>50672</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Boneguard Commander's Pauldrons</t>
+          <t>Bloodvenom Blade</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -1681,20 +1681,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>50660</v>
+        <v>50609</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Boneguard Commander's Pauldrons</t>
+          <t>Bone Sentinel's Amulet</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -1702,20 +1702,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>50611</v>
+        <v>50609</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Bracers of Dark Reckoning</t>
+          <t>Bone Sentinel's Amulet</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -1723,20 +1723,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>50611</v>
+        <v>50660</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Bracers of Dark Reckoning</t>
+          <t>Boneguard Commander's Pauldrons</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -1744,20 +1744,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>50630</v>
+        <v>50660</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Bracers of Eternal Dreaming</t>
+          <t>Boneguard Commander's Pauldrons</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -1765,20 +1765,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>50630</v>
+        <v>50611</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Bracers of Eternal Dreaming</t>
+          <t>Bracers of Dark Reckoning</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -1786,20 +1786,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>50630</v>
+        <v>50611</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Bracers of Eternal Dreaming</t>
+          <t>Bracers of Dark Reckoning</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -1807,15 +1807,15 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>50640</v>
+        <v>50630</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Broken Ram Skull Helm</t>
+          <t>Bracers of Eternal Dreaming</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1828,20 +1828,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>50616</v>
+        <v>50630</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Bulwark of Smouldering Steel</t>
+          <t>Bracers of Eternal Dreaming</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -1849,20 +1849,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>50616</v>
+        <v>50630</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Bulwark of Smouldering Steel</t>
+          <t>Bracers of Eternal Dreaming</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -1870,20 +1870,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>50616</v>
+        <v>50640</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Bulwark of Smouldering Steel</t>
+          <t>Broken Ram Skull Helm</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -1891,15 +1891,15 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>47146</v>
+        <v>50616</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Chalice of Searing Light</t>
+          <t>Bulwark of Smouldering Steel</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1907,29 +1907,25 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>50620</v>
+        <v>50616</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Coldwraith Links</t>
+          <t>Bulwark of Smouldering Steel</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -1937,20 +1933,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>50620</v>
+        <v>50616</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Coldwraith Links</t>
+          <t>Bulwark of Smouldering Steel</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -1958,28 +1954,32 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>50620</v>
+        <v>47146</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Coldwraith Links</t>
+          <t>Chalice of Searing Light</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -2000,20 +2000,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Coldwraith Links</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -2021,20 +2021,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Coldwraith Links</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -2042,20 +2042,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Coldwraith Links</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -2084,7 +2084,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -2105,7 +2105,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -2126,7 +2126,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -2147,7 +2147,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -2210,7 +2210,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -2231,7 +2231,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -2252,7 +2252,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -2273,7 +2273,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -2294,7 +2294,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -2336,7 +2336,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -2357,7 +2357,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -2378,20 +2378,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>50684</v>
+        <v>52030</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Corpse-Impaling Spike</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -2399,20 +2399,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>50684</v>
+        <v>52030</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Corpse-Impaling Spike</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -2420,20 +2420,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>50684</v>
+        <v>52030</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Corpse-Impaling Spike</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -2441,20 +2441,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>50356</v>
+        <v>50684</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Corroded Skeleton Key</t>
+          <t>Corpse-Impaling Spike</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -2462,20 +2462,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>50356</v>
+        <v>50684</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Corroded Skeleton Key</t>
+          <t>Corpse-Impaling Spike</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -2483,20 +2483,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>51928</v>
+        <v>50684</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Corrupted Silverplate Leggings</t>
+          <t>Corpse-Impaling Spike</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -2504,20 +2504,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>50613</v>
+        <v>50356</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Corroded Skeleton Key</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -2525,20 +2525,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>50613</v>
+        <v>50356</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Corroded Skeleton Key</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -2546,20 +2546,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>50613</v>
+        <v>51928</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Corrupted Silverplate Leggings</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -2567,7 +2567,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -2588,7 +2588,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -2609,7 +2609,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -2630,7 +2630,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -2651,20 +2651,20 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>50721</v>
+        <v>50613</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Crypt Keeper's Bracers</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -2676,16 +2676,16 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>50721</v>
+        <v>50613</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Crypt Keeper's Bracers</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -2693,20 +2693,20 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>50686</v>
+        <v>50613</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Death Surgeon's Sleeves</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -2714,20 +2714,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>50686</v>
+        <v>50721</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Death Surgeon's Sleeves</t>
+          <t>Crypt Keeper's Bracers</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -2735,20 +2735,20 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>50686</v>
+        <v>50721</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Death Surgeon's Sleeves</t>
+          <t>Crypt Keeper's Bracers</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -2756,15 +2756,15 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>47131</v>
+        <v>50686</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Death's Verdict</t>
+          <t>Death Surgeon's Sleeves</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2777,15 +2777,15 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>47131</v>
+        <v>50686</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Death's Verdict</t>
+          <t>Death Surgeon's Sleeves</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2793,24 +2793,20 @@
           <t>2</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>47131</v>
+        <v>50686</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Death's Verdict</t>
+          <t>Death Surgeon's Sleeves</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2818,16 +2814,12 @@
           <t>3</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2840,19 +2832,15 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2865,7 +2853,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -2877,70 +2865,82 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death's Verdict</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death's Verdict</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death's Verdict</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -2961,7 +2961,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -2982,7 +2982,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -3003,7 +3003,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -3024,7 +3024,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -3045,20 +3045,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>50622</v>
+        <v>50363</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Devium's Eternally Cold Ring</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -3066,20 +3066,20 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>50622</v>
+        <v>50363</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Devium's Eternally Cold Ring</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -3087,20 +3087,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -3108,20 +3108,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -3129,20 +3129,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>50348</v>
+        <v>50622</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Devium's Eternally Cold Ring</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -3150,20 +3150,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>50348</v>
+        <v>50622</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Devium's Eternally Cold Ring</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -3192,7 +3192,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -3213,20 +3213,20 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -3234,20 +3234,20 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -3255,20 +3255,20 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -3276,20 +3276,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -3297,15 +3297,15 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>50650</v>
+        <v>50733</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Fallen Lord's Handguards</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3318,15 +3318,15 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>50650</v>
+        <v>50733</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Fallen Lord's Handguards</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3339,20 +3339,20 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -3360,20 +3360,20 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -3381,20 +3381,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -3402,20 +3402,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>50628</v>
+        <v>50650</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fallen Lord's Handguards</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -3423,20 +3423,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>50628</v>
+        <v>50650</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fallen Lord's Handguards</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -3444,7 +3444,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -3465,7 +3465,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -3486,7 +3486,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -3507,20 +3507,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Frostbitten Fur Boots</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
@@ -3528,20 +3528,20 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Frostbitten Fur Boots</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
@@ -3549,20 +3549,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Frostbitten Fur Boots</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
@@ -3570,20 +3570,20 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>50618</v>
+        <v>50628</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
@@ -3591,20 +3591,20 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>50618</v>
+        <v>50628</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
@@ -3612,20 +3612,20 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>50618</v>
+        <v>50607</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Frostbitten Fur Boots</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
@@ -3633,20 +3633,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>50618</v>
+        <v>50607</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Frostbitten Fur Boots</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
@@ -3654,20 +3654,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>50730</v>
+        <v>50607</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Glorenzelg, High-Blade of the Silver Hand</t>
+          <t>Frostbitten Fur Boots</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -3675,20 +3675,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>50730</v>
+        <v>50607</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Glorenzelg, High-Blade of the Silver Hand</t>
+          <t>Frostbitten Fur Boots</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -3696,20 +3696,20 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>50730</v>
+        <v>50618</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Glorenzelg, High-Blade of the Silver Hand</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
@@ -3717,20 +3717,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>50668</v>
+        <v>50618</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Greatcloak of the Turned Champion</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -3738,20 +3738,20 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>50668</v>
+        <v>50618</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Greatcloak of the Turned Champion</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
@@ -3759,20 +3759,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>50668</v>
+        <v>50618</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Greatcloak of the Turned Champion</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
@@ -3780,15 +3780,15 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>50625</v>
+        <v>50730</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Grinning Skull Greatboots</t>
+          <t>Glorenzelg, High-Blade of the Silver Hand</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3801,15 +3801,15 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>50625</v>
+        <v>50730</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Grinning Skull Greatboots</t>
+          <t>Glorenzelg, High-Blade of the Silver Hand</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3822,20 +3822,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>50663</v>
+        <v>50730</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Gunship Captain's Mittens</t>
+          <t>Glorenzelg, High-Blade of the Silver Hand</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -3843,15 +3843,15 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>50737</v>
+        <v>50668</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Havoc's Call, Blade of Lordaeron Kings</t>
+          <t>Greatcloak of the Turned Champion</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -3864,15 +3864,15 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>50737</v>
+        <v>50668</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Havoc's Call, Blade of Lordaeron Kings</t>
+          <t>Greatcloak of the Turned Champion</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -3885,20 +3885,20 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>50700</v>
+        <v>50668</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Holiday's Grace</t>
+          <t>Greatcloak of the Turned Champion</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
@@ -3906,15 +3906,15 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>50698</v>
+        <v>50625</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Horrific Flesh Epaulets</t>
+          <t>Grinning Skull Greatboots</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -3927,20 +3927,20 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>50729</v>
+        <v>50625</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Icecrown Glacial Wall</t>
+          <t>Grinning Skull Greatboots</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E166" t="inlineStr"/>
@@ -3948,20 +3948,20 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>50729</v>
+        <v>50663</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Icecrown Glacial Wall</t>
+          <t>Gunship Captain's Mittens</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E167" t="inlineStr"/>
@@ -3969,20 +3969,20 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>50454</v>
+        <v>50737</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Idol of the Black Willow</t>
+          <t>Havoc's Call, Blade of Lordaeron Kings</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
@@ -3990,20 +3990,20 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>50454</v>
+        <v>50737</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Idol of the Black Willow</t>
+          <t>Havoc's Call, Blade of Lordaeron Kings</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
@@ -4011,20 +4011,20 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>50456</v>
+        <v>50736</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Idol of the Crying Moon</t>
+          <t>Heaven's Fall, Kryss of a Thousand Lies</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E170" t="inlineStr"/>
@@ -4032,20 +4032,20 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>50457</v>
+        <v>50700</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Idol of the Lunar Eclipse</t>
+          <t>Holiday's Grace</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E171" t="inlineStr"/>
@@ -4053,15 +4053,15 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>50642</v>
+        <v>50698</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Juggernaut Band</t>
+          <t>Horrific Flesh Epaulets</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4074,15 +4074,15 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>51882</v>
+        <v>50729</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Kilt of Untreated Wounds</t>
+          <t>Icecrown Glacial Wall</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4095,20 +4095,20 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>50708</v>
+        <v>50729</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Last Word</t>
+          <t>Icecrown Glacial Wall</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E174" t="inlineStr"/>
@@ -4116,20 +4116,20 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>50708</v>
+        <v>50454</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Last Word</t>
+          <t>Idol of the Black Willow</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E175" t="inlineStr"/>
@@ -4137,20 +4137,20 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>50645</v>
+        <v>50454</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Leggings of Northern Lights</t>
+          <t>Idol of the Black Willow</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
@@ -4158,20 +4158,20 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>50645</v>
+        <v>50456</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Leggings of Northern Lights</t>
+          <t>Idol of the Crying Moon</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -4179,20 +4179,20 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>47664</v>
+        <v>50457</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Libram of Defiance</t>
+          <t>Idol of the Lunar Eclipse</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Emblems of Triumph</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
@@ -4200,20 +4200,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>40705</v>
+        <v>50656</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Libram of Renewal</t>
+          <t>Ikfirus's Sack of Wonder</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
@@ -4221,20 +4221,20 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>40705</v>
+        <v>50642</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Libram of Renewal</t>
+          <t>Juggernaut Band</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
@@ -4242,20 +4242,20 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>50461</v>
+        <v>51882</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Libram of the Eternal Tower</t>
+          <t>Kilt of Untreated Wounds</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
@@ -4263,15 +4263,15 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>50702</v>
+        <v>50708</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Lingering Illness</t>
+          <t>Last Word</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4284,15 +4284,15 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>50702</v>
+        <v>50708</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Lingering Illness</t>
+          <t>Last Word</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4305,15 +4305,15 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>50610</v>
+        <v>50645</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Marrowgar's Frigid Eye</t>
+          <t>Leggings of Northern Lights</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4326,20 +4326,20 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>50636</v>
+        <v>50645</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Memory of Malygos</t>
+          <t>Leggings of Northern Lights</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
@@ -4347,20 +4347,20 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>50636</v>
+        <v>47664</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Memory of Malygos</t>
+          <t>Libram of Defiance</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Emblems of Triumph</t>
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
@@ -4368,20 +4368,20 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>50636</v>
+        <v>40705</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Memory of Malygos</t>
+          <t>Libram of Renewal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
@@ -4393,61 +4393,53 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>46051</v>
+        <v>40705</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Meteorite Crystal</t>
+          <t>Libram of Renewal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>46051</v>
+        <v>50461</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Meteorite Crystal</t>
+          <t>Libram of the Eternal Tower</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>Emblems of Frost</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>50693</v>
+        <v>50702</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Might of Blight</t>
+          <t>Lingering Illness</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4460,15 +4452,15 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>50693</v>
+        <v>50702</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Might of Blight</t>
+          <t>Lingering Illness</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4481,15 +4473,15 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>50738</v>
+        <v>50621</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Mithrios, Bronzebeard's Legacy</t>
+          <t>Lungbreaker</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4502,15 +4494,15 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>50688</v>
+        <v>50610</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Nerub'ar Stalker's Cord</t>
+          <t>Marrowgar's Frigid Eye</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4523,20 +4515,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>50688</v>
+        <v>50636</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Nerub'ar Stalker's Cord</t>
+          <t>Memory of Malygos</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E194" t="inlineStr"/>
@@ -4544,20 +4536,20 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>50688</v>
+        <v>50636</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Nerub'ar Stalker's Cord</t>
+          <t>Memory of Malygos</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E195" t="inlineStr"/>
@@ -4565,20 +4557,20 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>50631</v>
+        <v>50636</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Nightmare Ender</t>
+          <t>Memory of Malygos</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
@@ -4586,57 +4578,65 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>50631</v>
+        <v>46051</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Nightmare Ender</t>
+          <t>Meteorite Crystal</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>50627</v>
+        <v>46051</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Noose of Malachite</t>
+          <t>Meteorite Crystal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>50735</v>
+        <v>50693</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Oathbinder, Charge of the Ranger-General</t>
+          <t>Might of Blight</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4649,15 +4649,15 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>50735</v>
+        <v>50693</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Oathbinder, Charge of the Ranger-General</t>
+          <t>Might of Blight</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4670,20 +4670,20 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>50735</v>
+        <v>50738</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Oathbinder, Charge of the Ranger-General</t>
+          <t>Mithrios, Bronzebeard's Legacy</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E201" t="inlineStr"/>
@@ -4691,15 +4691,15 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>50365</v>
+        <v>50688</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Nerub'ar Stalker's Cord</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4712,15 +4712,15 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>50365</v>
+        <v>50688</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Nerub'ar Stalker's Cord</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4733,15 +4733,15 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>50365</v>
+        <v>50688</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Nerub'ar Stalker's Cord</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4754,20 +4754,20 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>50365</v>
+        <v>50631</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Nightmare Ender</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -4775,20 +4775,20 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>50365</v>
+        <v>50631</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Nightmare Ender</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E206" t="inlineStr"/>
@@ -4796,15 +4796,15 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>50699</v>
+        <v>50627</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Noose of Malachite</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4817,20 +4817,20 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>50699</v>
+        <v>50735</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Oathbinder, Charge of the Ranger-General</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -4838,20 +4838,20 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>50699</v>
+        <v>50735</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Oathbinder, Charge of the Ranger-General</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
@@ -4859,20 +4859,20 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>50699</v>
+        <v>50735</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Oathbinder, Charge of the Ranger-General</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
@@ -4880,20 +4880,20 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -4905,16 +4905,16 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
@@ -4926,16 +4926,16 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -4947,16 +4947,16 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -4964,20 +4964,20 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
@@ -4985,7 +4985,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
@@ -5006,20 +5006,20 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>50694</v>
+        <v>50699</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Plaguebringer's Stained Pants</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
@@ -5027,20 +5027,20 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>50659</v>
+        <v>50699</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Polar Bear Claw Bracers</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
@@ -5048,20 +5048,20 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>50659</v>
+        <v>50699</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Polar Bear Claw Bracers</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -5069,20 +5069,20 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>50705</v>
+        <v>50699</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Professor's Bloodied Smock</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -5090,20 +5090,20 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>50705</v>
+        <v>50699</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Professor's Bloodied Smock</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
@@ -5111,20 +5111,20 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
@@ -5132,20 +5132,20 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
@@ -5153,20 +5153,20 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -5174,20 +5174,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
@@ -5195,20 +5195,20 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>52029</v>
+        <v>50694</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plaguebringer's Stained Pants</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -5216,20 +5216,20 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>52029</v>
+        <v>50659</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Polar Bear Claw Bracers</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5237,20 +5237,20 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>52029</v>
+        <v>50659</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Polar Bear Claw Bracers</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5258,20 +5258,20 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>52029</v>
+        <v>50705</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Professor's Bloodied Smock</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5279,20 +5279,20 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>52029</v>
+        <v>50705</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Professor's Bloodied Smock</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -5300,7 +5300,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -5321,7 +5321,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -5334,7 +5334,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -5342,7 +5342,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -5363,7 +5363,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -5384,7 +5384,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -5405,7 +5405,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -5426,7 +5426,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -5447,7 +5447,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -5468,7 +5468,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -5489,7 +5489,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -5510,7 +5510,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
@@ -5531,7 +5531,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
@@ -5552,7 +5552,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
@@ -5573,7 +5573,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -5594,7 +5594,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -5615,45 +5615,41 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>47188</v>
+        <v>52029</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Reign of the Unliving</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -5661,20 +5657,20 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -5682,20 +5678,20 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -5703,20 +5699,20 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -5724,20 +5720,20 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -5745,20 +5741,20 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -5766,20 +5762,20 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E253" t="inlineStr"/>
@@ -5787,20 +5783,20 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E254" t="inlineStr"/>
@@ -5808,15 +5804,15 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>50629</v>
+        <v>47188</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Robe of the Waking Nightmare</t>
+          <t>Reign of the Unliving</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -5824,25 +5820,29 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr"/>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>50629</v>
+        <v>50664</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Robe of the Waking Nightmare</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E256" t="inlineStr"/>
@@ -5854,16 +5854,16 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>50680</v>
+        <v>50664</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Rot-Resistant Breastplate</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -5871,20 +5871,20 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>50680</v>
+        <v>50664</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Rot-Resistant Breastplate</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
@@ -5892,20 +5892,20 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>50718</v>
+        <v>50664</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Royal Crimson Cloak</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
@@ -5913,20 +5913,20 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>50718</v>
+        <v>50664</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Royal Crimson Cloak</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -5934,20 +5934,20 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>50734</v>
+        <v>50664</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -5955,20 +5955,20 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>50734</v>
+        <v>50664</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
@@ -5976,20 +5976,20 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>50734</v>
+        <v>50664</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
@@ -5997,20 +5997,20 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>50734</v>
+        <v>50629</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Robe of the Waking Nightmare</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
@@ -6018,20 +6018,20 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>50722</v>
+        <v>50629</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>San'layn Ritualist Gloves</t>
+          <t>Robe of the Waking Nightmare</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -6039,15 +6039,15 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>50717</v>
+        <v>50680</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>Rot-Resistant Breastplate</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -6060,15 +6060,15 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>50717</v>
+        <v>50680</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>Rot-Resistant Breastplate</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -6081,20 +6081,20 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>50717</v>
+        <v>50718</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>Royal Crimson Cloak</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -6102,20 +6102,20 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>50655</v>
+        <v>50718</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Scourge Hunter's Vambraces</t>
+          <t>Royal Crimson Cloak</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E269" t="inlineStr"/>
@@ -6123,20 +6123,20 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>50655</v>
+        <v>50734</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Scourge Hunter's Vambraces</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E270" t="inlineStr"/>
@@ -6144,20 +6144,20 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>50655</v>
+        <v>50734</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Scourge Hunter's Vambraces</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
@@ -6165,20 +6165,20 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>50624</v>
+        <v>50734</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Scourge Reaver's Legplates</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E272" t="inlineStr"/>
@@ -6186,20 +6186,20 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>50624</v>
+        <v>50734</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Scourge Reaver's Legplates</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
@@ -6211,11 +6211,11 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>50719</v>
+        <v>50722</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Shadow Silk Spindle</t>
+          <t>San'layn Ritualist Gloves</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -6228,20 +6228,20 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>50719</v>
+        <v>50717</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Shadow Silk Spindle</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
@@ -6249,20 +6249,20 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>50719</v>
+        <v>50717</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Shadow Silk Spindle</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -6270,20 +6270,20 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>50719</v>
+        <v>50717</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Shadow Silk Spindle</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -6295,11 +6295,11 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>50653</v>
+        <v>50655</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Shadowvault Slayer's Cloak</t>
+          <t>Scourge Hunter's Vambraces</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -6312,15 +6312,15 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>50653</v>
+        <v>50655</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Shadowvault Slayer's Cloak</t>
+          <t>Scourge Hunter's Vambraces</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -6333,20 +6333,20 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>47673</v>
+        <v>50655</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Sigil of Virulence</t>
+          <t>Scourge Hunter's Vambraces</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Emblems of Triumph</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>50459</v>
+        <v>50624</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Sigil of the Hanged Man</t>
+          <t>Scourge Reaver's Legplates</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -6375,20 +6375,20 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>50633</v>
+        <v>50624</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Scourge Reaver's Legplates</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E282" t="inlineStr"/>
@@ -6396,20 +6396,20 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>50633</v>
+        <v>50719</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -6417,20 +6417,20 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>50633</v>
+        <v>50719</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -6438,20 +6438,20 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>50633</v>
+        <v>50719</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
@@ -6459,20 +6459,20 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>50633</v>
+        <v>50719</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E286" t="inlineStr"/>
@@ -6480,20 +6480,20 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>50633</v>
+        <v>50653</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Shadowvault Slayer's Cloak</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E287" t="inlineStr"/>
@@ -6501,20 +6501,20 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>50364</v>
+        <v>50653</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Sindragosa's Flawless Fang</t>
+          <t>Shadowvault Slayer's Cloak</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E288" t="inlineStr"/>
@@ -6522,20 +6522,20 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>50364</v>
+        <v>50653</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Sindragosa's Flawless Fang</t>
+          <t>Shadowvault Slayer's Cloak</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E289" t="inlineStr"/>
@@ -6543,20 +6543,20 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>50657</v>
+        <v>47673</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Skeleton Lord's Circle</t>
+          <t>Sigil of Virulence</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Triumph</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -6564,20 +6564,20 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>47059</v>
+        <v>50459</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Solace of the Defeated</t>
+          <t>Sigil of the Hanged Man</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -6585,70 +6585,62 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>47059</v>
+        <v>50633</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Solace of the Defeated</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>47059</v>
+        <v>50633</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Solace of the Defeated</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>37111</v>
+        <v>50633</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Soul Preserver</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -6656,20 +6648,20 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>37111</v>
+        <v>50633</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Soul Preserver</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -6677,20 +6669,20 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>50635</v>
+        <v>50633</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Sundial of Eternal Dusk</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -6698,20 +6690,20 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>50635</v>
+        <v>50633</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Sundial of Eternal Dusk</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -6719,20 +6711,20 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>50635</v>
+        <v>50633</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Sundial of Eternal Dusk</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -6744,11 +6736,11 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>50716</v>
+        <v>50364</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Taldaram's Plated Fists</t>
+          <t>Sindragosa's Flawless Fang</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -6761,20 +6753,20 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>50651</v>
+        <v>50364</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>The Lady's Brittle Bracers</t>
+          <t>Sindragosa's Flawless Fang</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -6782,20 +6774,20 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>50651</v>
+        <v>50657</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>The Lady's Brittle Bracers</t>
+          <t>Skeleton Lord's Circle</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -6803,15 +6795,15 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>50670</v>
+        <v>47059</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -6824,15 +6816,15 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>50670</v>
+        <v>47059</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -6840,20 +6832,24 @@
           <t>2</t>
         </is>
       </c>
-      <c r="E303" t="inlineStr"/>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>50670</v>
+        <v>47059</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -6861,25 +6857,29 @@
           <t>3</t>
         </is>
       </c>
-      <c r="E304" t="inlineStr"/>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>50711</v>
+        <v>37111</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Treads of the Wasteland</t>
+          <t>Soul Preserver</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="E305" t="inlineStr"/>
@@ -6887,115 +6887,99 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>46017</v>
+        <v>37111</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Soul Preserver</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>46017</v>
+        <v>50635</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Sundial of Eternal Dusk</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>46017</v>
+        <v>50635</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Sundial of Eternal Dusk</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>46017</v>
+        <v>50635</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Sundial of Eternal Dusk</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>50714</v>
+        <v>50716</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Valanar's Other Signet Ring</t>
+          <t>Taldaram's Plated Fists</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -7008,15 +6992,15 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>52028</v>
+        <v>50651</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>The Lady's Brittle Bracers</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -7029,15 +7013,15 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>52028</v>
+        <v>50651</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>The Lady's Brittle Bracers</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -7050,20 +7034,20 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>52028</v>
+        <v>50706</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Tiny Abomination in a Jar</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E313" t="inlineStr"/>
@@ -7071,20 +7055,20 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
@@ -7092,20 +7076,20 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
@@ -7113,20 +7097,20 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E316" t="inlineStr"/>
@@ -7134,20 +7118,20 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E317" t="inlineStr"/>
@@ -7155,20 +7139,20 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>52028</v>
+        <v>50711</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Treads of the Wasteland</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E318" t="inlineStr"/>
@@ -7176,104 +7160,120 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr"/>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr"/>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr"/>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr"/>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>52028</v>
+        <v>50714</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Valanar's Other Signet Ring</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E323" t="inlineStr"/>
@@ -7281,7 +7281,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E324" t="inlineStr"/>
@@ -7302,7 +7302,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E325" t="inlineStr"/>
@@ -7323,7 +7323,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E326" t="inlineStr"/>
@@ -7344,7 +7344,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -7357,7 +7357,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E327" t="inlineStr"/>
@@ -7365,7 +7365,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E328" t="inlineStr"/>
@@ -7386,7 +7386,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E329" t="inlineStr"/>
@@ -7407,7 +7407,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -7428,7 +7428,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -7449,7 +7449,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -7470,7 +7470,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -7491,7 +7491,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -7504,7 +7504,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -7512,7 +7512,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E335" t="inlineStr"/>
@@ -7533,7 +7533,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -7546,7 +7546,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E336" t="inlineStr"/>
@@ -7554,7 +7554,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -7567,7 +7567,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E337" t="inlineStr"/>
@@ -7575,7 +7575,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -7588,7 +7588,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -7596,7 +7596,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -7617,7 +7617,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -7630,7 +7630,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E340" t="inlineStr"/>
@@ -7638,7 +7638,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E341" t="inlineStr"/>
@@ -7659,7 +7659,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E342" t="inlineStr"/>
@@ -7680,7 +7680,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
@@ -7701,7 +7701,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -7714,7 +7714,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
@@ -7722,7 +7722,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -7743,7 +7743,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
@@ -7764,20 +7764,20 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -7785,20 +7785,20 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -7806,20 +7806,20 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
@@ -7827,20 +7827,20 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E350" t="inlineStr"/>
@@ -7848,20 +7848,20 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>51946</v>
+        <v>52028</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Warmace of Menethil</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E351" t="inlineStr"/>
@@ -7869,20 +7869,20 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -7890,20 +7890,20 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E353" t="inlineStr"/>
@@ -7911,20 +7911,20 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E354" t="inlineStr"/>
@@ -7932,20 +7932,20 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>50677</v>
+        <v>52028</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Winding Sheet</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E355" t="inlineStr"/>
@@ -7953,23 +7953,380 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
+          <t>Wishnourson</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Wishnourson</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Wishnourson</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Wishnourson</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Drikato</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Drikato</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Drikato</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Drikato</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Fuldrak</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Aurallia</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Royalhaze</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Fuldrak</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>51946</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Warmace of Menethil</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Fuldrak</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Iryastra</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>50677</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Winding Sheet</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
           <t>Gosseyn</t>
         </is>
       </c>
-      <c r="B356" t="n">
+      <c r="B373" t="n">
         <v>50677</v>
       </c>
-      <c r="C356" t="inlineStr">
+      <c r="C373" t="inlineStr">
         <is>
           <t>Winding Sheet</t>
         </is>
       </c>
-      <c r="D356" t="inlineStr">
+      <c r="D373" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E356" t="inlineStr"/>
+      <c r="E373" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E373"/>
+  <dimension ref="A1:E390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,7 +715,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -736,7 +736,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -757,7 +757,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -778,7 +778,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -799,7 +799,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -820,15 +820,15 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52572</v>
+        <v>50398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Might</t>
+          <t>Ashen Band of Endless Destruction</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -841,15 +841,15 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50402</v>
+        <v>52572</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Vengeance</t>
+          <t>Ashen Band of Endless Might</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -862,7 +862,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -883,7 +883,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -925,7 +925,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -946,7 +946,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -967,7 +967,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -988,15 +988,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>50400</v>
+        <v>50402</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Wisdom</t>
+          <t>Ashen Band of Endless Vengeance</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1072,20 +1072,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50707</v>
+        <v>50400</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Astrylian's Sutured Cinch</t>
+          <t>Ashen Band of Endless Wisdom</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Reputation</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1093,7 +1093,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1114,20 +1114,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50604</v>
+        <v>50707</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Band of the Bone Colossus</t>
+          <t>Astrylian's Sutured Cinch</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1135,7 +1135,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1156,7 +1156,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1177,20 +1177,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>50691</v>
+        <v>50604</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Belt of Broken Bones</t>
+          <t>Band of the Bone Colossus</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1198,7 +1198,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1223,16 +1223,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50682</v>
+        <v>50691</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Bile-Encrusted Medallion</t>
+          <t>Belt of Broken Bones</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1240,20 +1240,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50458</v>
+        <v>50682</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Bizuri's Totem of Shattered Ice</t>
+          <t>Bile-Encrusted Medallion</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1261,7 +1261,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1282,20 +1282,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>49894</v>
+        <v>50458</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Blessed Cenarion Boots</t>
+          <t>Bizuri's Totem of Shattered Ice</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Craft</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -1303,20 +1303,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>50724</v>
+        <v>49894</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Blood Queen's Crimson Choker</t>
+          <t>Blessed Cenarion Boots</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Craft</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1324,7 +1324,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1345,7 +1345,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -1366,7 +1366,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1387,7 +1387,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1429,20 +1429,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Blood-Soaked Saronite Stompers</t>
+          <t>Blood Queen's Crimson Choker</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -1450,20 +1450,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Blood-Soaked Saronite Stompers</t>
+          <t>Blood Queen's Crimson Choker</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -1471,7 +1471,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -1492,7 +1492,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -1513,20 +1513,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>50687</v>
+        <v>50639</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Bloodsunder's Bracers</t>
+          <t>Blood-Soaked Saronite Stompers</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1534,20 +1534,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>50732</v>
+        <v>50639</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
+          <t>Blood-Soaked Saronite Stompers</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -1555,20 +1555,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>50732</v>
+        <v>50687</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
+          <t>Bloodsunder's Bracers</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -1576,7 +1576,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -1597,7 +1597,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -1618,20 +1618,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>50672</v>
+        <v>50732</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Bloodvenom Blade</t>
+          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -1639,20 +1639,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>50672</v>
+        <v>50732</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Bloodvenom Blade</t>
+          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -1660,7 +1660,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -1681,20 +1681,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>50609</v>
+        <v>50672</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bone Sentinel's Amulet</t>
+          <t>Bloodvenom Blade</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -1702,20 +1702,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>50609</v>
+        <v>50672</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Bone Sentinel's Amulet</t>
+          <t>Bloodvenom Blade</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -1723,15 +1723,15 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>50660</v>
+        <v>50609</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Boneguard Commander's Pauldrons</t>
+          <t>Bone Sentinel's Amulet</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1744,15 +1744,15 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>50660</v>
+        <v>50609</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Boneguard Commander's Pauldrons</t>
+          <t>Bone Sentinel's Amulet</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1769,11 +1769,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>50611</v>
+        <v>50660</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Bracers of Dark Reckoning</t>
+          <t>Boneguard Commander's Pauldrons</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1790,11 +1790,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>50611</v>
+        <v>50660</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Bracers of Dark Reckoning</t>
+          <t>Boneguard Commander's Pauldrons</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1807,15 +1807,15 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>50630</v>
+        <v>50611</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Bracers of Eternal Dreaming</t>
+          <t>Bracers of Dark Reckoning</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1828,15 +1828,15 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>50630</v>
+        <v>50611</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Bracers of Eternal Dreaming</t>
+          <t>Bracers of Dark Reckoning</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1849,7 +1849,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -1870,20 +1870,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>50640</v>
+        <v>50630</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Broken Ram Skull Helm</t>
+          <t>Bracers of Eternal Dreaming</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -1891,20 +1891,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>50616</v>
+        <v>50630</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Bulwark of Smouldering Steel</t>
+          <t>Bracers of Eternal Dreaming</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -1912,20 +1912,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>50616</v>
+        <v>50640</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Bulwark of Smouldering Steel</t>
+          <t>Broken Ram Skull Helm</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -1933,7 +1933,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -1954,45 +1954,41 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>47146</v>
+        <v>50616</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Chalice of Searing Light</t>
+          <t>Bulwark of Smouldering Steel</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>50620</v>
+        <v>50616</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Coldwraith Links</t>
+          <t>Bulwark of Smouldering Steel</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -2000,28 +1996,32 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>50620</v>
+        <v>47146</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Coldwraith Links</t>
+          <t>Chalice of Searing Light</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -2042,7 +2042,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -2063,20 +2063,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Coldwraith Links</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -2084,20 +2084,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Coldwraith Links</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -2147,7 +2147,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -2189,7 +2189,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -2210,7 +2210,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -2273,7 +2273,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -2294,7 +2294,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -2315,7 +2315,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -2336,7 +2336,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -2399,7 +2399,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -2420,7 +2420,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -2441,20 +2441,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>50684</v>
+        <v>52030</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Corpse-Impaling Spike</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -2462,20 +2462,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>50684</v>
+        <v>52030</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Corpse-Impaling Spike</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -2483,20 +2483,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>50684</v>
+        <v>52030</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Corpse-Impaling Spike</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -2504,20 +2504,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>50356</v>
+        <v>52030</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Corroded Skeleton Key</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -2525,20 +2525,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>50356</v>
+        <v>52030</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Corroded Skeleton Key</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -2546,20 +2546,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>51928</v>
+        <v>52030</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Corrupted Silverplate Leggings</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -2567,15 +2567,15 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>50613</v>
+        <v>50684</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Corpse-Impaling Spike</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2588,15 +2588,15 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>50613</v>
+        <v>50684</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Corpse-Impaling Spike</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2609,15 +2609,15 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>50613</v>
+        <v>50684</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Corpse-Impaling Spike</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2630,15 +2630,15 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>50613</v>
+        <v>50684</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Corpse-Impaling Spike</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2651,20 +2651,20 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>50613</v>
+        <v>50356</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Corroded Skeleton Key</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -2672,20 +2672,20 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>50613</v>
+        <v>50356</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Corroded Skeleton Key</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -2693,20 +2693,20 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>50613</v>
+        <v>51928</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Corrupted Silverplate Leggings</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -2718,11 +2718,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>50721</v>
+        <v>50613</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Crypt Keeper's Bracers</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2735,15 +2735,15 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>50721</v>
+        <v>50613</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Crypt Keeper's Bracers</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2756,20 +2756,20 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>50686</v>
+        <v>50613</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Death Surgeon's Sleeves</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -2777,20 +2777,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>50686</v>
+        <v>50613</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Death Surgeon's Sleeves</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -2798,20 +2798,20 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>50686</v>
+        <v>50613</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Death Surgeon's Sleeves</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -2819,20 +2819,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>47131</v>
+        <v>50613</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Death's Verdict</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -2840,115 +2840,99 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>47131</v>
+        <v>50613</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Death's Verdict</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>47131</v>
+        <v>50613</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Death's Verdict</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>47131</v>
+        <v>50721</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Death's Verdict</t>
+          <t>Crypt Keeper's Bracers</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>47131</v>
+        <v>50721</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Death's Verdict</t>
+          <t>Crypt Keeper's Bracers</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>50363</v>
+        <v>50686</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death Surgeon's Sleeves</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2961,15 +2945,15 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>50363</v>
+        <v>50686</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death Surgeon's Sleeves</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2982,15 +2966,15 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>50363</v>
+        <v>50686</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death Surgeon's Sleeves</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3007,16 +2991,16 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death's Verdict</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -3028,19 +3012,23 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death's Verdict</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3049,19 +3037,23 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death's Verdict</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3070,19 +3062,23 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death's Verdict</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3091,24 +3087,28 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death's Verdict</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -3129,20 +3129,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>50622</v>
+        <v>50363</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Devium's Eternally Cold Ring</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -3150,20 +3150,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>50622</v>
+        <v>50363</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Devium's Eternally Cold Ring</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -3171,20 +3171,20 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -3192,20 +3192,20 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -3213,20 +3213,20 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -3234,20 +3234,20 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -3255,20 +3255,20 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -3276,20 +3276,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -3297,15 +3297,15 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>50733</v>
+        <v>50622</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Devium's Eternally Cold Ring</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3318,15 +3318,15 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>50733</v>
+        <v>50622</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Devium's Eternally Cold Ring</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3339,20 +3339,20 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -3360,20 +3360,20 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -3381,20 +3381,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -3402,20 +3402,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>50650</v>
+        <v>50348</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Fallen Lord's Handguards</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -3423,20 +3423,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>50650</v>
+        <v>50348</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Fallen Lord's Handguards</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -3444,20 +3444,20 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>50628</v>
+        <v>50348</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -3465,20 +3465,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>50628</v>
+        <v>50348</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -3486,20 +3486,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -3507,20 +3507,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
@@ -3528,20 +3528,20 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
@@ -3549,20 +3549,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
@@ -3570,20 +3570,20 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
@@ -3591,20 +3591,20 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>50628</v>
+        <v>50650</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fallen Lord's Handguards</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
@@ -3612,20 +3612,20 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>50607</v>
+        <v>50650</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Frostbitten Fur Boots</t>
+          <t>Fallen Lord's Handguards</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
@@ -3633,20 +3633,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Frostbitten Fur Boots</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
@@ -3654,20 +3654,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Frostbitten Fur Boots</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -3675,20 +3675,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Frostbitten Fur Boots</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -3696,20 +3696,20 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>50618</v>
+        <v>50628</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
@@ -3717,20 +3717,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>50618</v>
+        <v>50628</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -3738,20 +3738,20 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>50618</v>
+        <v>50628</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
@@ -3759,20 +3759,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>50618</v>
+        <v>50628</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
@@ -3780,20 +3780,20 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>50730</v>
+        <v>50628</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Glorenzelg, High-Blade of the Silver Hand</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
@@ -3801,20 +3801,20 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>50730</v>
+        <v>50628</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Glorenzelg, High-Blade of the Silver Hand</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -3822,20 +3822,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>50730</v>
+        <v>50607</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Glorenzelg, High-Blade of the Silver Hand</t>
+          <t>Frostbitten Fur Boots</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -3843,20 +3843,20 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>50668</v>
+        <v>50607</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Greatcloak of the Turned Champion</t>
+          <t>Frostbitten Fur Boots</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -3864,20 +3864,20 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>50668</v>
+        <v>50607</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Greatcloak of the Turned Champion</t>
+          <t>Frostbitten Fur Boots</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
@@ -3885,20 +3885,20 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>50668</v>
+        <v>50607</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Greatcloak of the Turned Champion</t>
+          <t>Frostbitten Fur Boots</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
@@ -3906,15 +3906,15 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>50625</v>
+        <v>50618</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Grinning Skull Greatboots</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -3927,15 +3927,15 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>50625</v>
+        <v>50618</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Grinning Skull Greatboots</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -3948,20 +3948,20 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>50663</v>
+        <v>50618</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Gunship Captain's Mittens</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E167" t="inlineStr"/>
@@ -3969,20 +3969,20 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>50737</v>
+        <v>50618</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Havoc's Call, Blade of Lordaeron Kings</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
@@ -3990,20 +3990,20 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>50737</v>
+        <v>50730</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Havoc's Call, Blade of Lordaeron Kings</t>
+          <t>Glorenzelg, High-Blade of the Silver Hand</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
@@ -4011,20 +4011,20 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>50736</v>
+        <v>50730</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Heaven's Fall, Kryss of a Thousand Lies</t>
+          <t>Glorenzelg, High-Blade of the Silver Hand</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E170" t="inlineStr"/>
@@ -4032,20 +4032,20 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>50700</v>
+        <v>50730</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Holiday's Grace</t>
+          <t>Glorenzelg, High-Blade of the Silver Hand</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E171" t="inlineStr"/>
@@ -4053,15 +4053,15 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>50698</v>
+        <v>50668</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Horrific Flesh Epaulets</t>
+          <t>Greatcloak of the Turned Champion</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4074,20 +4074,20 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>50729</v>
+        <v>50668</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Icecrown Glacial Wall</t>
+          <t>Greatcloak of the Turned Champion</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
@@ -4095,20 +4095,20 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>50729</v>
+        <v>50668</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Icecrown Glacial Wall</t>
+          <t>Greatcloak of the Turned Champion</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E174" t="inlineStr"/>
@@ -4116,20 +4116,20 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>50454</v>
+        <v>50625</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Idol of the Black Willow</t>
+          <t>Grinning Skull Greatboots</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E175" t="inlineStr"/>
@@ -4137,20 +4137,20 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>50454</v>
+        <v>50625</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Idol of the Black Willow</t>
+          <t>Grinning Skull Greatboots</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
@@ -4158,20 +4158,20 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>50456</v>
+        <v>50663</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Idol of the Crying Moon</t>
+          <t>Gunship Captain's Mittens</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -4179,20 +4179,20 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>50457</v>
+        <v>50737</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Idol of the Lunar Eclipse</t>
+          <t>Havoc's Call, Blade of Lordaeron Kings</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
@@ -4200,20 +4200,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>50656</v>
+        <v>50737</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Ikfirus's Sack of Wonder</t>
+          <t>Havoc's Call, Blade of Lordaeron Kings</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
@@ -4221,15 +4221,15 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>50642</v>
+        <v>50736</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Juggernaut Band</t>
+          <t>Heaven's Fall, Kryss of a Thousand Lies</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4246,11 +4246,11 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>51882</v>
+        <v>50700</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Kilt of Untreated Wounds</t>
+          <t>Holiday's Grace</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4263,15 +4263,15 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>50708</v>
+        <v>50698</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Last Word</t>
+          <t>Horrific Flesh Epaulets</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4284,20 +4284,20 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>50708</v>
+        <v>50729</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Last Word</t>
+          <t>Icecrown Glacial Wall</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -4305,20 +4305,20 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>50645</v>
+        <v>50729</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Leggings of Northern Lights</t>
+          <t>Icecrown Glacial Wall</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E184" t="inlineStr"/>
@@ -4326,20 +4326,20 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>50645</v>
+        <v>51899</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Leggings of Northern Lights</t>
+          <t>Icecrown Spire Sandals</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
@@ -4347,20 +4347,20 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>47664</v>
+        <v>50454</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Libram of Defiance</t>
+          <t>Idol of the Black Willow</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Emblems of Triumph</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
@@ -4368,20 +4368,20 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>40705</v>
+        <v>50454</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Libram of Renewal</t>
+          <t>Idol of the Black Willow</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
@@ -4389,20 +4389,20 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>40705</v>
+        <v>50456</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Libram of Renewal</t>
+          <t>Idol of the Crying Moon</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
@@ -4410,15 +4410,15 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>50461</v>
+        <v>50457</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Libram of the Eternal Tower</t>
+          <t>Idol of the Lunar Eclipse</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4431,15 +4431,15 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>50702</v>
+        <v>50656</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Lingering Illness</t>
+          <t>Ikfirus's Sack of Wonder</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4452,20 +4452,20 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>50702</v>
+        <v>50642</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Lingering Illness</t>
+          <t>Juggernaut Band</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E191" t="inlineStr"/>
@@ -4473,15 +4473,15 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>50621</v>
+        <v>51882</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Lungbreaker</t>
+          <t>Kilt of Untreated Wounds</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4494,15 +4494,15 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>50610</v>
+        <v>50708</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Marrowgar's Frigid Eye</t>
+          <t>Last Word</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4515,20 +4515,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>50636</v>
+        <v>50708</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Memory of Malygos</t>
+          <t>Last Word</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E194" t="inlineStr"/>
@@ -4536,20 +4536,20 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>50636</v>
+        <v>50645</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Memory of Malygos</t>
+          <t>Leggings of Northern Lights</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E195" t="inlineStr"/>
@@ -4557,20 +4557,20 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>50636</v>
+        <v>50645</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Memory of Malygos</t>
+          <t>Leggings of Northern Lights</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
@@ -4578,70 +4578,62 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>46051</v>
+        <v>47664</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Meteorite Crystal</t>
+          <t>Libram of Defiance</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>Emblems of Triumph</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>46051</v>
+        <v>40705</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Meteorite Crystal</t>
+          <t>Libram of Renewal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>50693</v>
+        <v>40705</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Might of Blight</t>
+          <t>Libram of Renewal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
@@ -4649,20 +4641,20 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>50693</v>
+        <v>50461</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Might of Blight</t>
+          <t>Libram of the Eternal Tower</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -4670,15 +4662,15 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>50738</v>
+        <v>50702</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Mithrios, Bronzebeard's Legacy</t>
+          <t>Lingering Illness</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4691,20 +4683,20 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>50688</v>
+        <v>50702</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Nerub'ar Stalker's Cord</t>
+          <t>Lingering Illness</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
@@ -4712,20 +4704,20 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>50688</v>
+        <v>50621</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Nerub'ar Stalker's Cord</t>
+          <t>Lungbreaker</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E203" t="inlineStr"/>
@@ -4733,20 +4725,20 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>50688</v>
+        <v>50610</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Nerub'ar Stalker's Cord</t>
+          <t>Marrowgar's Frigid Eye</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
@@ -4754,15 +4746,15 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>50631</v>
+        <v>50636</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Nightmare Ender</t>
+          <t>Memory of Malygos</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4775,15 +4767,15 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>50631</v>
+        <v>50636</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Nightmare Ender</t>
+          <t>Memory of Malygos</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4796,20 +4788,20 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>50627</v>
+        <v>50636</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Noose of Malachite</t>
+          <t>Memory of Malygos</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
@@ -4817,15 +4809,15 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>50735</v>
+        <v>46051</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Oathbinder, Charge of the Ranger-General</t>
+          <t>Meteorite Crystal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -4833,20 +4825,24 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>50735</v>
+        <v>46051</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Oathbinder, Charge of the Ranger-General</t>
+          <t>Meteorite Crystal</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -4854,25 +4850,29 @@
           <t>2</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>50735</v>
+        <v>50693</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Oathbinder, Charge of the Ranger-General</t>
+          <t>Might of Blight</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
@@ -4880,20 +4880,20 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>50365</v>
+        <v>50693</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Might of Blight</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -4901,20 +4901,20 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>50365</v>
+        <v>50738</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Mithrios, Bronzebeard's Legacy</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
@@ -4922,20 +4922,20 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>50365</v>
+        <v>50688</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Nerub'ar Stalker's Cord</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -4943,20 +4943,20 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>50365</v>
+        <v>50688</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Nerub'ar Stalker's Cord</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -4964,20 +4964,20 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>50365</v>
+        <v>50688</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Nerub'ar Stalker's Cord</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
@@ -4989,11 +4989,11 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>50699</v>
+        <v>50631</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Nightmare Ender</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5006,15 +5006,15 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>50699</v>
+        <v>50631</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Nightmare Ender</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5027,20 +5027,20 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>50699</v>
+        <v>50627</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Noose of Malachite</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
@@ -5048,20 +5048,20 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>50699</v>
+        <v>50735</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Oathbinder, Charge of the Ranger-General</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -5069,20 +5069,20 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>50699</v>
+        <v>50735</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Oathbinder, Charge of the Ranger-General</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -5090,20 +5090,20 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>50699</v>
+        <v>50735</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Oathbinder, Charge of the Ranger-General</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
@@ -5111,20 +5111,20 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
@@ -5132,20 +5132,20 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
@@ -5153,20 +5153,20 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -5174,20 +5174,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
@@ -5195,20 +5195,20 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>50694</v>
+        <v>50365</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Plaguebringer's Stained Pants</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -5216,20 +5216,20 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>50659</v>
+        <v>50365</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Polar Bear Claw Bracers</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5237,20 +5237,20 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>50659</v>
+        <v>50699</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Polar Bear Claw Bracers</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5258,20 +5258,20 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>50705</v>
+        <v>50699</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Professor's Bloodied Smock</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5283,16 +5283,16 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>50705</v>
+        <v>50699</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Professor's Bloodied Smock</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -5300,20 +5300,20 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -5321,20 +5321,20 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -5342,20 +5342,20 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -5363,20 +5363,20 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -5384,20 +5384,20 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -5405,20 +5405,20 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -5426,20 +5426,20 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -5447,20 +5447,20 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>52029</v>
+        <v>50694</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plaguebringer's Stained Pants</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -5468,20 +5468,20 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>52029</v>
+        <v>50694</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plaguebringer's Stained Pants</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -5489,20 +5489,20 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>52029</v>
+        <v>50659</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Polar Bear Claw Bracers</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -5510,20 +5510,20 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>52029</v>
+        <v>50659</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Polar Bear Claw Bracers</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
@@ -5531,20 +5531,20 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>52029</v>
+        <v>50705</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Professor's Bloodied Smock</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
@@ -5552,20 +5552,20 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>52029</v>
+        <v>50705</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Professor's Bloodied Smock</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
@@ -5573,7 +5573,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -5594,7 +5594,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -5615,7 +5615,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -5628,7 +5628,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E246" t="inlineStr"/>
@@ -5636,7 +5636,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -5657,7 +5657,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -5678,7 +5678,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -5699,7 +5699,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -5720,7 +5720,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -5741,7 +5741,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -5762,7 +5762,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E253" t="inlineStr"/>
@@ -5783,7 +5783,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E254" t="inlineStr"/>
@@ -5804,45 +5804,41 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>47188</v>
+        <v>52029</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Reign of the Unliving</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E256" t="inlineStr"/>
@@ -5850,20 +5846,20 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -5871,20 +5867,20 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
@@ -5892,20 +5888,20 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
@@ -5913,20 +5909,20 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -5934,20 +5930,20 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -5955,20 +5951,20 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
@@ -5976,20 +5972,20 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
@@ -5997,20 +5993,20 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>50629</v>
+        <v>52029</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Robe of the Waking Nightmare</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
@@ -6018,20 +6014,20 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>50629</v>
+        <v>52029</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Robe of the Waking Nightmare</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -6039,20 +6035,20 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>50680</v>
+        <v>52029</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Rot-Resistant Breastplate</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E266" t="inlineStr"/>
@@ -6060,20 +6056,20 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>50680</v>
+        <v>52029</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Rot-Resistant Breastplate</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -6081,15 +6077,15 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>50718</v>
+        <v>47188</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Royal Crimson Cloak</t>
+          <t>Reign of the Unliving</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -6097,25 +6093,29 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr"/>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>50718</v>
+        <v>50664</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Royal Crimson Cloak</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E269" t="inlineStr"/>
@@ -6123,20 +6123,20 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>50734</v>
+        <v>50664</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E270" t="inlineStr"/>
@@ -6144,20 +6144,20 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>50734</v>
+        <v>50664</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
@@ -6169,16 +6169,16 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>50734</v>
+        <v>50664</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E272" t="inlineStr"/>
@@ -6186,20 +6186,20 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>50734</v>
+        <v>50664</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
@@ -6207,20 +6207,20 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>50722</v>
+        <v>50664</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>San'layn Ritualist Gloves</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E274" t="inlineStr"/>
@@ -6228,20 +6228,20 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>50717</v>
+        <v>50664</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
@@ -6249,20 +6249,20 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>50717</v>
+        <v>50664</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -6270,20 +6270,20 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>50717</v>
+        <v>50664</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -6291,15 +6291,15 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>50655</v>
+        <v>50629</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Scourge Hunter's Vambraces</t>
+          <t>Robe of the Waking Nightmare</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -6312,15 +6312,15 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>50655</v>
+        <v>50629</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Scourge Hunter's Vambraces</t>
+          <t>Robe of the Waking Nightmare</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -6333,20 +6333,20 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>50655</v>
+        <v>50680</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Scourge Hunter's Vambraces</t>
+          <t>Rot-Resistant Breastplate</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -6354,20 +6354,20 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>50624</v>
+        <v>50680</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Scourge Reaver's Legplates</t>
+          <t>Rot-Resistant Breastplate</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -6375,20 +6375,20 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>50624</v>
+        <v>50718</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Scourge Reaver's Legplates</t>
+          <t>Royal Crimson Cloak</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E282" t="inlineStr"/>
@@ -6396,20 +6396,20 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>50719</v>
+        <v>50718</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Shadow Silk Spindle</t>
+          <t>Royal Crimson Cloak</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -6417,20 +6417,20 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>50719</v>
+        <v>50734</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Shadow Silk Spindle</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -6438,20 +6438,20 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>50719</v>
+        <v>50734</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Shadow Silk Spindle</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
@@ -6459,20 +6459,20 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>50719</v>
+        <v>50734</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Shadow Silk Spindle</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E286" t="inlineStr"/>
@@ -6480,20 +6480,20 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>50653</v>
+        <v>50734</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Shadowvault Slayer's Cloak</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E287" t="inlineStr"/>
@@ -6501,20 +6501,20 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>50653</v>
+        <v>50734</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Shadowvault Slayer's Cloak</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E288" t="inlineStr"/>
@@ -6522,20 +6522,20 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>50653</v>
+        <v>50722</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Shadowvault Slayer's Cloak</t>
+          <t>San'layn Ritualist Gloves</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E289" t="inlineStr"/>
@@ -6543,20 +6543,20 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>47673</v>
+        <v>50717</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Sigil of Virulence</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Emblems of Triumph</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -6564,20 +6564,20 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>50459</v>
+        <v>50717</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Sigil of the Hanged Man</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -6585,20 +6585,20 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>50633</v>
+        <v>50717</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -6606,20 +6606,20 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>50633</v>
+        <v>50655</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Scourge Hunter's Vambraces</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -6627,20 +6627,20 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>50633</v>
+        <v>50655</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Scourge Hunter's Vambraces</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -6648,20 +6648,20 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>50633</v>
+        <v>50655</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Scourge Hunter's Vambraces</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -6669,20 +6669,20 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>50633</v>
+        <v>50624</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Scourge Reaver's Legplates</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -6690,20 +6690,20 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>50633</v>
+        <v>50624</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Scourge Reaver's Legplates</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -6711,20 +6711,20 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>50633</v>
+        <v>50719</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -6732,20 +6732,20 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>50364</v>
+        <v>50719</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Sindragosa's Flawless Fang</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -6753,20 +6753,20 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>50364</v>
+        <v>50719</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Sindragosa's Flawless Fang</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -6774,20 +6774,20 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>50657</v>
+        <v>50719</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Skeleton Lord's Circle</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -6795,20 +6795,20 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>47059</v>
+        <v>50719</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Solace of the Defeated</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
@@ -6816,70 +6816,62 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>47059</v>
+        <v>50653</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Solace of the Defeated</t>
+          <t>Shadowvault Slayer's Cloak</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>47059</v>
+        <v>50653</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Solace of the Defeated</t>
+          <t>Shadowvault Slayer's Cloak</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>37111</v>
+        <v>50653</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Soul Preserver</t>
+          <t>Shadowvault Slayer's Cloak</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E305" t="inlineStr"/>
@@ -6887,20 +6879,20 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>37111</v>
+        <v>47673</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Soul Preserver</t>
+          <t>Sigil of Virulence</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>Emblems of Triumph</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -6908,20 +6900,20 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>50635</v>
+        <v>50459</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Sundial of Eternal Dusk</t>
+          <t>Sigil of the Hanged Man</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -6929,20 +6921,20 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>50635</v>
+        <v>50633</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Sundial of Eternal Dusk</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
@@ -6950,20 +6942,20 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>50635</v>
+        <v>50633</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Sundial of Eternal Dusk</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E309" t="inlineStr"/>
@@ -6971,20 +6963,20 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>50716</v>
+        <v>50633</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Taldaram's Plated Fists</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E310" t="inlineStr"/>
@@ -6992,20 +6984,20 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>50651</v>
+        <v>50633</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>The Lady's Brittle Bracers</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E311" t="inlineStr"/>
@@ -7013,20 +7005,20 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>50651</v>
+        <v>50633</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>The Lady's Brittle Bracers</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E312" t="inlineStr"/>
@@ -7034,20 +7026,20 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>50706</v>
+        <v>50633</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Tiny Abomination in a Jar</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E313" t="inlineStr"/>
@@ -7055,20 +7047,20 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>50670</v>
+        <v>50633</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
@@ -7076,20 +7068,20 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>50670</v>
+        <v>50364</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Sindragosa's Flawless Fang</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
@@ -7097,20 +7089,20 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>50670</v>
+        <v>50364</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Sindragosa's Flawless Fang</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E316" t="inlineStr"/>
@@ -7118,20 +7110,20 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>50670</v>
+        <v>50657</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Skeleton Lord's Circle</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E317" t="inlineStr"/>
@@ -7139,15 +7131,15 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>50711</v>
+        <v>47059</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Treads of the Wasteland</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -7160,20 +7152,20 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>46017</v>
+        <v>47059</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Legendary</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -7185,20 +7177,20 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>46017</v>
+        <v>47059</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Legendary</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -7214,61 +7206,53 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>46017</v>
+        <v>37111</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Soul Preserver</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>46017</v>
+        <v>37111</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Soul Preserver</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>50714</v>
+        <v>50635</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Valanar's Other Signet Ring</t>
+          <t>Sundial of Eternal Dusk</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -7281,20 +7265,20 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>52028</v>
+        <v>50635</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Sundial of Eternal Dusk</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E324" t="inlineStr"/>
@@ -7302,20 +7286,20 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>52028</v>
+        <v>50635</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Sundial of Eternal Dusk</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E325" t="inlineStr"/>
@@ -7323,20 +7307,20 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>52028</v>
+        <v>50716</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Taldaram's Plated Fists</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E326" t="inlineStr"/>
@@ -7344,20 +7328,20 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>52028</v>
+        <v>50651</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>The Lady's Brittle Bracers</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E327" t="inlineStr"/>
@@ -7365,20 +7349,20 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>52028</v>
+        <v>50651</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>The Lady's Brittle Bracers</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E328" t="inlineStr"/>
@@ -7386,20 +7370,20 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>52028</v>
+        <v>50651</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>The Lady's Brittle Bracers</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E329" t="inlineStr"/>
@@ -7407,20 +7391,20 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>52028</v>
+        <v>50706</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Tiny Abomination in a Jar</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -7428,20 +7412,20 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -7453,16 +7437,16 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -7470,20 +7454,20 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -7491,20 +7475,20 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -7512,20 +7496,20 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>52028</v>
+        <v>50711</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Treads of the Wasteland</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E335" t="inlineStr"/>
@@ -7533,104 +7517,120 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr"/>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E337" t="inlineStr"/>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr"/>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr"/>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>52028</v>
+        <v>50714</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Valanar's Other Signet Ring</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E340" t="inlineStr"/>
@@ -7638,7 +7638,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E341" t="inlineStr"/>
@@ -7659,7 +7659,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E342" t="inlineStr"/>
@@ -7680,7 +7680,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
@@ -7701,7 +7701,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -7714,7 +7714,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
@@ -7722,7 +7722,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -7743,7 +7743,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
@@ -7764,7 +7764,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -7785,7 +7785,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -7806,7 +7806,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
@@ -7827,7 +7827,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -7840,7 +7840,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E350" t="inlineStr"/>
@@ -7848,7 +7848,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E351" t="inlineStr"/>
@@ -7869,7 +7869,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -7882,7 +7882,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -7890,7 +7890,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E353" t="inlineStr"/>
@@ -7911,7 +7911,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -7924,7 +7924,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E354" t="inlineStr"/>
@@ -7932,7 +7932,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E355" t="inlineStr"/>
@@ -7953,7 +7953,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -7966,7 +7966,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E356" t="inlineStr"/>
@@ -7974,7 +7974,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -7987,7 +7987,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E357" t="inlineStr"/>
@@ -7995,7 +7995,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -8016,7 +8016,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E359" t="inlineStr"/>
@@ -8037,7 +8037,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -8050,7 +8050,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -8058,7 +8058,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
@@ -8079,7 +8079,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E362" t="inlineStr"/>
@@ -8100,7 +8100,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -8113,7 +8113,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E363" t="inlineStr"/>
@@ -8121,20 +8121,20 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E364" t="inlineStr"/>
@@ -8142,20 +8142,20 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -8163,20 +8163,20 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E366" t="inlineStr"/>
@@ -8184,20 +8184,20 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E367" t="inlineStr"/>
@@ -8205,20 +8205,20 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>51946</v>
+        <v>52028</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Warmace of Menethil</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E368" t="inlineStr"/>
@@ -8226,20 +8226,20 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E369" t="inlineStr"/>
@@ -8247,20 +8247,20 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E370" t="inlineStr"/>
@@ -8268,20 +8268,20 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E371" t="inlineStr"/>
@@ -8289,20 +8289,20 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>50677</v>
+        <v>52028</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Winding Sheet</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E372" t="inlineStr"/>
@@ -8310,23 +8310,380 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
+          <t>Wishnourson</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Wishnourson</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Wishnourson</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Wishnourson</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Drikato</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Drikato</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Drikato</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Drikato</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Fuldrak</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Aurallia</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Royalhaze</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Fuldrak</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>51946</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Warmace of Menethil</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Fuldrak</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Iryastra</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>50677</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Winding Sheet</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
           <t>Gosseyn</t>
         </is>
       </c>
-      <c r="B373" t="n">
+      <c r="B390" t="n">
         <v>50677</v>
       </c>
-      <c r="C373" t="inlineStr">
+      <c r="C390" t="inlineStr">
         <is>
           <t>Winding Sheet</t>
         </is>
       </c>
-      <c r="D373" t="inlineStr">
+      <c r="D390" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E373" t="inlineStr"/>
+      <c r="E390" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E390"/>
+  <dimension ref="A1:E407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,20 +631,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50658</v>
+        <v>50366</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Amulet of the Silent Eulogy</t>
+          <t>Althor's Abacus</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -652,7 +652,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -665,7 +665,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -673,20 +673,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50619</v>
+        <v>50658</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Anub'ar Stalker's Gloves</t>
+          <t>Amulet of the Silent Eulogy</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -694,20 +694,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50404</v>
+        <v>50619</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Courage</t>
+          <t>Anub'ar Stalker's Gloves</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Reputation</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -715,15 +715,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50398</v>
+        <v>50404</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Destruction</t>
+          <t>Ashen Band of Endless Courage</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -757,7 +757,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -778,7 +778,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -799,7 +799,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -820,7 +820,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -841,15 +841,15 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>52572</v>
+        <v>50398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Might</t>
+          <t>Ashen Band of Endless Destruction</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -862,15 +862,15 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>50402</v>
+        <v>52572</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Vengeance</t>
+          <t>Ashen Band of Endless Might</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -925,7 +925,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -967,7 +967,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -988,7 +988,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1009,15 +1009,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50400</v>
+        <v>50402</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Wisdom</t>
+          <t>Ashen Band of Endless Vengeance</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1030,7 +1030,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1051,7 +1051,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1072,7 +1072,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1093,20 +1093,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50707</v>
+        <v>50400</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Astrylian's Sutured Cinch</t>
+          <t>Ashen Band of Endless Wisdom</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Reputation</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1114,20 +1114,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50707</v>
+        <v>50400</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Astrylian's Sutured Cinch</t>
+          <t>Ashen Band of Endless Wisdom</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Reputation</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1139,11 +1139,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50604</v>
+        <v>50707</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Band of the Bone Colossus</t>
+          <t>Astrylian's Sutured Cinch</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1156,15 +1156,15 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50604</v>
+        <v>50707</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Band of the Bone Colossus</t>
+          <t>Astrylian's Sutured Cinch</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1177,7 +1177,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1198,20 +1198,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50691</v>
+        <v>50604</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Belt of Broken Bones</t>
+          <t>Band of the Bone Colossus</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1219,20 +1219,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50691</v>
+        <v>50604</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Belt of Broken Bones</t>
+          <t>Band of the Bone Colossus</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1240,15 +1240,15 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50682</v>
+        <v>50691</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Bile-Encrusted Medallion</t>
+          <t>Belt of Broken Bones</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1261,20 +1261,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50458</v>
+        <v>50691</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Bizuri's Totem of Shattered Ice</t>
+          <t>Belt of Broken Bones</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1282,20 +1282,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50458</v>
+        <v>50682</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bizuri's Totem of Shattered Ice</t>
+          <t>Bile-Encrusted Medallion</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -1303,20 +1303,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49894</v>
+        <v>50458</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Blessed Cenarion Boots</t>
+          <t>Bizuri's Totem of Shattered Ice</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Craft</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1324,20 +1324,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50724</v>
+        <v>50458</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Blood Queen's Crimson Choker</t>
+          <t>Bizuri's Totem of Shattered Ice</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1345,20 +1345,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50724</v>
+        <v>49894</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Blood Queen's Crimson Choker</t>
+          <t>Blessed Cenarion Boots</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Craft</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -1366,7 +1366,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1387,7 +1387,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1429,7 +1429,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -1450,7 +1450,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -1471,20 +1471,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Blood-Soaked Saronite Stompers</t>
+          <t>Blood Queen's Crimson Choker</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -1492,20 +1492,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Blood-Soaked Saronite Stompers</t>
+          <t>Blood Queen's Crimson Choker</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -1513,20 +1513,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Blood-Soaked Saronite Stompers</t>
+          <t>Blood Queen's Crimson Choker</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1534,7 +1534,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -1555,20 +1555,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>50687</v>
+        <v>50639</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Bloodsunder's Bracers</t>
+          <t>Blood-Soaked Saronite Stompers</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -1576,20 +1576,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>50732</v>
+        <v>50639</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
+          <t>Blood-Soaked Saronite Stompers</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -1597,20 +1597,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>50732</v>
+        <v>50639</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
+          <t>Blood-Soaked Saronite Stompers</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -1618,20 +1618,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>50732</v>
+        <v>50687</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
+          <t>Bloodsunder's Bracers</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -1639,20 +1639,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>50732</v>
+        <v>50687</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
+          <t>Bloodsunder's Bracers</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -1660,15 +1660,15 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>50672</v>
+        <v>50732</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Bloodvenom Blade</t>
+          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1681,15 +1681,15 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>50672</v>
+        <v>50732</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bloodvenom Blade</t>
+          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1702,15 +1702,15 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>50672</v>
+        <v>50732</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Bloodvenom Blade</t>
+          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1723,20 +1723,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>50609</v>
+        <v>50732</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Bone Sentinel's Amulet</t>
+          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -1744,20 +1744,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>50609</v>
+        <v>50672</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Bone Sentinel's Amulet</t>
+          <t>Bloodvenom Blade</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -1765,20 +1765,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>50660</v>
+        <v>50672</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Boneguard Commander's Pauldrons</t>
+          <t>Bloodvenom Blade</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -1786,20 +1786,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>50660</v>
+        <v>50672</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Boneguard Commander's Pauldrons</t>
+          <t>Bloodvenom Blade</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -1807,15 +1807,15 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>50611</v>
+        <v>50609</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Bracers of Dark Reckoning</t>
+          <t>Bone Sentinel's Amulet</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1828,15 +1828,15 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>50611</v>
+        <v>50609</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Bracers of Dark Reckoning</t>
+          <t>Bone Sentinel's Amulet</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1849,15 +1849,15 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>50630</v>
+        <v>50660</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Bracers of Eternal Dreaming</t>
+          <t>Boneguard Commander's Pauldrons</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1870,15 +1870,15 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>50630</v>
+        <v>50660</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Bracers of Eternal Dreaming</t>
+          <t>Boneguard Commander's Pauldrons</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1891,20 +1891,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>50630</v>
+        <v>50611</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Bracers of Eternal Dreaming</t>
+          <t>Bracers of Dark Reckoning</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -1912,20 +1912,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>50640</v>
+        <v>50611</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Broken Ram Skull Helm</t>
+          <t>Bracers of Dark Reckoning</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -1933,15 +1933,15 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>50616</v>
+        <v>50630</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Bulwark of Smouldering Steel</t>
+          <t>Bracers of Eternal Dreaming</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1954,15 +1954,15 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>50616</v>
+        <v>50630</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Bulwark of Smouldering Steel</t>
+          <t>Bracers of Eternal Dreaming</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1975,15 +1975,15 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>50616</v>
+        <v>50630</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Bulwark of Smouldering Steel</t>
+          <t>Bracers of Eternal Dreaming</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1996,15 +1996,15 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>47146</v>
+        <v>50640</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Chalice of Searing Light</t>
+          <t>Broken Ram Skull Helm</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2012,24 +2012,20 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>50620</v>
+        <v>50616</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Coldwraith Links</t>
+          <t>Bulwark of Smouldering Steel</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2042,15 +2038,15 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>50620</v>
+        <v>50616</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Coldwraith Links</t>
+          <t>Bulwark of Smouldering Steel</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2063,15 +2059,15 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>50620</v>
+        <v>50616</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Coldwraith Links</t>
+          <t>Bulwark of Smouldering Steel</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2084,15 +2080,15 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>50620</v>
+        <v>50616</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Coldwraith Links</t>
+          <t>Bulwark of Smouldering Steel</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2109,11 +2105,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>52030</v>
+        <v>47146</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Chalice of Searing Light</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2121,25 +2117,29 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Coldwraith Links</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -2147,20 +2147,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Coldwraith Links</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -2168,20 +2168,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Coldwraith Links</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -2189,20 +2189,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Coldwraith Links</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -2210,7 +2210,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -2231,7 +2231,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -2252,7 +2252,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -2273,7 +2273,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -2294,7 +2294,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -2315,7 +2315,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -2336,7 +2336,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -2357,7 +2357,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -2399,7 +2399,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -2420,7 +2420,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -2441,7 +2441,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -2462,7 +2462,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -2483,7 +2483,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -2504,7 +2504,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -2525,7 +2525,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -2546,7 +2546,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -2567,20 +2567,20 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>50684</v>
+        <v>52030</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Corpse-Impaling Spike</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -2588,20 +2588,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>50684</v>
+        <v>52030</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Corpse-Impaling Spike</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -2609,20 +2609,20 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>50684</v>
+        <v>52030</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Corpse-Impaling Spike</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -2634,16 +2634,16 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>50684</v>
+        <v>52030</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Corpse-Impaling Spike</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -2651,20 +2651,20 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>50356</v>
+        <v>52030</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Corroded Skeleton Key</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -2672,20 +2672,20 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>50356</v>
+        <v>50684</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Corroded Skeleton Key</t>
+          <t>Corpse-Impaling Spike</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -2693,20 +2693,20 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>51928</v>
+        <v>50684</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Corrupted Silverplate Leggings</t>
+          <t>Corpse-Impaling Spike</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -2714,20 +2714,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>50613</v>
+        <v>50684</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Corpse-Impaling Spike</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -2735,20 +2735,20 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>50613</v>
+        <v>50684</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Corpse-Impaling Spike</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -2756,20 +2756,20 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>50613</v>
+        <v>50356</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Corroded Skeleton Key</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -2777,20 +2777,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>50613</v>
+        <v>50356</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Corroded Skeleton Key</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -2798,20 +2798,20 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>50613</v>
+        <v>51928</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Corrupted Silverplate Leggings</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -2819,7 +2819,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -2840,7 +2840,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -2861,7 +2861,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -2882,20 +2882,20 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>50721</v>
+        <v>50613</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Crypt Keeper's Bracers</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -2903,20 +2903,20 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>50721</v>
+        <v>50613</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Crypt Keeper's Bracers</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -2924,20 +2924,20 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>50686</v>
+        <v>50613</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Death Surgeon's Sleeves</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -2945,20 +2945,20 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>50686</v>
+        <v>50613</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Death Surgeon's Sleeves</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -2966,20 +2966,20 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>50686</v>
+        <v>50613</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Death Surgeon's Sleeves</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -2987,20 +2987,20 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>47131</v>
+        <v>50613</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Death's Verdict</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -3008,120 +3008,104 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>47131</v>
+        <v>50721</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Death's Verdict</t>
+          <t>Crypt Keeper's Bracers</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>47131</v>
+        <v>50721</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Death's Verdict</t>
+          <t>Crypt Keeper's Bracers</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>47131</v>
+        <v>50686</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Death's Verdict</t>
+          <t>Death Surgeon's Sleeves</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>47131</v>
+        <v>50686</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Death's Verdict</t>
+          <t>Death Surgeon's Sleeves</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>50363</v>
+        <v>50686</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death Surgeon's Sleeves</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -3129,20 +3113,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death's Verdict</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -3150,91 +3134,107 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death's Verdict</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death's Verdict</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death's Verdict</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death's Verdict</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -3255,7 +3255,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -3276,7 +3276,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -3297,20 +3297,20 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>50622</v>
+        <v>50363</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Devium's Eternally Cold Ring</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -3318,20 +3318,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>50622</v>
+        <v>50363</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Devium's Eternally Cold Ring</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -3339,20 +3339,20 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -3360,20 +3360,20 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -3381,20 +3381,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -3402,20 +3402,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -3423,20 +3423,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>50348</v>
+        <v>50622</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Devium's Eternally Cold Ring</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -3444,20 +3444,20 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>50348</v>
+        <v>50622</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Devium's Eternally Cold Ring</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -3465,7 +3465,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -3486,20 +3486,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -3507,20 +3507,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
@@ -3528,20 +3528,20 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
@@ -3549,20 +3549,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
@@ -3570,20 +3570,20 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
@@ -3591,20 +3591,20 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>50650</v>
+        <v>50348</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Fallen Lord's Handguards</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
@@ -3612,20 +3612,20 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>50650</v>
+        <v>50733</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Fallen Lord's Handguards</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
@@ -3633,20 +3633,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
@@ -3654,20 +3654,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -3675,20 +3675,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -3696,20 +3696,20 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
@@ -3717,20 +3717,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>50628</v>
+        <v>50650</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fallen Lord's Handguards</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -3738,20 +3738,20 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>50628</v>
+        <v>50650</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fallen Lord's Handguards</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
@@ -3759,7 +3759,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
@@ -3780,7 +3780,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
@@ -3801,7 +3801,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -3822,20 +3822,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Frostbitten Fur Boots</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -3843,20 +3843,20 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Frostbitten Fur Boots</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -3864,20 +3864,20 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Frostbitten Fur Boots</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
@@ -3885,20 +3885,20 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Frostbitten Fur Boots</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
@@ -3906,20 +3906,20 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>50618</v>
+        <v>50628</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E165" t="inlineStr"/>
@@ -3927,20 +3927,20 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>50618</v>
+        <v>50628</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E166" t="inlineStr"/>
@@ -3948,20 +3948,20 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>50618</v>
+        <v>50628</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E167" t="inlineStr"/>
@@ -3969,20 +3969,20 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>50618</v>
+        <v>50607</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Frostbitten Fur Boots</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
@@ -3990,20 +3990,20 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>50730</v>
+        <v>50607</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Glorenzelg, High-Blade of the Silver Hand</t>
+          <t>Frostbitten Fur Boots</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
@@ -4011,20 +4011,20 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>50730</v>
+        <v>50607</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Glorenzelg, High-Blade of the Silver Hand</t>
+          <t>Frostbitten Fur Boots</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E170" t="inlineStr"/>
@@ -4032,20 +4032,20 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>50730</v>
+        <v>50607</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Glorenzelg, High-Blade of the Silver Hand</t>
+          <t>Frostbitten Fur Boots</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E171" t="inlineStr"/>
@@ -4053,15 +4053,15 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>50668</v>
+        <v>50618</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Greatcloak of the Turned Champion</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4074,15 +4074,15 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>50668</v>
+        <v>50618</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Greatcloak of the Turned Champion</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4095,15 +4095,15 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>50668</v>
+        <v>50618</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Greatcloak of the Turned Champion</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4116,20 +4116,20 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>50625</v>
+        <v>50618</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Grinning Skull Greatboots</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E175" t="inlineStr"/>
@@ -4137,20 +4137,20 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>50625</v>
+        <v>50730</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Grinning Skull Greatboots</t>
+          <t>Glorenzelg, High-Blade of the Silver Hand</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
@@ -4158,20 +4158,20 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>50663</v>
+        <v>50730</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Gunship Captain's Mittens</t>
+          <t>Glorenzelg, High-Blade of the Silver Hand</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -4179,20 +4179,20 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>50737</v>
+        <v>50730</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Havoc's Call, Blade of Lordaeron Kings</t>
+          <t>Glorenzelg, High-Blade of the Silver Hand</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
@@ -4200,20 +4200,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>50737</v>
+        <v>50668</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Havoc's Call, Blade of Lordaeron Kings</t>
+          <t>Greatcloak of the Turned Champion</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
@@ -4221,20 +4221,20 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>50736</v>
+        <v>50668</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Heaven's Fall, Kryss of a Thousand Lies</t>
+          <t>Greatcloak of the Turned Champion</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
@@ -4242,20 +4242,20 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>50700</v>
+        <v>50668</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Holiday's Grace</t>
+          <t>Greatcloak of the Turned Champion</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
@@ -4263,15 +4263,15 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>50698</v>
+        <v>50625</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Horrific Flesh Epaulets</t>
+          <t>Grinning Skull Greatboots</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4284,20 +4284,20 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>50729</v>
+        <v>50625</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Icecrown Glacial Wall</t>
+          <t>Grinning Skull Greatboots</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -4305,20 +4305,20 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>50729</v>
+        <v>50663</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Icecrown Glacial Wall</t>
+          <t>Gunship Captain's Mittens</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E184" t="inlineStr"/>
@@ -4326,15 +4326,15 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>51899</v>
+        <v>50737</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Icecrown Spire Sandals</t>
+          <t>Havoc's Call, Blade of Lordaeron Kings</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4347,20 +4347,20 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>50454</v>
+        <v>50737</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Idol of the Black Willow</t>
+          <t>Havoc's Call, Blade of Lordaeron Kings</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
@@ -4368,20 +4368,20 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>50454</v>
+        <v>50736</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Idol of the Black Willow</t>
+          <t>Heaven's Fall, Kryss of a Thousand Lies</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
@@ -4389,20 +4389,20 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>50456</v>
+        <v>50700</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Idol of the Crying Moon</t>
+          <t>Holiday's Grace</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
@@ -4410,20 +4410,20 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>50457</v>
+        <v>50698</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Idol of the Lunar Eclipse</t>
+          <t>Horrific Flesh Epaulets</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E189" t="inlineStr"/>
@@ -4431,15 +4431,15 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>50656</v>
+        <v>50729</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Ikfirus's Sack of Wonder</t>
+          <t>Icecrown Glacial Wall</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4452,20 +4452,20 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>50642</v>
+        <v>50729</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Juggernaut Band</t>
+          <t>Icecrown Glacial Wall</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E191" t="inlineStr"/>
@@ -4473,15 +4473,15 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>51882</v>
+        <v>51899</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Kilt of Untreated Wounds</t>
+          <t>Icecrown Spire Sandals</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4494,20 +4494,20 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>50708</v>
+        <v>50454</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Last Word</t>
+          <t>Idol of the Black Willow</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
@@ -4515,20 +4515,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>50708</v>
+        <v>50454</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Last Word</t>
+          <t>Idol of the Black Willow</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E194" t="inlineStr"/>
@@ -4536,20 +4536,20 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>50645</v>
+        <v>50456</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Leggings of Northern Lights</t>
+          <t>Idol of the Crying Moon</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E195" t="inlineStr"/>
@@ -4557,20 +4557,20 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>50645</v>
+        <v>50457</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Leggings of Northern Lights</t>
+          <t>Idol of the Lunar Eclipse</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
@@ -4578,20 +4578,20 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>47664</v>
+        <v>50656</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Libram of Defiance</t>
+          <t>Ikfirus's Sack of Wonder</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Emblems of Triumph</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E197" t="inlineStr"/>
@@ -4599,20 +4599,20 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>40705</v>
+        <v>50642</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Libram of Renewal</t>
+          <t>Juggernaut Band</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
@@ -4620,20 +4620,20 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>40705</v>
+        <v>51882</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Libram of Renewal</t>
+          <t>Kilt of Untreated Wounds</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
@@ -4641,20 +4641,20 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>50461</v>
+        <v>50708</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Libram of the Eternal Tower</t>
+          <t>Last Word</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -4662,20 +4662,20 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>50702</v>
+        <v>50708</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Lingering Illness</t>
+          <t>Last Word</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E201" t="inlineStr"/>
@@ -4683,20 +4683,20 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>50702</v>
+        <v>50645</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Lingering Illness</t>
+          <t>Leggings of Northern Lights</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
@@ -4704,20 +4704,20 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>50621</v>
+        <v>50645</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Lungbreaker</t>
+          <t>Leggings of Northern Lights</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E203" t="inlineStr"/>
@@ -4725,20 +4725,20 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>50610</v>
+        <v>47664</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Marrowgar's Frigid Eye</t>
+          <t>Libram of Defiance</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Triumph</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
@@ -4746,20 +4746,20 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>50636</v>
+        <v>40705</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Memory of Malygos</t>
+          <t>Libram of Renewal</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -4767,20 +4767,20 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>50636</v>
+        <v>40705</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Memory of Malygos</t>
+          <t>Libram of Renewal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="E206" t="inlineStr"/>
@@ -4788,20 +4788,20 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>50636</v>
+        <v>50461</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Memory of Malygos</t>
+          <t>Libram of the Eternal Tower</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
@@ -4809,15 +4809,15 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>46051</v>
+        <v>50702</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Meteorite Crystal</t>
+          <t>Lingering Illness</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -4825,24 +4825,20 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>46051</v>
+        <v>50702</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Meteorite Crystal</t>
+          <t>Lingering Illness</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -4850,24 +4846,20 @@
           <t>2</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>50693</v>
+        <v>50621</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Might of Blight</t>
+          <t>Lungbreaker</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -4880,20 +4872,20 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>50693</v>
+        <v>50610</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Might of Blight</t>
+          <t>Marrowgar's Frigid Eye</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -4901,15 +4893,15 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>50738</v>
+        <v>50636</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Mithrios, Bronzebeard's Legacy</t>
+          <t>Memory of Malygos</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -4922,20 +4914,20 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>50688</v>
+        <v>50636</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Nerub'ar Stalker's Cord</t>
+          <t>Memory of Malygos</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -4943,20 +4935,20 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>50688</v>
+        <v>50636</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Nerub'ar Stalker's Cord</t>
+          <t>Memory of Malygos</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -4964,62 +4956,70 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>50688</v>
+        <v>46051</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Nerub'ar Stalker's Cord</t>
+          <t>Meteorite Crystal</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>50631</v>
+        <v>46051</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Nightmare Ender</t>
+          <t>Meteorite Crystal</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>50631</v>
+        <v>50693</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Nightmare Ender</t>
+          <t>Might of Blight</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
@@ -5027,20 +5027,20 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>50627</v>
+        <v>50693</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Noose of Malachite</t>
+          <t>Might of Blight</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
@@ -5048,15 +5048,15 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>50735</v>
+        <v>50738</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Oathbinder, Charge of the Ranger-General</t>
+          <t>Mithrios, Bronzebeard's Legacy</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5069,20 +5069,20 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>50735</v>
+        <v>50688</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Oathbinder, Charge of the Ranger-General</t>
+          <t>Nerub'ar Stalker's Cord</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -5090,20 +5090,20 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>50735</v>
+        <v>50688</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Oathbinder, Charge of the Ranger-General</t>
+          <t>Nerub'ar Stalker's Cord</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
@@ -5111,20 +5111,20 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>50365</v>
+        <v>50688</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Nerub'ar Stalker's Cord</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
@@ -5132,20 +5132,20 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>50365</v>
+        <v>50631</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Nightmare Ender</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
@@ -5153,20 +5153,20 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>50365</v>
+        <v>50631</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Nightmare Ender</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -5174,20 +5174,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>50365</v>
+        <v>50627</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Noose of Malachite</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
@@ -5195,20 +5195,20 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>50365</v>
+        <v>50735</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Oathbinder, Charge of the Ranger-General</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -5216,20 +5216,20 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>50365</v>
+        <v>50735</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Phylactery of the Nameless Lich</t>
+          <t>Oathbinder, Charge of the Ranger-General</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5237,20 +5237,20 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>50699</v>
+        <v>50735</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Oathbinder, Charge of the Ranger-General</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5258,20 +5258,20 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5279,20 +5279,20 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -5300,20 +5300,20 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -5321,20 +5321,20 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -5342,20 +5342,20 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -5363,20 +5363,20 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Plague Scientist's Boots</t>
+          <t>Phylactery of the Nameless Lich</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -5384,7 +5384,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -5405,7 +5405,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -5426,7 +5426,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -5447,20 +5447,20 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>50694</v>
+        <v>50699</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Plaguebringer's Stained Pants</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -5468,20 +5468,20 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>50694</v>
+        <v>50699</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Plaguebringer's Stained Pants</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -5489,20 +5489,20 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>50659</v>
+        <v>50699</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Polar Bear Claw Bracers</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -5510,20 +5510,20 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>50659</v>
+        <v>50699</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Polar Bear Claw Bracers</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
@@ -5531,20 +5531,20 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>50705</v>
+        <v>50699</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Professor's Bloodied Smock</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
@@ -5552,20 +5552,20 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>50705</v>
+        <v>50699</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Professor's Bloodied Smock</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
@@ -5573,20 +5573,20 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -5594,20 +5594,20 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plague Scientist's Boots</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -5615,20 +5615,20 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>52029</v>
+        <v>50694</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plaguebringer's Stained Pants</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E246" t="inlineStr"/>
@@ -5636,20 +5636,20 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>52029</v>
+        <v>50694</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Plaguebringer's Stained Pants</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -5657,20 +5657,20 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>52029</v>
+        <v>50659</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Polar Bear Claw Bracers</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -5678,20 +5678,20 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>52029</v>
+        <v>50659</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Polar Bear Claw Bracers</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -5699,20 +5699,20 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>52029</v>
+        <v>50705</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Professor's Bloodied Smock</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -5720,20 +5720,20 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>52029</v>
+        <v>50705</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Professor's Bloodied Smock</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -5741,7 +5741,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -5762,7 +5762,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E253" t="inlineStr"/>
@@ -5783,7 +5783,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E254" t="inlineStr"/>
@@ -5804,7 +5804,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E255" t="inlineStr"/>
@@ -5825,7 +5825,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E256" t="inlineStr"/>
@@ -5846,7 +5846,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -5867,7 +5867,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
@@ -5888,7 +5888,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
@@ -5909,7 +5909,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -5930,7 +5930,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -5951,7 +5951,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
@@ -5972,7 +5972,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
@@ -5993,7 +5993,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
@@ -6014,7 +6014,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -6035,7 +6035,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -6048,7 +6048,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E266" t="inlineStr"/>
@@ -6056,7 +6056,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -6077,45 +6077,41 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>47188</v>
+        <v>52029</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Reign of the Unliving</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E269" t="inlineStr"/>
@@ -6123,20 +6119,20 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E270" t="inlineStr"/>
@@ -6144,20 +6140,20 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
@@ -6165,20 +6161,20 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E272" t="inlineStr"/>
@@ -6186,20 +6182,20 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
@@ -6207,20 +6203,20 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E274" t="inlineStr"/>
@@ -6228,20 +6224,20 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
@@ -6249,20 +6245,20 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -6270,20 +6266,20 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -6291,20 +6287,20 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>50629</v>
+        <v>52029</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Robe of the Waking Nightmare</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -6312,20 +6308,20 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>50629</v>
+        <v>52029</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Robe of the Waking Nightmare</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -6333,15 +6329,15 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>50680</v>
+        <v>47188</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Rot-Resistant Breastplate</t>
+          <t>Reign of the Unliving</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -6349,25 +6345,29 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr"/>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>50680</v>
+        <v>50664</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Rot-Resistant Breastplate</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -6375,20 +6375,20 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>50718</v>
+        <v>50664</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Royal Crimson Cloak</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E282" t="inlineStr"/>
@@ -6396,20 +6396,20 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>50718</v>
+        <v>50664</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Royal Crimson Cloak</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -6417,20 +6417,20 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>50734</v>
+        <v>50664</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -6438,20 +6438,20 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>50734</v>
+        <v>50664</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
@@ -6459,20 +6459,20 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>50734</v>
+        <v>50664</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E286" t="inlineStr"/>
@@ -6480,20 +6480,20 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>50734</v>
+        <v>50664</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E287" t="inlineStr"/>
@@ -6501,20 +6501,20 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>50734</v>
+        <v>50664</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E288" t="inlineStr"/>
@@ -6522,20 +6522,20 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>50722</v>
+        <v>50664</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>San'layn Ritualist Gloves</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E289" t="inlineStr"/>
@@ -6543,20 +6543,20 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>50717</v>
+        <v>50664</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -6564,20 +6564,20 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>50717</v>
+        <v>50629</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>Robe of the Waking Nightmare</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -6585,20 +6585,20 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>50717</v>
+        <v>50629</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>Robe of the Waking Nightmare</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -6606,15 +6606,15 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>50655</v>
+        <v>50680</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Scourge Hunter's Vambraces</t>
+          <t>Rot-Resistant Breastplate</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -6627,15 +6627,15 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>50655</v>
+        <v>50680</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Scourge Hunter's Vambraces</t>
+          <t>Rot-Resistant Breastplate</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -6648,20 +6648,20 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>50655</v>
+        <v>50718</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Scourge Hunter's Vambraces</t>
+          <t>Royal Crimson Cloak</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -6669,20 +6669,20 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>50624</v>
+        <v>50718</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Scourge Reaver's Legplates</t>
+          <t>Royal Crimson Cloak</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -6690,20 +6690,20 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>50624</v>
+        <v>50734</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Scourge Reaver's Legplates</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -6711,20 +6711,20 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>50719</v>
+        <v>50734</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Shadow Silk Spindle</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -6732,20 +6732,20 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>50719</v>
+        <v>50734</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Shadow Silk Spindle</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -6753,20 +6753,20 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>50719</v>
+        <v>50734</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Shadow Silk Spindle</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -6774,20 +6774,20 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>50719</v>
+        <v>50734</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Shadow Silk Spindle</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -6795,20 +6795,20 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>50719</v>
+        <v>50722</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Shadow Silk Spindle</t>
+          <t>San'layn Ritualist Gloves</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
@@ -6816,15 +6816,15 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>50653</v>
+        <v>50717</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Shadowvault Slayer's Cloak</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -6837,15 +6837,15 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>50653</v>
+        <v>50717</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Shadowvault Slayer's Cloak</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -6858,15 +6858,15 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>50653</v>
+        <v>50717</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Shadowvault Slayer's Cloak</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -6879,20 +6879,20 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>47673</v>
+        <v>50655</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Sigil of Virulence</t>
+          <t>Scourge Hunter's Vambraces</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Emblems of Triumph</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -6900,20 +6900,20 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>50459</v>
+        <v>50655</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Sigil of the Hanged Man</t>
+          <t>Scourge Hunter's Vambraces</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -6921,20 +6921,20 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>50633</v>
+        <v>50655</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Scourge Hunter's Vambraces</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
@@ -6942,20 +6942,20 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>50633</v>
+        <v>50624</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Scourge Reaver's Legplates</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E309" t="inlineStr"/>
@@ -6963,20 +6963,20 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>50633</v>
+        <v>50624</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Scourge Reaver's Legplates</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E310" t="inlineStr"/>
@@ -6984,20 +6984,20 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>50633</v>
+        <v>50719</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E311" t="inlineStr"/>
@@ -7005,20 +7005,20 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>50633</v>
+        <v>50719</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E312" t="inlineStr"/>
@@ -7026,20 +7026,20 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>50633</v>
+        <v>50719</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E313" t="inlineStr"/>
@@ -7047,20 +7047,20 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>50633</v>
+        <v>50719</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
@@ -7068,20 +7068,20 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>50364</v>
+        <v>50719</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Sindragosa's Flawless Fang</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
@@ -7089,20 +7089,20 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>50364</v>
+        <v>50653</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Sindragosa's Flawless Fang</t>
+          <t>Shadowvault Slayer's Cloak</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E316" t="inlineStr"/>
@@ -7110,20 +7110,20 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>50657</v>
+        <v>50653</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Skeleton Lord's Circle</t>
+          <t>Shadowvault Slayer's Cloak</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E317" t="inlineStr"/>
@@ -7131,20 +7131,20 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>47059</v>
+        <v>50653</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Solace of the Defeated</t>
+          <t>Shadowvault Slayer's Cloak</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E318" t="inlineStr"/>
@@ -7152,70 +7152,62 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>47059</v>
+        <v>47673</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Solace of the Defeated</t>
+          <t>Sigil of Virulence</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>Emblems of Triumph</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>47059</v>
+        <v>50459</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Solace of the Defeated</t>
+          <t>Sigil of the Hanged Man</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>Emblems of Frost</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>37111</v>
+        <v>50633</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Soul Preserver</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E321" t="inlineStr"/>
@@ -7223,20 +7215,20 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>37111</v>
+        <v>50633</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Soul Preserver</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E322" t="inlineStr"/>
@@ -7244,20 +7236,20 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>50635</v>
+        <v>50633</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Sundial of Eternal Dusk</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E323" t="inlineStr"/>
@@ -7265,20 +7257,20 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>50635</v>
+        <v>50633</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Sundial of Eternal Dusk</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E324" t="inlineStr"/>
@@ -7286,20 +7278,20 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>50635</v>
+        <v>50633</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Sundial of Eternal Dusk</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E325" t="inlineStr"/>
@@ -7307,20 +7299,20 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>50716</v>
+        <v>50633</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Taldaram's Plated Fists</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E326" t="inlineStr"/>
@@ -7328,20 +7320,20 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>50651</v>
+        <v>50633</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>The Lady's Brittle Bracers</t>
+          <t>Sindragosa's Cruel Claw</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E327" t="inlineStr"/>
@@ -7349,20 +7341,20 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>50651</v>
+        <v>50364</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>The Lady's Brittle Bracers</t>
+          <t>Sindragosa's Flawless Fang</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E328" t="inlineStr"/>
@@ -7370,20 +7362,20 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>50651</v>
+        <v>50364</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>The Lady's Brittle Bracers</t>
+          <t>Sindragosa's Flawless Fang</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E329" t="inlineStr"/>
@@ -7391,15 +7383,15 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>50706</v>
+        <v>50657</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Tiny Abomination in a Jar</t>
+          <t>Skeleton Lord's Circle</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -7412,15 +7404,15 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>50670</v>
+        <v>47059</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -7433,15 +7425,15 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>50670</v>
+        <v>47059</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -7449,20 +7441,24 @@
           <t>2</t>
         </is>
       </c>
-      <c r="E332" t="inlineStr"/>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>50670</v>
+        <v>47059</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -7470,20 +7466,24 @@
           <t>3</t>
         </is>
       </c>
-      <c r="E333" t="inlineStr"/>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>50670</v>
+        <v>47059</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Toskk's Maximized Wristguards</t>
+          <t>Solace of the Defeated</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -7496,20 +7496,20 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>50711</v>
+        <v>37111</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Treads of the Wasteland</t>
+          <t>Soul Preserver</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="E335" t="inlineStr"/>
@@ -7517,115 +7517,99 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>46017</v>
+        <v>37111</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Soul Preserver</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>46017</v>
+        <v>50635</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Sundial of Eternal Dusk</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>46017</v>
+        <v>50635</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Sundial of Eternal Dusk</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>46017</v>
+        <v>50635</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Val'anyr, Hammer of Ancient Kings</t>
+          <t>Sundial of Eternal Dusk</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Legendary</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>50714</v>
+        <v>50716</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Valanar's Other Signet Ring</t>
+          <t>Taldaram's Plated Fists</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -7638,15 +7622,15 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>52028</v>
+        <v>50651</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>The Lady's Brittle Bracers</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -7659,15 +7643,15 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>52028</v>
+        <v>50651</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>The Lady's Brittle Bracers</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -7680,15 +7664,15 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>52028</v>
+        <v>50651</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>The Lady's Brittle Bracers</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -7701,20 +7685,20 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>52028</v>
+        <v>50706</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Tiny Abomination in a Jar</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
@@ -7722,20 +7706,20 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -7743,20 +7727,20 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
@@ -7764,20 +7748,20 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -7785,20 +7769,20 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Toskk's Maximized Wristguards</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -7806,20 +7790,20 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>52028</v>
+        <v>39728</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Totem of Misery</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
@@ -7827,20 +7811,20 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>52028</v>
+        <v>50711</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Treads of the Wasteland</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E350" t="inlineStr"/>
@@ -7848,20 +7832,20 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>52028</v>
+        <v>50703</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Unclean Surgical Gloves</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E351" t="inlineStr"/>
@@ -7869,20 +7853,20 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>Legendary</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -7890,104 +7874,120 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E353" t="inlineStr"/>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr"/>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E355" t="inlineStr"/>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Val'anyr, Hammer of Ancient Kings</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr"/>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>52028</v>
+        <v>50714</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Vanquisher's Mark of Sanctification</t>
+          <t>Valanar's Other Signet Ring</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E357" t="inlineStr"/>
@@ -7995,7 +7995,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -8016,7 +8016,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E359" t="inlineStr"/>
@@ -8037,7 +8037,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -8050,7 +8050,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -8058,7 +8058,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
@@ -8079,7 +8079,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E362" t="inlineStr"/>
@@ -8100,7 +8100,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -8113,7 +8113,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E363" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E364" t="inlineStr"/>
@@ -8142,7 +8142,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -8155,7 +8155,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -8163,7 +8163,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E366" t="inlineStr"/>
@@ -8184,7 +8184,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -8197,7 +8197,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E367" t="inlineStr"/>
@@ -8205,7 +8205,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E368" t="inlineStr"/>
@@ -8226,7 +8226,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -8239,7 +8239,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E369" t="inlineStr"/>
@@ -8247,7 +8247,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E370" t="inlineStr"/>
@@ -8268,7 +8268,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E371" t="inlineStr"/>
@@ -8289,7 +8289,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E372" t="inlineStr"/>
@@ -8310,7 +8310,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E373" t="inlineStr"/>
@@ -8331,7 +8331,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E374" t="inlineStr"/>
@@ -8352,7 +8352,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
@@ -8373,7 +8373,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -8386,7 +8386,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E376" t="inlineStr"/>
@@ -8394,7 +8394,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E377" t="inlineStr"/>
@@ -8415,7 +8415,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E378" t="inlineStr"/>
@@ -8436,7 +8436,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E379" t="inlineStr"/>
@@ -8457,7 +8457,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -8470,7 +8470,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E380" t="inlineStr"/>
@@ -8478,20 +8478,20 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E381" t="inlineStr"/>
@@ -8499,20 +8499,20 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E382" t="inlineStr"/>
@@ -8520,20 +8520,20 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
@@ -8541,20 +8541,20 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Vereesa's Dexterity</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -8562,20 +8562,20 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>51946</v>
+        <v>52028</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Warmace of Menethil</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
@@ -8583,20 +8583,20 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
@@ -8604,20 +8604,20 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E387" t="inlineStr"/>
@@ -8625,20 +8625,20 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Whispering Fanged Skull</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
@@ -8646,20 +8646,20 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>50677</v>
+        <v>52028</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Winding Sheet</t>
+          <t>Vanquisher's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E389" t="inlineStr"/>
@@ -8667,23 +8667,380 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
+          <t>Wishnourson</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Wishnourson</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Wishnourson</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Wishnourson</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Drikato</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Drikato</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Drikato</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Drikato</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>52028</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Vanquisher's Mark of Sanctification</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Fuldrak</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Aurallia</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Royalhaze</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>47545</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Vereesa's Dexterity</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Fuldrak</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>51946</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Warmace of Menethil</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Fuldrak</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Sharpélune</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>50343</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Whispering Fanged Skull</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Iryastra</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>50677</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Winding Sheet</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
           <t>Gosseyn</t>
         </is>
       </c>
-      <c r="B390" t="n">
+      <c r="B407" t="n">
         <v>50677</v>
       </c>
-      <c r="C390" t="inlineStr">
+      <c r="C407" t="inlineStr">
         <is>
           <t>Winding Sheet</t>
         </is>
       </c>
-      <c r="D390" t="inlineStr">
+      <c r="D407" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E390" t="inlineStr"/>
+      <c r="E407" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087E32EA-0650-4153-9A49-841956C2A850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFF23A7-FEEE-4226-A822-47C1FC464D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="193">
   <si>
     <t>player</t>
   </si>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="E335" sqref="E335"/>
+    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
+      <selection activeCell="E405" sqref="E405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6617,7 +6617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>38</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>10</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>10</v>
       </c>
@@ -6658,8 +6658,11 @@
       <c r="D403" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E403" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>12</v>
       </c>
@@ -6672,8 +6675,11 @@
       <c r="D404" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E404" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>24</v>
       </c>
@@ -6687,7 +6693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>5</v>
       </c>
@@ -6701,7 +6707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>8</v>
       </c>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -719,20 +719,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50658</v>
+        <v>50619</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Amulet of the Silent Eulogy</t>
+          <t>Anub'ar Stalker's Gloves</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -740,20 +740,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50619</v>
+        <v>50404</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Anub'ar Stalker's Gloves</t>
+          <t>Ashen Band of Endless Courage</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Reputation</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -761,15 +761,15 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50404</v>
+        <v>50398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Courage</t>
+          <t>Ashen Band of Endless Destruction</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -866,7 +866,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -887,7 +887,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Itstøkyo</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -908,15 +908,15 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Itstøkyo</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50398</v>
+        <v>52572</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Destruction</t>
+          <t>Ashen Band of Endless Might</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -929,15 +929,15 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>52572</v>
+        <v>50402</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Might</t>
+          <t>Ashen Band of Endless Vengeance</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -950,7 +950,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dimoncello</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -992,7 +992,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Csamain</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1013,7 +1013,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1034,7 +1034,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Csamain</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1055,7 +1055,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Dimoncello</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1076,7 +1076,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1097,7 +1097,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Daekness</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1118,7 +1118,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Daekness</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1139,15 +1139,15 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50402</v>
+        <v>50400</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Vengeance</t>
+          <t>Ashen Band of Endless Wisdom</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1181,7 +1181,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1202,7 +1202,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1223,7 +1223,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1244,20 +1244,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50400</v>
+        <v>50707</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ashen Band of Endless Wisdom</t>
+          <t>Astrylian's Sutured Cinch</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Reputation</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1265,7 +1265,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1286,7 +1286,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Daekness</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -1307,7 +1307,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Daekness</t>
+          <t>Csamain</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1328,20 +1328,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Csamain</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50707</v>
+        <v>50604</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Astrylian's Sutured Cinch</t>
+          <t>Band of the Bone Colossus</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1349,7 +1349,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -1370,7 +1370,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1391,20 +1391,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50604</v>
+        <v>50691</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Band of the Bone Colossus</t>
+          <t>Belt of Broken Bones</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1412,7 +1412,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>50691</v>
+        <v>50682</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Belt of Broken Bones</t>
+          <t>Bile-Encrusted Medallion</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -1454,20 +1454,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>50682</v>
+        <v>50458</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Bile-Encrusted Medallion</t>
+          <t>Bizuri's Totem of Shattered Ice</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -1475,7 +1475,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1496,20 +1496,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>50458</v>
+        <v>49894</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Bizuri's Totem of Shattered Ice</t>
+          <t>Blessed Cenarion Boots</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>Craft</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -1517,28 +1517,32 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>49894</v>
+        <v>50724</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Blessed Cenarion Boots</t>
+          <t>Blood Queen's Crimson Choker</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Craft</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1551,19 +1555,15 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -1584,7 +1584,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -1605,7 +1605,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -1626,7 +1626,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -1647,7 +1647,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -1668,7 +1668,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -1689,7 +1689,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Itstøkyo</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -1710,7 +1710,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Itstøkyo</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -1815,7 +1815,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1836,7 +1836,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2260,7 +2260,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2281,7 +2281,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2302,7 +2302,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3062,7 +3062,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -3083,7 +3083,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -3167,7 +3167,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -3188,7 +3188,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3209,7 +3209,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -3230,7 +3230,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3251,7 +3251,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3272,7 +3272,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -3293,7 +3293,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Itstøkyo</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -3314,7 +3314,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Itstøkyo</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -3922,7 +3922,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -3943,7 +3943,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -3964,7 +3964,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -3985,7 +3985,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -4006,7 +4006,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Itstøkyo</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -4027,7 +4027,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Itstøkyo</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -4321,7 +4321,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -4342,7 +4342,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -4363,7 +4363,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -4384,7 +4384,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -4405,7 +4405,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -4426,7 +4426,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -4447,7 +4447,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Itstøkyo</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -4468,7 +4468,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Itstøkyo</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -5480,7 +5480,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -5501,7 +5501,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -6076,7 +6076,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -6097,7 +6097,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -6118,7 +6118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -6139,7 +6139,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -6160,7 +6160,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Itstøkyo</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -6181,7 +6181,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Itstøkyo</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -6307,7 +6307,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -6328,7 +6328,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -6349,7 +6349,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -6370,7 +6370,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -6391,7 +6391,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -6412,7 +6412,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Itstøkyo</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -6433,7 +6433,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Itstøkyo</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -6815,7 +6815,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -6836,7 +6836,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -6857,7 +6857,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -6878,7 +6878,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -6899,7 +6899,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -6920,7 +6920,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -6941,7 +6941,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -6962,7 +6962,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -6983,7 +6983,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -7004,7 +7004,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -7025,7 +7025,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -7046,7 +7046,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -7067,7 +7067,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -7088,7 +7088,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -7109,7 +7109,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -7130,7 +7130,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -7151,7 +7151,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Dimoncello</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -7172,7 +7172,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Dimoncello</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -7193,7 +7193,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Dimoncello</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -7214,7 +7214,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Dimoncello</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -7235,7 +7235,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Dimoncello</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -7256,7 +7256,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Dimoncello</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -7277,7 +7277,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Dimoncello</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -7298,7 +7298,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Dimoncello</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -7407,7 +7407,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -7428,7 +7428,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -7449,7 +7449,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -7470,7 +7470,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -7491,7 +7491,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -7512,7 +7512,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -7533,7 +7533,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Itstøkyo</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -7554,7 +7554,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Itstøkyo</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -7743,7 +7743,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -7764,7 +7764,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Wishnourson</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -7785,7 +7785,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Wishnourson</t>
+          <t>Itstøkyo</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -7806,7 +7806,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Itstøkyo</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -8687,7 +8687,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -8708,7 +8708,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -9086,7 +9086,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -9111,7 +9111,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -9136,7 +9136,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -9152,12 +9152,16 @@
           <t>Legendary</t>
         </is>
       </c>
-      <c r="E411" t="inlineStr"/>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -9173,16 +9177,12 @@
           <t>Legendary</t>
         </is>
       </c>
-      <c r="E412" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B413" t="n">

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5036CE9-B9DF-4AA5-A6CC-CA0B0B5FFD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EA0BE7-81BA-4152-BADD-4245CE93F700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="207">
   <si>
     <t>player</t>
   </si>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="E238" sqref="E238"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="I286" sqref="I286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1916,7 +1916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -1943,8 +1943,11 @@
       <c r="D66" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -1958,7 +1961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -1986,7 +1989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -2014,7 +2017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -2028,7 +2031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -2042,7 +2045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -2070,7 +2073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -2084,7 +2087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>50</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>28</v>
       </c>
@@ -2299,6 +2302,9 @@
       <c r="D91" t="s">
         <v>7</v>
       </c>
+      <c r="E91" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
@@ -3505,7 +3511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>47</v>
       </c>
@@ -3519,7 +3525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>46</v>
       </c>
@@ -3533,7 +3539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -3547,7 +3553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>18</v>
       </c>
@@ -3561,7 +3567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -3575,7 +3581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>33</v>
       </c>
@@ -3589,7 +3595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>34</v>
       </c>
@@ -3603,7 +3609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>47</v>
       </c>
@@ -3617,7 +3623,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>35</v>
       </c>
@@ -3631,7 +3637,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>23</v>
       </c>
@@ -3645,7 +3651,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>36</v>
       </c>
@@ -3659,7 +3665,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>31</v>
       </c>
@@ -3672,8 +3678,11 @@
       <c r="D188" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E188" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>37</v>
       </c>
@@ -3687,7 +3696,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>46</v>
       </c>
@@ -3701,7 +3710,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -3715,7 +3724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>44</v>
       </c>
@@ -3956,7 +3965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>21</v>
       </c>
@@ -3970,7 +3979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>22</v>
       </c>
@@ -3984,7 +3993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>24</v>
       </c>
@@ -3998,7 +4007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>50</v>
       </c>
@@ -4011,8 +4020,11 @@
       <c r="D212" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E212" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>28</v>
       </c>
@@ -4026,7 +4038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>26</v>
       </c>
@@ -4040,7 +4052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>26</v>
       </c>
@@ -4054,7 +4066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>16</v>
       </c>
@@ -4068,7 +4080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>41</v>
       </c>
@@ -4082,7 +4094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>18</v>
       </c>
@@ -4096,7 +4108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>37</v>
       </c>
@@ -4110,7 +4122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>50</v>
       </c>
@@ -4124,7 +4136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>28</v>
       </c>
@@ -4138,7 +4150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>35</v>
       </c>
@@ -4152,7 +4164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>21</v>
       </c>
@@ -4166,7 +4178,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>22</v>
       </c>
@@ -5126,6 +5138,9 @@
       <c r="D291" t="s">
         <v>11</v>
       </c>
+      <c r="E291" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
@@ -7698,6 +7713,9 @@
       </c>
       <c r="D472" t="s">
         <v>7</v>
+      </c>
+      <c r="E472" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -929,7 +929,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -950,7 +950,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -971,7 +971,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Csamain</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -992,7 +992,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dimoncello</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1013,7 +1013,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Dimoncello</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1034,7 +1034,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1055,7 +1055,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Furybloke</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1076,7 +1076,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1097,7 +1097,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Daekness</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1118,7 +1118,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Csamain</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1139,7 +1139,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Furybloke</t>
+          <t>Daekness</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1391,7 +1391,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1412,7 +1412,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1496,7 +1496,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1517,7 +1517,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1538,20 +1538,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>49894</v>
+        <v>50692</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Blessed Cenarion Boots</t>
+          <t>Black Bruise</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Craft</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -1559,20 +1559,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>50724</v>
+        <v>49894</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Blood Queen's Crimson Choker</t>
+          <t>Blessed Cenarion Boots</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Craft</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -1580,7 +1580,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -1601,7 +1601,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -1622,7 +1622,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -1643,7 +1643,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -1664,7 +1664,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -1685,7 +1685,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Itstøkyo</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -1706,7 +1706,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Itstøkyo</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -1727,7 +1727,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1740,40 +1740,40 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Blood-Soaked Saronite Stompers</t>
+          <t>Blood Queen's Crimson Choker</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -1794,7 +1794,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -1815,7 +1815,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -1836,7 +1836,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Furybloke</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -1857,32 +1857,28 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Furybloke</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>50687</v>
+        <v>50639</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Bloodsunder's Bracers</t>
+          <t>Blood-Soaked Saronite Stompers</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1895,28 +1891,32 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>50732</v>
+        <v>50687</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
+          <t>Bloodsunder's Bracers</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -1924,7 +1924,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -1945,7 +1945,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -1966,7 +1966,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -1987,20 +1987,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>50672</v>
+        <v>50732</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Bloodvenom Blade</t>
+          <t>Bloodsurge, Kel'Thuzad's Blade of Agony</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -2008,7 +2008,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -2029,7 +2029,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -2050,20 +2050,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>50609</v>
+        <v>50672</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Bone Sentinel's Amulet</t>
+          <t>Bloodvenom Blade</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -2071,7 +2071,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -2092,20 +2092,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>50660</v>
+        <v>50609</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Boneguard Commander's Pauldrons</t>
+          <t>Bone Sentinel's Amulet</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -2113,7 +2113,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -2134,20 +2134,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>50611</v>
+        <v>50660</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Bracers of Dark Reckoning</t>
+          <t>Boneguard Commander's Pauldrons</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -2155,7 +2155,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -2176,20 +2176,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>50630</v>
+        <v>50611</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Bracers of Eternal Dreaming</t>
+          <t>Bracers of Dark Reckoning</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -2197,7 +2197,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -2218,7 +2218,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Itstøkyo</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -2239,20 +2239,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Itstøkyo</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>50640</v>
+        <v>50630</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Broken Ram Skull Helm</t>
+          <t>Bracers of Eternal Dreaming</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -2260,15 +2260,15 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>50616</v>
+        <v>50640</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Bulwark of Smouldering Steel</t>
+          <t>Broken Ram Skull Helm</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2281,7 +2281,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -2302,7 +2302,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -2323,7 +2323,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -2344,40 +2344,36 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>47146</v>
+        <v>50616</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Chalice of Searing Light</t>
+          <t>Bulwark of Smouldering Steel</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>50620</v>
+        <v>47146</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Coldwraith Links</t>
+          <t>Chalice of Searing Light</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2394,7 +2390,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2407,15 +2403,19 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -2436,7 +2436,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -2457,20 +2457,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Conqueror's Mark of Sanctification</t>
+          <t>Coldwraith Links</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -2541,7 +2541,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -2625,7 +2625,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -2667,7 +2667,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -2751,7 +2751,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -2793,7 +2793,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Daekness</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -2961,7 +2961,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Daekness</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -3003,20 +3003,20 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>50684</v>
+        <v>52030</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Corpse-Impaling Spike</t>
+          <t>Conqueror's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -3024,7 +3024,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -3045,7 +3045,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -3066,7 +3066,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -3087,20 +3087,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>50356</v>
+        <v>50684</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Corroded Skeleton Key</t>
+          <t>Corpse-Impaling Spike</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -3129,20 +3129,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>50613</v>
+        <v>50356</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Crushing Coldwraith Belt</t>
+          <t>Corroded Skeleton Key</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -3150,7 +3150,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -3192,7 +3192,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -3213,7 +3213,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -3234,7 +3234,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -3255,7 +3255,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Itstøkyo</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -3276,7 +3276,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Itstøkyo</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -3297,7 +3297,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -3318,20 +3318,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>50721</v>
+        <v>50613</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Crypt Keeper's Bracers</t>
+          <t>Crushing Coldwraith Belt</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -3339,7 +3339,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -3360,20 +3360,20 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Furybloke</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>50603</v>
+        <v>50721</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Cryptmaker</t>
+          <t>Crypt Keeper's Bracers</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -3381,15 +3381,15 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Furybloke</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>50686</v>
+        <v>50603</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Death Surgeon's Sleeves</t>
+          <t>Cryptmaker</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3402,7 +3402,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -3423,7 +3423,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -3444,20 +3444,20 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>47131</v>
+        <v>50686</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Death's Verdict</t>
+          <t>Death Surgeon's Sleeves</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -3465,7 +3465,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -3478,19 +3478,15 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -3503,7 +3499,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -3515,7 +3511,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -3528,7 +3524,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -3540,7 +3536,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -3553,7 +3549,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -3565,7 +3561,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Daekness</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -3578,15 +3574,19 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Dimoncello</t>
+          <t>Daekness</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
@@ -3607,20 +3607,20 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Dimoncello</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Deathbringer's Will</t>
+          <t>Death's Verdict</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
@@ -3628,7 +3628,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
@@ -3649,7 +3649,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -3859,20 +3859,20 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>50622</v>
+        <v>50363</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Devium's Eternally Cold Ring</t>
+          <t>Deathbringer's Will</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -3880,7 +3880,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
@@ -3901,32 +3901,28 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>50348</v>
+        <v>50622</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Dislodged Foreign Object</t>
+          <t>Devium's Eternally Cold Ring</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -3939,15 +3935,19 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E166" t="inlineStr"/>
@@ -3968,7 +3968,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E167" t="inlineStr"/>
@@ -3989,7 +3989,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
@@ -4010,7 +4010,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Itstøkyo</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
@@ -4031,7 +4031,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Itstøkyo</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E170" t="inlineStr"/>
@@ -4052,20 +4052,20 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Fal'inrush, Defender of Quel'thalas</t>
+          <t>Dislodged Foreign Object</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E171" t="inlineStr"/>
@@ -4073,7 +4073,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E172" t="inlineStr"/>
@@ -4094,7 +4094,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
@@ -4115,7 +4115,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E174" t="inlineStr"/>
@@ -4136,7 +4136,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E175" t="inlineStr"/>
@@ -4157,7 +4157,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Dimoncello</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
@@ -4178,7 +4178,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Csamain</t>
+          <t>Dimoncello</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -4199,7 +4199,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Furybloke</t>
+          <t>Csamain</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
@@ -4220,20 +4220,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Furybloke</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>50650</v>
+        <v>50733</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Fallen Lord's Handguards</t>
+          <t>Fal'inrush, Defender of Quel'thalas</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
@@ -4241,7 +4241,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
@@ -4262,20 +4262,20 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Daekness</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>50690</v>
+        <v>50650</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Fleshrending Gauntlets</t>
+          <t>Fallen Lord's Handguards</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
@@ -4283,15 +4283,15 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Daekness</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>50628</v>
+        <v>50690</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Frostbinder's Shredded Cape</t>
+          <t>Fleshrending Gauntlets</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4304,7 +4304,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -4325,7 +4325,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E184" t="inlineStr"/>
@@ -4346,7 +4346,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
@@ -4367,7 +4367,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
@@ -4388,7 +4388,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
@@ -4409,7 +4409,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -4422,7 +4422,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
@@ -4430,7 +4430,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Itstøkyo</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -4443,19 +4443,15 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Itstøkyo</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -4468,15 +4464,19 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E191" t="inlineStr"/>
@@ -4497,20 +4497,20 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Frostbitten Fur Boots</t>
+          <t>Frostbinder's Shredded Cape</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E192" t="inlineStr"/>
@@ -4518,7 +4518,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
@@ -4539,7 +4539,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E194" t="inlineStr"/>
@@ -4560,7 +4560,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Drikato</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E195" t="inlineStr"/>
@@ -4581,7 +4581,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Daekness</t>
+          <t>Drikato</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
@@ -4602,7 +4602,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Dimoncello</t>
+          <t>Daekness</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E197" t="inlineStr"/>
@@ -4623,7 +4623,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Csamain</t>
+          <t>Dimoncello</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
@@ -4644,20 +4644,20 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Csamain</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>50618</v>
+        <v>50607</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Frostbrood Sapphire Ring</t>
+          <t>Frostbitten Fur Boots</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
@@ -4665,7 +4665,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -4686,7 +4686,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -4699,19 +4699,15 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -4724,15 +4720,19 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Dimoncello</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E203" t="inlineStr"/>
@@ -4753,7 +4753,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Csamain</t>
+          <t>Dimoncello</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Furybloke</t>
+          <t>Csamain</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -4787,7 +4787,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -4795,20 +4795,20 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Csamain</t>
+          <t>Furybloke</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>50697</v>
+        <v>50618</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Gangrenous Leggings</t>
+          <t>Frostbrood Sapphire Ring</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E206" t="inlineStr"/>
@@ -4816,15 +4816,15 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Csamain</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>50730</v>
+        <v>50697</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Glorenzelg, High-Blade of the Silver Hand</t>
+          <t>Gangrenous Leggings</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4837,7 +4837,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
@@ -4879,7 +4879,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Daekness</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -4892,7 +4892,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
@@ -4900,7 +4900,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Furybloke</t>
+          <t>Daekness</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -4921,20 +4921,20 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Furybloke</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>50668</v>
+        <v>50730</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Greatcloak of the Turned Champion</t>
+          <t>Glorenzelg, High-Blade of the Silver Hand</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
@@ -4942,7 +4942,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -4963,7 +4963,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -4984,32 +4984,28 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>50625</v>
+        <v>50668</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Grinning Skull Greatboots</t>
+          <t>Greatcloak of the Turned Champion</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -5022,28 +5018,32 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>50737</v>
+        <v>50625</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Havoc's Call, Blade of Lordaeron Kings</t>
+          <t>Grinning Skull Greatboots</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
@@ -5051,7 +5051,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Csamain</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
@@ -5072,7 +5072,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Csamain</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -5903,7 +5903,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -5924,7 +5924,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -5945,7 +5945,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Dimoncello</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -5966,7 +5966,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Dimoncello</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -6621,15 +6621,15 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>50705</v>
+        <v>51890</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Professor's Bloodied Smock</t>
+          <t>Precious's Putrid Collar</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -6642,7 +6642,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -6655,7 +6655,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -6663,27 +6663,23 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>52029</v>
+        <v>50705</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Protector's Mark of Sanctification</t>
+          <t>Professor's Bloodied Smock</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -6701,10 +6697,14 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -6751,7 +6751,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -6772,7 +6772,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -6793,7 +6793,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -6806,7 +6806,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -6814,7 +6814,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Nomys</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -6827,7 +6827,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
@@ -6856,7 +6856,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -6869,7 +6869,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
@@ -6877,7 +6877,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -6890,7 +6890,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E304" t="inlineStr"/>
@@ -6898,7 +6898,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Nomys</t>
+          <t>Aurallia</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E305" t="inlineStr"/>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -6940,7 +6940,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -6953,7 +6953,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -6961,7 +6961,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
@@ -6982,7 +6982,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Aurallia</t>
+          <t>Royalhaze</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -6995,7 +6995,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E309" t="inlineStr"/>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E310" t="inlineStr"/>
@@ -7024,7 +7024,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -7037,7 +7037,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E311" t="inlineStr"/>
@@ -7045,7 +7045,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E312" t="inlineStr"/>
@@ -7066,7 +7066,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Royalhaze</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -7079,7 +7079,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E313" t="inlineStr"/>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
@@ -7108,7 +7108,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Dimoncello</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
@@ -7129,7 +7129,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Dimoncello</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E316" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Dimoncello</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -7163,7 +7163,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E317" t="inlineStr"/>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E318" t="inlineStr"/>
@@ -7192,7 +7192,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Dimoncello</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E319" t="inlineStr"/>
@@ -7213,7 +7213,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Dimoncello</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E320" t="inlineStr"/>
@@ -7234,7 +7234,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Dimoncello</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -7247,7 +7247,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E321" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E322" t="inlineStr"/>
@@ -7276,7 +7276,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Furybloke</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -7289,7 +7289,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E323" t="inlineStr"/>
@@ -7297,7 +7297,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Furybloke</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E324" t="inlineStr"/>
@@ -7318,7 +7318,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Furybloke</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E325" t="inlineStr"/>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E326" t="inlineStr"/>
@@ -7360,7 +7360,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Furybloke</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -7373,7 +7373,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E327" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Furybloke</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -7394,7 +7394,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E328" t="inlineStr"/>
@@ -7402,7 +7402,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Furybloke</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E329" t="inlineStr"/>
@@ -7423,40 +7423,36 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>47188</v>
+        <v>52029</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Reign of the Unliving</t>
+          <t>Protector's Mark of Sanctification</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>50664</v>
+        <v>47188</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Ring of Rapid Ascent</t>
+          <t>Reign of the Unliving</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -7464,12 +7460,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E331" t="inlineStr"/>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -7482,7 +7482,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -7490,7 +7490,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -7503,7 +7503,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -7511,7 +7511,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -7532,7 +7532,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E335" t="inlineStr"/>
@@ -7553,7 +7553,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E336" t="inlineStr"/>
@@ -7574,7 +7574,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -7587,7 +7587,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E337" t="inlineStr"/>
@@ -7595,7 +7595,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Itstøkyo</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -7616,7 +7616,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Darnä</t>
+          <t>Itstøkyo</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -7637,7 +7637,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Darnä</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E340" t="inlineStr"/>
@@ -7658,20 +7658,20 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>50629</v>
+        <v>50664</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Robe of the Waking Nightmare</t>
+          <t>Ring of Rapid Ascent</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E341" t="inlineStr"/>
@@ -7679,7 +7679,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E342" t="inlineStr"/>
@@ -7700,20 +7700,20 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>50680</v>
+        <v>50629</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Rot-Resistant Breastplate</t>
+          <t>Robe of the Waking Nightmare</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
@@ -7721,7 +7721,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
@@ -7742,20 +7742,20 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Krikhammer</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>50718</v>
+        <v>50680</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Royal Crimson Cloak</t>
+          <t>Rot-Resistant Breastplate</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -7763,7 +7763,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Krikhammer</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -7776,7 +7776,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
@@ -7784,20 +7784,20 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Mokà</t>
+          <t>Jaymie</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>50734</v>
+        <v>50718</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Royal Scepter of Terenas II</t>
+          <t>Royal Crimson Cloak</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -7805,7 +7805,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Mokà</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -7818,7 +7818,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -7839,7 +7839,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
@@ -7860,7 +7860,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E350" t="inlineStr"/>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E351" t="inlineStr"/>
@@ -7889,20 +7889,20 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>50722</v>
+        <v>50734</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>San'layn Ritualist Gloves</t>
+          <t>Royal Scepter of Terenas II</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -7910,15 +7910,15 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>50717</v>
+        <v>50722</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Sanguine Silk Robes</t>
+          <t>San'layn Ritualist Gloves</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -7931,7 +7931,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E354" t="inlineStr"/>
@@ -7952,7 +7952,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Supermerguez</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E355" t="inlineStr"/>
@@ -7973,20 +7973,20 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Supermerguez</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>50655</v>
+        <v>50717</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Scourge Hunter's Vambraces</t>
+          <t>Sanguine Silk Robes</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E356" t="inlineStr"/>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E357" t="inlineStr"/>
@@ -8028,7 +8028,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E359" t="inlineStr"/>
@@ -8057,20 +8057,20 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>50624</v>
+        <v>50655</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Scourge Reaver's Legplates</t>
+          <t>Scourge Hunter's Vambraces</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -8078,7 +8078,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -8091,32 +8091,28 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E361" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Csamain</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>50654</v>
+        <v>50624</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Scourgeborne Waraxe</t>
+          <t>Scourge Reaver's Legplates</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -8128,15 +8124,15 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Daekness</t>
+          <t>Csamain</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>50678</v>
+        <v>50654</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Seal of Many Mouths</t>
+          <t>Scourgeborne Waraxe</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -8144,20 +8140,24 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E363" t="inlineStr"/>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Euphemià</t>
+          <t>Daekness</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>50719</v>
+        <v>50678</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Shadow Silk Spindle</t>
+          <t>Seal of Many Mouths</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -8170,7 +8170,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Äspï</t>
+          <t>Euphemià</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -8191,7 +8191,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Pamage</t>
+          <t>Äspï</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -8204,7 +8204,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E366" t="inlineStr"/>
@@ -8212,7 +8212,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Lupusreginä</t>
+          <t>Pamage</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E367" t="inlineStr"/>
@@ -8233,7 +8233,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Itstøkyo</t>
+          <t>Lupusreginä</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -8246,7 +8246,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E368" t="inlineStr"/>
@@ -8254,20 +8254,20 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Itstøkyo</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>50653</v>
+        <v>50719</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Shadowvault Slayer's Cloak</t>
+          <t>Shadow Silk Spindle</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E369" t="inlineStr"/>
@@ -8288,7 +8288,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E370" t="inlineStr"/>
@@ -8309,7 +8309,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E371" t="inlineStr"/>
@@ -8330,7 +8330,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E372" t="inlineStr"/>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E373" t="inlineStr"/>
@@ -8359,20 +8359,20 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Gosseyn</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>47673</v>
+        <v>50653</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Sigil of Virulence</t>
+          <t>Shadowvault Slayer's Cloak</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Emblems of Triumph</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E374" t="inlineStr"/>
@@ -8380,20 +8380,20 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Iryastra</t>
+          <t>Gosseyn</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>50459</v>
+        <v>47673</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Sigil of the Hanged Man</t>
+          <t>Sigil of Virulence</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Emblems of Frost</t>
+          <t>Emblems of Triumph</t>
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
@@ -8401,20 +8401,20 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Fuldrak</t>
+          <t>Iryastra</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>50633</v>
+        <v>50459</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Sindragosa's Cruel Claw</t>
+          <t>Sigil of the Hanged Man</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Emblems of Frost</t>
         </is>
       </c>
       <c r="E376" t="inlineStr"/>
@@ -8422,7 +8422,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Sharpélune</t>
+          <t>Fuldrak</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E377" t="inlineStr"/>
@@ -8443,7 +8443,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Sharpélune</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -8456,7 +8456,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E378" t="inlineStr"/>
@@ -8477,7 +8477,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E379" t="inlineStr"/>
@@ -8498,7 +8498,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E380" t="inlineStr"/>
@@ -8519,7 +8519,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E381" t="inlineStr"/>
@@ -8540,7 +8540,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E382" t="inlineStr"/>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
@@ -8582,7 +8582,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -9169,7 +9169,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Zàpp</t>
+          <t>Linacool</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -9194,7 +9194,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Skotia</t>
+          <t>Ayurvedae</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -9210,16 +9210,12 @@
           <t>Legendary</t>
         </is>
       </c>
-      <c r="E413" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Seina</t>
+          <t>Zàpp</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -9244,7 +9240,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Linacool</t>
+          <t>Seina</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -9269,7 +9265,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Ayurvedae</t>
+          <t>Skotia</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -9285,7 +9281,11 @@
           <t>Legendary</t>
         </is>
       </c>
-      <c r="E416" t="inlineStr"/>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -10390,7 +10390,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Csamain</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -10411,7 +10411,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Csamain</t>
+          <t>Furybloke</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -10432,7 +10432,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Furybloke</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B471" t="n">

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9A3148-9ABF-448A-BCF9-F7FFB81B860F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA182A70-E287-488F-A64D-CCE10C288C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="206">
   <si>
     <t>player</t>
   </si>
@@ -94,12 +94,12 @@
     <t>Linacool</t>
   </si>
   <si>
+    <t>Ayurvedae</t>
+  </si>
+  <si>
     <t>Skotia</t>
   </si>
   <si>
-    <t>Ayurvedae</t>
-  </si>
-  <si>
     <t>Supermerguez</t>
   </si>
   <si>
@@ -121,54 +121,54 @@
     <t>Reputation</t>
   </si>
   <si>
+    <t>Lupusreginä</t>
+  </si>
+  <si>
+    <t>Ashen Band of Endless Destruction</t>
+  </si>
+  <si>
+    <t>Euphemià</t>
+  </si>
+  <si>
+    <t>Itstøkyo</t>
+  </si>
+  <si>
+    <t>Äspï</t>
+  </si>
+  <si>
     <t>Darnä</t>
   </si>
   <si>
-    <t>Ashen Band of Endless Destruction</t>
-  </si>
-  <si>
-    <t>Lupusreginä</t>
-  </si>
-  <si>
     <t>Pamage</t>
   </si>
   <si>
-    <t>Äspï</t>
-  </si>
-  <si>
-    <t>Itstøkyo</t>
-  </si>
-  <si>
-    <t>Euphemià</t>
-  </si>
-  <si>
     <t>Ashen Band of Endless Might</t>
   </si>
   <si>
+    <t>Aurallia</t>
+  </si>
+  <si>
     <t>Ashen Band of Endless Vengeance</t>
   </si>
   <si>
+    <t>Drikato</t>
+  </si>
+  <si>
+    <t>Royalhaze</t>
+  </si>
+  <si>
     <t>Dimoncello</t>
   </si>
   <si>
-    <t>Royalhaze</t>
-  </si>
-  <si>
-    <t>Aurallia</t>
-  </si>
-  <si>
-    <t>Drikato</t>
-  </si>
-  <si>
     <t>Ashen Band of Endless Wisdom</t>
   </si>
   <si>
+    <t>Seina</t>
+  </si>
+  <si>
     <t>Zàpp</t>
   </si>
   <si>
-    <t>Seina</t>
-  </si>
-  <si>
     <t>Astrylian's Sutured Cinch</t>
   </si>
   <si>
@@ -434,9 +434,6 @@
   </si>
   <si>
     <t>Lungbreaker</t>
-  </si>
-  <si>
-    <t>Marrowgar's Frigid Eye</t>
   </si>
   <si>
     <t>Memory of Malygos</t>
@@ -1005,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="E193" sqref="E193"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="E423" sqref="E423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1341,13 +1338,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B24">
         <v>50402</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
@@ -1355,13 +1352,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>50402</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
         <v>32</v>
@@ -1369,13 +1366,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <v>50402</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
         <v>32</v>
@@ -1383,13 +1380,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <v>50402</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
@@ -1397,13 +1394,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B28">
         <v>50402</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
@@ -1411,13 +1408,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29">
         <v>50402</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
         <v>32</v>
@@ -1425,13 +1422,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>50402</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
@@ -1439,13 +1436,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>50402</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
         <v>32</v>
@@ -1453,13 +1450,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B32">
         <v>50402</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
         <v>32</v>
@@ -1467,13 +1464,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B33">
         <v>50402</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
         <v>32</v>
@@ -1481,13 +1478,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B34">
         <v>50402</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
         <v>32</v>
@@ -1495,7 +1492,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>50400</v>
@@ -1509,7 +1506,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B36">
         <v>50400</v>
@@ -1523,7 +1520,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>50400</v>
@@ -1537,7 +1534,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B38">
         <v>50400</v>
@@ -1565,21 +1562,21 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>50707</v>
+        <v>50400</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>50707</v>
@@ -1588,12 +1585,12 @@
         <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>50707</v>
@@ -1602,12 +1599,12 @@
         <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B43">
         <v>50707</v>
@@ -1616,12 +1613,12 @@
         <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>50707</v>
@@ -1630,26 +1627,26 @@
         <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B45">
-        <v>50604</v>
+        <v>50707</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B46">
         <v>50604</v>
@@ -1658,12 +1655,12 @@
         <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B47">
         <v>50604</v>
@@ -1672,26 +1669,26 @@
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B48">
-        <v>50691</v>
+        <v>50604</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>50691</v>
@@ -1700,7 +1697,7 @@
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1708,32 +1705,32 @@
         <v>30</v>
       </c>
       <c r="B50">
-        <v>50682</v>
+        <v>50691</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B51">
-        <v>50458</v>
+        <v>50682</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B52">
         <v>50458</v>
@@ -1750,46 +1747,46 @@
         <v>28</v>
       </c>
       <c r="B53">
-        <v>50692</v>
+        <v>50458</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B54">
-        <v>49894</v>
+        <v>50692</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B55">
-        <v>50724</v>
+        <v>49894</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <v>50724</v>
@@ -1798,12 +1795,12 @@
         <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B57">
         <v>50724</v>
@@ -1812,12 +1809,12 @@
         <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B58">
         <v>50724</v>
@@ -1826,12 +1823,12 @@
         <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B59">
         <v>50724</v>
@@ -1840,12 +1837,12 @@
         <v>59</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B60">
         <v>50724</v>
@@ -1854,12 +1851,12 @@
         <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B61">
         <v>50724</v>
@@ -1868,12 +1865,12 @@
         <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B62">
         <v>50724</v>
@@ -1882,12 +1879,12 @@
         <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B63">
         <v>50724</v>
@@ -1896,29 +1893,29 @@
         <v>59</v>
       </c>
       <c r="D63" t="s">
-        <v>63</v>
-      </c>
-      <c r="E63" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B64">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B65">
         <v>50639</v>
@@ -1927,12 +1924,12 @@
         <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B66">
         <v>50639</v>
@@ -1941,12 +1938,12 @@
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B67">
         <v>50639</v>
@@ -1955,12 +1952,12 @@
         <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B68">
         <v>50639</v>
@@ -1969,29 +1966,26 @@
         <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B69">
-        <v>50687</v>
+        <v>50639</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B70">
         <v>50687</v>
@@ -2000,26 +1994,29 @@
         <v>65</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B71">
-        <v>50732</v>
+        <v>50687</v>
       </c>
       <c r="C71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B72">
         <v>50732</v>
@@ -2028,12 +2025,12 @@
         <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B73">
         <v>50732</v>
@@ -2042,12 +2039,12 @@
         <v>66</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B74">
         <v>50732</v>
@@ -2056,26 +2053,26 @@
         <v>66</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B75">
-        <v>50672</v>
+        <v>50732</v>
       </c>
       <c r="C75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B76">
         <v>50672</v>
@@ -2084,12 +2081,12 @@
         <v>67</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B77">
         <v>50672</v>
@@ -2098,26 +2095,26 @@
         <v>67</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B78">
-        <v>50609</v>
+        <v>50672</v>
       </c>
       <c r="C78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B79">
         <v>50609</v>
@@ -2126,26 +2123,26 @@
         <v>68</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B80">
-        <v>50660</v>
+        <v>50609</v>
       </c>
       <c r="C80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B81">
         <v>50660</v>
@@ -2154,26 +2151,26 @@
         <v>69</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B82">
-        <v>50611</v>
+        <v>50660</v>
       </c>
       <c r="C82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B83">
         <v>50611</v>
@@ -2182,26 +2179,26 @@
         <v>70</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B84">
-        <v>50630</v>
+        <v>50611</v>
       </c>
       <c r="C84" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B85">
         <v>50630</v>
@@ -2210,12 +2207,12 @@
         <v>71</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B86">
         <v>50630</v>
@@ -2224,32 +2221,32 @@
         <v>71</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B87">
-        <v>50640</v>
+        <v>50630</v>
       </c>
       <c r="C87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B88">
-        <v>50616</v>
+        <v>50640</v>
       </c>
       <c r="C88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -2257,7 +2254,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B89">
         <v>50616</v>
@@ -2266,12 +2263,12 @@
         <v>73</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B90">
         <v>50616</v>
@@ -2280,12 +2277,12 @@
         <v>73</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B91">
         <v>50616</v>
@@ -2294,35 +2291,32 @@
         <v>73</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B92">
-        <v>47146</v>
+        <v>50616</v>
       </c>
       <c r="C92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B93">
-        <v>50620</v>
+        <v>47146</v>
       </c>
       <c r="C93" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -2333,7 +2327,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B94">
         <v>50620</v>
@@ -2342,12 +2336,15 @@
         <v>75</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B95">
         <v>50620</v>
@@ -2356,12 +2353,12 @@
         <v>75</v>
       </c>
       <c r="D95" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B96">
         <v>50620</v>
@@ -2370,21 +2367,21 @@
         <v>75</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B97">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2398,7 +2395,7 @@
         <v>76</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2412,7 +2409,7 @@
         <v>76</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2426,12 +2423,12 @@
         <v>76</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B101">
         <v>52030</v>
@@ -2440,7 +2437,7 @@
         <v>76</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2454,7 +2451,7 @@
         <v>76</v>
       </c>
       <c r="D102" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2468,7 +2465,7 @@
         <v>76</v>
       </c>
       <c r="D103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2482,12 +2479,12 @@
         <v>76</v>
       </c>
       <c r="D104" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B105">
         <v>52030</v>
@@ -2496,7 +2493,7 @@
         <v>76</v>
       </c>
       <c r="D105" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2510,12 +2507,12 @@
         <v>76</v>
       </c>
       <c r="D106" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B107">
         <v>52030</v>
@@ -2524,7 +2521,7 @@
         <v>76</v>
       </c>
       <c r="D107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2538,7 +2535,7 @@
         <v>76</v>
       </c>
       <c r="D108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2552,7 +2549,7 @@
         <v>76</v>
       </c>
       <c r="D109" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2566,12 +2563,12 @@
         <v>76</v>
       </c>
       <c r="D110" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B111">
         <v>52030</v>
@@ -2580,12 +2577,12 @@
         <v>76</v>
       </c>
       <c r="D111" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B112">
         <v>52030</v>
@@ -2594,12 +2591,12 @@
         <v>76</v>
       </c>
       <c r="D112" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B113">
         <v>52030</v>
@@ -2608,12 +2605,12 @@
         <v>76</v>
       </c>
       <c r="D113" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B114">
         <v>52030</v>
@@ -2622,12 +2619,12 @@
         <v>76</v>
       </c>
       <c r="D114" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B115">
         <v>52030</v>
@@ -2636,12 +2633,12 @@
         <v>76</v>
       </c>
       <c r="D115" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B116">
         <v>52030</v>
@@ -2650,12 +2647,12 @@
         <v>76</v>
       </c>
       <c r="D116" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B117">
         <v>52030</v>
@@ -2664,7 +2661,7 @@
         <v>76</v>
       </c>
       <c r="D117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2678,7 +2675,7 @@
         <v>76</v>
       </c>
       <c r="D118" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2692,7 +2689,7 @@
         <v>76</v>
       </c>
       <c r="D119" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2706,12 +2703,12 @@
         <v>76</v>
       </c>
       <c r="D120" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B121">
         <v>52030</v>
@@ -2720,12 +2717,12 @@
         <v>76</v>
       </c>
       <c r="D121" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B122">
         <v>52030</v>
@@ -2734,26 +2731,26 @@
         <v>76</v>
       </c>
       <c r="D122" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B123">
-        <v>50684</v>
+        <v>52030</v>
       </c>
       <c r="C123" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B124">
         <v>50684</v>
@@ -2762,12 +2759,12 @@
         <v>94</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B125">
         <v>50684</v>
@@ -2776,12 +2773,12 @@
         <v>94</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B126">
         <v>50684</v>
@@ -2790,21 +2787,21 @@
         <v>94</v>
       </c>
       <c r="D126" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B127">
-        <v>50356</v>
+        <v>50684</v>
       </c>
       <c r="C127" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D127" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2823,21 +2820,21 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B129">
-        <v>50613</v>
+        <v>50356</v>
       </c>
       <c r="C129" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B130">
         <v>50613</v>
@@ -2846,12 +2843,12 @@
         <v>96</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B131">
         <v>50613</v>
@@ -2860,12 +2857,12 @@
         <v>96</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B132">
         <v>50613</v>
@@ -2874,12 +2871,12 @@
         <v>96</v>
       </c>
       <c r="D132" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B133">
         <v>50613</v>
@@ -2888,12 +2885,12 @@
         <v>96</v>
       </c>
       <c r="D133" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B134">
         <v>50613</v>
@@ -2902,12 +2899,12 @@
         <v>96</v>
       </c>
       <c r="D134" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B135">
         <v>50613</v>
@@ -2916,12 +2913,12 @@
         <v>96</v>
       </c>
       <c r="D135" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B136">
         <v>50613</v>
@@ -2930,12 +2927,12 @@
         <v>96</v>
       </c>
       <c r="D136" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B137">
         <v>50613</v>
@@ -2944,7 +2941,7 @@
         <v>96</v>
       </c>
       <c r="D137" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -2952,13 +2949,13 @@
         <v>47</v>
       </c>
       <c r="B138">
-        <v>50721</v>
+        <v>50613</v>
       </c>
       <c r="C138" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D138" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -2972,32 +2969,32 @@
         <v>97</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B140">
-        <v>50603</v>
+        <v>50721</v>
       </c>
       <c r="C140" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D140" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B141">
-        <v>50686</v>
+        <v>50603</v>
       </c>
       <c r="C141" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D141" t="s">
         <v>7</v>
@@ -3005,7 +3002,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B142">
         <v>50686</v>
@@ -3014,12 +3011,12 @@
         <v>99</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B143">
         <v>50686</v>
@@ -3028,26 +3025,26 @@
         <v>99</v>
       </c>
       <c r="D143" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B144">
-        <v>47131</v>
+        <v>50686</v>
       </c>
       <c r="C144" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B145">
         <v>47131</v>
@@ -3056,15 +3053,12 @@
         <v>100</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
-      </c>
-      <c r="E145" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B146">
         <v>47131</v>
@@ -3073,7 +3067,7 @@
         <v>100</v>
       </c>
       <c r="D146" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E146" t="s">
         <v>22</v>
@@ -3081,7 +3075,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B147">
         <v>47131</v>
@@ -3090,7 +3084,7 @@
         <v>100</v>
       </c>
       <c r="D147" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
         <v>22</v>
@@ -3098,7 +3092,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B148">
         <v>47131</v>
@@ -3107,7 +3101,7 @@
         <v>100</v>
       </c>
       <c r="D148" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E148" t="s">
         <v>22</v>
@@ -3115,7 +3109,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B149">
         <v>47131</v>
@@ -3124,12 +3118,15 @@
         <v>100</v>
       </c>
       <c r="D149" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="E149" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B150">
         <v>47131</v>
@@ -3138,26 +3135,26 @@
         <v>100</v>
       </c>
       <c r="D150" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B151">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C151" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D151" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B152">
         <v>50363</v>
@@ -3166,12 +3163,12 @@
         <v>101</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B153">
         <v>50363</v>
@@ -3180,12 +3177,12 @@
         <v>101</v>
       </c>
       <c r="D153" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B154">
         <v>50363</v>
@@ -3194,12 +3191,12 @@
         <v>101</v>
       </c>
       <c r="D154" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B155">
         <v>50363</v>
@@ -3208,12 +3205,12 @@
         <v>101</v>
       </c>
       <c r="D155" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B156">
         <v>50363</v>
@@ -3222,12 +3219,12 @@
         <v>101</v>
       </c>
       <c r="D156" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B157">
         <v>50363</v>
@@ -3236,12 +3233,12 @@
         <v>101</v>
       </c>
       <c r="D157" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B158">
         <v>50363</v>
@@ -3250,12 +3247,12 @@
         <v>101</v>
       </c>
       <c r="D158" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B159">
         <v>50363</v>
@@ -3264,12 +3261,12 @@
         <v>101</v>
       </c>
       <c r="D159" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B160">
         <v>50363</v>
@@ -3278,12 +3275,12 @@
         <v>101</v>
       </c>
       <c r="D160" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B161">
         <v>50363</v>
@@ -3292,12 +3289,12 @@
         <v>101</v>
       </c>
       <c r="D161" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B162">
         <v>50363</v>
@@ -3306,26 +3303,26 @@
         <v>101</v>
       </c>
       <c r="D162" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B163">
-        <v>50622</v>
+        <v>50363</v>
       </c>
       <c r="C163" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D163" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B164">
         <v>50622</v>
@@ -3334,29 +3331,26 @@
         <v>102</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B165">
-        <v>50348</v>
+        <v>50622</v>
       </c>
       <c r="C165" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D165" t="s">
-        <v>7</v>
-      </c>
-      <c r="E165" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B166">
         <v>50348</v>
@@ -3365,12 +3359,15 @@
         <v>103</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E166" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B167">
         <v>50348</v>
@@ -3379,15 +3376,12 @@
         <v>103</v>
       </c>
       <c r="D167" t="s">
-        <v>11</v>
-      </c>
-      <c r="E167" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B168">
         <v>50348</v>
@@ -3396,12 +3390,15 @@
         <v>103</v>
       </c>
       <c r="D168" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="E168" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B169">
         <v>50348</v>
@@ -3410,12 +3407,12 @@
         <v>103</v>
       </c>
       <c r="D169" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B170">
         <v>50348</v>
@@ -3424,12 +3421,12 @@
         <v>103</v>
       </c>
       <c r="D170" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B171">
         <v>50348</v>
@@ -3438,26 +3435,26 @@
         <v>103</v>
       </c>
       <c r="D171" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B172">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C172" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D172" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B173">
         <v>50733</v>
@@ -3466,12 +3463,12 @@
         <v>104</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B174">
         <v>50733</v>
@@ -3480,12 +3477,12 @@
         <v>104</v>
       </c>
       <c r="D174" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B175">
         <v>50733</v>
@@ -3494,12 +3491,12 @@
         <v>104</v>
       </c>
       <c r="D175" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B176">
         <v>50733</v>
@@ -3508,12 +3505,12 @@
         <v>104</v>
       </c>
       <c r="D176" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B177">
         <v>50733</v>
@@ -3522,12 +3519,12 @@
         <v>104</v>
       </c>
       <c r="D177" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B178">
         <v>50733</v>
@@ -3536,12 +3533,12 @@
         <v>104</v>
       </c>
       <c r="D178" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B179">
         <v>50733</v>
@@ -3550,21 +3547,21 @@
         <v>104</v>
       </c>
       <c r="D179" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B180">
-        <v>50650</v>
+        <v>50733</v>
       </c>
       <c r="C180" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D180" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -3578,32 +3575,32 @@
         <v>105</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B182">
-        <v>50690</v>
+        <v>50650</v>
       </c>
       <c r="C182" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D182" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B183">
-        <v>50628</v>
+        <v>50690</v>
       </c>
       <c r="C183" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
@@ -3611,7 +3608,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B184">
         <v>50628</v>
@@ -3620,12 +3617,12 @@
         <v>107</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B185">
         <v>50628</v>
@@ -3634,12 +3631,12 @@
         <v>107</v>
       </c>
       <c r="D185" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B186">
         <v>50628</v>
@@ -3648,12 +3645,12 @@
         <v>107</v>
       </c>
       <c r="D186" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B187">
         <v>50628</v>
@@ -3662,12 +3659,12 @@
         <v>107</v>
       </c>
       <c r="D187" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B188">
         <v>50628</v>
@@ -3676,12 +3673,12 @@
         <v>107</v>
       </c>
       <c r="D188" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B189">
         <v>50628</v>
@@ -3690,12 +3687,12 @@
         <v>107</v>
       </c>
       <c r="D189" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B190">
         <v>50628</v>
@@ -3704,15 +3701,12 @@
         <v>107</v>
       </c>
       <c r="D190" t="s">
-        <v>62</v>
-      </c>
-      <c r="E190" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B191">
         <v>50628</v>
@@ -3721,12 +3715,15 @@
         <v>107</v>
       </c>
       <c r="D191" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="E191" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B192">
         <v>50628</v>
@@ -3735,26 +3732,26 @@
         <v>107</v>
       </c>
       <c r="D192" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B193">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C193" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D193" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B194">
         <v>50607</v>
@@ -3763,12 +3760,12 @@
         <v>108</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B195">
         <v>50607</v>
@@ -3777,12 +3774,12 @@
         <v>108</v>
       </c>
       <c r="D195" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B196">
         <v>50607</v>
@@ -3791,12 +3788,12 @@
         <v>108</v>
       </c>
       <c r="D196" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B197">
         <v>50607</v>
@@ -3805,15 +3802,12 @@
         <v>108</v>
       </c>
       <c r="D197" t="s">
-        <v>19</v>
-      </c>
-      <c r="E197" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B198">
         <v>50607</v>
@@ -3822,12 +3816,15 @@
         <v>108</v>
       </c>
       <c r="D198" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="E198" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B199">
         <v>50607</v>
@@ -3836,26 +3833,26 @@
         <v>108</v>
       </c>
       <c r="D199" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B200">
-        <v>50618</v>
+        <v>50607</v>
       </c>
       <c r="C200" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D200" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B201">
         <v>50618</v>
@@ -3864,12 +3861,12 @@
         <v>109</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B202">
         <v>50618</v>
@@ -3878,15 +3875,12 @@
         <v>109</v>
       </c>
       <c r="D202" t="s">
-        <v>11</v>
-      </c>
-      <c r="E202" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B203">
         <v>50618</v>
@@ -3895,12 +3889,15 @@
         <v>109</v>
       </c>
       <c r="D203" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="E203" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B204">
         <v>50618</v>
@@ -3909,12 +3906,12 @@
         <v>109</v>
       </c>
       <c r="D204" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B205">
         <v>50618</v>
@@ -3923,12 +3920,12 @@
         <v>109</v>
       </c>
       <c r="D205" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B206">
         <v>50618</v>
@@ -3937,32 +3934,32 @@
         <v>109</v>
       </c>
       <c r="D206" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B207">
-        <v>50697</v>
+        <v>50618</v>
       </c>
       <c r="C207" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D207" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B208">
-        <v>50730</v>
+        <v>50697</v>
       </c>
       <c r="C208" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D208" t="s">
         <v>7</v>
@@ -3970,7 +3967,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B209">
         <v>50730</v>
@@ -3979,7 +3976,7 @@
         <v>111</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -3993,12 +3990,12 @@
         <v>111</v>
       </c>
       <c r="D210" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B211">
         <v>50730</v>
@@ -4007,12 +4004,12 @@
         <v>111</v>
       </c>
       <c r="D211" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B212">
         <v>50730</v>
@@ -4021,26 +4018,26 @@
         <v>111</v>
       </c>
       <c r="D212" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B213">
-        <v>50668</v>
+        <v>50730</v>
       </c>
       <c r="C213" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D213" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B214">
         <v>50668</v>
@@ -4049,7 +4046,7 @@
         <v>112</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -4063,29 +4060,26 @@
         <v>112</v>
       </c>
       <c r="D215" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B216">
-        <v>50625</v>
+        <v>50668</v>
       </c>
       <c r="C216" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D216" t="s">
-        <v>7</v>
-      </c>
-      <c r="E216" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B217">
         <v>50625</v>
@@ -4094,7 +4088,7 @@
         <v>113</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E217" t="s">
         <v>22</v>
@@ -4102,21 +4096,24 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B218">
-        <v>50737</v>
+        <v>50625</v>
       </c>
       <c r="C218" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D218" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E218" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B219">
         <v>50737</v>
@@ -4125,32 +4122,32 @@
         <v>114</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B220">
-        <v>50736</v>
+        <v>50737</v>
       </c>
       <c r="C220" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D220" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B221">
-        <v>50700</v>
+        <v>50736</v>
       </c>
       <c r="C221" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D221" t="s">
         <v>7</v>
@@ -4158,13 +4155,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B222">
-        <v>50698</v>
+        <v>50700</v>
       </c>
       <c r="C222" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D222" t="s">
         <v>7</v>
@@ -4172,13 +4169,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B223">
-        <v>50729</v>
+        <v>50698</v>
       </c>
       <c r="C223" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D223" t="s">
         <v>7</v>
@@ -4186,7 +4183,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B224">
         <v>50729</v>
@@ -4195,40 +4192,40 @@
         <v>118</v>
       </c>
       <c r="D224" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>30</v>
+      </c>
+      <c r="B225">
+        <v>50729</v>
+      </c>
+      <c r="C225" t="s">
+        <v>118</v>
+      </c>
+      <c r="D225" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>35</v>
-      </c>
-      <c r="B225">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>33</v>
+      </c>
+      <c r="B226">
         <v>51899</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C226" t="s">
         <v>119</v>
       </c>
-      <c r="D225" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>23</v>
-      </c>
-      <c r="B226">
-        <v>50454</v>
-      </c>
-      <c r="C226" t="s">
-        <v>120</v>
-      </c>
       <c r="D226" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B227">
         <v>50454</v>
@@ -4240,51 +4237,51 @@
         <v>55</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B228">
-        <v>50456</v>
+        <v>50454</v>
       </c>
       <c r="C228" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D228" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B229">
-        <v>50457</v>
+        <v>50456</v>
       </c>
       <c r="C229" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D229" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B230">
-        <v>50656</v>
+        <v>50457</v>
       </c>
       <c r="C230" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D230" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B231">
         <v>50656</v>
@@ -4293,68 +4290,68 @@
         <v>123</v>
       </c>
       <c r="D231" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>16</v>
+      </c>
+      <c r="B232">
+        <v>50656</v>
+      </c>
+      <c r="C232" t="s">
+        <v>123</v>
+      </c>
+      <c r="D232" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>51</v>
       </c>
-      <c r="B232">
+      <c r="B233">
         <v>50642</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C233" t="s">
         <v>124</v>
       </c>
-      <c r="D232" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+      <c r="D233" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>20</v>
       </c>
-      <c r="B233">
+      <c r="B234">
         <v>51882</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C234" t="s">
         <v>125</v>
       </c>
-      <c r="D233" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+      <c r="D234" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
         <v>18</v>
       </c>
-      <c r="B234">
+      <c r="B235">
         <v>50728</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C235" t="s">
         <v>126</v>
       </c>
-      <c r="D234" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+      <c r="D235" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>5</v>
-      </c>
-      <c r="B235">
-        <v>50708</v>
-      </c>
-      <c r="C235" t="s">
-        <v>127</v>
-      </c>
-      <c r="D235" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>8</v>
       </c>
       <c r="B236">
         <v>50708</v>
@@ -4363,26 +4360,26 @@
         <v>127</v>
       </c>
       <c r="D236" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>8</v>
+      </c>
+      <c r="B237">
+        <v>50708</v>
+      </c>
+      <c r="C237" t="s">
+        <v>127</v>
+      </c>
+      <c r="D237" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>44</v>
-      </c>
-      <c r="B237">
-        <v>50645</v>
-      </c>
-      <c r="C237" t="s">
-        <v>128</v>
-      </c>
-      <c r="D237" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B238">
         <v>50645</v>
@@ -4391,12 +4388,12 @@
         <v>128</v>
       </c>
       <c r="D238" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B239">
         <v>50645</v>
@@ -4405,57 +4402,57 @@
         <v>128</v>
       </c>
       <c r="D239" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>45</v>
+      </c>
+      <c r="B240">
+        <v>50645</v>
+      </c>
+      <c r="C240" t="s">
+        <v>128</v>
+      </c>
+      <c r="D240" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>48</v>
-      </c>
-      <c r="B240">
-        <v>49891</v>
-      </c>
-      <c r="C240" t="s">
-        <v>129</v>
-      </c>
-      <c r="D240" t="s">
-        <v>58</v>
-      </c>
-      <c r="E240" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B241">
-        <v>47664</v>
+        <v>49891</v>
       </c>
       <c r="C241" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D241" t="s">
-        <v>131</v>
+        <v>58</v>
+      </c>
+      <c r="E241" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B242">
-        <v>40705</v>
+        <v>47664</v>
       </c>
       <c r="C242" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D242" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B243">
         <v>40705</v>
@@ -4469,27 +4466,27 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B244">
-        <v>50455</v>
+        <v>40705</v>
       </c>
       <c r="C244" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D244" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B245">
-        <v>50461</v>
+        <v>50455</v>
       </c>
       <c r="C245" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D245" t="s">
         <v>55</v>
@@ -4497,21 +4494,21 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B246">
-        <v>50702</v>
+        <v>50461</v>
       </c>
       <c r="C246" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D246" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B247">
         <v>50702</v>
@@ -4520,32 +4517,32 @@
         <v>136</v>
       </c>
       <c r="D247" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B248">
-        <v>50621</v>
+        <v>50702</v>
       </c>
       <c r="C248" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D248" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B249">
-        <v>50610</v>
+        <v>50621</v>
       </c>
       <c r="C249" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D249" t="s">
         <v>7</v>
@@ -4559,7 +4556,7 @@
         <v>50636</v>
       </c>
       <c r="C250" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D250" t="s">
         <v>7</v>
@@ -4567,13 +4564,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B251">
         <v>50636</v>
       </c>
       <c r="C251" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D251" t="s">
         <v>9</v>
@@ -4581,13 +4578,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B252">
         <v>50636</v>
       </c>
       <c r="C252" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D252" t="s">
         <v>11</v>
@@ -4595,13 +4592,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B253">
         <v>46051</v>
       </c>
       <c r="C253" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D253" t="s">
         <v>7</v>
@@ -4612,13 +4609,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B254">
         <v>46051</v>
       </c>
       <c r="C254" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D254" t="s">
         <v>9</v>
@@ -4635,7 +4632,7 @@
         <v>50693</v>
       </c>
       <c r="C255" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D255" t="s">
         <v>7</v>
@@ -4649,7 +4646,7 @@
         <v>50693</v>
       </c>
       <c r="C256" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D256" t="s">
         <v>9</v>
@@ -4663,7 +4660,7 @@
         <v>50738</v>
       </c>
       <c r="C257" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D257" t="s">
         <v>7</v>
@@ -4671,13 +4668,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B258">
         <v>50688</v>
       </c>
       <c r="C258" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D258" t="s">
         <v>7</v>
@@ -4685,13 +4682,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B259">
         <v>50688</v>
       </c>
       <c r="C259" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D259" t="s">
         <v>9</v>
@@ -4699,13 +4696,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B260">
         <v>50688</v>
       </c>
       <c r="C260" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D260" t="s">
         <v>11</v>
@@ -4719,7 +4716,7 @@
         <v>50688</v>
       </c>
       <c r="C261" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D261" t="s">
         <v>17</v>
@@ -4736,7 +4733,7 @@
         <v>50631</v>
       </c>
       <c r="C262" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D262" t="s">
         <v>7</v>
@@ -4750,7 +4747,7 @@
         <v>50631</v>
       </c>
       <c r="C263" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D263" t="s">
         <v>9</v>
@@ -4764,7 +4761,7 @@
         <v>50627</v>
       </c>
       <c r="C264" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D264" t="s">
         <v>7</v>
@@ -4778,7 +4775,7 @@
         <v>50735</v>
       </c>
       <c r="C265" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D265" t="s">
         <v>7</v>
@@ -4786,13 +4783,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B266">
         <v>50735</v>
       </c>
       <c r="C266" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D266" t="s">
         <v>9</v>
@@ -4800,13 +4797,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B267">
         <v>50735</v>
       </c>
       <c r="C267" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D267" t="s">
         <v>11</v>
@@ -4814,13 +4811,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B268">
         <v>50735</v>
       </c>
       <c r="C268" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D268" t="s">
         <v>17</v>
@@ -4834,7 +4831,7 @@
         <v>50365</v>
       </c>
       <c r="C269" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D269" t="s">
         <v>7</v>
@@ -4848,7 +4845,7 @@
         <v>50365</v>
       </c>
       <c r="C270" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D270" t="s">
         <v>9</v>
@@ -4856,13 +4853,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B271">
         <v>50365</v>
       </c>
       <c r="C271" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D271" t="s">
         <v>11</v>
@@ -4870,13 +4867,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B272">
         <v>50365</v>
       </c>
       <c r="C272" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D272" t="s">
         <v>17</v>
@@ -4884,13 +4881,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B273">
         <v>50365</v>
       </c>
       <c r="C273" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D273" t="s">
         <v>19</v>
@@ -4898,13 +4895,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B274">
         <v>50365</v>
       </c>
       <c r="C274" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D274" t="s">
         <v>60</v>
@@ -4918,7 +4915,7 @@
         <v>50699</v>
       </c>
       <c r="C275" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D275" t="s">
         <v>7</v>
@@ -4926,13 +4923,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B276">
         <v>50699</v>
       </c>
       <c r="C276" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D276" t="s">
         <v>9</v>
@@ -4940,13 +4937,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B277">
         <v>50699</v>
       </c>
       <c r="C277" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D277" t="s">
         <v>11</v>
@@ -4954,13 +4951,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B278">
         <v>50699</v>
       </c>
       <c r="C278" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D278" t="s">
         <v>17</v>
@@ -4968,13 +4965,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B279">
         <v>50699</v>
       </c>
       <c r="C279" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D279" t="s">
         <v>19</v>
@@ -4982,13 +4979,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B280">
         <v>50699</v>
       </c>
       <c r="C280" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D280" t="s">
         <v>60</v>
@@ -4996,13 +4993,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B281">
         <v>50699</v>
       </c>
       <c r="C281" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D281" t="s">
         <v>61</v>
@@ -5010,13 +5007,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B282">
         <v>50699</v>
       </c>
       <c r="C282" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D282" t="s">
         <v>62</v>
@@ -5030,7 +5027,7 @@
         <v>50699</v>
       </c>
       <c r="C283" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D283" t="s">
         <v>63</v>
@@ -5038,13 +5035,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B284">
         <v>50699</v>
       </c>
       <c r="C284" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D284" t="s">
         <v>77</v>
@@ -5052,13 +5049,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B285">
         <v>50699</v>
       </c>
       <c r="C285" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D285" t="s">
         <v>78</v>
@@ -5066,13 +5063,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B286">
         <v>50694</v>
       </c>
       <c r="C286" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D286" t="s">
         <v>7</v>
@@ -5080,13 +5077,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B287">
         <v>50694</v>
       </c>
       <c r="C287" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D287" t="s">
         <v>9</v>
@@ -5094,13 +5091,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B288">
         <v>50694</v>
       </c>
       <c r="C288" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D288" t="s">
         <v>11</v>
@@ -5114,7 +5111,7 @@
         <v>50659</v>
       </c>
       <c r="C289" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D289" t="s">
         <v>7</v>
@@ -5131,7 +5128,7 @@
         <v>50659</v>
       </c>
       <c r="C290" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D290" t="s">
         <v>9</v>
@@ -5145,7 +5142,7 @@
         <v>50659</v>
       </c>
       <c r="C291" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D291" t="s">
         <v>11</v>
@@ -5162,7 +5159,7 @@
         <v>51890</v>
       </c>
       <c r="C292" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D292" t="s">
         <v>7</v>
@@ -5176,7 +5173,7 @@
         <v>50705</v>
       </c>
       <c r="C293" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D293" t="s">
         <v>7</v>
@@ -5184,13 +5181,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B294">
         <v>50705</v>
       </c>
       <c r="C294" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D294" t="s">
         <v>9</v>
@@ -5204,7 +5201,7 @@
         <v>52029</v>
       </c>
       <c r="C295" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D295" t="s">
         <v>7</v>
@@ -5221,7 +5218,7 @@
         <v>52029</v>
       </c>
       <c r="C296" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D296" t="s">
         <v>9</v>
@@ -5235,7 +5232,7 @@
         <v>52029</v>
       </c>
       <c r="C297" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D297" t="s">
         <v>11</v>
@@ -5249,7 +5246,7 @@
         <v>52029</v>
       </c>
       <c r="C298" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D298" t="s">
         <v>17</v>
@@ -5263,7 +5260,7 @@
         <v>52029</v>
       </c>
       <c r="C299" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D299" t="s">
         <v>19</v>
@@ -5277,7 +5274,7 @@
         <v>52029</v>
       </c>
       <c r="C300" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D300" t="s">
         <v>60</v>
@@ -5291,7 +5288,7 @@
         <v>52029</v>
       </c>
       <c r="C301" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D301" t="s">
         <v>61</v>
@@ -5305,7 +5302,7 @@
         <v>52029</v>
       </c>
       <c r="C302" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D302" t="s">
         <v>62</v>
@@ -5313,13 +5310,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B303">
         <v>52029</v>
       </c>
       <c r="C303" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D303" t="s">
         <v>63</v>
@@ -5327,13 +5324,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B304">
         <v>52029</v>
       </c>
       <c r="C304" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D304" t="s">
         <v>77</v>
@@ -5341,13 +5338,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B305">
         <v>52029</v>
       </c>
       <c r="C305" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D305" t="s">
         <v>78</v>
@@ -5355,13 +5352,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B306">
         <v>52029</v>
       </c>
       <c r="C306" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D306" t="s">
         <v>79</v>
@@ -5369,13 +5366,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B307">
         <v>52029</v>
       </c>
       <c r="C307" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D307" t="s">
         <v>80</v>
@@ -5383,13 +5380,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B308">
         <v>52029</v>
       </c>
       <c r="C308" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D308" t="s">
         <v>81</v>
@@ -5397,13 +5394,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B309">
         <v>52029</v>
       </c>
       <c r="C309" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D309" t="s">
         <v>82</v>
@@ -5411,13 +5408,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B310">
         <v>52029</v>
       </c>
       <c r="C310" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D310" t="s">
         <v>83</v>
@@ -5425,13 +5422,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B311">
         <v>52029</v>
       </c>
       <c r="C311" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D311" t="s">
         <v>84</v>
@@ -5439,13 +5436,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B312">
         <v>52029</v>
       </c>
       <c r="C312" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D312" t="s">
         <v>85</v>
@@ -5453,13 +5450,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B313">
         <v>52029</v>
       </c>
       <c r="C313" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D313" t="s">
         <v>86</v>
@@ -5467,13 +5464,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B314">
         <v>52029</v>
       </c>
       <c r="C314" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D314" t="s">
         <v>87</v>
@@ -5481,13 +5478,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B315">
         <v>52029</v>
       </c>
       <c r="C315" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D315" t="s">
         <v>88</v>
@@ -5495,13 +5492,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B316">
         <v>52029</v>
       </c>
       <c r="C316" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D316" t="s">
         <v>89</v>
@@ -5509,13 +5506,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B317">
         <v>52029</v>
       </c>
       <c r="C317" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D317" t="s">
         <v>90</v>
@@ -5523,13 +5520,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B318">
         <v>52029</v>
       </c>
       <c r="C318" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D318" t="s">
         <v>91</v>
@@ -5537,13 +5534,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B319">
         <v>52029</v>
       </c>
       <c r="C319" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D319" t="s">
         <v>92</v>
@@ -5551,13 +5548,13 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B320">
         <v>52029</v>
       </c>
       <c r="C320" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D320" t="s">
         <v>93</v>
@@ -5565,30 +5562,30 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B321">
         <v>52029</v>
       </c>
       <c r="C321" t="s">
+        <v>152</v>
+      </c>
+      <c r="D321" t="s">
         <v>153</v>
-      </c>
-      <c r="D321" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B322">
         <v>52029</v>
       </c>
       <c r="C322" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D322" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -5599,10 +5596,10 @@
         <v>52029</v>
       </c>
       <c r="C323" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D323" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
@@ -5613,10 +5610,10 @@
         <v>52029</v>
       </c>
       <c r="C324" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D324" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -5627,10 +5624,10 @@
         <v>52029</v>
       </c>
       <c r="C325" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D325" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
@@ -5641,10 +5638,10 @@
         <v>52029</v>
       </c>
       <c r="C326" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D326" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -5655,10 +5652,10 @@
         <v>52029</v>
       </c>
       <c r="C327" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D327" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
@@ -5669,10 +5666,10 @@
         <v>52029</v>
       </c>
       <c r="C328" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D328" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
@@ -5683,10 +5680,10 @@
         <v>52029</v>
       </c>
       <c r="C329" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D329" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
@@ -5697,21 +5694,21 @@
         <v>52029</v>
       </c>
       <c r="C330" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D330" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B331">
         <v>47188</v>
       </c>
       <c r="C331" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D331" t="s">
         <v>7</v>
@@ -5728,7 +5725,7 @@
         <v>50664</v>
       </c>
       <c r="C332" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D332" t="s">
         <v>7</v>
@@ -5736,13 +5733,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B333">
         <v>50664</v>
       </c>
       <c r="C333" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D333" t="s">
         <v>9</v>
@@ -5756,7 +5753,7 @@
         <v>50664</v>
       </c>
       <c r="C334" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D334" t="s">
         <v>11</v>
@@ -5764,13 +5761,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B335">
         <v>50664</v>
       </c>
       <c r="C335" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D335" t="s">
         <v>17</v>
@@ -5778,13 +5775,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B336">
         <v>50664</v>
       </c>
       <c r="C336" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D336" t="s">
         <v>19</v>
@@ -5792,13 +5789,13 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B337">
         <v>50664</v>
       </c>
       <c r="C337" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D337" t="s">
         <v>60</v>
@@ -5806,13 +5803,13 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B338">
         <v>50664</v>
       </c>
       <c r="C338" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D338" t="s">
         <v>61</v>
@@ -5820,13 +5817,13 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B339">
         <v>50664</v>
       </c>
       <c r="C339" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D339" t="s">
         <v>62</v>
@@ -5834,13 +5831,13 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B340">
         <v>50664</v>
       </c>
       <c r="C340" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D340" t="s">
         <v>63</v>
@@ -5848,13 +5845,13 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B341">
         <v>50664</v>
       </c>
       <c r="C341" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D341" t="s">
         <v>77</v>
@@ -5868,7 +5865,7 @@
         <v>50629</v>
       </c>
       <c r="C342" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D342" t="s">
         <v>7</v>
@@ -5876,13 +5873,13 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B343">
         <v>50629</v>
       </c>
       <c r="C343" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D343" t="s">
         <v>9</v>
@@ -5893,13 +5890,13 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B344">
         <v>50680</v>
       </c>
       <c r="C344" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D344" t="s">
         <v>7</v>
@@ -5907,13 +5904,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B345">
         <v>50680</v>
       </c>
       <c r="C345" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D345" t="s">
         <v>9</v>
@@ -5927,7 +5924,7 @@
         <v>50718</v>
       </c>
       <c r="C346" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D346" t="s">
         <v>7</v>
@@ -5941,7 +5938,7 @@
         <v>50718</v>
       </c>
       <c r="C347" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D347" t="s">
         <v>9</v>
@@ -5955,7 +5952,7 @@
         <v>50734</v>
       </c>
       <c r="C348" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D348" t="s">
         <v>7</v>
@@ -5963,13 +5960,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B349">
         <v>50734</v>
       </c>
       <c r="C349" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D349" t="s">
         <v>9</v>
@@ -5977,13 +5974,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B350">
         <v>50734</v>
       </c>
       <c r="C350" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D350" t="s">
         <v>11</v>
@@ -5991,13 +5988,13 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B351">
         <v>50734</v>
       </c>
       <c r="C351" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D351" t="s">
         <v>17</v>
@@ -6011,7 +6008,7 @@
         <v>50734</v>
       </c>
       <c r="C352" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D352" t="s">
         <v>19</v>
@@ -6019,13 +6016,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B353">
         <v>50722</v>
       </c>
       <c r="C353" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D353" t="s">
         <v>7</v>
@@ -6039,7 +6036,7 @@
         <v>50717</v>
       </c>
       <c r="C354" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D354" t="s">
         <v>7</v>
@@ -6047,13 +6044,13 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B355">
         <v>50717</v>
       </c>
       <c r="C355" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D355" t="s">
         <v>9</v>
@@ -6061,13 +6058,13 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B356">
         <v>50717</v>
       </c>
       <c r="C356" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D356" t="s">
         <v>11</v>
@@ -6075,13 +6072,13 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B357">
         <v>50655</v>
       </c>
       <c r="C357" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D357" t="s">
         <v>7</v>
@@ -6089,13 +6086,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B358">
         <v>50655</v>
       </c>
       <c r="C358" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D358" t="s">
         <v>9</v>
@@ -6103,13 +6100,13 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B359">
         <v>50655</v>
       </c>
       <c r="C359" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D359" t="s">
         <v>11</v>
@@ -6123,7 +6120,7 @@
         <v>50655</v>
       </c>
       <c r="C360" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D360" t="s">
         <v>17</v>
@@ -6137,7 +6134,7 @@
         <v>50624</v>
       </c>
       <c r="C361" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D361" t="s">
         <v>7</v>
@@ -6151,7 +6148,7 @@
         <v>50624</v>
       </c>
       <c r="C362" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D362" t="s">
         <v>9</v>
@@ -6168,7 +6165,7 @@
         <v>50654</v>
       </c>
       <c r="C363" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D363" t="s">
         <v>7</v>
@@ -6185,7 +6182,7 @@
         <v>50678</v>
       </c>
       <c r="C364" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D364" t="s">
         <v>7</v>
@@ -6193,13 +6190,13 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B365">
         <v>50719</v>
       </c>
       <c r="C365" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D365" t="s">
         <v>7</v>
@@ -6213,7 +6210,7 @@
         <v>50719</v>
       </c>
       <c r="C366" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D366" t="s">
         <v>9</v>
@@ -6221,13 +6218,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B367">
         <v>50719</v>
       </c>
       <c r="C367" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D367" t="s">
         <v>11</v>
@@ -6235,13 +6232,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B368">
         <v>50719</v>
       </c>
       <c r="C368" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D368" t="s">
         <v>17</v>
@@ -6249,13 +6246,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B369">
         <v>50719</v>
       </c>
       <c r="C369" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D369" t="s">
         <v>19</v>
@@ -6269,7 +6266,7 @@
         <v>50653</v>
       </c>
       <c r="C370" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D370" t="s">
         <v>7</v>
@@ -6277,13 +6274,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B371">
         <v>50653</v>
       </c>
       <c r="C371" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D371" t="s">
         <v>9</v>
@@ -6297,7 +6294,7 @@
         <v>50653</v>
       </c>
       <c r="C372" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D372" t="s">
         <v>11</v>
@@ -6311,7 +6308,7 @@
         <v>50653</v>
       </c>
       <c r="C373" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D373" t="s">
         <v>17</v>
@@ -6325,7 +6322,7 @@
         <v>50653</v>
       </c>
       <c r="C374" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D374" t="s">
         <v>19</v>
@@ -6339,7 +6336,7 @@
         <v>47673</v>
       </c>
       <c r="C375" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D375" t="s">
         <v>131</v>
@@ -6353,7 +6350,7 @@
         <v>50459</v>
       </c>
       <c r="C376" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D376" t="s">
         <v>55</v>
@@ -6367,7 +6364,7 @@
         <v>50633</v>
       </c>
       <c r="C377" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D377" t="s">
         <v>7</v>
@@ -6381,7 +6378,7 @@
         <v>50633</v>
       </c>
       <c r="C378" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D378" t="s">
         <v>9</v>
@@ -6395,7 +6392,7 @@
         <v>50633</v>
       </c>
       <c r="C379" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D379" t="s">
         <v>11</v>
@@ -6403,13 +6400,13 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B380">
         <v>50633</v>
       </c>
       <c r="C380" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D380" t="s">
         <v>17</v>
@@ -6417,13 +6414,13 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B381">
         <v>50633</v>
       </c>
       <c r="C381" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D381" t="s">
         <v>19</v>
@@ -6431,13 +6428,13 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B382">
         <v>50633</v>
       </c>
       <c r="C382" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D382" t="s">
         <v>60</v>
@@ -6445,13 +6442,13 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B383">
         <v>50633</v>
       </c>
       <c r="C383" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D383" t="s">
         <v>61</v>
@@ -6465,7 +6462,7 @@
         <v>50633</v>
       </c>
       <c r="C384" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D384" t="s">
         <v>62</v>
@@ -6479,7 +6476,7 @@
         <v>50364</v>
       </c>
       <c r="C385" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D385" t="s">
         <v>7</v>
@@ -6493,7 +6490,7 @@
         <v>50364</v>
       </c>
       <c r="C386" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D386" t="s">
         <v>9</v>
@@ -6507,7 +6504,7 @@
         <v>50657</v>
       </c>
       <c r="C387" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D387" t="s">
         <v>7</v>
@@ -6521,7 +6518,7 @@
         <v>47059</v>
       </c>
       <c r="C388" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D388" t="s">
         <v>7</v>
@@ -6535,7 +6532,7 @@
         <v>47059</v>
       </c>
       <c r="C389" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D389" t="s">
         <v>9</v>
@@ -6552,7 +6549,7 @@
         <v>47059</v>
       </c>
       <c r="C390" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D390" t="s">
         <v>11</v>
@@ -6569,7 +6566,7 @@
         <v>47059</v>
       </c>
       <c r="C391" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D391" t="s">
         <v>17</v>
@@ -6586,7 +6583,7 @@
         <v>37111</v>
       </c>
       <c r="C392" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D392" t="s">
         <v>133</v>
@@ -6600,7 +6597,7 @@
         <v>37111</v>
       </c>
       <c r="C393" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D393" t="s">
         <v>133</v>
@@ -6614,7 +6611,7 @@
         <v>50635</v>
       </c>
       <c r="C394" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D394" t="s">
         <v>7</v>
@@ -6622,13 +6619,13 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B395">
         <v>50635</v>
       </c>
       <c r="C395" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D395" t="s">
         <v>9</v>
@@ -6636,13 +6633,13 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B396">
         <v>50635</v>
       </c>
       <c r="C396" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D396" t="s">
         <v>11</v>
@@ -6656,7 +6653,7 @@
         <v>50716</v>
       </c>
       <c r="C397" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D397" t="s">
         <v>7</v>
@@ -6664,13 +6661,13 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B398">
         <v>50651</v>
       </c>
       <c r="C398" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D398" t="s">
         <v>7</v>
@@ -6678,13 +6675,13 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B399">
         <v>50651</v>
       </c>
       <c r="C399" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D399" t="s">
         <v>9</v>
@@ -6692,13 +6689,13 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B400">
         <v>50651</v>
       </c>
       <c r="C400" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D400" t="s">
         <v>11</v>
@@ -6706,13 +6703,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B401">
         <v>50706</v>
       </c>
       <c r="C401" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D401" t="s">
         <v>7</v>
@@ -6726,7 +6723,7 @@
         <v>50706</v>
       </c>
       <c r="C402" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D402" t="s">
         <v>9</v>
@@ -6740,7 +6737,7 @@
         <v>50670</v>
       </c>
       <c r="C403" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D403" t="s">
         <v>7</v>
@@ -6754,7 +6751,7 @@
         <v>50670</v>
       </c>
       <c r="C404" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D404" t="s">
         <v>9</v>
@@ -6768,7 +6765,7 @@
         <v>50670</v>
       </c>
       <c r="C405" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D405" t="s">
         <v>11</v>
@@ -6776,13 +6773,13 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B406">
         <v>50670</v>
       </c>
       <c r="C406" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D406" t="s">
         <v>17</v>
@@ -6796,7 +6793,7 @@
         <v>50670</v>
       </c>
       <c r="C407" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D407" t="s">
         <v>19</v>
@@ -6810,7 +6807,7 @@
         <v>50670</v>
       </c>
       <c r="C408" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D408" t="s">
         <v>60</v>
@@ -6818,13 +6815,13 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B409">
         <v>39728</v>
       </c>
       <c r="C409" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D409" t="s">
         <v>133</v>
@@ -6838,7 +6835,7 @@
         <v>50711</v>
       </c>
       <c r="C410" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D410" t="s">
         <v>7</v>
@@ -6846,13 +6843,13 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B411">
         <v>50703</v>
       </c>
       <c r="C411" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D411" t="s">
         <v>7</v>
@@ -6860,16 +6857,16 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B412">
         <v>46017</v>
       </c>
       <c r="C412" t="s">
+        <v>192</v>
+      </c>
+      <c r="D412" t="s">
         <v>193</v>
-      </c>
-      <c r="D412" t="s">
-        <v>194</v>
       </c>
       <c r="E412" t="s">
         <v>22</v>
@@ -6877,16 +6874,16 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B413">
         <v>46017</v>
       </c>
       <c r="C413" t="s">
+        <v>192</v>
+      </c>
+      <c r="D413" t="s">
         <v>193</v>
-      </c>
-      <c r="D413" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
@@ -6897,10 +6894,10 @@
         <v>46017</v>
       </c>
       <c r="C414" t="s">
+        <v>192</v>
+      </c>
+      <c r="D414" t="s">
         <v>193</v>
-      </c>
-      <c r="D414" t="s">
-        <v>194</v>
       </c>
       <c r="E414" t="s">
         <v>22</v>
@@ -6914,10 +6911,10 @@
         <v>46017</v>
       </c>
       <c r="C415" t="s">
+        <v>192</v>
+      </c>
+      <c r="D415" t="s">
         <v>193</v>
-      </c>
-      <c r="D415" t="s">
-        <v>194</v>
       </c>
       <c r="E415" t="s">
         <v>22</v>
@@ -6925,22 +6922,22 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B416">
         <v>46017</v>
       </c>
       <c r="C416" t="s">
+        <v>192</v>
+      </c>
+      <c r="D416" t="s">
         <v>193</v>
-      </c>
-      <c r="D416" t="s">
-        <v>194</v>
       </c>
       <c r="E416" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>26</v>
       </c>
@@ -6948,13 +6945,13 @@
         <v>50714</v>
       </c>
       <c r="C417" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D417" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>23</v>
       </c>
@@ -6962,13 +6959,13 @@
         <v>52028</v>
       </c>
       <c r="C418" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D418" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>23</v>
       </c>
@@ -6976,13 +6973,13 @@
         <v>52028</v>
       </c>
       <c r="C419" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D419" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>23</v>
       </c>
@@ -6990,13 +6987,13 @@
         <v>52028</v>
       </c>
       <c r="C420" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D420" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>23</v>
       </c>
@@ -7004,161 +7001,164 @@
         <v>52028</v>
       </c>
       <c r="C421" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D421" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B422">
         <v>52028</v>
       </c>
       <c r="C422" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D422" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E422" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B423">
         <v>52028</v>
       </c>
       <c r="C423" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D423" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B424">
         <v>52028</v>
       </c>
       <c r="C424" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D424" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B425">
         <v>52028</v>
       </c>
       <c r="C425" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D425" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B426">
         <v>52028</v>
       </c>
       <c r="C426" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D426" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B427">
         <v>52028</v>
       </c>
       <c r="C427" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D427" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B428">
         <v>52028</v>
       </c>
       <c r="C428" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D428" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B429">
         <v>52028</v>
       </c>
       <c r="C429" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D429" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B430">
         <v>52028</v>
       </c>
       <c r="C430" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D430" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B431">
         <v>52028</v>
       </c>
       <c r="C431" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D431" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B432">
         <v>52028</v>
       </c>
       <c r="C432" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D432" t="s">
         <v>82</v>
@@ -7166,13 +7166,13 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B433">
         <v>52028</v>
       </c>
       <c r="C433" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D433" t="s">
         <v>83</v>
@@ -7180,13 +7180,13 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B434">
         <v>52028</v>
       </c>
       <c r="C434" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D434" t="s">
         <v>84</v>
@@ -7194,13 +7194,13 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B435">
         <v>52028</v>
       </c>
       <c r="C435" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D435" t="s">
         <v>85</v>
@@ -7208,13 +7208,13 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B436">
         <v>52028</v>
       </c>
       <c r="C436" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D436" t="s">
         <v>86</v>
@@ -7222,13 +7222,13 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B437">
         <v>52028</v>
       </c>
       <c r="C437" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D437" t="s">
         <v>87</v>
@@ -7236,13 +7236,13 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B438">
         <v>52028</v>
       </c>
       <c r="C438" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D438" t="s">
         <v>88</v>
@@ -7250,13 +7250,13 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B439">
         <v>52028</v>
       </c>
       <c r="C439" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D439" t="s">
         <v>89</v>
@@ -7264,13 +7264,13 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B440">
         <v>52028</v>
       </c>
       <c r="C440" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D440" t="s">
         <v>90</v>
@@ -7278,13 +7278,13 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B441">
         <v>52028</v>
       </c>
       <c r="C441" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D441" t="s">
         <v>91</v>
@@ -7292,13 +7292,13 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B442">
         <v>52028</v>
       </c>
       <c r="C442" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D442" t="s">
         <v>92</v>
@@ -7306,13 +7306,13 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B443">
         <v>52028</v>
       </c>
       <c r="C443" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D443" t="s">
         <v>93</v>
@@ -7320,226 +7320,226 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B444">
         <v>52028</v>
       </c>
       <c r="C444" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D444" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B445">
         <v>52028</v>
       </c>
       <c r="C445" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D445" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B446">
         <v>52028</v>
       </c>
       <c r="C446" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D446" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B447">
         <v>52028</v>
       </c>
       <c r="C447" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D447" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B448">
         <v>52028</v>
       </c>
       <c r="C448" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D448" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B449">
         <v>52028</v>
       </c>
       <c r="C449" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D449" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B450">
         <v>52028</v>
       </c>
       <c r="C450" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D450" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B451">
         <v>52028</v>
       </c>
       <c r="C451" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D451" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B452">
         <v>52028</v>
       </c>
       <c r="C452" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D452" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B453">
         <v>52028</v>
       </c>
       <c r="C453" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D453" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B454">
         <v>52028</v>
       </c>
       <c r="C454" t="s">
+        <v>195</v>
+      </c>
+      <c r="D454" t="s">
         <v>196</v>
-      </c>
-      <c r="D454" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B455">
         <v>52028</v>
       </c>
       <c r="C455" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D455" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B456">
         <v>52028</v>
       </c>
       <c r="C456" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D456" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B457">
         <v>52028</v>
       </c>
       <c r="C457" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D457" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B458">
         <v>52028</v>
       </c>
       <c r="C458" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D458" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B459">
         <v>52028</v>
       </c>
       <c r="C459" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D459" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
@@ -7550,7 +7550,7 @@
         <v>47545</v>
       </c>
       <c r="C460" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D460" t="s">
         <v>7</v>
@@ -7564,7 +7564,7 @@
         <v>47545</v>
       </c>
       <c r="C461" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D461" t="s">
         <v>9</v>
@@ -7572,13 +7572,13 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B462">
         <v>47545</v>
       </c>
       <c r="C462" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D462" t="s">
         <v>11</v>
@@ -7586,13 +7586,13 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B463">
         <v>47545</v>
       </c>
       <c r="C463" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D463" t="s">
         <v>17</v>
@@ -7600,13 +7600,13 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B464">
         <v>47545</v>
       </c>
       <c r="C464" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D464" t="s">
         <v>19</v>
@@ -7620,7 +7620,7 @@
         <v>47545</v>
       </c>
       <c r="C465" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D465" t="s">
         <v>60</v>
@@ -7634,7 +7634,7 @@
         <v>51946</v>
       </c>
       <c r="C466" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D466" t="s">
         <v>7</v>
@@ -7648,7 +7648,7 @@
         <v>50343</v>
       </c>
       <c r="C467" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D467" t="s">
         <v>7</v>
@@ -7665,7 +7665,7 @@
         <v>50343</v>
       </c>
       <c r="C468" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D468" t="s">
         <v>9</v>
@@ -7682,7 +7682,7 @@
         <v>50343</v>
       </c>
       <c r="C469" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D469" t="s">
         <v>11</v>
@@ -7696,7 +7696,7 @@
         <v>50343</v>
       </c>
       <c r="C470" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D470" t="s">
         <v>17</v>
@@ -7710,7 +7710,7 @@
         <v>50343</v>
       </c>
       <c r="C471" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D471" t="s">
         <v>19</v>
@@ -7724,7 +7724,7 @@
         <v>50677</v>
       </c>
       <c r="C472" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D472" t="s">
         <v>7</v>
@@ -7741,7 +7741,7 @@
         <v>50677</v>
       </c>
       <c r="C473" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D473" t="s">
         <v>9</v>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA182A70-E287-488F-A64D-CCE10C288C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56928483-B2CE-40AD-8FDF-A13318203E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="206">
   <si>
     <t>player</t>
   </si>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="E423" sqref="E423"/>
+    <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
+      <selection activeCell="I435" sqref="I435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1094,6 +1094,9 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1699,6 +1702,9 @@
       <c r="D49" t="s">
         <v>7</v>
       </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -2153,6 +2159,9 @@
       <c r="D81" t="s">
         <v>7</v>
       </c>
+      <c r="E81" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -2818,7 +2827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>51</v>
       </c>
@@ -2832,7 +2841,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>35</v>
       </c>
@@ -2845,8 +2854,11 @@
       <c r="D130" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>37</v>
       </c>
@@ -2860,7 +2872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>39</v>
       </c>
@@ -2874,7 +2886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>48</v>
       </c>
@@ -2888,7 +2900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>33</v>
       </c>
@@ -2902,7 +2914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>24</v>
       </c>
@@ -2916,7 +2928,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>36</v>
       </c>
@@ -2930,7 +2942,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>38</v>
       </c>
@@ -2944,7 +2956,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>47</v>
       </c>
@@ -2958,7 +2970,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>48</v>
       </c>
@@ -2972,7 +2984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>47</v>
       </c>
@@ -2986,7 +2998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>18</v>
       </c>
@@ -3000,7 +3012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>20</v>
       </c>
@@ -3014,7 +3026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>26</v>
       </c>
@@ -3028,7 +3040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>37</v>
       </c>
@@ -3378,6 +3390,9 @@
       <c r="D167" t="s">
         <v>9</v>
       </c>
+      <c r="E167" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
@@ -4180,6 +4195,9 @@
       <c r="D223" t="s">
         <v>7</v>
       </c>
+      <c r="E223" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
@@ -4519,6 +4537,9 @@
       <c r="D247" t="s">
         <v>7</v>
       </c>
+      <c r="E247" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
@@ -5842,6 +5863,9 @@
       <c r="D340" t="s">
         <v>63</v>
       </c>
+      <c r="E340" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
@@ -6187,6 +6211,9 @@
       <c r="D364" t="s">
         <v>7</v>
       </c>
+      <c r="E364" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
@@ -6509,6 +6536,9 @@
       <c r="D387" t="s">
         <v>7</v>
       </c>
+      <c r="E387" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
@@ -6812,6 +6842,9 @@
       <c r="D408" t="s">
         <v>60</v>
       </c>
+      <c r="E408" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
@@ -7164,7 +7197,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>5</v>
       </c>
@@ -7178,7 +7211,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>8</v>
       </c>
@@ -7192,7 +7225,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>8</v>
       </c>
@@ -7206,7 +7239,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>8</v>
       </c>
@@ -7220,7 +7253,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>8</v>
       </c>
@@ -7234,7 +7267,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>37</v>
       </c>
@@ -7247,8 +7280,11 @@
       <c r="D438" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E438" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>37</v>
       </c>
@@ -7262,7 +7298,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>37</v>
       </c>
@@ -7276,7 +7312,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>37</v>
       </c>
@@ -7290,7 +7326,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>39</v>
       </c>
@@ -7304,7 +7340,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>39</v>
       </c>
@@ -7318,7 +7354,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>39</v>
       </c>
@@ -7332,7 +7368,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>39</v>
       </c>
@@ -7346,7 +7382,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>43</v>
       </c>
@@ -7360,7 +7396,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>43</v>
       </c>
@@ -7374,7 +7410,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>43</v>
       </c>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56928483-B2CE-40AD-8FDF-A13318203E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CCADEE-0907-4D55-9CEF-A7575541037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="207">
   <si>
     <t>player</t>
   </si>
@@ -46,15 +46,15 @@
     <t>1</t>
   </si>
   <si>
+    <t>Daekness</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Gosseyn</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Daekness</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -67,6 +67,9 @@
     <t>Sharpélune</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>Nomys</t>
   </si>
   <si>
@@ -88,9 +91,6 @@
     <t>Althor's Abacus</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Linacool</t>
   </si>
   <si>
@@ -121,27 +121,27 @@
     <t>Reputation</t>
   </si>
   <si>
+    <t>Pamage</t>
+  </si>
+  <si>
+    <t>Ashen Band of Endless Destruction</t>
+  </si>
+  <si>
+    <t>Darnä</t>
+  </si>
+  <si>
+    <t>Äspï</t>
+  </si>
+  <si>
+    <t>Itstøkyo</t>
+  </si>
+  <si>
+    <t>Euphemià</t>
+  </si>
+  <si>
     <t>Lupusreginä</t>
   </si>
   <si>
-    <t>Ashen Band of Endless Destruction</t>
-  </si>
-  <si>
-    <t>Euphemià</t>
-  </si>
-  <si>
-    <t>Itstøkyo</t>
-  </si>
-  <si>
-    <t>Äspï</t>
-  </si>
-  <si>
-    <t>Darnä</t>
-  </si>
-  <si>
-    <t>Pamage</t>
-  </si>
-  <si>
     <t>Ashen Band of Endless Might</t>
   </si>
   <si>
@@ -151,13 +151,16 @@
     <t>Ashen Band of Endless Vengeance</t>
   </si>
   <si>
+    <t>Royalhaze</t>
+  </si>
+  <si>
+    <t>Dimoncello</t>
+  </si>
+  <si>
     <t>Drikato</t>
   </si>
   <si>
-    <t>Royalhaze</t>
-  </si>
-  <si>
-    <t>Dimoncello</t>
+    <t>Zàpp</t>
   </si>
   <si>
     <t>Ashen Band of Endless Wisdom</t>
@@ -166,9 +169,6 @@
     <t>Seina</t>
   </si>
   <si>
-    <t>Zàpp</t>
-  </si>
-  <si>
     <t>Astrylian's Sutured Cinch</t>
   </si>
   <si>
@@ -550,6 +550,12 @@
     <t>Shadow Silk Spindle</t>
   </si>
   <si>
+    <t>Shadowmourne</t>
+  </si>
+  <si>
+    <t>Legendary</t>
+  </si>
+  <si>
     <t>Shadowvault Slayer's Cloak</t>
   </si>
   <si>
@@ -599,9 +605,6 @@
   </si>
   <si>
     <t>Val'anyr, Hammer of Ancient Kings</t>
-  </si>
-  <si>
-    <t>Legendary</t>
   </si>
   <si>
     <t>Valanar's Other Signet Ring</t>
@@ -1000,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E473"/>
+  <dimension ref="A1:E472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
-      <selection activeCell="I435" sqref="I435"/>
+    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
+      <selection activeCell="E361" sqref="E361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,12 +1098,12 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>50675</v>
@@ -1114,7 +1117,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>50675</v>
@@ -1123,12 +1126,12 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>50675</v>
@@ -1137,24 +1140,24 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>50366</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1165,7 +1168,7 @@
         <v>50366</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -1179,7 +1182,7 @@
         <v>50366</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -1193,10 +1196,10 @@
         <v>50366</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1327,7 +1330,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>52572</v>
@@ -1355,7 +1358,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B25">
         <v>50402</v>
@@ -1369,7 +1372,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B26">
         <v>50402</v>
@@ -1383,7 +1386,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>50402</v>
@@ -1397,7 +1400,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <v>50402</v>
@@ -1411,7 +1414,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B29">
         <v>50402</v>
@@ -1425,7 +1428,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>50402</v>
@@ -1453,7 +1456,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>50402</v>
@@ -1467,7 +1470,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>50402</v>
@@ -1481,7 +1484,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>50402</v>
@@ -1495,13 +1498,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <v>50400</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
         <v>32</v>
@@ -1509,13 +1512,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>50400</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
         <v>32</v>
@@ -1523,13 +1526,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B37">
         <v>50400</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
         <v>32</v>
@@ -1537,13 +1540,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B38">
         <v>50400</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
         <v>32</v>
@@ -1551,13 +1554,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B39">
         <v>50400</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
         <v>32</v>
@@ -1565,13 +1568,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B40">
         <v>50400</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
         <v>32</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>50707</v>
@@ -1607,7 +1610,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B43">
         <v>50707</v>
@@ -1621,7 +1624,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>50707</v>
@@ -1630,12 +1633,12 @@
         <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45">
         <v>50707</v>
@@ -1644,7 +1647,7 @@
         <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1663,7 +1666,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>50604</v>
@@ -1703,7 +1706,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1736,7 +1739,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B52">
         <v>50458</v>
@@ -1750,7 +1753,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B53">
         <v>50458</v>
@@ -1792,7 +1795,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B56">
         <v>50724</v>
@@ -1806,7 +1809,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B57">
         <v>50724</v>
@@ -1820,7 +1823,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B58">
         <v>50724</v>
@@ -1834,7 +1837,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B59">
         <v>50724</v>
@@ -1843,12 +1846,12 @@
         <v>59</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B60">
         <v>50724</v>
@@ -1857,7 +1860,7 @@
         <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1876,7 +1879,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B62">
         <v>50724</v>
@@ -1890,7 +1893,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B63">
         <v>50724</v>
@@ -1904,7 +1907,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B64">
         <v>50724</v>
@@ -1916,7 +1919,7 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -1949,7 +1952,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B67">
         <v>50639</v>
@@ -1963,7 +1966,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B68">
         <v>50639</v>
@@ -1972,12 +1975,12 @@
         <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B69">
         <v>50639</v>
@@ -1986,7 +1989,7 @@
         <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2003,12 +2006,12 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B71">
         <v>50687</v>
@@ -2036,7 +2039,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B73">
         <v>50732</v>
@@ -2050,7 +2053,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B74">
         <v>50732</v>
@@ -2064,7 +2067,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B75">
         <v>50732</v>
@@ -2073,7 +2076,7 @@
         <v>66</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2106,21 +2109,21 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B78">
-        <v>50672</v>
+        <v>50609</v>
       </c>
       <c r="C78" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B79">
         <v>50609</v>
@@ -2129,26 +2132,29 @@
         <v>68</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B80">
-        <v>50609</v>
+        <v>50660</v>
       </c>
       <c r="C80" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B81">
         <v>50660</v>
@@ -2157,29 +2163,26 @@
         <v>69</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B82">
-        <v>50660</v>
+        <v>50611</v>
       </c>
       <c r="C82" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B83">
         <v>50611</v>
@@ -2188,26 +2191,26 @@
         <v>70</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B84">
-        <v>50611</v>
+        <v>50630</v>
       </c>
       <c r="C84" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B85">
         <v>50630</v>
@@ -2216,12 +2219,12 @@
         <v>71</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B86">
         <v>50630</v>
@@ -2230,32 +2233,32 @@
         <v>71</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B87">
-        <v>50630</v>
+        <v>50640</v>
       </c>
       <c r="C87" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B88">
-        <v>50640</v>
+        <v>50616</v>
       </c>
       <c r="C88" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -2263,7 +2266,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B89">
         <v>50616</v>
@@ -2272,12 +2275,12 @@
         <v>73</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B90">
         <v>50616</v>
@@ -2286,12 +2289,12 @@
         <v>73</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B91">
         <v>50616</v>
@@ -2300,43 +2303,46 @@
         <v>73</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B92">
-        <v>50616</v>
+        <v>47146</v>
       </c>
       <c r="C92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B93">
-        <v>47146</v>
+        <v>50620</v>
       </c>
       <c r="C93" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B94">
         <v>50620</v>
@@ -2345,15 +2351,12 @@
         <v>75</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B95">
         <v>50620</v>
@@ -2362,12 +2365,12 @@
         <v>75</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B96">
         <v>50620</v>
@@ -2376,26 +2379,26 @@
         <v>75</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B97">
-        <v>50620</v>
+        <v>52030</v>
       </c>
       <c r="C97" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B98">
         <v>52030</v>
@@ -2404,12 +2407,12 @@
         <v>76</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B99">
         <v>52030</v>
@@ -2418,12 +2421,12 @@
         <v>76</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B100">
         <v>52030</v>
@@ -2432,12 +2435,12 @@
         <v>76</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B101">
         <v>52030</v>
@@ -2446,7 +2449,7 @@
         <v>76</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2460,7 +2463,7 @@
         <v>76</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2474,7 +2477,7 @@
         <v>76</v>
       </c>
       <c r="D103" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2488,12 +2491,12 @@
         <v>76</v>
       </c>
       <c r="D104" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B105">
         <v>52030</v>
@@ -2502,7 +2505,7 @@
         <v>76</v>
       </c>
       <c r="D105" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2516,12 +2519,12 @@
         <v>76</v>
       </c>
       <c r="D106" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B107">
         <v>52030</v>
@@ -2530,7 +2533,7 @@
         <v>76</v>
       </c>
       <c r="D107" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2544,7 +2547,7 @@
         <v>76</v>
       </c>
       <c r="D108" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2558,7 +2561,7 @@
         <v>76</v>
       </c>
       <c r="D109" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2572,12 +2575,12 @@
         <v>76</v>
       </c>
       <c r="D110" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B111">
         <v>52030</v>
@@ -2586,12 +2589,12 @@
         <v>76</v>
       </c>
       <c r="D111" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B112">
         <v>52030</v>
@@ -2600,12 +2603,12 @@
         <v>76</v>
       </c>
       <c r="D112" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B113">
         <v>52030</v>
@@ -2614,12 +2617,12 @@
         <v>76</v>
       </c>
       <c r="D113" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B114">
         <v>52030</v>
@@ -2628,12 +2631,12 @@
         <v>76</v>
       </c>
       <c r="D114" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B115">
         <v>52030</v>
@@ -2642,12 +2645,12 @@
         <v>76</v>
       </c>
       <c r="D115" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B116">
         <v>52030</v>
@@ -2656,12 +2659,12 @@
         <v>76</v>
       </c>
       <c r="D116" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B117">
         <v>52030</v>
@@ -2670,12 +2673,12 @@
         <v>76</v>
       </c>
       <c r="D117" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B118">
         <v>52030</v>
@@ -2684,12 +2687,12 @@
         <v>76</v>
       </c>
       <c r="D118" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B119">
         <v>52030</v>
@@ -2698,12 +2701,12 @@
         <v>76</v>
       </c>
       <c r="D119" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B120">
         <v>52030</v>
@@ -2712,12 +2715,12 @@
         <v>76</v>
       </c>
       <c r="D120" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B121">
         <v>52030</v>
@@ -2726,12 +2729,12 @@
         <v>76</v>
       </c>
       <c r="D121" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B122">
         <v>52030</v>
@@ -2740,26 +2743,26 @@
         <v>76</v>
       </c>
       <c r="D122" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B123">
-        <v>52030</v>
+        <v>50684</v>
       </c>
       <c r="C123" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D123" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B124">
         <v>50684</v>
@@ -2768,12 +2771,12 @@
         <v>94</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B125">
         <v>50684</v>
@@ -2782,7 +2785,7 @@
         <v>94</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2796,21 +2799,21 @@
         <v>94</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B127">
-        <v>50684</v>
+        <v>50356</v>
       </c>
       <c r="C127" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D127" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2829,21 +2832,24 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B129">
-        <v>50356</v>
+        <v>50613</v>
       </c>
       <c r="C129" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D129" t="s">
-        <v>55</v>
+        <v>7</v>
+      </c>
+      <c r="E129" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B130">
         <v>50613</v>
@@ -2852,15 +2858,12 @@
         <v>96</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
-      </c>
-      <c r="E130" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B131">
         <v>50613</v>
@@ -2869,12 +2872,12 @@
         <v>96</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B132">
         <v>50613</v>
@@ -2883,12 +2886,12 @@
         <v>96</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B133">
         <v>50613</v>
@@ -2897,12 +2900,12 @@
         <v>96</v>
       </c>
       <c r="D133" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B134">
         <v>50613</v>
@@ -2911,12 +2914,12 @@
         <v>96</v>
       </c>
       <c r="D134" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B135">
         <v>50613</v>
@@ -2925,12 +2928,12 @@
         <v>96</v>
       </c>
       <c r="D135" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B136">
         <v>50613</v>
@@ -2939,12 +2942,12 @@
         <v>96</v>
       </c>
       <c r="D136" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B137">
         <v>50613</v>
@@ -2953,21 +2956,21 @@
         <v>96</v>
       </c>
       <c r="D137" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B138">
-        <v>50613</v>
+        <v>50721</v>
       </c>
       <c r="C138" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D138" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -2981,32 +2984,32 @@
         <v>97</v>
       </c>
       <c r="D139" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B140">
-        <v>50721</v>
+        <v>50603</v>
       </c>
       <c r="C140" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B141">
-        <v>50603</v>
+        <v>50686</v>
       </c>
       <c r="C141" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D141" t="s">
         <v>7</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B142">
         <v>50686</v>
@@ -3023,12 +3026,12 @@
         <v>99</v>
       </c>
       <c r="D142" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B143">
         <v>50686</v>
@@ -3037,26 +3040,26 @@
         <v>99</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B144">
-        <v>50686</v>
+        <v>47131</v>
       </c>
       <c r="C144" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B145">
         <v>47131</v>
@@ -3065,12 +3068,15 @@
         <v>100</v>
       </c>
       <c r="D145" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E145" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B146">
         <v>47131</v>
@@ -3079,15 +3085,15 @@
         <v>100</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B147">
         <v>47131</v>
@@ -3096,15 +3102,15 @@
         <v>100</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E147" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B148">
         <v>47131</v>
@@ -3113,10 +3119,7 @@
         <v>100</v>
       </c>
       <c r="D148" t="s">
-        <v>17</v>
-      </c>
-      <c r="E148" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -3130,10 +3133,7 @@
         <v>100</v>
       </c>
       <c r="D149" t="s">
-        <v>19</v>
-      </c>
-      <c r="E149" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -3147,26 +3147,29 @@
         <v>100</v>
       </c>
       <c r="D150" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E150" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B151">
-        <v>47131</v>
+        <v>50363</v>
       </c>
       <c r="C151" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D151" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B152">
         <v>50363</v>
@@ -3175,12 +3178,12 @@
         <v>101</v>
       </c>
       <c r="D152" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B153">
         <v>50363</v>
@@ -3189,12 +3192,12 @@
         <v>101</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B154">
         <v>50363</v>
@@ -3203,12 +3206,12 @@
         <v>101</v>
       </c>
       <c r="D154" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B155">
         <v>50363</v>
@@ -3217,12 +3220,12 @@
         <v>101</v>
       </c>
       <c r="D155" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B156">
         <v>50363</v>
@@ -3231,12 +3234,12 @@
         <v>101</v>
       </c>
       <c r="D156" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B157">
         <v>50363</v>
@@ -3245,7 +3248,7 @@
         <v>101</v>
       </c>
       <c r="D157" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -3259,12 +3262,12 @@
         <v>101</v>
       </c>
       <c r="D158" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B159">
         <v>50363</v>
@@ -3273,12 +3276,12 @@
         <v>101</v>
       </c>
       <c r="D159" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B160">
         <v>50363</v>
@@ -3287,12 +3290,12 @@
         <v>101</v>
       </c>
       <c r="D160" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B161">
         <v>50363</v>
@@ -3301,12 +3304,12 @@
         <v>101</v>
       </c>
       <c r="D161" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B162">
         <v>50363</v>
@@ -3315,26 +3318,26 @@
         <v>101</v>
       </c>
       <c r="D162" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B163">
-        <v>50363</v>
+        <v>50622</v>
       </c>
       <c r="C163" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D163" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B164">
         <v>50622</v>
@@ -3343,26 +3346,29 @@
         <v>102</v>
       </c>
       <c r="D164" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B165">
-        <v>50622</v>
+        <v>50348</v>
       </c>
       <c r="C165" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E165" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B166">
         <v>50348</v>
@@ -3371,15 +3377,15 @@
         <v>103</v>
       </c>
       <c r="D166" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E166" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B167">
         <v>50348</v>
@@ -3388,15 +3394,15 @@
         <v>103</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B168">
         <v>50348</v>
@@ -3405,10 +3411,7 @@
         <v>103</v>
       </c>
       <c r="D168" t="s">
-        <v>11</v>
-      </c>
-      <c r="E168" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -3422,12 +3425,12 @@
         <v>103</v>
       </c>
       <c r="D169" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B170">
         <v>50348</v>
@@ -3436,12 +3439,12 @@
         <v>103</v>
       </c>
       <c r="D170" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B171">
         <v>50348</v>
@@ -3450,26 +3453,26 @@
         <v>103</v>
       </c>
       <c r="D171" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B172">
-        <v>50348</v>
+        <v>50733</v>
       </c>
       <c r="C172" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D172" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B173">
         <v>50733</v>
@@ -3478,12 +3481,12 @@
         <v>104</v>
       </c>
       <c r="D173" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B174">
         <v>50733</v>
@@ -3492,12 +3495,12 @@
         <v>104</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B175">
         <v>50733</v>
@@ -3506,12 +3509,12 @@
         <v>104</v>
       </c>
       <c r="D175" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B176">
         <v>50733</v>
@@ -3520,12 +3523,12 @@
         <v>104</v>
       </c>
       <c r="D176" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B177">
         <v>50733</v>
@@ -3534,12 +3537,12 @@
         <v>104</v>
       </c>
       <c r="D177" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B178">
         <v>50733</v>
@@ -3548,12 +3551,12 @@
         <v>104</v>
       </c>
       <c r="D178" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B179">
         <v>50733</v>
@@ -3562,21 +3565,21 @@
         <v>104</v>
       </c>
       <c r="D179" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B180">
-        <v>50733</v>
+        <v>50650</v>
       </c>
       <c r="C180" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D180" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -3590,32 +3593,32 @@
         <v>105</v>
       </c>
       <c r="D181" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B182">
-        <v>50650</v>
+        <v>50690</v>
       </c>
       <c r="C182" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B183">
-        <v>50690</v>
+        <v>50628</v>
       </c>
       <c r="C183" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
@@ -3623,7 +3626,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B184">
         <v>50628</v>
@@ -3632,12 +3635,12 @@
         <v>107</v>
       </c>
       <c r="D184" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B185">
         <v>50628</v>
@@ -3646,12 +3649,12 @@
         <v>107</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B186">
         <v>50628</v>
@@ -3660,12 +3663,12 @@
         <v>107</v>
       </c>
       <c r="D186" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B187">
         <v>50628</v>
@@ -3674,12 +3677,12 @@
         <v>107</v>
       </c>
       <c r="D187" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B188">
         <v>50628</v>
@@ -3688,12 +3691,12 @@
         <v>107</v>
       </c>
       <c r="D188" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B189">
         <v>50628</v>
@@ -3702,12 +3705,12 @@
         <v>107</v>
       </c>
       <c r="D189" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B190">
         <v>50628</v>
@@ -3716,12 +3719,15 @@
         <v>107</v>
       </c>
       <c r="D190" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E190" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B191">
         <v>50628</v>
@@ -3730,15 +3736,12 @@
         <v>107</v>
       </c>
       <c r="D191" t="s">
-        <v>62</v>
-      </c>
-      <c r="E191" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B192">
         <v>50628</v>
@@ -3747,26 +3750,26 @@
         <v>107</v>
       </c>
       <c r="D192" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B193">
-        <v>50628</v>
+        <v>50607</v>
       </c>
       <c r="C193" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D193" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B194">
         <v>50607</v>
@@ -3775,12 +3778,12 @@
         <v>108</v>
       </c>
       <c r="D194" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B195">
         <v>50607</v>
@@ -3789,12 +3792,12 @@
         <v>108</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B196">
         <v>50607</v>
@@ -3803,12 +3806,12 @@
         <v>108</v>
       </c>
       <c r="D196" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B197">
         <v>50607</v>
@@ -3817,12 +3820,15 @@
         <v>108</v>
       </c>
       <c r="D197" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E197" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B198">
         <v>50607</v>
@@ -3831,15 +3837,12 @@
         <v>108</v>
       </c>
       <c r="D198" t="s">
-        <v>19</v>
-      </c>
-      <c r="E198" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B199">
         <v>50607</v>
@@ -3848,26 +3851,26 @@
         <v>108</v>
       </c>
       <c r="D199" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B200">
-        <v>50607</v>
+        <v>50618</v>
       </c>
       <c r="C200" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D200" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B201">
         <v>50618</v>
@@ -3876,12 +3879,12 @@
         <v>109</v>
       </c>
       <c r="D201" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B202">
         <v>50618</v>
@@ -3890,12 +3893,15 @@
         <v>109</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E202" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B203">
         <v>50618</v>
@@ -3904,10 +3910,7 @@
         <v>109</v>
       </c>
       <c r="D203" t="s">
-        <v>11</v>
-      </c>
-      <c r="E203" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -3921,12 +3924,12 @@
         <v>109</v>
       </c>
       <c r="D204" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B205">
         <v>50618</v>
@@ -3935,12 +3938,12 @@
         <v>109</v>
       </c>
       <c r="D205" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B206">
         <v>50618</v>
@@ -3949,32 +3952,32 @@
         <v>109</v>
       </c>
       <c r="D206" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B207">
-        <v>50618</v>
+        <v>50697</v>
       </c>
       <c r="C207" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D207" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B208">
-        <v>50697</v>
+        <v>50730</v>
       </c>
       <c r="C208" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D208" t="s">
         <v>7</v>
@@ -3982,7 +3985,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B209">
         <v>50730</v>
@@ -3991,12 +3994,12 @@
         <v>111</v>
       </c>
       <c r="D209" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B210">
         <v>50730</v>
@@ -4005,12 +4008,12 @@
         <v>111</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B211">
         <v>50730</v>
@@ -4019,12 +4022,12 @@
         <v>111</v>
       </c>
       <c r="D211" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B212">
         <v>50730</v>
@@ -4033,26 +4036,26 @@
         <v>111</v>
       </c>
       <c r="D212" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B213">
-        <v>50730</v>
+        <v>50668</v>
       </c>
       <c r="C213" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D213" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B214">
         <v>50668</v>
@@ -4061,12 +4064,12 @@
         <v>112</v>
       </c>
       <c r="D214" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B215">
         <v>50668</v>
@@ -4075,26 +4078,29 @@
         <v>112</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B216">
-        <v>50668</v>
+        <v>50625</v>
       </c>
       <c r="C216" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D216" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="E216" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B217">
         <v>50625</v>
@@ -4103,32 +4109,29 @@
         <v>113</v>
       </c>
       <c r="D217" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E217" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B218">
-        <v>50625</v>
+        <v>50737</v>
       </c>
       <c r="C218" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
-      </c>
-      <c r="E218" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B219">
         <v>50737</v>
@@ -4137,32 +4140,32 @@
         <v>114</v>
       </c>
       <c r="D219" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B220">
-        <v>50737</v>
+        <v>50736</v>
       </c>
       <c r="C220" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B221">
-        <v>50736</v>
+        <v>50700</v>
       </c>
       <c r="C221" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D221" t="s">
         <v>7</v>
@@ -4170,38 +4173,38 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B222">
-        <v>50700</v>
+        <v>50698</v>
       </c>
       <c r="C222" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D222" t="s">
         <v>7</v>
+      </c>
+      <c r="E222" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B223">
-        <v>50698</v>
+        <v>50729</v>
       </c>
       <c r="C223" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D223" t="s">
         <v>7</v>
-      </c>
-      <c r="E223" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B224">
         <v>50729</v>
@@ -4210,40 +4213,40 @@
         <v>118</v>
       </c>
       <c r="D224" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B225">
-        <v>50729</v>
+        <v>51899</v>
       </c>
       <c r="C225" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B226">
-        <v>51899</v>
+        <v>50454</v>
       </c>
       <c r="C226" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D226" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B227">
         <v>50454</v>
@@ -4255,51 +4258,51 @@
         <v>55</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B228">
-        <v>50454</v>
+        <v>50456</v>
       </c>
       <c r="C228" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D228" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B229">
-        <v>50456</v>
+        <v>50457</v>
       </c>
       <c r="C229" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D229" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B230">
-        <v>50457</v>
+        <v>50656</v>
       </c>
       <c r="C230" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D230" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B231">
         <v>50656</v>
@@ -4308,96 +4311,96 @@
         <v>123</v>
       </c>
       <c r="D231" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B232">
-        <v>50656</v>
+        <v>50642</v>
       </c>
       <c r="C232" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D232" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B233">
-        <v>50642</v>
+        <v>51882</v>
       </c>
       <c r="C233" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D233" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B234">
-        <v>51882</v>
+        <v>50728</v>
       </c>
       <c r="C234" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D234" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B235">
-        <v>50728</v>
+        <v>50708</v>
       </c>
       <c r="C235" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D235" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B236">
-        <v>50708</v>
+        <v>50645</v>
       </c>
       <c r="C236" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D236" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B237">
-        <v>50708</v>
+        <v>50645</v>
       </c>
       <c r="C237" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D237" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B238">
         <v>50645</v>
@@ -4406,172 +4409,172 @@
         <v>128</v>
       </c>
       <c r="D238" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B239">
-        <v>50645</v>
+        <v>49891</v>
       </c>
       <c r="C239" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="E239" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B240">
-        <v>50645</v>
+        <v>47664</v>
       </c>
       <c r="C240" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D240" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B241">
-        <v>49891</v>
+        <v>40705</v>
       </c>
       <c r="C241" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D241" t="s">
-        <v>58</v>
-      </c>
-      <c r="E241" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B242">
-        <v>47664</v>
+        <v>40705</v>
       </c>
       <c r="C242" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D242" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B243">
-        <v>40705</v>
+        <v>50455</v>
       </c>
       <c r="C243" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D243" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B244">
-        <v>40705</v>
+        <v>50461</v>
       </c>
       <c r="C244" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D244" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B245">
-        <v>50455</v>
+        <v>50702</v>
       </c>
       <c r="C245" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D245" t="s">
-        <v>55</v>
+        <v>7</v>
+      </c>
+      <c r="E245" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B246">
-        <v>50461</v>
+        <v>50702</v>
       </c>
       <c r="C246" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D246" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B247">
-        <v>50702</v>
+        <v>50621</v>
       </c>
       <c r="C247" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D247" t="s">
         <v>7</v>
-      </c>
-      <c r="E247" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B248">
-        <v>50702</v>
+        <v>50636</v>
       </c>
       <c r="C248" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D248" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B249">
-        <v>50621</v>
+        <v>50636</v>
       </c>
       <c r="C249" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D249" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B250">
         <v>50636</v>
@@ -4580,80 +4583,80 @@
         <v>138</v>
       </c>
       <c r="D250" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B251">
-        <v>50636</v>
+        <v>46051</v>
       </c>
       <c r="C251" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D251" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E251" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B252">
-        <v>50636</v>
+        <v>46051</v>
       </c>
       <c r="C252" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D252" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E252" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B253">
-        <v>46051</v>
+        <v>50693</v>
       </c>
       <c r="C253" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D253" t="s">
         <v>7</v>
-      </c>
-      <c r="E253" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B254">
-        <v>46051</v>
+        <v>50693</v>
       </c>
       <c r="C254" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D254" t="s">
         <v>9</v>
       </c>
-      <c r="E254" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B255">
-        <v>50693</v>
+        <v>50738</v>
       </c>
       <c r="C255" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D255" t="s">
         <v>7</v>
@@ -4661,35 +4664,35 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B256">
-        <v>50693</v>
+        <v>50688</v>
       </c>
       <c r="C256" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D256" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B257">
-        <v>50738</v>
+        <v>50688</v>
       </c>
       <c r="C257" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D257" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B258">
         <v>50688</v>
@@ -4698,12 +4701,12 @@
         <v>142</v>
       </c>
       <c r="D258" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B259">
         <v>50688</v>
@@ -4712,49 +4715,49 @@
         <v>142</v>
       </c>
       <c r="D259" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="E259" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B260">
-        <v>50688</v>
+        <v>50631</v>
       </c>
       <c r="C260" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D260" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B261">
-        <v>50688</v>
+        <v>50631</v>
       </c>
       <c r="C261" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D261" t="s">
-        <v>17</v>
-      </c>
-      <c r="E261" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B262">
-        <v>50631</v>
+        <v>50627</v>
       </c>
       <c r="C262" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D262" t="s">
         <v>7</v>
@@ -4762,35 +4765,35 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B263">
-        <v>50631</v>
+        <v>50735</v>
       </c>
       <c r="C263" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D263" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B264">
-        <v>50627</v>
+        <v>50735</v>
       </c>
       <c r="C264" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D264" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B265">
         <v>50735</v>
@@ -4799,12 +4802,12 @@
         <v>145</v>
       </c>
       <c r="D265" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B266">
         <v>50735</v>
@@ -4813,40 +4816,40 @@
         <v>145</v>
       </c>
       <c r="D266" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B267">
-        <v>50735</v>
+        <v>50365</v>
       </c>
       <c r="C267" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D267" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B268">
-        <v>50735</v>
+        <v>50365</v>
       </c>
       <c r="C268" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D268" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B269">
         <v>50365</v>
@@ -4855,12 +4858,12 @@
         <v>146</v>
       </c>
       <c r="D269" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B270">
         <v>50365</v>
@@ -4869,12 +4872,12 @@
         <v>146</v>
       </c>
       <c r="D270" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B271">
         <v>50365</v>
@@ -4883,12 +4886,12 @@
         <v>146</v>
       </c>
       <c r="D271" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B272">
         <v>50365</v>
@@ -4897,40 +4900,40 @@
         <v>146</v>
       </c>
       <c r="D272" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B273">
-        <v>50365</v>
+        <v>50699</v>
       </c>
       <c r="C273" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D273" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
+        <v>26</v>
+      </c>
+      <c r="B274">
+        <v>50699</v>
+      </c>
+      <c r="C274" t="s">
+        <v>147</v>
+      </c>
+      <c r="D274" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
         <v>38</v>
-      </c>
-      <c r="B274">
-        <v>50365</v>
-      </c>
-      <c r="C274" t="s">
-        <v>146</v>
-      </c>
-      <c r="D274" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>20</v>
       </c>
       <c r="B275">
         <v>50699</v>
@@ -4939,12 +4942,12 @@
         <v>147</v>
       </c>
       <c r="D275" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B276">
         <v>50699</v>
@@ -4953,12 +4956,12 @@
         <v>147</v>
       </c>
       <c r="D276" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B277">
         <v>50699</v>
@@ -4967,12 +4970,12 @@
         <v>147</v>
       </c>
       <c r="D277" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B278">
         <v>50699</v>
@@ -4981,12 +4984,12 @@
         <v>147</v>
       </c>
       <c r="D278" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B279">
         <v>50699</v>
@@ -4995,12 +4998,12 @@
         <v>147</v>
       </c>
       <c r="D279" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B280">
         <v>50699</v>
@@ -5009,12 +5012,12 @@
         <v>147</v>
       </c>
       <c r="D280" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B281">
         <v>50699</v>
@@ -5023,12 +5026,12 @@
         <v>147</v>
       </c>
       <c r="D281" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B282">
         <v>50699</v>
@@ -5037,12 +5040,12 @@
         <v>147</v>
       </c>
       <c r="D282" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B283">
         <v>50699</v>
@@ -5051,40 +5054,40 @@
         <v>147</v>
       </c>
       <c r="D283" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B284">
-        <v>50699</v>
+        <v>50694</v>
       </c>
       <c r="C284" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D284" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B285">
-        <v>50699</v>
+        <v>50694</v>
       </c>
       <c r="C285" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D285" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B286">
         <v>50694</v>
@@ -5093,40 +5096,46 @@
         <v>148</v>
       </c>
       <c r="D286" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B287">
-        <v>50694</v>
+        <v>50659</v>
       </c>
       <c r="C287" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D287" t="s">
+        <v>7</v>
+      </c>
+      <c r="E287" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>8</v>
+      </c>
+      <c r="B288">
+        <v>50659</v>
+      </c>
+      <c r="C288" t="s">
+        <v>149</v>
+      </c>
+      <c r="D288" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
-        <v>36</v>
-      </c>
-      <c r="B288">
-        <v>50694</v>
-      </c>
-      <c r="C288" t="s">
-        <v>148</v>
-      </c>
-      <c r="D288" t="s">
-        <v>11</v>
+      <c r="E288" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B289">
         <v>50659</v>
@@ -5135,80 +5144,77 @@
         <v>149</v>
       </c>
       <c r="D289" t="s">
-        <v>7</v>
-      </c>
-      <c r="E289" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B290">
-        <v>50659</v>
+        <v>51890</v>
       </c>
       <c r="C290" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D290" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B291">
-        <v>50659</v>
+        <v>50705</v>
       </c>
       <c r="C291" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D291" t="s">
-        <v>11</v>
-      </c>
-      <c r="E291" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B292">
-        <v>51890</v>
+        <v>50705</v>
       </c>
       <c r="C292" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D292" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B293">
-        <v>50705</v>
+        <v>52029</v>
       </c>
       <c r="C293" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D293" t="s">
         <v>7</v>
+      </c>
+      <c r="E293" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B294">
-        <v>50705</v>
+        <v>52029</v>
       </c>
       <c r="C294" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D294" t="s">
         <v>9</v>
@@ -5225,10 +5231,7 @@
         <v>152</v>
       </c>
       <c r="D295" t="s">
-        <v>7</v>
-      </c>
-      <c r="E295" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -5242,12 +5245,12 @@
         <v>152</v>
       </c>
       <c r="D296" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B297">
         <v>52029</v>
@@ -5256,12 +5259,12 @@
         <v>152</v>
       </c>
       <c r="D297" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B298">
         <v>52029</v>
@@ -5270,12 +5273,12 @@
         <v>152</v>
       </c>
       <c r="D298" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B299">
         <v>52029</v>
@@ -5284,12 +5287,12 @@
         <v>152</v>
       </c>
       <c r="D299" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B300">
         <v>52029</v>
@@ -5298,12 +5301,12 @@
         <v>152</v>
       </c>
       <c r="D300" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B301">
         <v>52029</v>
@@ -5312,12 +5315,12 @@
         <v>152</v>
       </c>
       <c r="D301" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B302">
         <v>52029</v>
@@ -5326,7 +5329,7 @@
         <v>152</v>
       </c>
       <c r="D302" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
@@ -5340,7 +5343,7 @@
         <v>152</v>
       </c>
       <c r="D303" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
@@ -5354,12 +5357,12 @@
         <v>152</v>
       </c>
       <c r="D304" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B305">
         <v>52029</v>
@@ -5368,12 +5371,12 @@
         <v>152</v>
       </c>
       <c r="D305" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B306">
         <v>52029</v>
@@ -5382,12 +5385,12 @@
         <v>152</v>
       </c>
       <c r="D306" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B307">
         <v>52029</v>
@@ -5396,12 +5399,12 @@
         <v>152</v>
       </c>
       <c r="D307" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B308">
         <v>52029</v>
@@ -5410,12 +5413,12 @@
         <v>152</v>
       </c>
       <c r="D308" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B309">
         <v>52029</v>
@@ -5424,12 +5427,12 @@
         <v>152</v>
       </c>
       <c r="D309" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B310">
         <v>52029</v>
@@ -5438,7 +5441,7 @@
         <v>152</v>
       </c>
       <c r="D310" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5452,7 +5455,7 @@
         <v>152</v>
       </c>
       <c r="D311" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -5466,12 +5469,12 @@
         <v>152</v>
       </c>
       <c r="D312" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B313">
         <v>52029</v>
@@ -5480,12 +5483,12 @@
         <v>152</v>
       </c>
       <c r="D313" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B314">
         <v>52029</v>
@@ -5494,12 +5497,12 @@
         <v>152</v>
       </c>
       <c r="D314" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B315">
         <v>52029</v>
@@ -5508,12 +5511,12 @@
         <v>152</v>
       </c>
       <c r="D315" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B316">
         <v>52029</v>
@@ -5522,12 +5525,12 @@
         <v>152</v>
       </c>
       <c r="D316" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B317">
         <v>52029</v>
@@ -5536,12 +5539,12 @@
         <v>152</v>
       </c>
       <c r="D317" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B318">
         <v>52029</v>
@@ -5550,12 +5553,12 @@
         <v>152</v>
       </c>
       <c r="D318" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B319">
         <v>52029</v>
@@ -5564,12 +5567,12 @@
         <v>152</v>
       </c>
       <c r="D319" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B320">
         <v>52029</v>
@@ -5578,12 +5581,12 @@
         <v>152</v>
       </c>
       <c r="D320" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B321">
         <v>52029</v>
@@ -5592,12 +5595,12 @@
         <v>152</v>
       </c>
       <c r="D321" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B322">
         <v>52029</v>
@@ -5606,12 +5609,12 @@
         <v>152</v>
       </c>
       <c r="D322" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B323">
         <v>52029</v>
@@ -5620,12 +5623,12 @@
         <v>152</v>
       </c>
       <c r="D323" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B324">
         <v>52029</v>
@@ -5634,12 +5637,12 @@
         <v>152</v>
       </c>
       <c r="D324" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B325">
         <v>52029</v>
@@ -5648,12 +5651,12 @@
         <v>152</v>
       </c>
       <c r="D325" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B326">
         <v>52029</v>
@@ -5662,7 +5665,7 @@
         <v>152</v>
       </c>
       <c r="D326" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -5676,7 +5679,7 @@
         <v>152</v>
       </c>
       <c r="D327" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
@@ -5690,57 +5693,57 @@
         <v>152</v>
       </c>
       <c r="D328" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B329">
-        <v>52029</v>
+        <v>47188</v>
       </c>
       <c r="C329" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D329" t="s">
-        <v>161</v>
+        <v>7</v>
+      </c>
+      <c r="E329" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B330">
-        <v>52029</v>
+        <v>50664</v>
       </c>
       <c r="C330" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D330" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B331">
-        <v>47188</v>
+        <v>50664</v>
       </c>
       <c r="C331" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D331" t="s">
-        <v>7</v>
-      </c>
-      <c r="E331" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B332">
         <v>50664</v>
@@ -5749,12 +5752,12 @@
         <v>164</v>
       </c>
       <c r="D332" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B333">
         <v>50664</v>
@@ -5763,12 +5766,12 @@
         <v>164</v>
       </c>
       <c r="D333" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B334">
         <v>50664</v>
@@ -5777,7 +5780,7 @@
         <v>164</v>
       </c>
       <c r="D334" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -5791,12 +5794,12 @@
         <v>164</v>
       </c>
       <c r="D335" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B336">
         <v>50664</v>
@@ -5805,12 +5808,12 @@
         <v>164</v>
       </c>
       <c r="D336" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B337">
         <v>50664</v>
@@ -5819,12 +5822,12 @@
         <v>164</v>
       </c>
       <c r="D337" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B338">
         <v>50664</v>
@@ -5833,12 +5836,15 @@
         <v>164</v>
       </c>
       <c r="D338" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="E338" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B339">
         <v>50664</v>
@@ -5847,49 +5853,49 @@
         <v>164</v>
       </c>
       <c r="D339" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B340">
-        <v>50664</v>
+        <v>50629</v>
       </c>
       <c r="C340" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D340" t="s">
-        <v>63</v>
-      </c>
-      <c r="E340" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B341">
-        <v>50664</v>
+        <v>50629</v>
       </c>
       <c r="C341" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D341" t="s">
-        <v>77</v>
+        <v>9</v>
+      </c>
+      <c r="E341" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B342">
-        <v>50629</v>
+        <v>50680</v>
       </c>
       <c r="C342" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D342" t="s">
         <v>7</v>
@@ -5897,30 +5903,27 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B343">
-        <v>50629</v>
+        <v>50680</v>
       </c>
       <c r="C343" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D343" t="s">
         <v>9</v>
       </c>
-      <c r="E343" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B344">
-        <v>50680</v>
+        <v>50718</v>
       </c>
       <c r="C344" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D344" t="s">
         <v>7</v>
@@ -5928,13 +5931,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B345">
-        <v>50680</v>
+        <v>50718</v>
       </c>
       <c r="C345" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D345" t="s">
         <v>9</v>
@@ -5942,13 +5945,13 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B346">
-        <v>50718</v>
+        <v>50734</v>
       </c>
       <c r="C346" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D346" t="s">
         <v>7</v>
@@ -5956,13 +5959,13 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B347">
-        <v>50718</v>
+        <v>50734</v>
       </c>
       <c r="C347" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D347" t="s">
         <v>9</v>
@@ -5970,7 +5973,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B348">
         <v>50734</v>
@@ -5979,12 +5982,12 @@
         <v>168</v>
       </c>
       <c r="D348" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B349">
         <v>50734</v>
@@ -5993,12 +5996,12 @@
         <v>168</v>
       </c>
       <c r="D349" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B350">
         <v>50734</v>
@@ -6007,7 +6010,7 @@
         <v>168</v>
       </c>
       <c r="D350" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
@@ -6015,46 +6018,46 @@
         <v>38</v>
       </c>
       <c r="B351">
-        <v>50734</v>
+        <v>50722</v>
       </c>
       <c r="C351" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D351" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B352">
-        <v>50734</v>
+        <v>50717</v>
       </c>
       <c r="C352" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D352" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B353">
-        <v>50722</v>
+        <v>50717</v>
       </c>
       <c r="C353" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D353" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B354">
         <v>50717</v>
@@ -6063,40 +6066,40 @@
         <v>170</v>
       </c>
       <c r="D354" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B355">
-        <v>50717</v>
+        <v>50655</v>
       </c>
       <c r="C355" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D355" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B356">
-        <v>50717</v>
+        <v>50655</v>
       </c>
       <c r="C356" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D356" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B357">
         <v>50655</v>
@@ -6105,12 +6108,12 @@
         <v>171</v>
       </c>
       <c r="D357" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B358">
         <v>50655</v>
@@ -6119,49 +6122,55 @@
         <v>171</v>
       </c>
       <c r="D358" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B359">
-        <v>50655</v>
+        <v>50624</v>
       </c>
       <c r="C359" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D359" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B360">
-        <v>50655</v>
+        <v>50624</v>
       </c>
       <c r="C360" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D360" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="E360" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B361">
-        <v>50624</v>
+        <v>50654</v>
       </c>
       <c r="C361" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D361" t="s">
         <v>7</v>
+      </c>
+      <c r="E361" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
@@ -6169,55 +6178,49 @@
         <v>8</v>
       </c>
       <c r="B362">
-        <v>50624</v>
+        <v>50678</v>
       </c>
       <c r="C362" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D362" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E362" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B363">
-        <v>50654</v>
+        <v>50719</v>
       </c>
       <c r="C363" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D363" t="s">
         <v>7</v>
-      </c>
-      <c r="E363" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B364">
-        <v>50678</v>
+        <v>50719</v>
       </c>
       <c r="C364" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D364" t="s">
-        <v>7</v>
-      </c>
-      <c r="E364" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B365">
         <v>50719</v>
@@ -6226,12 +6229,12 @@
         <v>175</v>
       </c>
       <c r="D365" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B366">
         <v>50719</v>
@@ -6240,12 +6243,12 @@
         <v>175</v>
       </c>
       <c r="D366" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B367">
         <v>50719</v>
@@ -6254,355 +6257,355 @@
         <v>175</v>
       </c>
       <c r="D367" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B368">
-        <v>50719</v>
+        <v>49623</v>
       </c>
       <c r="C368" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D368" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B369">
-        <v>50719</v>
+        <v>50653</v>
       </c>
       <c r="C369" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D369" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B370">
         <v>50653</v>
       </c>
       <c r="C370" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D370" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B371">
         <v>50653</v>
       </c>
       <c r="C371" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D371" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B372">
         <v>50653</v>
       </c>
       <c r="C372" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D372" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B373">
         <v>50653</v>
       </c>
       <c r="C373" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D373" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B374">
-        <v>50653</v>
+        <v>47673</v>
       </c>
       <c r="C374" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D374" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B375">
-        <v>47673</v>
+        <v>50459</v>
       </c>
       <c r="C375" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D375" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B376">
-        <v>50459</v>
+        <v>50633</v>
       </c>
       <c r="C376" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D376" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B377">
         <v>50633</v>
       </c>
       <c r="C377" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D377" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B378">
         <v>50633</v>
       </c>
       <c r="C378" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D378" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B379">
         <v>50633</v>
       </c>
       <c r="C379" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D379" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B380">
         <v>50633</v>
       </c>
       <c r="C380" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D380" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B381">
         <v>50633</v>
       </c>
       <c r="C381" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D381" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B382">
         <v>50633</v>
       </c>
       <c r="C382" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D382" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B383">
         <v>50633</v>
       </c>
       <c r="C383" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D383" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B384">
-        <v>50633</v>
+        <v>50364</v>
       </c>
       <c r="C384" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D384" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B385">
         <v>50364</v>
       </c>
       <c r="C385" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D385" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B386">
-        <v>50364</v>
+        <v>50657</v>
       </c>
       <c r="C386" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D386" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E386" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B387">
-        <v>50657</v>
+        <v>47059</v>
       </c>
       <c r="C387" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D387" t="s">
         <v>7</v>
-      </c>
-      <c r="E387" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B388">
         <v>47059</v>
       </c>
       <c r="C388" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D388" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E388" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B389">
         <v>47059</v>
       </c>
       <c r="C389" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D389" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E389" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B390">
         <v>47059</v>
       </c>
       <c r="C390" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D390" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E390" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B391">
-        <v>47059</v>
+        <v>37111</v>
       </c>
       <c r="C391" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D391" t="s">
-        <v>17</v>
-      </c>
-      <c r="E391" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
@@ -6613,7 +6616,7 @@
         <v>37111</v>
       </c>
       <c r="C392" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D392" t="s">
         <v>133</v>
@@ -6621,69 +6624,69 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B393">
-        <v>37111</v>
+        <v>50635</v>
       </c>
       <c r="C393" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D393" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B394">
         <v>50635</v>
       </c>
       <c r="C394" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D394" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B395">
         <v>50635</v>
       </c>
       <c r="C395" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D395" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B396">
-        <v>50635</v>
+        <v>50716</v>
       </c>
       <c r="C396" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D396" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B397">
-        <v>50716</v>
+        <v>50651</v>
       </c>
       <c r="C397" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D397" t="s">
         <v>7</v>
@@ -6691,16 +6694,16 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B398">
         <v>50651</v>
       </c>
       <c r="C398" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D398" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
@@ -6711,164 +6714,164 @@
         <v>50651</v>
       </c>
       <c r="C399" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D399" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B400">
-        <v>50651</v>
+        <v>50706</v>
       </c>
       <c r="C400" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D400" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B401">
         <v>50706</v>
       </c>
       <c r="C401" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D401" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B402">
-        <v>50706</v>
+        <v>50670</v>
       </c>
       <c r="C402" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D402" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B403">
         <v>50670</v>
       </c>
       <c r="C403" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D403" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B404">
         <v>50670</v>
       </c>
       <c r="C404" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D404" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B405">
         <v>50670</v>
       </c>
       <c r="C405" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D405" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B406">
         <v>50670</v>
       </c>
       <c r="C406" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D406" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B407">
         <v>50670</v>
       </c>
       <c r="C407" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D407" t="s">
-        <v>19</v>
+        <v>60</v>
+      </c>
+      <c r="E407" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B408">
-        <v>50670</v>
+        <v>39728</v>
       </c>
       <c r="C408" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D408" t="s">
-        <v>60</v>
-      </c>
-      <c r="E408" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B409">
-        <v>39728</v>
+        <v>50711</v>
       </c>
       <c r="C409" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D409" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B410">
-        <v>50711</v>
+        <v>50703</v>
       </c>
       <c r="C410" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D410" t="s">
         <v>7</v>
@@ -6876,16 +6879,19 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B411">
-        <v>50703</v>
+        <v>46017</v>
       </c>
       <c r="C411" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D411" t="s">
-        <v>7</v>
+        <v>177</v>
+      </c>
+      <c r="E411" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
@@ -6896,13 +6902,13 @@
         <v>46017</v>
       </c>
       <c r="C412" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D412" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E412" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
@@ -6913,27 +6919,27 @@
         <v>46017</v>
       </c>
       <c r="C413" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D413" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B414">
         <v>46017</v>
       </c>
       <c r="C414" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D414" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E414" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
@@ -6944,41 +6950,38 @@
         <v>46017</v>
       </c>
       <c r="C415" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D415" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E415" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B416">
-        <v>46017</v>
+        <v>50714</v>
       </c>
       <c r="C416" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D416" t="s">
-        <v>193</v>
-      </c>
-      <c r="E416" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B417">
-        <v>50714</v>
+        <v>52028</v>
       </c>
       <c r="C417" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D417" t="s">
         <v>7</v>
@@ -6992,10 +6995,10 @@
         <v>52028</v>
       </c>
       <c r="C418" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D418" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
@@ -7006,10 +7009,10 @@
         <v>52028</v>
       </c>
       <c r="C419" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D419" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
@@ -7020,24 +7023,27 @@
         <v>52028</v>
       </c>
       <c r="C420" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D420" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B421">
         <v>52028</v>
       </c>
       <c r="C421" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D421" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E421" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
@@ -7048,13 +7054,10 @@
         <v>52028</v>
       </c>
       <c r="C422" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D422" t="s">
-        <v>19</v>
-      </c>
-      <c r="E422" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
@@ -7065,10 +7068,10 @@
         <v>52028</v>
       </c>
       <c r="C423" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D423" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
@@ -7079,80 +7082,80 @@
         <v>52028</v>
       </c>
       <c r="C424" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D424" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B425">
         <v>52028</v>
       </c>
       <c r="C425" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D425" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B426">
         <v>52028</v>
       </c>
       <c r="C426" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D426" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B427">
         <v>52028</v>
       </c>
       <c r="C427" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D427" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B428">
         <v>52028</v>
       </c>
       <c r="C428" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D428" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B429">
         <v>52028</v>
       </c>
       <c r="C429" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D429" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
@@ -7163,10 +7166,10 @@
         <v>52028</v>
       </c>
       <c r="C430" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D430" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
@@ -7177,10 +7180,10 @@
         <v>52028</v>
       </c>
       <c r="C431" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D431" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
@@ -7191,433 +7194,433 @@
         <v>52028</v>
       </c>
       <c r="C432" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D432" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B433">
         <v>52028</v>
       </c>
       <c r="C433" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D433" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E433" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B434">
         <v>52028</v>
       </c>
       <c r="C434" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D434" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B435">
         <v>52028</v>
       </c>
       <c r="C435" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D435" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B436">
         <v>52028</v>
       </c>
       <c r="C436" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D436" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B437">
         <v>52028</v>
       </c>
       <c r="C437" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D437" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B438">
         <v>52028</v>
       </c>
       <c r="C438" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D438" t="s">
-        <v>88</v>
-      </c>
-      <c r="E438" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B439">
         <v>52028</v>
       </c>
       <c r="C439" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D439" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B440">
         <v>52028</v>
       </c>
       <c r="C440" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D440" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B441">
         <v>52028</v>
       </c>
       <c r="C441" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D441" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B442">
         <v>52028</v>
       </c>
       <c r="C442" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D442" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B443">
         <v>52028</v>
       </c>
       <c r="C443" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D443" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B444">
         <v>52028</v>
       </c>
       <c r="C444" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D444" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B445">
         <v>52028</v>
       </c>
       <c r="C445" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D445" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B446">
         <v>52028</v>
       </c>
       <c r="C446" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D446" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B447">
         <v>52028</v>
       </c>
       <c r="C447" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D447" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B448">
         <v>52028</v>
       </c>
       <c r="C448" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D448" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B449">
         <v>52028</v>
       </c>
       <c r="C449" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D449" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B450">
         <v>52028</v>
       </c>
       <c r="C450" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D450" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B451">
         <v>52028</v>
       </c>
       <c r="C451" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D451" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B452">
         <v>52028</v>
       </c>
       <c r="C452" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D452" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B453">
         <v>52028</v>
       </c>
       <c r="C453" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D453" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B454">
         <v>52028</v>
       </c>
       <c r="C454" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D454" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B455">
         <v>52028</v>
       </c>
       <c r="C455" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D455" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B456">
         <v>52028</v>
       </c>
       <c r="C456" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D456" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B457">
         <v>52028</v>
       </c>
       <c r="C457" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D457" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B458">
         <v>52028</v>
       </c>
       <c r="C458" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D458" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B459">
-        <v>52028</v>
+        <v>47545</v>
       </c>
       <c r="C459" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D459" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B460">
         <v>47545</v>
       </c>
       <c r="C460" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D460" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B461">
         <v>47545</v>
       </c>
       <c r="C461" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D461" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B462">
         <v>47545</v>
       </c>
       <c r="C462" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D462" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
@@ -7628,38 +7631,38 @@
         <v>47545</v>
       </c>
       <c r="C463" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D463" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B464">
         <v>47545</v>
       </c>
       <c r="C464" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D464" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B465">
-        <v>47545</v>
+        <v>51946</v>
       </c>
       <c r="C465" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D465" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
@@ -7667,119 +7670,105 @@
         <v>12</v>
       </c>
       <c r="B466">
-        <v>51946</v>
+        <v>50343</v>
       </c>
       <c r="C466" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D466" t="s">
         <v>7</v>
+      </c>
+      <c r="E466" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B467">
         <v>50343</v>
       </c>
       <c r="C467" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D467" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E467" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B468">
         <v>50343</v>
       </c>
       <c r="C468" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D468" t="s">
-        <v>9</v>
-      </c>
-      <c r="E468" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B469">
         <v>50343</v>
       </c>
       <c r="C469" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D469" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B470">
         <v>50343</v>
       </c>
       <c r="C470" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D470" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B471">
-        <v>50343</v>
+        <v>50677</v>
       </c>
       <c r="C471" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D471" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="E471" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B472">
         <v>50677</v>
       </c>
       <c r="C472" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D472" t="s">
-        <v>7</v>
-      </c>
-      <c r="E472" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A473" t="s">
-        <v>8</v>
-      </c>
-      <c r="B473">
-        <v>50677</v>
-      </c>
-      <c r="C473" t="s">
-        <v>205</v>
-      </c>
-      <c r="D473" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CCADEE-0907-4D55-9CEF-A7575541037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BE5437-3281-44F7-9CD2-075845D89A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="207">
   <si>
     <t>player</t>
   </si>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
-      <selection activeCell="E361" sqref="E361"/>
+    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
+      <selection activeCell="E438" sqref="E438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3752,6 +3752,9 @@
       <c r="D192" t="s">
         <v>77</v>
       </c>
+      <c r="E192" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
@@ -7271,6 +7274,9 @@
       </c>
       <c r="D437" t="s">
         <v>88</v>
+      </c>
+      <c r="E437" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BE5437-3281-44F7-9CD2-075845D89A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129ADCC1-C2C2-4B46-B5CF-39D5DA9BCFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="206">
   <si>
     <t>player</t>
   </si>
@@ -121,12 +121,15 @@
     <t>Reputation</t>
   </si>
   <si>
+    <t>Lupusreginä</t>
+  </si>
+  <si>
+    <t>Ashen Band of Endless Destruction</t>
+  </si>
+  <si>
     <t>Pamage</t>
   </si>
   <si>
-    <t>Ashen Band of Endless Destruction</t>
-  </si>
-  <si>
     <t>Darnä</t>
   </si>
   <si>
@@ -139,33 +142,30 @@
     <t>Euphemià</t>
   </si>
   <si>
-    <t>Lupusreginä</t>
-  </si>
-  <si>
     <t>Ashen Band of Endless Might</t>
   </si>
   <si>
+    <t>Dimoncello</t>
+  </si>
+  <si>
+    <t>Ashen Band of Endless Vengeance</t>
+  </si>
+  <si>
+    <t>Drikato</t>
+  </si>
+  <si>
     <t>Aurallia</t>
   </si>
   <si>
-    <t>Ashen Band of Endless Vengeance</t>
-  </si>
-  <si>
     <t>Royalhaze</t>
   </si>
   <si>
-    <t>Dimoncello</t>
-  </si>
-  <si>
-    <t>Drikato</t>
+    <t>Ashen Band of Endless Wisdom</t>
   </si>
   <si>
     <t>Zàpp</t>
   </si>
   <si>
-    <t>Ashen Band of Endless Wisdom</t>
-  </si>
-  <si>
     <t>Seina</t>
   </si>
   <si>
@@ -377,9 +377,6 @@
   </si>
   <si>
     <t>Icecrown Glacial Wall</t>
-  </si>
-  <si>
-    <t>Icecrown Spire Sandals</t>
   </si>
   <si>
     <t>Idol of the Black Willow</t>
@@ -1005,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="E438" sqref="E438"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="E284" sqref="E284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1215,6 +1212,9 @@
       <c r="D14" t="s">
         <v>7</v>
       </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1358,7 +1358,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>50402</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <v>50402</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>50402</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <v>50402</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>50402</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>50402</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>50402</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>50402</v>
@@ -1498,13 +1498,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>50400</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
         <v>32</v>
@@ -1512,13 +1512,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B36">
         <v>50400</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
         <v>32</v>
@@ -1526,13 +1526,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37">
         <v>50400</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
         <v>32</v>
@@ -1540,13 +1540,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B38">
         <v>50400</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
         <v>32</v>
@@ -1554,13 +1554,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>50400</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
         <v>32</v>
@@ -1568,13 +1568,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40">
         <v>50400</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
         <v>32</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>50707</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47">
         <v>50604</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B52">
         <v>50458</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B53">
         <v>50458</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B56">
         <v>50724</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B57">
         <v>50724</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>50724</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B59">
         <v>50724</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B60">
         <v>50724</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B61">
         <v>50724</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B62">
         <v>50724</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B63">
         <v>50724</v>
@@ -1904,10 +1904,13 @@
       <c r="D63" t="s">
         <v>62</v>
       </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B64">
         <v>50724</v>
@@ -1917,9 +1920,6 @@
       </c>
       <c r="D64" t="s">
         <v>63</v>
-      </c>
-      <c r="E64" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2011,7 +2011,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B71">
         <v>50687</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B73">
         <v>50732</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B74">
         <v>50732</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B75">
         <v>50732</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B85">
         <v>50630</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B88">
         <v>50616</v>
@@ -2262,6 +2262,9 @@
       </c>
       <c r="D88" t="s">
         <v>7</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2280,7 +2283,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B90">
         <v>50616</v>
@@ -2382,7 +2385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -2396,7 +2399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>21</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>21</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>26</v>
       </c>
@@ -2466,7 +2469,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>26</v>
       </c>
@@ -2480,7 +2483,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>26</v>
       </c>
@@ -2494,7 +2497,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>51</v>
       </c>
@@ -2507,8 +2510,11 @@
       <c r="D105" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>51</v>
       </c>
@@ -2522,7 +2528,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -2536,7 +2542,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -2550,7 +2556,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -2564,7 +2570,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>30</v>
       </c>
@@ -2578,9 +2584,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B111">
         <v>52030</v>
@@ -2592,9 +2598,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B112">
         <v>52030</v>
@@ -2608,7 +2614,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B113">
         <v>52030</v>
@@ -2622,7 +2628,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B114">
         <v>52030</v>
@@ -2636,7 +2642,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B115">
         <v>52030</v>
@@ -2650,7 +2656,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B116">
         <v>52030</v>
@@ -2664,7 +2670,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B117">
         <v>52030</v>
@@ -2678,7 +2684,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B118">
         <v>52030</v>
@@ -2692,7 +2698,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B119">
         <v>52030</v>
@@ -2706,7 +2712,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B120">
         <v>52030</v>
@@ -2720,7 +2726,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B121">
         <v>52030</v>
@@ -2734,7 +2740,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B122">
         <v>52030</v>
@@ -2748,7 +2754,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B123">
         <v>50684</v>
@@ -2762,7 +2768,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B124">
         <v>50684</v>
@@ -2776,7 +2782,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B125">
         <v>50684</v>
@@ -2790,7 +2796,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B126">
         <v>50684</v>
@@ -2832,7 +2838,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B129">
         <v>50613</v>
@@ -2849,7 +2855,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B130">
         <v>50613</v>
@@ -2863,7 +2869,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B131">
         <v>50613</v>
@@ -2877,7 +2883,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B132">
         <v>50613</v>
@@ -2891,7 +2897,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B133">
         <v>50613</v>
@@ -2905,7 +2911,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B134">
         <v>50613</v>
@@ -2919,7 +2925,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B135">
         <v>50613</v>
@@ -2933,7 +2939,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B136">
         <v>50613</v>
@@ -2947,7 +2953,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B137">
         <v>50613</v>
@@ -2961,7 +2967,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B138">
         <v>50721</v>
@@ -3031,7 +3037,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B143">
         <v>50686</v>
@@ -3076,7 +3082,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B146">
         <v>47131</v>
@@ -3093,7 +3099,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B147">
         <v>47131</v>
@@ -3124,7 +3130,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B149">
         <v>47131</v>
@@ -3211,7 +3217,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B155">
         <v>50363</v>
@@ -3225,7 +3231,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B156">
         <v>50363</v>
@@ -3239,7 +3245,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B157">
         <v>50363</v>
@@ -3253,7 +3259,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B158">
         <v>50363</v>
@@ -3368,7 +3374,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B166">
         <v>50348</v>
@@ -3385,7 +3391,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B167">
         <v>50348</v>
@@ -3402,7 +3408,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B168">
         <v>50348</v>
@@ -3416,7 +3422,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B169">
         <v>50348</v>
@@ -3430,7 +3436,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B170">
         <v>50348</v>
@@ -3444,7 +3450,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B171">
         <v>50348</v>
@@ -3486,7 +3492,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B174">
         <v>50733</v>
@@ -3500,7 +3506,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B175">
         <v>50733</v>
@@ -3514,7 +3520,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B176">
         <v>50733</v>
@@ -3528,7 +3534,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B177">
         <v>50733</v>
@@ -3570,7 +3576,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B180">
         <v>50650</v>
@@ -3626,7 +3632,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B184">
         <v>50628</v>
@@ -3640,7 +3646,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B185">
         <v>50628</v>
@@ -3654,7 +3660,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B186">
         <v>50628</v>
@@ -3668,7 +3674,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B187">
         <v>50628</v>
@@ -3682,7 +3688,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B188">
         <v>50628</v>
@@ -3696,7 +3702,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B189">
         <v>50628</v>
@@ -3707,10 +3713,13 @@
       <c r="D189" t="s">
         <v>61</v>
       </c>
+      <c r="E189" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B190">
         <v>50628</v>
@@ -3721,13 +3730,10 @@
       <c r="D190" t="s">
         <v>62</v>
       </c>
-      <c r="E190" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B191">
         <v>50628</v>
@@ -3738,10 +3744,13 @@
       <c r="D191" t="s">
         <v>63</v>
       </c>
+      <c r="E191" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B192">
         <v>50628</v>
@@ -3751,9 +3760,6 @@
       </c>
       <c r="D192" t="s">
         <v>77</v>
-      </c>
-      <c r="E192" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -3772,7 +3778,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B194">
         <v>50607</v>
@@ -3786,7 +3792,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B195">
         <v>50607</v>
@@ -3800,7 +3806,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B196">
         <v>50607</v>
@@ -3831,7 +3837,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B198">
         <v>50607</v>
@@ -3870,6 +3876,9 @@
       <c r="D200" t="s">
         <v>7</v>
       </c>
+      <c r="E200" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
@@ -3887,7 +3896,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B202">
         <v>50618</v>
@@ -3904,7 +3913,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B203">
         <v>50618</v>
@@ -3918,7 +3927,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B204">
         <v>50618</v>
@@ -4148,7 +4157,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B220">
         <v>50736</v>
@@ -4176,7 +4185,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B222">
         <v>50698</v>
@@ -4221,27 +4230,27 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B225">
-        <v>51899</v>
+        <v>50454</v>
       </c>
       <c r="C225" t="s">
         <v>119</v>
       </c>
       <c r="D225" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B226">
         <v>50454</v>
       </c>
       <c r="C226" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D226" t="s">
         <v>55</v>
@@ -4249,10 +4258,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B227">
-        <v>50454</v>
+        <v>50456</v>
       </c>
       <c r="C227" t="s">
         <v>120</v>
@@ -4263,10 +4272,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B228">
-        <v>50456</v>
+        <v>50457</v>
       </c>
       <c r="C228" t="s">
         <v>121</v>
@@ -4277,52 +4286,52 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B229">
-        <v>50457</v>
+        <v>50656</v>
       </c>
       <c r="C229" t="s">
         <v>122</v>
       </c>
       <c r="D229" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B230">
         <v>50656</v>
       </c>
       <c r="C230" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D230" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B231">
-        <v>50656</v>
+        <v>50642</v>
       </c>
       <c r="C231" t="s">
         <v>123</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B232">
-        <v>50642</v>
+        <v>51882</v>
       </c>
       <c r="C232" t="s">
         <v>124</v>
@@ -4333,10 +4342,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B233">
-        <v>51882</v>
+        <v>50728</v>
       </c>
       <c r="C233" t="s">
         <v>125</v>
@@ -4347,10 +4356,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B234">
-        <v>50728</v>
+        <v>50708</v>
       </c>
       <c r="C234" t="s">
         <v>126</v>
@@ -4361,10 +4370,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B235">
-        <v>50708</v>
+        <v>50645</v>
       </c>
       <c r="C235" t="s">
         <v>127</v>
@@ -4375,111 +4384,111 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B236">
         <v>50645</v>
       </c>
       <c r="C236" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D236" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B237">
         <v>50645</v>
       </c>
       <c r="C237" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B238">
-        <v>50645</v>
+        <v>49891</v>
       </c>
       <c r="C238" t="s">
         <v>128</v>
       </c>
       <c r="D238" t="s">
-        <v>11</v>
+        <v>58</v>
+      </c>
+      <c r="E238" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B239">
-        <v>49891</v>
+        <v>47664</v>
       </c>
       <c r="C239" t="s">
         <v>129</v>
       </c>
       <c r="D239" t="s">
-        <v>58</v>
-      </c>
-      <c r="E239" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B240">
-        <v>47664</v>
+        <v>40705</v>
       </c>
       <c r="C240" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D240" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B241">
         <v>40705</v>
       </c>
       <c r="C241" t="s">
+        <v>131</v>
+      </c>
+      <c r="D241" t="s">
         <v>132</v>
-      </c>
-      <c r="D241" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B242">
-        <v>40705</v>
+        <v>50455</v>
       </c>
       <c r="C242" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D242" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B243">
-        <v>50455</v>
+        <v>50461</v>
       </c>
       <c r="C243" t="s">
         <v>134</v>
@@ -4490,55 +4499,55 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B244">
-        <v>50461</v>
+        <v>50702</v>
       </c>
       <c r="C244" t="s">
         <v>135</v>
       </c>
       <c r="D244" t="s">
-        <v>55</v>
+        <v>7</v>
+      </c>
+      <c r="E244" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B245">
         <v>50702</v>
       </c>
       <c r="C245" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D245" t="s">
-        <v>7</v>
-      </c>
-      <c r="E245" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B246">
-        <v>50702</v>
+        <v>50621</v>
       </c>
       <c r="C246" t="s">
         <v>136</v>
       </c>
       <c r="D246" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B247">
-        <v>50621</v>
+        <v>50636</v>
       </c>
       <c r="C247" t="s">
         <v>137</v>
@@ -4549,58 +4558,61 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B248">
         <v>50636</v>
       </c>
       <c r="C248" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D248" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B249">
         <v>50636</v>
       </c>
       <c r="C249" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D249" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B250">
-        <v>50636</v>
+        <v>46051</v>
       </c>
       <c r="C250" t="s">
         <v>138</v>
       </c>
       <c r="D250" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="E250" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B251">
         <v>46051</v>
       </c>
       <c r="C251" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D251" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E251" t="s">
         <v>15</v>
@@ -4608,55 +4620,52 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B252">
-        <v>46051</v>
+        <v>50693</v>
       </c>
       <c r="C252" t="s">
         <v>139</v>
       </c>
       <c r="D252" t="s">
-        <v>9</v>
-      </c>
-      <c r="E252" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B253">
         <v>50693</v>
       </c>
       <c r="C253" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D253" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B254">
-        <v>50693</v>
+        <v>50738</v>
       </c>
       <c r="C254" t="s">
         <v>140</v>
       </c>
       <c r="D254" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B255">
-        <v>50738</v>
+        <v>50688</v>
       </c>
       <c r="C255" t="s">
         <v>141</v>
@@ -4667,97 +4676,100 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B256">
         <v>50688</v>
       </c>
       <c r="C256" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D256" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E256" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B257">
         <v>50688</v>
       </c>
       <c r="C257" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D257" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B258">
         <v>50688</v>
       </c>
       <c r="C258" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D258" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="E258" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B259">
-        <v>50688</v>
+        <v>50631</v>
       </c>
       <c r="C259" t="s">
         <v>142</v>
       </c>
       <c r="D259" t="s">
-        <v>18</v>
-      </c>
-      <c r="E259" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B260">
         <v>50631</v>
       </c>
       <c r="C260" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D260" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B261">
-        <v>50631</v>
+        <v>50627</v>
       </c>
       <c r="C261" t="s">
         <v>143</v>
       </c>
       <c r="D261" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B262">
-        <v>50627</v>
+        <v>50735</v>
       </c>
       <c r="C262" t="s">
         <v>144</v>
@@ -4768,307 +4780,310 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B263">
         <v>50735</v>
       </c>
       <c r="C263" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D263" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B264">
         <v>50735</v>
       </c>
       <c r="C264" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D264" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B265">
         <v>50735</v>
       </c>
       <c r="C265" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D265" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B266">
-        <v>50735</v>
+        <v>50365</v>
       </c>
       <c r="C266" t="s">
         <v>145</v>
       </c>
       <c r="D266" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B267">
         <v>50365</v>
       </c>
       <c r="C267" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D267" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B268">
         <v>50365</v>
       </c>
       <c r="C268" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D268" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B269">
         <v>50365</v>
       </c>
       <c r="C269" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D269" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B270">
         <v>50365</v>
       </c>
       <c r="C270" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D270" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B271">
         <v>50365</v>
       </c>
       <c r="C271" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D271" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B272">
-        <v>50365</v>
+        <v>50699</v>
       </c>
       <c r="C272" t="s">
         <v>146</v>
       </c>
       <c r="D272" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B273">
         <v>50699</v>
       </c>
       <c r="C273" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D273" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B274">
         <v>50699</v>
       </c>
       <c r="C274" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D274" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B275">
         <v>50699</v>
       </c>
       <c r="C275" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D275" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B276">
         <v>50699</v>
       </c>
       <c r="C276" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D276" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B277">
         <v>50699</v>
       </c>
       <c r="C277" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D277" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B278">
         <v>50699</v>
       </c>
       <c r="C278" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D278" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B279">
         <v>50699</v>
       </c>
       <c r="C279" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D279" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B280">
         <v>50699</v>
       </c>
       <c r="C280" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D280" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B281">
         <v>50699</v>
       </c>
       <c r="C281" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D281" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B282">
         <v>50699</v>
       </c>
       <c r="C282" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D282" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B283">
         <v>50699</v>
       </c>
       <c r="C283" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D283" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="E283" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B284">
         <v>50694</v>
       </c>
       <c r="C284" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D284" t="s">
         <v>7</v>
@@ -5076,13 +5091,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B285">
         <v>50694</v>
       </c>
       <c r="C285" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D285" t="s">
         <v>9</v>
@@ -5090,13 +5105,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B286">
         <v>50694</v>
       </c>
       <c r="C286" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D286" t="s">
         <v>11</v>
@@ -5110,7 +5125,7 @@
         <v>50659</v>
       </c>
       <c r="C287" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D287" t="s">
         <v>7</v>
@@ -5127,7 +5142,7 @@
         <v>50659</v>
       </c>
       <c r="C288" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D288" t="s">
         <v>9</v>
@@ -5144,7 +5159,7 @@
         <v>50659</v>
       </c>
       <c r="C289" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D289" t="s">
         <v>11</v>
@@ -5158,7 +5173,7 @@
         <v>51890</v>
       </c>
       <c r="C290" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D290" t="s">
         <v>7</v>
@@ -5172,7 +5187,7 @@
         <v>50705</v>
       </c>
       <c r="C291" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D291" t="s">
         <v>7</v>
@@ -5186,7 +5201,7 @@
         <v>50705</v>
       </c>
       <c r="C292" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D292" t="s">
         <v>9</v>
@@ -5200,7 +5215,7 @@
         <v>52029</v>
       </c>
       <c r="C293" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D293" t="s">
         <v>7</v>
@@ -5217,7 +5232,7 @@
         <v>52029</v>
       </c>
       <c r="C294" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D294" t="s">
         <v>9</v>
@@ -5231,7 +5246,7 @@
         <v>52029</v>
       </c>
       <c r="C295" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D295" t="s">
         <v>11</v>
@@ -5245,7 +5260,7 @@
         <v>52029</v>
       </c>
       <c r="C296" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D296" t="s">
         <v>18</v>
@@ -5259,7 +5274,7 @@
         <v>52029</v>
       </c>
       <c r="C297" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D297" t="s">
         <v>20</v>
@@ -5273,7 +5288,7 @@
         <v>52029</v>
       </c>
       <c r="C298" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D298" t="s">
         <v>60</v>
@@ -5287,7 +5302,7 @@
         <v>52029</v>
       </c>
       <c r="C299" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D299" t="s">
         <v>61</v>
@@ -5301,7 +5316,7 @@
         <v>52029</v>
       </c>
       <c r="C300" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D300" t="s">
         <v>62</v>
@@ -5309,13 +5324,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B301">
         <v>52029</v>
       </c>
       <c r="C301" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D301" t="s">
         <v>63</v>
@@ -5323,13 +5338,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B302">
         <v>52029</v>
       </c>
       <c r="C302" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D302" t="s">
         <v>77</v>
@@ -5337,13 +5352,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B303">
         <v>52029</v>
       </c>
       <c r="C303" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D303" t="s">
         <v>78</v>
@@ -5351,13 +5366,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B304">
         <v>52029</v>
       </c>
       <c r="C304" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D304" t="s">
         <v>79</v>
@@ -5365,13 +5380,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B305">
         <v>52029</v>
       </c>
       <c r="C305" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D305" t="s">
         <v>80</v>
@@ -5379,13 +5394,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B306">
         <v>52029</v>
       </c>
       <c r="C306" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D306" t="s">
         <v>81</v>
@@ -5393,13 +5408,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B307">
         <v>52029</v>
       </c>
       <c r="C307" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D307" t="s">
         <v>82</v>
@@ -5407,13 +5422,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B308">
         <v>52029</v>
       </c>
       <c r="C308" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D308" t="s">
         <v>83</v>
@@ -5427,7 +5442,7 @@
         <v>52029</v>
       </c>
       <c r="C309" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D309" t="s">
         <v>84</v>
@@ -5441,7 +5456,7 @@
         <v>52029</v>
       </c>
       <c r="C310" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D310" t="s">
         <v>85</v>
@@ -5455,7 +5470,7 @@
         <v>52029</v>
       </c>
       <c r="C311" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D311" t="s">
         <v>86</v>
@@ -5469,7 +5484,7 @@
         <v>52029</v>
       </c>
       <c r="C312" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D312" t="s">
         <v>87</v>
@@ -5477,13 +5492,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B313">
         <v>52029</v>
       </c>
       <c r="C313" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D313" t="s">
         <v>88</v>
@@ -5491,13 +5506,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B314">
         <v>52029</v>
       </c>
       <c r="C314" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D314" t="s">
         <v>89</v>
@@ -5505,13 +5520,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B315">
         <v>52029</v>
       </c>
       <c r="C315" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D315" t="s">
         <v>90</v>
@@ -5519,13 +5534,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B316">
         <v>52029</v>
       </c>
       <c r="C316" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D316" t="s">
         <v>91</v>
@@ -5533,13 +5548,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B317">
         <v>52029</v>
       </c>
       <c r="C317" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D317" t="s">
         <v>92</v>
@@ -5547,13 +5562,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B318">
         <v>52029</v>
       </c>
       <c r="C318" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D318" t="s">
         <v>93</v>
@@ -5561,30 +5576,30 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B319">
         <v>52029</v>
       </c>
       <c r="C319" t="s">
+        <v>151</v>
+      </c>
+      <c r="D319" t="s">
         <v>152</v>
-      </c>
-      <c r="D319" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B320">
         <v>52029</v>
       </c>
       <c r="C320" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D320" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
@@ -5595,10 +5610,10 @@
         <v>52029</v>
       </c>
       <c r="C321" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D321" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -5609,10 +5624,10 @@
         <v>52029</v>
       </c>
       <c r="C322" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D322" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -5623,10 +5638,10 @@
         <v>52029</v>
       </c>
       <c r="C323" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D323" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
@@ -5637,10 +5652,10 @@
         <v>52029</v>
       </c>
       <c r="C324" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D324" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -5651,10 +5666,10 @@
         <v>52029</v>
       </c>
       <c r="C325" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D325" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
@@ -5665,10 +5680,10 @@
         <v>52029</v>
       </c>
       <c r="C326" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D326" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -5679,10 +5694,10 @@
         <v>52029</v>
       </c>
       <c r="C327" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D327" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
@@ -5693,21 +5708,21 @@
         <v>52029</v>
       </c>
       <c r="C328" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D328" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B329">
         <v>47188</v>
       </c>
       <c r="C329" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D329" t="s">
         <v>7</v>
@@ -5724,7 +5739,7 @@
         <v>50664</v>
       </c>
       <c r="C330" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D330" t="s">
         <v>7</v>
@@ -5732,13 +5747,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B331">
         <v>50664</v>
       </c>
       <c r="C331" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D331" t="s">
         <v>9</v>
@@ -5746,13 +5761,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B332">
         <v>50664</v>
       </c>
       <c r="C332" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D332" t="s">
         <v>11</v>
@@ -5760,13 +5775,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B333">
         <v>50664</v>
       </c>
       <c r="C333" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D333" t="s">
         <v>18</v>
@@ -5774,13 +5789,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B334">
         <v>50664</v>
       </c>
       <c r="C334" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D334" t="s">
         <v>20</v>
@@ -5788,13 +5803,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B335">
         <v>50664</v>
       </c>
       <c r="C335" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D335" t="s">
         <v>60</v>
@@ -5802,13 +5817,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B336">
         <v>50664</v>
       </c>
       <c r="C336" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D336" t="s">
         <v>61</v>
@@ -5816,44 +5831,44 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B337">
         <v>50664</v>
       </c>
       <c r="C337" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D337" t="s">
         <v>62</v>
       </c>
+      <c r="E337" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B338">
         <v>50664</v>
       </c>
       <c r="C338" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D338" t="s">
         <v>63</v>
       </c>
-      <c r="E338" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B339">
         <v>50664</v>
       </c>
       <c r="C339" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D339" t="s">
         <v>77</v>
@@ -5861,13 +5876,13 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B340">
         <v>50629</v>
       </c>
       <c r="C340" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D340" t="s">
         <v>7</v>
@@ -5875,13 +5890,13 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B341">
         <v>50629</v>
       </c>
       <c r="C341" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D341" t="s">
         <v>9</v>
@@ -5892,16 +5907,19 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B342">
         <v>50680</v>
       </c>
       <c r="C342" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D342" t="s">
         <v>7</v>
+      </c>
+      <c r="E342" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -5912,7 +5930,7 @@
         <v>50680</v>
       </c>
       <c r="C343" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D343" t="s">
         <v>9</v>
@@ -5926,7 +5944,7 @@
         <v>50718</v>
       </c>
       <c r="C344" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D344" t="s">
         <v>7</v>
@@ -5940,7 +5958,7 @@
         <v>50718</v>
       </c>
       <c r="C345" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D345" t="s">
         <v>9</v>
@@ -5954,7 +5972,7 @@
         <v>50734</v>
       </c>
       <c r="C346" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D346" t="s">
         <v>7</v>
@@ -5962,13 +5980,13 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B347">
         <v>50734</v>
       </c>
       <c r="C347" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D347" t="s">
         <v>9</v>
@@ -5976,13 +5994,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B348">
         <v>50734</v>
       </c>
       <c r="C348" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D348" t="s">
         <v>11</v>
@@ -5990,13 +6008,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B349">
         <v>50734</v>
       </c>
       <c r="C349" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D349" t="s">
         <v>18</v>
@@ -6004,13 +6022,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B350">
         <v>50734</v>
       </c>
       <c r="C350" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D350" t="s">
         <v>20</v>
@@ -6018,13 +6036,13 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B351">
         <v>50722</v>
       </c>
       <c r="C351" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D351" t="s">
         <v>7</v>
@@ -6038,7 +6056,7 @@
         <v>50717</v>
       </c>
       <c r="C352" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D352" t="s">
         <v>7</v>
@@ -6052,7 +6070,7 @@
         <v>50717</v>
       </c>
       <c r="C353" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D353" t="s">
         <v>9</v>
@@ -6066,7 +6084,7 @@
         <v>50717</v>
       </c>
       <c r="C354" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D354" t="s">
         <v>11</v>
@@ -6074,13 +6092,13 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B355">
         <v>50655</v>
       </c>
       <c r="C355" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D355" t="s">
         <v>7</v>
@@ -6088,13 +6106,13 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B356">
         <v>50655</v>
       </c>
       <c r="C356" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D356" t="s">
         <v>9</v>
@@ -6102,13 +6120,13 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B357">
         <v>50655</v>
       </c>
       <c r="C357" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D357" t="s">
         <v>11</v>
@@ -6122,7 +6140,7 @@
         <v>50655</v>
       </c>
       <c r="C358" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D358" t="s">
         <v>18</v>
@@ -6136,7 +6154,7 @@
         <v>50624</v>
       </c>
       <c r="C359" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D359" t="s">
         <v>7</v>
@@ -6150,7 +6168,7 @@
         <v>50624</v>
       </c>
       <c r="C360" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D360" t="s">
         <v>9</v>
@@ -6167,7 +6185,7 @@
         <v>50654</v>
       </c>
       <c r="C361" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D361" t="s">
         <v>7</v>
@@ -6184,7 +6202,7 @@
         <v>50678</v>
       </c>
       <c r="C362" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D362" t="s">
         <v>7</v>
@@ -6195,13 +6213,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B363">
         <v>50719</v>
       </c>
       <c r="C363" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D363" t="s">
         <v>7</v>
@@ -6209,13 +6227,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B364">
         <v>50719</v>
       </c>
       <c r="C364" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D364" t="s">
         <v>9</v>
@@ -6223,13 +6241,13 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B365">
         <v>50719</v>
       </c>
       <c r="C365" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D365" t="s">
         <v>11</v>
@@ -6237,13 +6255,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B366">
         <v>50719</v>
       </c>
       <c r="C366" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D366" t="s">
         <v>18</v>
@@ -6251,13 +6269,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B367">
         <v>50719</v>
       </c>
       <c r="C367" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D367" t="s">
         <v>20</v>
@@ -6271,13 +6289,13 @@
         <v>49623</v>
       </c>
       <c r="C368" t="s">
+        <v>175</v>
+      </c>
+      <c r="D368" t="s">
         <v>176</v>
       </c>
-      <c r="D368" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>16</v>
       </c>
@@ -6285,27 +6303,27 @@
         <v>50653</v>
       </c>
       <c r="C369" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D369" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B370">
         <v>50653</v>
       </c>
       <c r="C370" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D370" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>8</v>
       </c>
@@ -6313,13 +6331,16 @@
         <v>50653</v>
       </c>
       <c r="C371" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D371" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E371" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>19</v>
       </c>
@@ -6327,13 +6348,13 @@
         <v>50653</v>
       </c>
       <c r="C372" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D372" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>28</v>
       </c>
@@ -6341,13 +6362,13 @@
         <v>50653</v>
       </c>
       <c r="C373" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D373" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>10</v>
       </c>
@@ -6355,13 +6376,13 @@
         <v>47673</v>
       </c>
       <c r="C374" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D374" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>5</v>
       </c>
@@ -6369,13 +6390,13 @@
         <v>50459</v>
       </c>
       <c r="C375" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D375" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>12</v>
       </c>
@@ -6383,13 +6404,13 @@
         <v>50633</v>
       </c>
       <c r="C376" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D376" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>14</v>
       </c>
@@ -6397,13 +6418,13 @@
         <v>50633</v>
       </c>
       <c r="C377" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D377" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>16</v>
       </c>
@@ -6411,69 +6432,69 @@
         <v>50633</v>
       </c>
       <c r="C378" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D378" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B379">
         <v>50633</v>
       </c>
       <c r="C379" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D379" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B380">
         <v>50633</v>
       </c>
       <c r="C380" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D380" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B381">
         <v>50633</v>
       </c>
       <c r="C381" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D381" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B382">
         <v>50633</v>
       </c>
       <c r="C382" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D382" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>17</v>
       </c>
@@ -6481,13 +6502,13 @@
         <v>50633</v>
       </c>
       <c r="C383" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D383" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>51</v>
       </c>
@@ -6495,7 +6516,7 @@
         <v>50364</v>
       </c>
       <c r="C384" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D384" t="s">
         <v>7</v>
@@ -6509,7 +6530,7 @@
         <v>50364</v>
       </c>
       <c r="C385" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D385" t="s">
         <v>9</v>
@@ -6523,7 +6544,7 @@
         <v>50657</v>
       </c>
       <c r="C386" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D386" t="s">
         <v>7</v>
@@ -6540,7 +6561,7 @@
         <v>47059</v>
       </c>
       <c r="C387" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D387" t="s">
         <v>7</v>
@@ -6554,7 +6575,7 @@
         <v>47059</v>
       </c>
       <c r="C388" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D388" t="s">
         <v>9</v>
@@ -6571,7 +6592,7 @@
         <v>47059</v>
       </c>
       <c r="C389" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D389" t="s">
         <v>11</v>
@@ -6588,7 +6609,7 @@
         <v>47059</v>
       </c>
       <c r="C390" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D390" t="s">
         <v>18</v>
@@ -6599,16 +6620,16 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B391">
         <v>37111</v>
       </c>
       <c r="C391" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D391" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
@@ -6619,10 +6640,10 @@
         <v>37111</v>
       </c>
       <c r="C392" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D392" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
@@ -6633,7 +6654,7 @@
         <v>50635</v>
       </c>
       <c r="C393" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D393" t="s">
         <v>7</v>
@@ -6647,7 +6668,7 @@
         <v>50635</v>
       </c>
       <c r="C394" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D394" t="s">
         <v>9</v>
@@ -6661,7 +6682,7 @@
         <v>50635</v>
       </c>
       <c r="C395" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D395" t="s">
         <v>11</v>
@@ -6675,7 +6696,7 @@
         <v>50716</v>
       </c>
       <c r="C396" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D396" t="s">
         <v>7</v>
@@ -6683,13 +6704,13 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B397">
         <v>50651</v>
       </c>
       <c r="C397" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D397" t="s">
         <v>7</v>
@@ -6697,13 +6718,13 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B398">
         <v>50651</v>
       </c>
       <c r="C398" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D398" t="s">
         <v>9</v>
@@ -6711,13 +6732,13 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B399">
         <v>50651</v>
       </c>
       <c r="C399" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D399" t="s">
         <v>11</v>
@@ -6725,13 +6746,13 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B400">
         <v>50706</v>
       </c>
       <c r="C400" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D400" t="s">
         <v>7</v>
@@ -6745,7 +6766,7 @@
         <v>50706</v>
       </c>
       <c r="C401" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D401" t="s">
         <v>9</v>
@@ -6759,7 +6780,7 @@
         <v>50670</v>
       </c>
       <c r="C402" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D402" t="s">
         <v>7</v>
@@ -6773,10 +6794,13 @@
         <v>50670</v>
       </c>
       <c r="C403" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D403" t="s">
         <v>9</v>
+      </c>
+      <c r="E403" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
@@ -6787,7 +6811,7 @@
         <v>50670</v>
       </c>
       <c r="C404" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D404" t="s">
         <v>11</v>
@@ -6795,13 +6819,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B405">
         <v>50670</v>
       </c>
       <c r="C405" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D405" t="s">
         <v>18</v>
@@ -6815,7 +6839,7 @@
         <v>50670</v>
       </c>
       <c r="C406" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D406" t="s">
         <v>20</v>
@@ -6829,7 +6853,7 @@
         <v>50670</v>
       </c>
       <c r="C407" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D407" t="s">
         <v>60</v>
@@ -6846,10 +6870,10 @@
         <v>39728</v>
       </c>
       <c r="C408" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D408" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
@@ -6860,7 +6884,7 @@
         <v>50711</v>
       </c>
       <c r="C409" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D409" t="s">
         <v>7</v>
@@ -6874,7 +6898,7 @@
         <v>50703</v>
       </c>
       <c r="C410" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D410" t="s">
         <v>7</v>
@@ -6882,16 +6906,16 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B411">
         <v>46017</v>
       </c>
       <c r="C411" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D411" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E411" t="s">
         <v>15</v>
@@ -6905,10 +6929,10 @@
         <v>46017</v>
       </c>
       <c r="C412" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D412" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E412" t="s">
         <v>15</v>
@@ -6916,30 +6940,33 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B413">
         <v>46017</v>
       </c>
       <c r="C413" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D413" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="E413" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B414">
         <v>46017</v>
       </c>
       <c r="C414" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D414" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E414" t="s">
         <v>15</v>
@@ -6947,19 +6974,16 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B415">
         <v>46017</v>
       </c>
       <c r="C415" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D415" t="s">
-        <v>177</v>
-      </c>
-      <c r="E415" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
@@ -6970,7 +6994,7 @@
         <v>50714</v>
       </c>
       <c r="C416" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D416" t="s">
         <v>7</v>
@@ -6984,7 +7008,7 @@
         <v>52028</v>
       </c>
       <c r="C417" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D417" t="s">
         <v>7</v>
@@ -6998,7 +7022,7 @@
         <v>52028</v>
       </c>
       <c r="C418" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D418" t="s">
         <v>9</v>
@@ -7012,7 +7036,7 @@
         <v>52028</v>
       </c>
       <c r="C419" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D419" t="s">
         <v>11</v>
@@ -7026,7 +7050,7 @@
         <v>52028</v>
       </c>
       <c r="C420" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D420" t="s">
         <v>18</v>
@@ -7040,7 +7064,7 @@
         <v>52028</v>
       </c>
       <c r="C421" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D421" t="s">
         <v>20</v>
@@ -7057,7 +7081,7 @@
         <v>52028</v>
       </c>
       <c r="C422" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D422" t="s">
         <v>60</v>
@@ -7071,7 +7095,7 @@
         <v>52028</v>
       </c>
       <c r="C423" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D423" t="s">
         <v>61</v>
@@ -7085,7 +7109,7 @@
         <v>52028</v>
       </c>
       <c r="C424" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D424" t="s">
         <v>62</v>
@@ -7093,13 +7117,13 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B425">
         <v>52028</v>
       </c>
       <c r="C425" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D425" t="s">
         <v>63</v>
@@ -7107,13 +7131,13 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B426">
         <v>52028</v>
       </c>
       <c r="C426" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D426" t="s">
         <v>77</v>
@@ -7121,13 +7145,13 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B427">
         <v>52028</v>
       </c>
       <c r="C427" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D427" t="s">
         <v>78</v>
@@ -7135,13 +7159,13 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B428">
         <v>52028</v>
       </c>
       <c r="C428" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D428" t="s">
         <v>79</v>
@@ -7155,7 +7179,7 @@
         <v>52028</v>
       </c>
       <c r="C429" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D429" t="s">
         <v>80</v>
@@ -7169,7 +7193,7 @@
         <v>52028</v>
       </c>
       <c r="C430" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D430" t="s">
         <v>81</v>
@@ -7183,7 +7207,7 @@
         <v>52028</v>
       </c>
       <c r="C431" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D431" t="s">
         <v>82</v>
@@ -7197,7 +7221,7 @@
         <v>52028</v>
       </c>
       <c r="C432" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D432" t="s">
         <v>83</v>
@@ -7205,13 +7229,13 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B433">
         <v>52028</v>
       </c>
       <c r="C433" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D433" t="s">
         <v>84</v>
@@ -7222,13 +7246,13 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B434">
         <v>52028</v>
       </c>
       <c r="C434" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D434" t="s">
         <v>85</v>
@@ -7236,13 +7260,13 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B435">
         <v>52028</v>
       </c>
       <c r="C435" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D435" t="s">
         <v>86</v>
@@ -7250,13 +7274,13 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B436">
         <v>52028</v>
       </c>
       <c r="C436" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D436" t="s">
         <v>87</v>
@@ -7264,13 +7288,13 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B437">
         <v>52028</v>
       </c>
       <c r="C437" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D437" t="s">
         <v>88</v>
@@ -7281,13 +7305,13 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B438">
         <v>52028</v>
       </c>
       <c r="C438" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D438" t="s">
         <v>89</v>
@@ -7295,13 +7319,13 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B439">
         <v>52028</v>
       </c>
       <c r="C439" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D439" t="s">
         <v>90</v>
@@ -7309,13 +7333,13 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B440">
         <v>52028</v>
       </c>
       <c r="C440" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D440" t="s">
         <v>91</v>
@@ -7323,13 +7347,13 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B441">
         <v>52028</v>
       </c>
       <c r="C441" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D441" t="s">
         <v>92</v>
@@ -7337,13 +7361,13 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B442">
         <v>52028</v>
       </c>
       <c r="C442" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D442" t="s">
         <v>93</v>
@@ -7351,30 +7375,30 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B443">
         <v>52028</v>
       </c>
       <c r="C443" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D443" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B444">
         <v>52028</v>
       </c>
       <c r="C444" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D444" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
@@ -7385,10 +7409,10 @@
         <v>52028</v>
       </c>
       <c r="C445" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D445" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
@@ -7399,66 +7423,66 @@
         <v>52028</v>
       </c>
       <c r="C446" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D446" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B447">
         <v>52028</v>
       </c>
       <c r="C447" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D447" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B448">
         <v>52028</v>
       </c>
       <c r="C448" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D448" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B449">
         <v>52028</v>
       </c>
       <c r="C449" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D449" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B450">
         <v>52028</v>
       </c>
       <c r="C450" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D450" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
@@ -7469,10 +7493,10 @@
         <v>52028</v>
       </c>
       <c r="C451" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D451" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
@@ -7483,10 +7507,10 @@
         <v>52028</v>
       </c>
       <c r="C452" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D452" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
@@ -7497,10 +7521,10 @@
         <v>52028</v>
       </c>
       <c r="C453" t="s">
+        <v>195</v>
+      </c>
+      <c r="D453" t="s">
         <v>196</v>
-      </c>
-      <c r="D453" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
@@ -7511,10 +7535,10 @@
         <v>52028</v>
       </c>
       <c r="C454" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D454" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
@@ -7525,10 +7549,10 @@
         <v>52028</v>
       </c>
       <c r="C455" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D455" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
@@ -7539,10 +7563,10 @@
         <v>52028</v>
       </c>
       <c r="C456" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D456" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
@@ -7553,10 +7577,10 @@
         <v>52028</v>
       </c>
       <c r="C457" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D457" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
@@ -7567,10 +7591,10 @@
         <v>52028</v>
       </c>
       <c r="C458" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D458" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
@@ -7581,7 +7605,7 @@
         <v>47545</v>
       </c>
       <c r="C459" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D459" t="s">
         <v>7</v>
@@ -7595,7 +7619,7 @@
         <v>47545</v>
       </c>
       <c r="C460" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D460" t="s">
         <v>9</v>
@@ -7603,13 +7627,13 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B461">
         <v>47545</v>
       </c>
       <c r="C461" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D461" t="s">
         <v>11</v>
@@ -7617,13 +7641,13 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B462">
         <v>47545</v>
       </c>
       <c r="C462" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D462" t="s">
         <v>18</v>
@@ -7631,13 +7655,13 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B463">
         <v>47545</v>
       </c>
       <c r="C463" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D463" t="s">
         <v>20</v>
@@ -7651,7 +7675,7 @@
         <v>47545</v>
       </c>
       <c r="C464" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D464" t="s">
         <v>60</v>
@@ -7665,7 +7689,7 @@
         <v>51946</v>
       </c>
       <c r="C465" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D465" t="s">
         <v>7</v>
@@ -7679,7 +7703,7 @@
         <v>50343</v>
       </c>
       <c r="C466" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D466" t="s">
         <v>7</v>
@@ -7696,7 +7720,7 @@
         <v>50343</v>
       </c>
       <c r="C467" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D467" t="s">
         <v>9</v>
@@ -7713,7 +7737,7 @@
         <v>50343</v>
       </c>
       <c r="C468" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D468" t="s">
         <v>11</v>
@@ -7727,7 +7751,7 @@
         <v>50343</v>
       </c>
       <c r="C469" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D469" t="s">
         <v>18</v>
@@ -7741,7 +7765,7 @@
         <v>50343</v>
       </c>
       <c r="C470" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D470" t="s">
         <v>20</v>
@@ -7755,7 +7779,7 @@
         <v>50677</v>
       </c>
       <c r="C471" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D471" t="s">
         <v>7</v>
@@ -7772,7 +7796,7 @@
         <v>50677</v>
       </c>
       <c r="C472" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D472" t="s">
         <v>9</v>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129ADCC1-C2C2-4B46-B5CF-39D5DA9BCFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6B1786-7F42-44FF-B3DD-E7CC67DDA901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="206">
   <si>
     <t>player</t>
   </si>
@@ -37,24 +37,24 @@
     <t>received</t>
   </si>
   <si>
+    <t>Daekness</t>
+  </si>
+  <si>
+    <t>Ahn'kahar Onyx Neckguard</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Gosseyn</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Iryastra</t>
   </si>
   <si>
-    <t>Ahn'kahar Onyx Neckguard</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Daekness</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Gosseyn</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -121,27 +121,27 @@
     <t>Reputation</t>
   </si>
   <si>
+    <t>Pamage</t>
+  </si>
+  <si>
+    <t>Ashen Band of Endless Destruction</t>
+  </si>
+  <si>
+    <t>Darnä</t>
+  </si>
+  <si>
+    <t>Äspï</t>
+  </si>
+  <si>
+    <t>Itstøkyo</t>
+  </si>
+  <si>
+    <t>Euphemià</t>
+  </si>
+  <si>
     <t>Lupusreginä</t>
   </si>
   <si>
-    <t>Ashen Band of Endless Destruction</t>
-  </si>
-  <si>
-    <t>Pamage</t>
-  </si>
-  <si>
-    <t>Darnä</t>
-  </si>
-  <si>
-    <t>Äspï</t>
-  </si>
-  <si>
-    <t>Itstøkyo</t>
-  </si>
-  <si>
-    <t>Euphemià</t>
-  </si>
-  <si>
     <t>Ashen Band of Endless Might</t>
   </si>
   <si>
@@ -160,15 +160,15 @@
     <t>Royalhaze</t>
   </si>
   <si>
+    <t>Seina</t>
+  </si>
+  <si>
     <t>Ashen Band of Endless Wisdom</t>
   </si>
   <si>
     <t>Zàpp</t>
   </si>
   <si>
-    <t>Seina</t>
-  </si>
-  <si>
     <t>Astrylian's Sutured Cinch</t>
   </si>
   <si>
@@ -241,6 +241,9 @@
     <t>Broken Ram Skull Helm</t>
   </si>
   <si>
+    <t>Bryntroll, the Bone Arbiter</t>
+  </si>
+  <si>
     <t>Bulwark of Smouldering Steel</t>
   </si>
   <si>
@@ -398,9 +401,6 @@
   </si>
   <si>
     <t>Lana'thel's Chain of Flagellation</t>
-  </si>
-  <si>
-    <t>Last Word</t>
   </si>
   <si>
     <t>Leggings of Northern Lights</t>
@@ -1000,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E472"/>
+  <dimension ref="A1:E471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="E284" sqref="E284"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>52572</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>50402</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B32">
         <v>50402</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>50402</v>
@@ -1498,13 +1498,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <v>50400</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
         <v>32</v>
@@ -1512,13 +1512,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36">
         <v>50400</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
         <v>32</v>
@@ -1532,7 +1532,7 @@
         <v>50400</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
         <v>32</v>
@@ -1546,7 +1546,7 @@
         <v>50400</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
         <v>32</v>
@@ -1554,13 +1554,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <v>50400</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
         <v>32</v>
@@ -1568,13 +1568,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B40">
         <v>50400</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
         <v>32</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B43">
         <v>50707</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B52">
         <v>50458</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B53">
         <v>50458</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56">
         <v>50724</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B57">
         <v>50724</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B58">
         <v>50724</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B59">
         <v>50724</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61">
         <v>50724</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62">
         <v>50724</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B63">
         <v>50724</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B64">
         <v>50724</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B66">
         <v>50639</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B67">
         <v>50639</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B68">
         <v>50639</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B71">
         <v>50687</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B73">
         <v>50732</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B74">
         <v>50732</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B75">
         <v>50732</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B76">
         <v>50672</v>
@@ -2095,21 +2095,21 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B77">
-        <v>50672</v>
+        <v>50609</v>
       </c>
       <c r="C77" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B78">
         <v>50609</v>
@@ -2118,26 +2118,29 @@
         <v>68</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B79">
-        <v>50609</v>
+        <v>50660</v>
       </c>
       <c r="C79" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B80">
         <v>50660</v>
@@ -2146,29 +2149,26 @@
         <v>69</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B81">
-        <v>50660</v>
+        <v>50611</v>
       </c>
       <c r="C81" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B82">
         <v>50611</v>
@@ -2177,26 +2177,26 @@
         <v>70</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B83">
-        <v>50611</v>
+        <v>50630</v>
       </c>
       <c r="C83" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B84">
         <v>50630</v>
@@ -2205,12 +2205,12 @@
         <v>71</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B85">
         <v>50630</v>
@@ -2219,46 +2219,49 @@
         <v>71</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B86">
-        <v>50630</v>
+        <v>50640</v>
       </c>
       <c r="C86" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B87">
-        <v>50640</v>
+        <v>50415</v>
       </c>
       <c r="C87" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B88">
         <v>50616</v>
       </c>
       <c r="C88" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -2275,7 +2278,7 @@
         <v>50616</v>
       </c>
       <c r="C89" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
@@ -2283,13 +2286,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B90">
         <v>50616</v>
       </c>
       <c r="C90" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D90" t="s">
         <v>11</v>
@@ -2297,13 +2300,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B91">
         <v>50616</v>
       </c>
       <c r="C91" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -2317,7 +2320,7 @@
         <v>47146</v>
       </c>
       <c r="C92" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -2334,7 +2337,7 @@
         <v>50620</v>
       </c>
       <c r="C93" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -2345,13 +2348,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B94">
         <v>50620</v>
       </c>
       <c r="C94" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -2359,13 +2362,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B95">
         <v>50620</v>
       </c>
       <c r="C95" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D95" t="s">
         <v>11</v>
@@ -2379,7 +2382,7 @@
         <v>50620</v>
       </c>
       <c r="C96" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D96" t="s">
         <v>18</v>
@@ -2393,7 +2396,7 @@
         <v>52030</v>
       </c>
       <c r="C97" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -2407,7 +2410,7 @@
         <v>52030</v>
       </c>
       <c r="C98" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -2421,7 +2424,7 @@
         <v>52030</v>
       </c>
       <c r="C99" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D99" t="s">
         <v>11</v>
@@ -2435,7 +2438,7 @@
         <v>52030</v>
       </c>
       <c r="C100" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -2449,7 +2452,7 @@
         <v>52030</v>
       </c>
       <c r="C101" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D101" t="s">
         <v>20</v>
@@ -2463,7 +2466,7 @@
         <v>52030</v>
       </c>
       <c r="C102" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D102" t="s">
         <v>60</v>
@@ -2477,7 +2480,7 @@
         <v>52030</v>
       </c>
       <c r="C103" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D103" t="s">
         <v>61</v>
@@ -2491,7 +2494,7 @@
         <v>52030</v>
       </c>
       <c r="C104" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D104" t="s">
         <v>62</v>
@@ -2505,7 +2508,7 @@
         <v>52030</v>
       </c>
       <c r="C105" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D105" t="s">
         <v>63</v>
@@ -2522,10 +2525,10 @@
         <v>52030</v>
       </c>
       <c r="C106" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D106" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -2536,10 +2539,10 @@
         <v>52030</v>
       </c>
       <c r="C107" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D107" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -2550,10 +2553,10 @@
         <v>52030</v>
       </c>
       <c r="C108" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D108" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -2564,10 +2567,10 @@
         <v>52030</v>
       </c>
       <c r="C109" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D109" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -2578,189 +2581,189 @@
         <v>52030</v>
       </c>
       <c r="C110" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D110" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B111">
         <v>52030</v>
       </c>
       <c r="C111" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D111" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B112">
         <v>52030</v>
       </c>
       <c r="C112" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D112" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B113">
         <v>52030</v>
       </c>
       <c r="C113" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D113" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B114">
         <v>52030</v>
       </c>
       <c r="C114" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D114" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B115">
         <v>52030</v>
       </c>
       <c r="C115" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D115" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B116">
         <v>52030</v>
       </c>
       <c r="C116" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D116" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B117">
         <v>52030</v>
       </c>
       <c r="C117" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D117" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B118">
         <v>52030</v>
       </c>
       <c r="C118" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D118" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B119">
         <v>52030</v>
       </c>
       <c r="C119" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D119" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B120">
         <v>52030</v>
       </c>
       <c r="C120" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D120" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B121">
         <v>52030</v>
       </c>
       <c r="C121" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D121" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B122">
         <v>52030</v>
       </c>
       <c r="C122" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D122" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B123">
         <v>50684</v>
       </c>
       <c r="C123" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
@@ -2768,13 +2771,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B124">
         <v>50684</v>
       </c>
       <c r="C124" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -2782,13 +2785,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B125">
         <v>50684</v>
       </c>
       <c r="C125" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D125" t="s">
         <v>11</v>
@@ -2796,13 +2799,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B126">
         <v>50684</v>
       </c>
       <c r="C126" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D126" t="s">
         <v>18</v>
@@ -2816,7 +2819,7 @@
         <v>50356</v>
       </c>
       <c r="C127" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D127" t="s">
         <v>55</v>
@@ -2830,7 +2833,7 @@
         <v>50356</v>
       </c>
       <c r="C128" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D128" t="s">
         <v>55</v>
@@ -2838,13 +2841,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B129">
         <v>50613</v>
       </c>
       <c r="C129" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
@@ -2855,13 +2858,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B130">
         <v>50613</v>
       </c>
       <c r="C130" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
@@ -2869,13 +2872,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B131">
         <v>50613</v>
       </c>
       <c r="C131" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D131" t="s">
         <v>11</v>
@@ -2883,13 +2886,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B132">
         <v>50613</v>
       </c>
       <c r="C132" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D132" t="s">
         <v>18</v>
@@ -2903,7 +2906,7 @@
         <v>50613</v>
       </c>
       <c r="C133" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D133" t="s">
         <v>20</v>
@@ -2911,13 +2914,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B134">
         <v>50613</v>
       </c>
       <c r="C134" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D134" t="s">
         <v>60</v>
@@ -2925,13 +2928,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B135">
         <v>50613</v>
       </c>
       <c r="C135" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D135" t="s">
         <v>61</v>
@@ -2939,13 +2942,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B136">
         <v>50613</v>
       </c>
       <c r="C136" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D136" t="s">
         <v>62</v>
@@ -2953,13 +2956,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B137">
         <v>50613</v>
       </c>
       <c r="C137" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D137" t="s">
         <v>63</v>
@@ -2967,13 +2970,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B138">
         <v>50721</v>
       </c>
       <c r="C138" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
@@ -2981,13 +2984,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B139">
         <v>50721</v>
       </c>
       <c r="C139" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D139" t="s">
         <v>9</v>
@@ -3001,7 +3004,7 @@
         <v>50603</v>
       </c>
       <c r="C140" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
@@ -3015,7 +3018,7 @@
         <v>50686</v>
       </c>
       <c r="C141" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D141" t="s">
         <v>7</v>
@@ -3029,7 +3032,7 @@
         <v>50686</v>
       </c>
       <c r="C142" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D142" t="s">
         <v>9</v>
@@ -3037,13 +3040,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B143">
         <v>50686</v>
       </c>
       <c r="C143" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D143" t="s">
         <v>11</v>
@@ -3051,27 +3054,30 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B144">
         <v>47131</v>
       </c>
       <c r="C144" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
+      </c>
+      <c r="E144" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B145">
         <v>47131</v>
       </c>
       <c r="C145" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D145" t="s">
         <v>9</v>
@@ -3082,13 +3088,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B146">
         <v>47131</v>
       </c>
       <c r="C146" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D146" t="s">
         <v>11</v>
@@ -3099,30 +3105,27 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B147">
         <v>47131</v>
       </c>
       <c r="C147" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D147" t="s">
         <v>18</v>
       </c>
-      <c r="E147" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B148">
         <v>47131</v>
       </c>
       <c r="C148" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D148" t="s">
         <v>20</v>
@@ -3130,16 +3133,19 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B149">
         <v>47131</v>
       </c>
       <c r="C149" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D149" t="s">
         <v>60</v>
+      </c>
+      <c r="E149" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -3150,13 +3156,10 @@
         <v>47131</v>
       </c>
       <c r="C150" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D150" t="s">
         <v>61</v>
-      </c>
-      <c r="E150" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -3167,7 +3170,7 @@
         <v>50363</v>
       </c>
       <c r="C151" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
@@ -3181,7 +3184,7 @@
         <v>50363</v>
       </c>
       <c r="C152" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D152" t="s">
         <v>9</v>
@@ -3189,13 +3192,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B153">
         <v>50363</v>
       </c>
       <c r="C153" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D153" t="s">
         <v>11</v>
@@ -3203,13 +3206,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B154">
         <v>50363</v>
       </c>
       <c r="C154" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D154" t="s">
         <v>18</v>
@@ -3217,13 +3220,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B155">
         <v>50363</v>
       </c>
       <c r="C155" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D155" t="s">
         <v>20</v>
@@ -3231,13 +3234,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B156">
         <v>50363</v>
       </c>
       <c r="C156" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D156" t="s">
         <v>60</v>
@@ -3245,13 +3248,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B157">
         <v>50363</v>
       </c>
       <c r="C157" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D157" t="s">
         <v>61</v>
@@ -3259,13 +3262,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B158">
         <v>50363</v>
       </c>
       <c r="C158" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D158" t="s">
         <v>62</v>
@@ -3273,13 +3276,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B159">
         <v>50363</v>
       </c>
       <c r="C159" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D159" t="s">
         <v>63</v>
@@ -3287,30 +3290,30 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B160">
         <v>50363</v>
       </c>
       <c r="C160" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D160" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B161">
         <v>50363</v>
       </c>
       <c r="C161" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D161" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -3321,10 +3324,10 @@
         <v>50363</v>
       </c>
       <c r="C162" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D162" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -3335,7 +3338,7 @@
         <v>50622</v>
       </c>
       <c r="C163" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
@@ -3349,7 +3352,7 @@
         <v>50622</v>
       </c>
       <c r="C164" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D164" t="s">
         <v>9</v>
@@ -3363,7 +3366,7 @@
         <v>50348</v>
       </c>
       <c r="C165" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D165" t="s">
         <v>7</v>
@@ -3374,13 +3377,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B166">
         <v>50348</v>
       </c>
       <c r="C166" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D166" t="s">
         <v>9</v>
@@ -3391,13 +3394,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B167">
         <v>50348</v>
       </c>
       <c r="C167" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D167" t="s">
         <v>11</v>
@@ -3408,13 +3411,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B168">
         <v>50348</v>
       </c>
       <c r="C168" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D168" t="s">
         <v>18</v>
@@ -3422,13 +3425,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B169">
         <v>50348</v>
       </c>
       <c r="C169" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D169" t="s">
         <v>20</v>
@@ -3436,13 +3439,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B170">
         <v>50348</v>
       </c>
       <c r="C170" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D170" t="s">
         <v>60</v>
@@ -3450,13 +3453,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B171">
         <v>50348</v>
       </c>
       <c r="C171" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D171" t="s">
         <v>61</v>
@@ -3470,7 +3473,7 @@
         <v>50733</v>
       </c>
       <c r="C172" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
@@ -3484,7 +3487,7 @@
         <v>50733</v>
       </c>
       <c r="C173" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D173" t="s">
         <v>9</v>
@@ -3498,7 +3501,7 @@
         <v>50733</v>
       </c>
       <c r="C174" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D174" t="s">
         <v>11</v>
@@ -3512,7 +3515,7 @@
         <v>50733</v>
       </c>
       <c r="C175" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D175" t="s">
         <v>18</v>
@@ -3526,7 +3529,7 @@
         <v>50733</v>
       </c>
       <c r="C176" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D176" t="s">
         <v>20</v>
@@ -3540,7 +3543,7 @@
         <v>50733</v>
       </c>
       <c r="C177" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D177" t="s">
         <v>60</v>
@@ -3554,7 +3557,7 @@
         <v>50733</v>
       </c>
       <c r="C178" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D178" t="s">
         <v>61</v>
@@ -3568,7 +3571,7 @@
         <v>50733</v>
       </c>
       <c r="C179" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D179" t="s">
         <v>62</v>
@@ -3576,13 +3579,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B180">
         <v>50650</v>
       </c>
       <c r="C180" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
@@ -3590,13 +3593,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B181">
         <v>50650</v>
       </c>
       <c r="C181" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D181" t="s">
         <v>9</v>
@@ -3604,13 +3607,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B182">
         <v>50690</v>
       </c>
       <c r="C182" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D182" t="s">
         <v>7</v>
@@ -3624,7 +3627,7 @@
         <v>50628</v>
       </c>
       <c r="C183" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
@@ -3632,13 +3635,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B184">
         <v>50628</v>
       </c>
       <c r="C184" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D184" t="s">
         <v>9</v>
@@ -3646,13 +3649,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B185">
         <v>50628</v>
       </c>
       <c r="C185" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D185" t="s">
         <v>11</v>
@@ -3660,13 +3663,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B186">
         <v>50628</v>
       </c>
       <c r="C186" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D186" t="s">
         <v>18</v>
@@ -3674,13 +3677,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B187">
         <v>50628</v>
       </c>
       <c r="C187" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D187" t="s">
         <v>20</v>
@@ -3694,7 +3697,7 @@
         <v>50628</v>
       </c>
       <c r="C188" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D188" t="s">
         <v>60</v>
@@ -3702,13 +3705,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B189">
         <v>50628</v>
       </c>
       <c r="C189" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D189" t="s">
         <v>61</v>
@@ -3719,13 +3722,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B190">
         <v>50628</v>
       </c>
       <c r="C190" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D190" t="s">
         <v>62</v>
@@ -3733,13 +3736,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B191">
         <v>50628</v>
       </c>
       <c r="C191" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D191" t="s">
         <v>63</v>
@@ -3750,16 +3753,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B192">
         <v>50628</v>
       </c>
       <c r="C192" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D192" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -3770,7 +3773,7 @@
         <v>50607</v>
       </c>
       <c r="C193" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D193" t="s">
         <v>7</v>
@@ -3784,7 +3787,7 @@
         <v>50607</v>
       </c>
       <c r="C194" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D194" t="s">
         <v>9</v>
@@ -3798,7 +3801,7 @@
         <v>50607</v>
       </c>
       <c r="C195" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D195" t="s">
         <v>11</v>
@@ -3812,7 +3815,7 @@
         <v>50607</v>
       </c>
       <c r="C196" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D196" t="s">
         <v>18</v>
@@ -3820,13 +3823,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B197">
         <v>50607</v>
       </c>
       <c r="C197" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D197" t="s">
         <v>20</v>
@@ -3843,7 +3846,7 @@
         <v>50607</v>
       </c>
       <c r="C198" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D198" t="s">
         <v>60</v>
@@ -3857,7 +3860,7 @@
         <v>50607</v>
       </c>
       <c r="C199" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D199" t="s">
         <v>61</v>
@@ -3871,7 +3874,7 @@
         <v>50618</v>
       </c>
       <c r="C200" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D200" t="s">
         <v>7</v>
@@ -3888,7 +3891,7 @@
         <v>50618</v>
       </c>
       <c r="C201" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D201" t="s">
         <v>9</v>
@@ -3902,7 +3905,7 @@
         <v>50618</v>
       </c>
       <c r="C202" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D202" t="s">
         <v>11</v>
@@ -3919,7 +3922,7 @@
         <v>50618</v>
       </c>
       <c r="C203" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D203" t="s">
         <v>18</v>
@@ -3933,7 +3936,7 @@
         <v>50618</v>
       </c>
       <c r="C204" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D204" t="s">
         <v>20</v>
@@ -3947,7 +3950,7 @@
         <v>50618</v>
       </c>
       <c r="C205" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D205" t="s">
         <v>60</v>
@@ -3961,7 +3964,7 @@
         <v>50618</v>
       </c>
       <c r="C206" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D206" t="s">
         <v>61</v>
@@ -3975,7 +3978,7 @@
         <v>50697</v>
       </c>
       <c r="C207" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D207" t="s">
         <v>7</v>
@@ -3989,7 +3992,7 @@
         <v>50730</v>
       </c>
       <c r="C208" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D208" t="s">
         <v>7</v>
@@ -4003,7 +4006,7 @@
         <v>50730</v>
       </c>
       <c r="C209" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D209" t="s">
         <v>9</v>
@@ -4017,7 +4020,7 @@
         <v>50730</v>
       </c>
       <c r="C210" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D210" t="s">
         <v>11</v>
@@ -4025,13 +4028,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B211">
         <v>50730</v>
       </c>
       <c r="C211" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D211" t="s">
         <v>18</v>
@@ -4045,7 +4048,7 @@
         <v>50730</v>
       </c>
       <c r="C212" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D212" t="s">
         <v>20</v>
@@ -4059,7 +4062,7 @@
         <v>50668</v>
       </c>
       <c r="C213" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D213" t="s">
         <v>7</v>
@@ -4073,7 +4076,7 @@
         <v>50668</v>
       </c>
       <c r="C214" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D214" t="s">
         <v>9</v>
@@ -4087,7 +4090,7 @@
         <v>50668</v>
       </c>
       <c r="C215" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D215" t="s">
         <v>11</v>
@@ -4101,7 +4104,7 @@
         <v>50625</v>
       </c>
       <c r="C216" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D216" t="s">
         <v>7</v>
@@ -4118,7 +4121,7 @@
         <v>50625</v>
       </c>
       <c r="C217" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D217" t="s">
         <v>9</v>
@@ -4135,7 +4138,7 @@
         <v>50737</v>
       </c>
       <c r="C218" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D218" t="s">
         <v>7</v>
@@ -4149,7 +4152,7 @@
         <v>50737</v>
       </c>
       <c r="C219" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D219" t="s">
         <v>9</v>
@@ -4163,7 +4166,7 @@
         <v>50736</v>
       </c>
       <c r="C220" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D220" t="s">
         <v>7</v>
@@ -4177,7 +4180,7 @@
         <v>50700</v>
       </c>
       <c r="C221" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D221" t="s">
         <v>7</v>
@@ -4185,13 +4188,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B222">
         <v>50698</v>
       </c>
       <c r="C222" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D222" t="s">
         <v>7</v>
@@ -4208,7 +4211,7 @@
         <v>50729</v>
       </c>
       <c r="C223" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D223" t="s">
         <v>7</v>
@@ -4222,7 +4225,7 @@
         <v>50729</v>
       </c>
       <c r="C224" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D224" t="s">
         <v>9</v>
@@ -4236,7 +4239,7 @@
         <v>50454</v>
       </c>
       <c r="C225" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D225" t="s">
         <v>55</v>
@@ -4250,7 +4253,7 @@
         <v>50454</v>
       </c>
       <c r="C226" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D226" t="s">
         <v>55</v>
@@ -4264,7 +4267,7 @@
         <v>50456</v>
       </c>
       <c r="C227" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D227" t="s">
         <v>55</v>
@@ -4272,13 +4275,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B228">
         <v>50457</v>
       </c>
       <c r="C228" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D228" t="s">
         <v>55</v>
@@ -4292,7 +4295,7 @@
         <v>50656</v>
       </c>
       <c r="C229" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D229" t="s">
         <v>7</v>
@@ -4306,7 +4309,7 @@
         <v>50656</v>
       </c>
       <c r="C230" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D230" t="s">
         <v>9</v>
@@ -4320,7 +4323,7 @@
         <v>50642</v>
       </c>
       <c r="C231" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D231" t="s">
         <v>7</v>
@@ -4334,7 +4337,7 @@
         <v>51882</v>
       </c>
       <c r="C232" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D232" t="s">
         <v>7</v>
@@ -4348,7 +4351,7 @@
         <v>50728</v>
       </c>
       <c r="C233" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D233" t="s">
         <v>7</v>
@@ -4356,13 +4359,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B234">
-        <v>50708</v>
+        <v>50645</v>
       </c>
       <c r="C234" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D234" t="s">
         <v>7</v>
@@ -4370,7 +4373,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B235">
         <v>50645</v>
@@ -4379,12 +4382,12 @@
         <v>127</v>
       </c>
       <c r="D235" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B236">
         <v>50645</v>
@@ -4393,57 +4396,57 @@
         <v>127</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B237">
-        <v>50645</v>
+        <v>49891</v>
       </c>
       <c r="C237" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D237" t="s">
-        <v>11</v>
+        <v>58</v>
+      </c>
+      <c r="E237" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B238">
-        <v>49891</v>
+        <v>47664</v>
       </c>
       <c r="C238" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D238" t="s">
-        <v>58</v>
-      </c>
-      <c r="E238" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B239">
-        <v>47664</v>
+        <v>40705</v>
       </c>
       <c r="C239" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D239" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B240">
         <v>40705</v>
@@ -4457,27 +4460,27 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B241">
-        <v>40705</v>
+        <v>50455</v>
       </c>
       <c r="C241" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D241" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B242">
-        <v>50455</v>
+        <v>50461</v>
       </c>
       <c r="C242" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D242" t="s">
         <v>55</v>
@@ -4485,21 +4488,24 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B243">
-        <v>50461</v>
+        <v>50702</v>
       </c>
       <c r="C243" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D243" t="s">
-        <v>55</v>
+        <v>7</v>
+      </c>
+      <c r="E243" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B244">
         <v>50702</v>
@@ -4508,35 +4514,32 @@
         <v>135</v>
       </c>
       <c r="D244" t="s">
-        <v>7</v>
-      </c>
-      <c r="E244" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B245">
-        <v>50702</v>
+        <v>50621</v>
       </c>
       <c r="C245" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D245" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B246">
-        <v>50621</v>
+        <v>50636</v>
       </c>
       <c r="C246" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D246" t="s">
         <v>7</v>
@@ -4544,7 +4547,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B247">
         <v>50636</v>
@@ -4553,12 +4556,12 @@
         <v>137</v>
       </c>
       <c r="D247" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B248">
         <v>50636</v>
@@ -4567,26 +4570,29 @@
         <v>137</v>
       </c>
       <c r="D248" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B249">
-        <v>50636</v>
+        <v>46051</v>
       </c>
       <c r="C249" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D249" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="E249" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B250">
         <v>46051</v>
@@ -4595,7 +4601,7 @@
         <v>138</v>
       </c>
       <c r="D250" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
@@ -4603,24 +4609,21 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B251">
-        <v>46051</v>
+        <v>50693</v>
       </c>
       <c r="C251" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D251" t="s">
-        <v>9</v>
-      </c>
-      <c r="E251" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B252">
         <v>50693</v>
@@ -4629,32 +4632,32 @@
         <v>139</v>
       </c>
       <c r="D252" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B253">
-        <v>50693</v>
+        <v>50738</v>
       </c>
       <c r="C253" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D253" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B254">
-        <v>50738</v>
+        <v>50688</v>
       </c>
       <c r="C254" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D254" t="s">
         <v>7</v>
@@ -4662,7 +4665,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B255">
         <v>50688</v>
@@ -4671,12 +4674,15 @@
         <v>141</v>
       </c>
       <c r="D255" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E255" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B256">
         <v>50688</v>
@@ -4685,15 +4691,12 @@
         <v>141</v>
       </c>
       <c r="D256" t="s">
-        <v>9</v>
-      </c>
-      <c r="E256" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B257">
         <v>50688</v>
@@ -4702,29 +4705,29 @@
         <v>141</v>
       </c>
       <c r="D257" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="E257" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B258">
-        <v>50688</v>
+        <v>50631</v>
       </c>
       <c r="C258" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D258" t="s">
-        <v>18</v>
-      </c>
-      <c r="E258" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B259">
         <v>50631</v>
@@ -4733,32 +4736,32 @@
         <v>142</v>
       </c>
       <c r="D259" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B260">
-        <v>50631</v>
+        <v>50627</v>
       </c>
       <c r="C260" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D260" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B261">
-        <v>50627</v>
+        <v>50735</v>
       </c>
       <c r="C261" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D261" t="s">
         <v>7</v>
@@ -4766,7 +4769,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B262">
         <v>50735</v>
@@ -4775,12 +4778,12 @@
         <v>144</v>
       </c>
       <c r="D262" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B263">
         <v>50735</v>
@@ -4789,12 +4792,12 @@
         <v>144</v>
       </c>
       <c r="D263" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B264">
         <v>50735</v>
@@ -4803,26 +4806,26 @@
         <v>144</v>
       </c>
       <c r="D264" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B265">
-        <v>50735</v>
+        <v>50365</v>
       </c>
       <c r="C265" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D265" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B266">
         <v>50365</v>
@@ -4831,12 +4834,12 @@
         <v>145</v>
       </c>
       <c r="D266" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B267">
         <v>50365</v>
@@ -4845,12 +4848,12 @@
         <v>145</v>
       </c>
       <c r="D267" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B268">
         <v>50365</v>
@@ -4859,12 +4862,12 @@
         <v>145</v>
       </c>
       <c r="D268" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B269">
         <v>50365</v>
@@ -4873,12 +4876,12 @@
         <v>145</v>
       </c>
       <c r="D269" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B270">
         <v>50365</v>
@@ -4887,26 +4890,26 @@
         <v>145</v>
       </c>
       <c r="D270" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B271">
-        <v>50365</v>
+        <v>50699</v>
       </c>
       <c r="C271" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D271" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B272">
         <v>50699</v>
@@ -4915,12 +4918,12 @@
         <v>146</v>
       </c>
       <c r="D272" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B273">
         <v>50699</v>
@@ -4929,12 +4932,12 @@
         <v>146</v>
       </c>
       <c r="D273" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B274">
         <v>50699</v>
@@ -4943,12 +4946,12 @@
         <v>146</v>
       </c>
       <c r="D274" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B275">
         <v>50699</v>
@@ -4957,12 +4960,12 @@
         <v>146</v>
       </c>
       <c r="D275" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B276">
         <v>50699</v>
@@ -4971,12 +4974,12 @@
         <v>146</v>
       </c>
       <c r="D276" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B277">
         <v>50699</v>
@@ -4985,12 +4988,12 @@
         <v>146</v>
       </c>
       <c r="D277" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B278">
         <v>50699</v>
@@ -4999,12 +5002,12 @@
         <v>146</v>
       </c>
       <c r="D278" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B279">
         <v>50699</v>
@@ -5013,12 +5016,12 @@
         <v>146</v>
       </c>
       <c r="D279" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B280">
         <v>50699</v>
@@ -5027,12 +5030,12 @@
         <v>146</v>
       </c>
       <c r="D280" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B281">
         <v>50699</v>
@@ -5041,12 +5044,12 @@
         <v>146</v>
       </c>
       <c r="D281" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B282">
         <v>50699</v>
@@ -5055,29 +5058,29 @@
         <v>146</v>
       </c>
       <c r="D282" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="E282" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B283">
-        <v>50699</v>
+        <v>50694</v>
       </c>
       <c r="C283" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D283" t="s">
-        <v>79</v>
-      </c>
-      <c r="E283" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B284">
         <v>50694</v>
@@ -5086,12 +5089,12 @@
         <v>147</v>
       </c>
       <c r="D284" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B285">
         <v>50694</v>
@@ -5100,26 +5103,29 @@
         <v>147</v>
       </c>
       <c r="D285" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B286">
-        <v>50694</v>
+        <v>50659</v>
       </c>
       <c r="C286" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D286" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="E286" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B287">
         <v>50659</v>
@@ -5128,15 +5134,12 @@
         <v>148</v>
       </c>
       <c r="D287" t="s">
-        <v>7</v>
-      </c>
-      <c r="E287" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B288">
         <v>50659</v>
@@ -5145,7 +5148,7 @@
         <v>148</v>
       </c>
       <c r="D288" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E288" t="s">
         <v>15</v>
@@ -5153,27 +5156,27 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B289">
-        <v>50659</v>
+        <v>51890</v>
       </c>
       <c r="C289" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D289" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B290">
-        <v>51890</v>
+        <v>50705</v>
       </c>
       <c r="C290" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D290" t="s">
         <v>7</v>
@@ -5181,7 +5184,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B291">
         <v>50705</v>
@@ -5190,21 +5193,24 @@
         <v>150</v>
       </c>
       <c r="D291" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B292">
-        <v>50705</v>
+        <v>52029</v>
       </c>
       <c r="C292" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D292" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E292" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -5218,10 +5224,7 @@
         <v>151</v>
       </c>
       <c r="D293" t="s">
-        <v>7</v>
-      </c>
-      <c r="E293" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -5235,7 +5238,7 @@
         <v>151</v>
       </c>
       <c r="D294" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -5249,12 +5252,12 @@
         <v>151</v>
       </c>
       <c r="D295" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B296">
         <v>52029</v>
@@ -5263,7 +5266,7 @@
         <v>151</v>
       </c>
       <c r="D296" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -5277,7 +5280,7 @@
         <v>151</v>
       </c>
       <c r="D297" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -5291,7 +5294,7 @@
         <v>151</v>
       </c>
       <c r="D298" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -5305,12 +5308,12 @@
         <v>151</v>
       </c>
       <c r="D299" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B300">
         <v>52029</v>
@@ -5319,7 +5322,7 @@
         <v>151</v>
       </c>
       <c r="D300" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
@@ -5333,7 +5336,7 @@
         <v>151</v>
       </c>
       <c r="D301" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
@@ -5347,7 +5350,7 @@
         <v>151</v>
       </c>
       <c r="D302" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
@@ -5361,12 +5364,12 @@
         <v>151</v>
       </c>
       <c r="D303" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B304">
         <v>52029</v>
@@ -5375,7 +5378,7 @@
         <v>151</v>
       </c>
       <c r="D304" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5389,7 +5392,7 @@
         <v>151</v>
       </c>
       <c r="D305" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5403,7 +5406,7 @@
         <v>151</v>
       </c>
       <c r="D306" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5417,12 +5420,12 @@
         <v>151</v>
       </c>
       <c r="D307" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B308">
         <v>52029</v>
@@ -5431,7 +5434,7 @@
         <v>151</v>
       </c>
       <c r="D308" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -5445,7 +5448,7 @@
         <v>151</v>
       </c>
       <c r="D309" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -5459,7 +5462,7 @@
         <v>151</v>
       </c>
       <c r="D310" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5473,12 +5476,12 @@
         <v>151</v>
       </c>
       <c r="D311" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B312">
         <v>52029</v>
@@ -5487,7 +5490,7 @@
         <v>151</v>
       </c>
       <c r="D312" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -5501,7 +5504,7 @@
         <v>151</v>
       </c>
       <c r="D313" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -5515,7 +5518,7 @@
         <v>151</v>
       </c>
       <c r="D314" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -5529,12 +5532,12 @@
         <v>151</v>
       </c>
       <c r="D315" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B316">
         <v>52029</v>
@@ -5543,12 +5546,12 @@
         <v>151</v>
       </c>
       <c r="D316" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B317">
         <v>52029</v>
@@ -5557,12 +5560,12 @@
         <v>151</v>
       </c>
       <c r="D317" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B318">
         <v>52029</v>
@@ -5571,12 +5574,12 @@
         <v>151</v>
       </c>
       <c r="D318" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B319">
         <v>52029</v>
@@ -5585,12 +5588,12 @@
         <v>151</v>
       </c>
       <c r="D319" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B320">
         <v>52029</v>
@@ -5599,7 +5602,7 @@
         <v>151</v>
       </c>
       <c r="D320" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
@@ -5613,7 +5616,7 @@
         <v>151</v>
       </c>
       <c r="D321" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -5627,7 +5630,7 @@
         <v>151</v>
       </c>
       <c r="D322" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -5641,12 +5644,12 @@
         <v>151</v>
       </c>
       <c r="D323" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B324">
         <v>52029</v>
@@ -5655,7 +5658,7 @@
         <v>151</v>
       </c>
       <c r="D324" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -5669,7 +5672,7 @@
         <v>151</v>
       </c>
       <c r="D325" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
@@ -5683,7 +5686,7 @@
         <v>151</v>
       </c>
       <c r="D326" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -5697,43 +5700,43 @@
         <v>151</v>
       </c>
       <c r="D327" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B328">
-        <v>52029</v>
+        <v>47188</v>
       </c>
       <c r="C328" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D328" t="s">
-        <v>161</v>
+        <v>7</v>
+      </c>
+      <c r="E328" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B329">
-        <v>47188</v>
+        <v>50664</v>
       </c>
       <c r="C329" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D329" t="s">
         <v>7</v>
-      </c>
-      <c r="E329" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B330">
         <v>50664</v>
@@ -5742,12 +5745,12 @@
         <v>163</v>
       </c>
       <c r="D330" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B331">
         <v>50664</v>
@@ -5756,12 +5759,12 @@
         <v>163</v>
       </c>
       <c r="D331" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B332">
         <v>50664</v>
@@ -5770,12 +5773,12 @@
         <v>163</v>
       </c>
       <c r="D332" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B333">
         <v>50664</v>
@@ -5784,12 +5787,12 @@
         <v>163</v>
       </c>
       <c r="D333" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B334">
         <v>50664</v>
@@ -5798,12 +5801,12 @@
         <v>163</v>
       </c>
       <c r="D334" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B335">
         <v>50664</v>
@@ -5812,12 +5815,12 @@
         <v>163</v>
       </c>
       <c r="D335" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B336">
         <v>50664</v>
@@ -5826,12 +5829,15 @@
         <v>163</v>
       </c>
       <c r="D336" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E336" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B337">
         <v>50664</v>
@@ -5840,15 +5846,12 @@
         <v>163</v>
       </c>
       <c r="D337" t="s">
-        <v>62</v>
-      </c>
-      <c r="E337" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B338">
         <v>50664</v>
@@ -5857,26 +5860,26 @@
         <v>163</v>
       </c>
       <c r="D338" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B339">
-        <v>50664</v>
+        <v>50629</v>
       </c>
       <c r="C339" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D339" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B340">
         <v>50629</v>
@@ -5885,21 +5888,24 @@
         <v>164</v>
       </c>
       <c r="D340" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E340" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B341">
-        <v>50629</v>
+        <v>50680</v>
       </c>
       <c r="C341" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D341" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E341" t="s">
         <v>15</v>
@@ -5907,7 +5913,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B342">
         <v>50680</v>
@@ -5916,29 +5922,26 @@
         <v>165</v>
       </c>
       <c r="D342" t="s">
-        <v>7</v>
-      </c>
-      <c r="E342" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B343">
-        <v>50680</v>
+        <v>50718</v>
       </c>
       <c r="C343" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D343" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B344">
         <v>50718</v>
@@ -5947,26 +5950,26 @@
         <v>166</v>
       </c>
       <c r="D344" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B345">
-        <v>50718</v>
+        <v>50734</v>
       </c>
       <c r="C345" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D345" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B346">
         <v>50734</v>
@@ -5975,12 +5978,12 @@
         <v>167</v>
       </c>
       <c r="D346" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B347">
         <v>50734</v>
@@ -5989,12 +5992,12 @@
         <v>167</v>
       </c>
       <c r="D347" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B348">
         <v>50734</v>
@@ -6003,12 +6006,12 @@
         <v>167</v>
       </c>
       <c r="D348" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B349">
         <v>50734</v>
@@ -6017,32 +6020,32 @@
         <v>167</v>
       </c>
       <c r="D349" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B350">
-        <v>50734</v>
+        <v>50722</v>
       </c>
       <c r="C350" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D350" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B351">
-        <v>50722</v>
+        <v>50717</v>
       </c>
       <c r="C351" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D351" t="s">
         <v>7</v>
@@ -6050,7 +6053,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B352">
         <v>50717</v>
@@ -6059,12 +6062,12 @@
         <v>169</v>
       </c>
       <c r="D352" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B353">
         <v>50717</v>
@@ -6073,26 +6076,26 @@
         <v>169</v>
       </c>
       <c r="D353" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B354">
-        <v>50717</v>
+        <v>50655</v>
       </c>
       <c r="C354" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D354" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B355">
         <v>50655</v>
@@ -6101,12 +6104,12 @@
         <v>170</v>
       </c>
       <c r="D355" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B356">
         <v>50655</v>
@@ -6115,12 +6118,12 @@
         <v>170</v>
       </c>
       <c r="D356" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B357">
         <v>50655</v>
@@ -6129,26 +6132,29 @@
         <v>170</v>
       </c>
       <c r="D357" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B358">
-        <v>50655</v>
+        <v>50624</v>
       </c>
       <c r="C358" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D358" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="E358" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B359">
         <v>50624</v>
@@ -6157,21 +6163,21 @@
         <v>171</v>
       </c>
       <c r="D359" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B360">
-        <v>50624</v>
+        <v>50654</v>
       </c>
       <c r="C360" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D360" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E360" t="s">
         <v>15</v>
@@ -6179,13 +6185,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B361">
-        <v>50654</v>
+        <v>50678</v>
       </c>
       <c r="C361" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D361" t="s">
         <v>7</v>
@@ -6196,24 +6202,21 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B362">
-        <v>50678</v>
+        <v>50719</v>
       </c>
       <c r="C362" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D362" t="s">
         <v>7</v>
-      </c>
-      <c r="E362" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B363">
         <v>50719</v>
@@ -6222,12 +6225,12 @@
         <v>174</v>
       </c>
       <c r="D363" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B364">
         <v>50719</v>
@@ -6236,12 +6239,12 @@
         <v>174</v>
       </c>
       <c r="D364" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B365">
         <v>50719</v>
@@ -6250,12 +6253,12 @@
         <v>174</v>
       </c>
       <c r="D365" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B366">
         <v>50719</v>
@@ -6264,40 +6267,40 @@
         <v>174</v>
       </c>
       <c r="D366" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B367">
-        <v>50719</v>
+        <v>49623</v>
       </c>
       <c r="C367" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D367" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B368">
-        <v>49623</v>
+        <v>50653</v>
       </c>
       <c r="C368" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D368" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B369">
         <v>50653</v>
@@ -6306,12 +6309,12 @@
         <v>177</v>
       </c>
       <c r="D369" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B370">
         <v>50653</v>
@@ -6320,12 +6323,15 @@
         <v>177</v>
       </c>
       <c r="D370" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E370" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B371">
         <v>50653</v>
@@ -6334,15 +6340,12 @@
         <v>177</v>
       </c>
       <c r="D371" t="s">
-        <v>11</v>
-      </c>
-      <c r="E371" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B372">
         <v>50653</v>
@@ -6351,21 +6354,21 @@
         <v>177</v>
       </c>
       <c r="D372" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B373">
-        <v>50653</v>
+        <v>47673</v>
       </c>
       <c r="C373" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D373" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
@@ -6373,32 +6376,32 @@
         <v>10</v>
       </c>
       <c r="B374">
-        <v>47673</v>
+        <v>50459</v>
       </c>
       <c r="C374" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D374" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B375">
-        <v>50459</v>
+        <v>50633</v>
       </c>
       <c r="C375" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D375" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B376">
         <v>50633</v>
@@ -6407,12 +6410,12 @@
         <v>180</v>
       </c>
       <c r="D376" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B377">
         <v>50633</v>
@@ -6421,12 +6424,12 @@
         <v>180</v>
       </c>
       <c r="D377" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B378">
         <v>50633</v>
@@ -6435,12 +6438,12 @@
         <v>180</v>
       </c>
       <c r="D378" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B379">
         <v>50633</v>
@@ -6449,12 +6452,12 @@
         <v>180</v>
       </c>
       <c r="D379" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B380">
         <v>50633</v>
@@ -6463,12 +6466,12 @@
         <v>180</v>
       </c>
       <c r="D380" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B381">
         <v>50633</v>
@@ -6477,12 +6480,12 @@
         <v>180</v>
       </c>
       <c r="D381" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B382">
         <v>50633</v>
@@ -6491,26 +6494,26 @@
         <v>180</v>
       </c>
       <c r="D382" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B383">
-        <v>50633</v>
+        <v>50364</v>
       </c>
       <c r="C383" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D383" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B384">
         <v>50364</v>
@@ -6519,43 +6522,43 @@
         <v>181</v>
       </c>
       <c r="D384" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B385">
-        <v>50364</v>
+        <v>50657</v>
       </c>
       <c r="C385" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D385" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E385" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B386">
-        <v>50657</v>
+        <v>47059</v>
       </c>
       <c r="C386" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D386" t="s">
         <v>7</v>
-      </c>
-      <c r="E386" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B387">
         <v>47059</v>
@@ -6564,12 +6567,15 @@
         <v>183</v>
       </c>
       <c r="D387" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E387" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B388">
         <v>47059</v>
@@ -6578,7 +6584,7 @@
         <v>183</v>
       </c>
       <c r="D388" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E388" t="s">
         <v>15</v>
@@ -6586,7 +6592,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B389">
         <v>47059</v>
@@ -6595,7 +6601,7 @@
         <v>183</v>
       </c>
       <c r="D389" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E389" t="s">
         <v>15</v>
@@ -6603,24 +6609,21 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B390">
-        <v>47059</v>
+        <v>37111</v>
       </c>
       <c r="C390" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D390" t="s">
-        <v>18</v>
-      </c>
-      <c r="E390" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B391">
         <v>37111</v>
@@ -6634,21 +6637,21 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B392">
-        <v>37111</v>
+        <v>50635</v>
       </c>
       <c r="C392" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D392" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B393">
         <v>50635</v>
@@ -6657,12 +6660,12 @@
         <v>185</v>
       </c>
       <c r="D393" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B394">
         <v>50635</v>
@@ -6671,32 +6674,32 @@
         <v>185</v>
       </c>
       <c r="D394" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B395">
-        <v>50635</v>
+        <v>50716</v>
       </c>
       <c r="C395" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D395" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B396">
-        <v>50716</v>
+        <v>50651</v>
       </c>
       <c r="C396" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D396" t="s">
         <v>7</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B397">
         <v>50651</v>
@@ -6713,12 +6716,12 @@
         <v>187</v>
       </c>
       <c r="D397" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B398">
         <v>50651</v>
@@ -6727,26 +6730,26 @@
         <v>187</v>
       </c>
       <c r="D398" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B399">
-        <v>50651</v>
+        <v>50706</v>
       </c>
       <c r="C399" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D399" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B400">
         <v>50706</v>
@@ -6755,26 +6758,26 @@
         <v>188</v>
       </c>
       <c r="D400" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B401">
-        <v>50706</v>
+        <v>50670</v>
       </c>
       <c r="C401" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D401" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B402">
         <v>50670</v>
@@ -6783,12 +6786,15 @@
         <v>189</v>
       </c>
       <c r="D402" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E402" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B403">
         <v>50670</v>
@@ -6797,15 +6803,12 @@
         <v>189</v>
       </c>
       <c r="D403" t="s">
-        <v>9</v>
-      </c>
-      <c r="E403" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B404">
         <v>50670</v>
@@ -6814,12 +6817,12 @@
         <v>189</v>
       </c>
       <c r="D404" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B405">
         <v>50670</v>
@@ -6828,12 +6831,12 @@
         <v>189</v>
       </c>
       <c r="D405" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B406">
         <v>50670</v>
@@ -6842,49 +6845,49 @@
         <v>189</v>
       </c>
       <c r="D406" t="s">
-        <v>20</v>
+        <v>60</v>
+      </c>
+      <c r="E406" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B407">
-        <v>50670</v>
+        <v>39728</v>
       </c>
       <c r="C407" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D407" t="s">
-        <v>60</v>
-      </c>
-      <c r="E407" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B408">
-        <v>39728</v>
+        <v>50711</v>
       </c>
       <c r="C408" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D408" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B409">
-        <v>50711</v>
+        <v>50703</v>
       </c>
       <c r="C409" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D409" t="s">
         <v>7</v>
@@ -6892,21 +6895,24 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B410">
-        <v>50703</v>
+        <v>46017</v>
       </c>
       <c r="C410" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D410" t="s">
-        <v>7</v>
+        <v>176</v>
+      </c>
+      <c r="E410" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B411">
         <v>46017</v>
@@ -6923,7 +6929,7 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B412">
         <v>46017</v>
@@ -6934,13 +6940,10 @@
       <c r="D412" t="s">
         <v>176</v>
       </c>
-      <c r="E412" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B413">
         <v>46017</v>
@@ -6974,27 +6977,27 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B415">
-        <v>46017</v>
+        <v>50714</v>
       </c>
       <c r="C415" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D415" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B416">
-        <v>50714</v>
+        <v>52028</v>
       </c>
       <c r="C416" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D416" t="s">
         <v>7</v>
@@ -7011,7 +7014,7 @@
         <v>195</v>
       </c>
       <c r="D417" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
@@ -7025,7 +7028,7 @@
         <v>195</v>
       </c>
       <c r="D418" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
@@ -7039,12 +7042,12 @@
         <v>195</v>
       </c>
       <c r="D419" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B420">
         <v>52028</v>
@@ -7053,7 +7056,10 @@
         <v>195</v>
       </c>
       <c r="D420" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="E420" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
@@ -7067,10 +7073,7 @@
         <v>195</v>
       </c>
       <c r="D421" t="s">
-        <v>20</v>
-      </c>
-      <c r="E421" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
@@ -7084,7 +7087,7 @@
         <v>195</v>
       </c>
       <c r="D422" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
@@ -7098,12 +7101,12 @@
         <v>195</v>
       </c>
       <c r="D423" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B424">
         <v>52028</v>
@@ -7112,12 +7115,12 @@
         <v>195</v>
       </c>
       <c r="D424" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B425">
         <v>52028</v>
@@ -7126,12 +7129,12 @@
         <v>195</v>
       </c>
       <c r="D425" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B426">
         <v>52028</v>
@@ -7140,12 +7143,12 @@
         <v>195</v>
       </c>
       <c r="D426" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B427">
         <v>52028</v>
@@ -7154,12 +7157,12 @@
         <v>195</v>
       </c>
       <c r="D427" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B428">
         <v>52028</v>
@@ -7168,12 +7171,15 @@
         <v>195</v>
       </c>
       <c r="D428" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="E428" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B429">
         <v>52028</v>
@@ -7182,12 +7188,12 @@
         <v>195</v>
       </c>
       <c r="D429" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B430">
         <v>52028</v>
@@ -7196,12 +7202,12 @@
         <v>195</v>
       </c>
       <c r="D430" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B431">
         <v>52028</v>
@@ -7210,12 +7216,12 @@
         <v>195</v>
       </c>
       <c r="D431" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B432">
         <v>52028</v>
@@ -7224,12 +7230,15 @@
         <v>195</v>
       </c>
       <c r="D432" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="E432" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B433">
         <v>52028</v>
@@ -7238,15 +7247,12 @@
         <v>195</v>
       </c>
       <c r="D433" t="s">
-        <v>84</v>
-      </c>
-      <c r="E433" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B434">
         <v>52028</v>
@@ -7255,12 +7261,12 @@
         <v>195</v>
       </c>
       <c r="D434" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B435">
         <v>52028</v>
@@ -7269,12 +7275,12 @@
         <v>195</v>
       </c>
       <c r="D435" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B436">
         <v>52028</v>
@@ -7283,12 +7289,12 @@
         <v>195</v>
       </c>
       <c r="D436" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B437">
         <v>52028</v>
@@ -7297,15 +7303,12 @@
         <v>195</v>
       </c>
       <c r="D437" t="s">
-        <v>88</v>
-      </c>
-      <c r="E437" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B438">
         <v>52028</v>
@@ -7314,12 +7317,12 @@
         <v>195</v>
       </c>
       <c r="D438" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B439">
         <v>52028</v>
@@ -7328,12 +7331,12 @@
         <v>195</v>
       </c>
       <c r="D439" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B440">
         <v>52028</v>
@@ -7342,12 +7345,12 @@
         <v>195</v>
       </c>
       <c r="D440" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B441">
         <v>52028</v>
@@ -7356,12 +7359,12 @@
         <v>195</v>
       </c>
       <c r="D441" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B442">
         <v>52028</v>
@@ -7370,12 +7373,12 @@
         <v>195</v>
       </c>
       <c r="D442" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B443">
         <v>52028</v>
@@ -7384,12 +7387,12 @@
         <v>195</v>
       </c>
       <c r="D443" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B444">
         <v>52028</v>
@@ -7398,12 +7401,12 @@
         <v>195</v>
       </c>
       <c r="D444" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B445">
         <v>52028</v>
@@ -7412,12 +7415,12 @@
         <v>195</v>
       </c>
       <c r="D445" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B446">
         <v>52028</v>
@@ -7426,12 +7429,12 @@
         <v>195</v>
       </c>
       <c r="D446" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B447">
         <v>52028</v>
@@ -7440,12 +7443,12 @@
         <v>195</v>
       </c>
       <c r="D447" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B448">
         <v>52028</v>
@@ -7454,12 +7457,12 @@
         <v>195</v>
       </c>
       <c r="D448" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B449">
         <v>52028</v>
@@ -7468,12 +7471,12 @@
         <v>195</v>
       </c>
       <c r="D449" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B450">
         <v>52028</v>
@@ -7482,12 +7485,12 @@
         <v>195</v>
       </c>
       <c r="D450" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B451">
         <v>52028</v>
@@ -7496,12 +7499,12 @@
         <v>195</v>
       </c>
       <c r="D451" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B452">
         <v>52028</v>
@@ -7510,12 +7513,12 @@
         <v>195</v>
       </c>
       <c r="D452" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B453">
         <v>52028</v>
@@ -7524,12 +7527,12 @@
         <v>195</v>
       </c>
       <c r="D453" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B454">
         <v>52028</v>
@@ -7538,7 +7541,7 @@
         <v>195</v>
       </c>
       <c r="D454" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
@@ -7552,7 +7555,7 @@
         <v>195</v>
       </c>
       <c r="D455" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
@@ -7566,7 +7569,7 @@
         <v>195</v>
       </c>
       <c r="D456" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
@@ -7580,26 +7583,26 @@
         <v>195</v>
       </c>
       <c r="D457" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B458">
-        <v>52028</v>
+        <v>47545</v>
       </c>
       <c r="C458" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D458" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B459">
         <v>47545</v>
@@ -7608,12 +7611,12 @@
         <v>202</v>
       </c>
       <c r="D459" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B460">
         <v>47545</v>
@@ -7622,12 +7625,12 @@
         <v>202</v>
       </c>
       <c r="D460" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B461">
         <v>47545</v>
@@ -7636,12 +7639,12 @@
         <v>202</v>
       </c>
       <c r="D461" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B462">
         <v>47545</v>
@@ -7650,12 +7653,12 @@
         <v>202</v>
       </c>
       <c r="D462" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B463">
         <v>47545</v>
@@ -7664,21 +7667,21 @@
         <v>202</v>
       </c>
       <c r="D463" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B464">
-        <v>47545</v>
+        <v>51946</v>
       </c>
       <c r="C464" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D464" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.3">
@@ -7686,18 +7689,21 @@
         <v>12</v>
       </c>
       <c r="B465">
-        <v>51946</v>
+        <v>50343</v>
       </c>
       <c r="C465" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D465" t="s">
         <v>7</v>
+      </c>
+      <c r="E465" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B466">
         <v>50343</v>
@@ -7706,7 +7712,7 @@
         <v>204</v>
       </c>
       <c r="D466" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E466" t="s">
         <v>15</v>
@@ -7714,7 +7720,7 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B467">
         <v>50343</v>
@@ -7723,15 +7729,12 @@
         <v>204</v>
       </c>
       <c r="D467" t="s">
-        <v>9</v>
-      </c>
-      <c r="E467" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B468">
         <v>50343</v>
@@ -7740,12 +7743,12 @@
         <v>204</v>
       </c>
       <c r="D468" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B469">
         <v>50343</v>
@@ -7754,26 +7757,26 @@
         <v>204</v>
       </c>
       <c r="D469" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B470">
-        <v>50343</v>
+        <v>50677</v>
       </c>
       <c r="C470" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D470" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B471">
         <v>50677</v>
@@ -7782,24 +7785,10 @@
         <v>205</v>
       </c>
       <c r="D471" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E471" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A472" t="s">
-        <v>10</v>
-      </c>
-      <c r="B472">
-        <v>50677</v>
-      </c>
-      <c r="C472" t="s">
-        <v>205</v>
-      </c>
-      <c r="D472" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6B1786-7F42-44FF-B3DD-E7CC67DDA901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D6AE33-B731-4B3C-A726-9CB47F561551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2241,7 +2241,7 @@
         <v>10</v>
       </c>
       <c r="B87">
-        <v>50415</v>
+        <v>50709</v>
       </c>
       <c r="C87" t="s">
         <v>73</v>

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86D645A-5046-4F43-AE46-12BEEA2403D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708390AD-2678-4E4B-ACDA-91244950962D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="203">
   <si>
     <t>player</t>
   </si>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="E234" sqref="E234"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="E410" sqref="E410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2535,6 +2535,9 @@
       <c r="D107" t="s">
         <v>79</v>
       </c>
+      <c r="E107" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
@@ -4389,6 +4392,9 @@
       <c r="D236" t="s">
         <v>7</v>
       </c>
+      <c r="E236" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
@@ -6221,6 +6227,9 @@
       <c r="D363" t="s">
         <v>11</v>
       </c>
+      <c r="E363" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
@@ -6885,6 +6894,9 @@
       </c>
       <c r="D409" t="s">
         <v>7</v>
+      </c>
+      <c r="E409" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708390AD-2678-4E4B-ACDA-91244950962D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C579D30-B99A-4660-B8CE-79827A0BEDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="203">
   <si>
     <t>player</t>
   </si>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="E410" sqref="E410"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1811,6 +1811,9 @@
       <c r="D57" t="s">
         <v>59</v>
       </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C579D30-B99A-4660-B8CE-79827A0BEDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374A3ED6-CAC6-4029-BD12-0BF0EB49F181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="203">
   <si>
     <t>player</t>
   </si>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1755,6 +1755,9 @@
       <c r="D53" t="s">
         <v>7</v>
       </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -1985,6 +1988,9 @@
       <c r="D69" t="s">
         <v>18</v>
       </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
@@ -2100,6 +2106,9 @@
       <c r="D77" t="s">
         <v>7</v>
       </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -2381,6 +2390,9 @@
       <c r="D96" t="s">
         <v>18</v>
       </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
@@ -2612,7 +2624,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -2625,8 +2637,11 @@
       <c r="D113" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -2640,7 +2655,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -2654,7 +2669,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -2668,7 +2683,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>48</v>
       </c>
@@ -2682,7 +2697,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>48</v>
       </c>
@@ -2696,7 +2711,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>40</v>
       </c>
@@ -2710,7 +2725,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>40</v>
       </c>
@@ -2724,7 +2739,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>40</v>
       </c>
@@ -2738,7 +2753,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>40</v>
       </c>
@@ -2752,7 +2767,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>35</v>
       </c>
@@ -2766,7 +2781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>37</v>
       </c>
@@ -2780,7 +2795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>39</v>
       </c>
@@ -2794,7 +2809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>40</v>
       </c>
@@ -2808,7 +2823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -2822,7 +2837,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>52</v>
       </c>
@@ -4381,6 +4396,9 @@
       <c r="D235" t="s">
         <v>7</v>
       </c>
+      <c r="E235" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
@@ -4558,6 +4576,9 @@
       <c r="D247" t="s">
         <v>9</v>
       </c>
+      <c r="E247" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
@@ -4793,6 +4814,9 @@
       </c>
       <c r="D263" t="s">
         <v>7</v>
+      </c>
+      <c r="E263" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374A3ED6-CAC6-4029-BD12-0BF0EB49F181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46D538C-D423-4FC4-89DA-D0DBD40D1C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="203">
   <si>
     <t>player</t>
   </si>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4267,6 +4267,9 @@
       <c r="D226" t="s">
         <v>7</v>
       </c>
+      <c r="E226" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
@@ -5684,6 +5687,9 @@
       <c r="D324" t="s">
         <v>157</v>
       </c>
+      <c r="E324" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
@@ -6270,6 +6276,9 @@
       </c>
       <c r="D364" t="s">
         <v>18</v>
+      </c>
+      <c r="E364" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46D538C-D423-4FC4-89DA-D0DBD40D1C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5363267B-03BF-4501-9581-012FF97791FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="203">
   <si>
     <t>player</t>
   </si>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="E227" sqref="E227"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="O289" sqref="O289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2151,9 +2151,6 @@
       <c r="D80" t="s">
         <v>7</v>
       </c>
-      <c r="E80" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
@@ -2168,6 +2165,9 @@
       <c r="D81" t="s">
         <v>9</v>
       </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -5194,6 +5194,9 @@
       <c r="D289" t="s">
         <v>7</v>
       </c>
+      <c r="E289" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
@@ -5253,6 +5256,9 @@
       <c r="D293" t="s">
         <v>9</v>
       </c>
+      <c r="E293" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
@@ -6813,6 +6819,9 @@
       <c r="D401" t="s">
         <v>7</v>
       </c>
+      <c r="E401" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
@@ -7786,6 +7795,9 @@
       </c>
       <c r="D468" t="s">
         <v>20</v>
+      </c>
+      <c r="E468" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232EAA12-B67F-49B8-95F4-1DEA04770755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35D8513-C97D-4EAA-B89C-60B90944BBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="208">
   <si>
     <t>player</t>
   </si>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="E196" sqref="E196"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1739,6 +1739,9 @@
       <c r="D51" t="s">
         <v>11</v>
       </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -3126,6 +3129,9 @@
       <c r="D146" t="s">
         <v>9</v>
       </c>
+      <c r="E146" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
@@ -4887,6 +4893,9 @@
       <c r="D266" t="s">
         <v>11</v>
       </c>
+      <c r="E266" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
@@ -5450,7 +5459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>16</v>
       </c>
@@ -5464,7 +5473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>16</v>
       </c>
@@ -5478,7 +5487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>16</v>
       </c>
@@ -5492,7 +5501,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>16</v>
       </c>
@@ -5506,7 +5515,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>47</v>
       </c>
@@ -5519,8 +5528,11 @@
       <c r="D309" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E309" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>47</v>
       </c>
@@ -5534,7 +5546,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>47</v>
       </c>
@@ -5548,7 +5560,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>47</v>
       </c>
@@ -5562,7 +5574,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>46</v>
       </c>
@@ -5576,7 +5588,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>46</v>
       </c>
@@ -5590,7 +5602,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>46</v>
       </c>
@@ -5604,7 +5616,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>46</v>
       </c>
@@ -5618,7 +5630,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>26</v>
       </c>
@@ -5632,7 +5644,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>26</v>
       </c>
@@ -5646,7 +5658,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>26</v>
       </c>
@@ -5660,7 +5672,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>26</v>
       </c>
@@ -5931,6 +5943,9 @@
       <c r="D338" t="s">
         <v>7</v>
       </c>
+      <c r="E338" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
@@ -7180,6 +7195,9 @@
       </c>
       <c r="D423" t="s">
         <v>7</v>
+      </c>
+      <c r="E423" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35D8513-C97D-4EAA-B89C-60B90944BBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC07BAF2-D431-4A80-9104-4E690DC1A490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="208">
   <si>
     <t>player</t>
   </si>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="E267" sqref="E267"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="E215" sqref="E215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1086,6 +1086,9 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2596,6 +2599,9 @@
       <c r="D109" t="s">
         <v>79</v>
       </c>
+      <c r="E109" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
@@ -2857,6 +2863,9 @@
       <c r="D127" t="s">
         <v>9</v>
       </c>
+      <c r="E127" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
@@ -4123,6 +4132,9 @@
       <c r="D214" t="s">
         <v>63</v>
       </c>
+      <c r="E214" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
@@ -4862,6 +4874,9 @@
       <c r="D264" t="s">
         <v>7</v>
       </c>
+      <c r="E264" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
@@ -6445,6 +6460,9 @@
       </c>
       <c r="D372" t="s">
         <v>7</v>
+      </c>
+      <c r="E372" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/players_priorities.xlsx
+++ b/data/players_priorities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Divide-BiS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC07BAF2-D431-4A80-9104-4E690DC1A490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA756D44-B8CC-4793-B4AE-598A8FD3F89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="210">
   <si>
     <t>player</t>
   </si>
@@ -64,12 +64,12 @@
     <t>Aldriana's Gloves of Secrecy</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>Sharpélune</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Nomys</t>
   </si>
   <si>
@@ -112,6 +112,9 @@
     <t>Amulet of the Silent Eulogy</t>
   </si>
   <si>
+    <t>Opachad</t>
+  </si>
+  <si>
     <t>Betula</t>
   </si>
   <si>
@@ -127,36 +130,36 @@
     <t>Reputation</t>
   </si>
   <si>
+    <t>Pamage</t>
+  </si>
+  <si>
+    <t>Ashen Band of Endless Destruction</t>
+  </si>
+  <si>
+    <t>Darnä</t>
+  </si>
+  <si>
+    <t>Äspï</t>
+  </si>
+  <si>
+    <t>Euphemià</t>
+  </si>
+  <si>
     <t>Nìmen</t>
   </si>
   <si>
-    <t>Ashen Band of Endless Destruction</t>
-  </si>
-  <si>
-    <t>Euphemià</t>
-  </si>
-  <si>
-    <t>Äspï</t>
-  </si>
-  <si>
-    <t>Darnä</t>
-  </si>
-  <si>
-    <t>Pamage</t>
-  </si>
-  <si>
     <t>Lupusreginä</t>
   </si>
   <si>
     <t>Ashen Band of Endless Might</t>
   </si>
   <si>
+    <t>Ashen Band of Endless Vengeance</t>
+  </si>
+  <si>
     <t>Drikato</t>
   </si>
   <si>
-    <t>Ashen Band of Endless Vengeance</t>
-  </si>
-  <si>
     <t>Dimoncello</t>
   </si>
   <si>
@@ -166,12 +169,12 @@
     <t>Aurallia</t>
   </si>
   <si>
+    <t>Ashen Band of Endless Wisdom</t>
+  </si>
+  <si>
     <t>Seina</t>
   </si>
   <si>
-    <t>Ashen Band of Endless Wisdom</t>
-  </si>
-  <si>
     <t>Zàpp</t>
   </si>
   <si>
@@ -376,6 +379,9 @@
     <t>Heaven's Fall, Kryss of a Thousand Lies</t>
   </si>
   <si>
+    <t>Herkuml War Token</t>
+  </si>
+  <si>
     <t>Holiday's Grace</t>
   </si>
   <si>
@@ -508,6 +514,18 @@
     <t>36</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>Reign of the Unliving</t>
   </si>
   <si>
@@ -608,18 +626,6 @@
   </si>
   <si>
     <t>Vanquisher's Mark of Sanctification</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
   </si>
   <si>
     <t>41</t>
@@ -1006,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E488"/>
+  <dimension ref="A1:E505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="E215" sqref="E215"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="E400" sqref="E400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1087,12 +1093,12 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>50675</v>
@@ -1104,7 +1110,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1177,7 +1183,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1236,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1244,158 +1250,161 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>50619</v>
+        <v>50658</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>50619</v>
+      </c>
+      <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="B17">
-        <v>50404</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18">
-        <v>50398</v>
+        <v>50619</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B19">
-        <v>50398</v>
+        <v>50404</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>50398</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>50398</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>50398</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>50398</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B24">
-        <v>52572</v>
+        <v>50398</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25">
-        <v>50402</v>
+        <v>50398</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B26">
-        <v>50402</v>
+        <v>52572</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>50402</v>
@@ -1404,12 +1413,12 @@
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B28">
         <v>50402</v>
@@ -1418,12 +1427,12 @@
         <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>50402</v>
@@ -1432,12 +1441,12 @@
         <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>50402</v>
@@ -1446,12 +1455,12 @@
         <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>50402</v>
@@ -1460,12 +1469,12 @@
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>50402</v>
@@ -1474,12 +1483,12 @@
         <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>50402</v>
@@ -1488,12 +1497,12 @@
         <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B34">
         <v>50402</v>
@@ -1502,12 +1511,12 @@
         <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B35">
         <v>50402</v>
@@ -1516,12 +1525,12 @@
         <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B36">
         <v>50402</v>
@@ -1530,7 +1539,7 @@
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1538,46 +1547,46 @@
         <v>48</v>
       </c>
       <c r="B37">
-        <v>50400</v>
+        <v>50402</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B38">
-        <v>50400</v>
+        <v>50402</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B39">
-        <v>50400</v>
+        <v>50402</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>50400</v>
@@ -1586,12 +1595,12 @@
         <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B41">
         <v>50400</v>
@@ -1600,12 +1609,12 @@
         <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B42">
         <v>50400</v>
@@ -1614,164 +1623,158 @@
         <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B43">
-        <v>50707</v>
+        <v>50400</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>50707</v>
+        <v>50400</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B45">
-        <v>50707</v>
+        <v>50400</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B46">
         <v>50707</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>50707</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B48">
         <v>50707</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B49">
-        <v>50604</v>
+        <v>50707</v>
       </c>
       <c r="C49" t="s">
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B50">
-        <v>50604</v>
+        <v>50707</v>
       </c>
       <c r="C50" t="s">
         <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B51">
-        <v>50604</v>
+        <v>50707</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <v>50604</v>
+      </c>
+      <c r="C52" t="s">
         <v>53</v>
       </c>
-      <c r="B52">
-        <v>50691</v>
-      </c>
-      <c r="C52" t="s">
-        <v>54</v>
-      </c>
       <c r="D52" t="s">
         <v>7</v>
-      </c>
-      <c r="E52" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B53">
-        <v>50691</v>
+        <v>50604</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
@@ -1779,288 +1782,291 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B54">
-        <v>50682</v>
+        <v>50604</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B55">
-        <v>50458</v>
+        <v>50604</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>50458</v>
+        <v>50691</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B57">
-        <v>50692</v>
+        <v>50691</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B58">
-        <v>49894</v>
+        <v>50682</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B59">
-        <v>50724</v>
+        <v>50458</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B60">
-        <v>50724</v>
+        <v>50458</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B61">
-        <v>50724</v>
+        <v>50458</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B62">
-        <v>50724</v>
+        <v>50692</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B63">
-        <v>50724</v>
+        <v>49894</v>
       </c>
       <c r="C63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" t="s">
         <v>61</v>
       </c>
-      <c r="D63" t="s">
-        <v>20</v>
+      <c r="E63" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B64">
         <v>50724</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B65">
         <v>50724</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D65" t="s">
-        <v>62</v>
-      </c>
-      <c r="E65" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B66">
         <v>50724</v>
       </c>
       <c r="C66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D66" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B67">
         <v>50724</v>
       </c>
       <c r="C67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B68">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B69">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B70">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>63</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B71">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B72">
-        <v>50639</v>
+        <v>50724</v>
       </c>
       <c r="C72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" t="s">
         <v>65</v>
-      </c>
-      <c r="D72" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B73">
-        <v>50687</v>
+        <v>50639</v>
       </c>
       <c r="C73" t="s">
         <v>66</v>
@@ -2068,16 +2074,13 @@
       <c r="D73" t="s">
         <v>7</v>
       </c>
-      <c r="E73" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B74">
-        <v>50687</v>
+        <v>50639</v>
       </c>
       <c r="C74" t="s">
         <v>66</v>
@@ -2088,100 +2091,103 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B75">
-        <v>50732</v>
+        <v>50639</v>
       </c>
       <c r="C75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B76">
-        <v>50732</v>
+        <v>50639</v>
       </c>
       <c r="C76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B77">
-        <v>50732</v>
+        <v>50639</v>
       </c>
       <c r="C77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B78">
-        <v>50732</v>
+        <v>50687</v>
       </c>
       <c r="C78" t="s">
         <v>67</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B79">
-        <v>50732</v>
+        <v>50687</v>
       </c>
       <c r="C79" t="s">
         <v>67</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B80">
-        <v>50672</v>
+        <v>50687</v>
       </c>
       <c r="C80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B81">
-        <v>50609</v>
+        <v>50732</v>
       </c>
       <c r="C81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
@@ -2189,13 +2195,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B82">
-        <v>50609</v>
+        <v>50732</v>
       </c>
       <c r="C82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
@@ -2203,61 +2209,61 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B83">
-        <v>50660</v>
+        <v>50732</v>
       </c>
       <c r="C83" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B84">
-        <v>50660</v>
+        <v>50732</v>
       </c>
       <c r="C84" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B85">
-        <v>50611</v>
+        <v>50732</v>
       </c>
       <c r="C85" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B86">
-        <v>50611</v>
+        <v>50672</v>
       </c>
       <c r="C86" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2265,10 +2271,10 @@
         <v>25</v>
       </c>
       <c r="B87">
-        <v>50630</v>
+        <v>50609</v>
       </c>
       <c r="C87" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -2279,10 +2285,10 @@
         <v>27</v>
       </c>
       <c r="B88">
-        <v>50630</v>
+        <v>50609</v>
       </c>
       <c r="C88" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -2290,13 +2296,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B89">
-        <v>50640</v>
+        <v>50660</v>
       </c>
       <c r="C89" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -2304,47 +2310,44 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B90">
-        <v>50709</v>
+        <v>50660</v>
       </c>
       <c r="C90" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B91">
-        <v>50616</v>
+        <v>50611</v>
       </c>
       <c r="C91" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
-      </c>
-      <c r="E91" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B92">
-        <v>50616</v>
+        <v>50611</v>
       </c>
       <c r="C92" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -2352,123 +2355,120 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B93">
-        <v>50616</v>
+        <v>50630</v>
       </c>
       <c r="C93" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B94">
-        <v>50616</v>
+        <v>50630</v>
       </c>
       <c r="C94" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B95">
-        <v>47146</v>
+        <v>50640</v>
       </c>
       <c r="C95" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
-      </c>
-      <c r="E95" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B96">
-        <v>50620</v>
+        <v>50709</v>
       </c>
       <c r="C96" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B97">
-        <v>50620</v>
+        <v>50616</v>
       </c>
       <c r="C97" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B98">
-        <v>50620</v>
+        <v>50616</v>
       </c>
       <c r="C98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B99">
-        <v>50620</v>
+        <v>50616</v>
       </c>
       <c r="C99" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B100">
-        <v>52030</v>
+        <v>50616</v>
       </c>
       <c r="C100" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -2476,802 +2476,799 @@
         <v>23</v>
       </c>
       <c r="B101">
-        <v>52030</v>
+        <v>47146</v>
       </c>
       <c r="C101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B102">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C102" t="s">
         <v>78</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B103">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C103" t="s">
         <v>78</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B104">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C104" t="s">
         <v>78</v>
       </c>
       <c r="D104" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B105">
-        <v>52030</v>
+        <v>50620</v>
       </c>
       <c r="C105" t="s">
         <v>78</v>
       </c>
       <c r="D105" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B106">
         <v>52030</v>
       </c>
       <c r="C106" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D106" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B107">
         <v>52030</v>
       </c>
       <c r="C107" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D107" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B108">
         <v>52030</v>
       </c>
       <c r="C108" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D108" t="s">
-        <v>64</v>
-      </c>
-      <c r="E108" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B109">
         <v>52030</v>
       </c>
       <c r="C109" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D109" t="s">
-        <v>79</v>
-      </c>
-      <c r="E109" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B110">
         <v>52030</v>
       </c>
       <c r="C110" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D110" t="s">
-        <v>80</v>
-      </c>
-      <c r="E110" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B111">
         <v>52030</v>
       </c>
       <c r="C111" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D111" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B112">
         <v>52030</v>
       </c>
       <c r="C112" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D112" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B113">
         <v>52030</v>
       </c>
       <c r="C113" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D113" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B114">
         <v>52030</v>
       </c>
       <c r="C114" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D114" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B115">
         <v>52030</v>
       </c>
       <c r="C115" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D115" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="E115" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B116">
         <v>52030</v>
       </c>
       <c r="C116" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D116" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B117">
         <v>52030</v>
       </c>
       <c r="C117" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D117" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B118">
         <v>52030</v>
       </c>
       <c r="C118" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D118" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B119">
         <v>52030</v>
       </c>
       <c r="C119" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D119" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B120">
         <v>52030</v>
       </c>
       <c r="C120" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D120" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="E120" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B121">
         <v>52030</v>
       </c>
       <c r="C121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D121" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B122">
         <v>52030</v>
       </c>
       <c r="C122" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D122" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="E122" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B123">
         <v>52030</v>
       </c>
       <c r="C123" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D123" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B124">
         <v>52030</v>
       </c>
       <c r="C124" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D124" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B125">
         <v>52030</v>
       </c>
       <c r="C125" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D125" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B126">
-        <v>50684</v>
+        <v>52030</v>
       </c>
       <c r="C126" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B127">
-        <v>50684</v>
+        <v>52030</v>
       </c>
       <c r="C127" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B128">
-        <v>50684</v>
+        <v>52030</v>
       </c>
       <c r="C128" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B129">
-        <v>50684</v>
+        <v>52030</v>
       </c>
       <c r="C129" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D129" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B130">
-        <v>50684</v>
+        <v>52030</v>
       </c>
       <c r="C130" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D130" t="s">
-        <v>20</v>
-      </c>
-      <c r="E130" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B131">
-        <v>50356</v>
+        <v>52030</v>
       </c>
       <c r="C131" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D131" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B132">
-        <v>50356</v>
+        <v>50684</v>
       </c>
       <c r="C132" t="s">
         <v>97</v>
       </c>
       <c r="D132" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B133">
-        <v>50613</v>
+        <v>50684</v>
       </c>
       <c r="C133" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D133" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B134">
-        <v>50613</v>
+        <v>50684</v>
       </c>
       <c r="C134" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B135">
-        <v>50613</v>
+        <v>50684</v>
       </c>
       <c r="C135" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D135" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B136">
-        <v>50613</v>
+        <v>50684</v>
       </c>
       <c r="C136" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D136" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="E136" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B137">
-        <v>50613</v>
+        <v>50356</v>
       </c>
       <c r="C137" t="s">
         <v>98</v>
       </c>
       <c r="D137" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B138">
-        <v>50613</v>
+        <v>50356</v>
       </c>
       <c r="C138" t="s">
         <v>98</v>
       </c>
       <c r="D138" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B139">
         <v>50613</v>
       </c>
       <c r="C139" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D139" t="s">
-        <v>62</v>
+        <v>7</v>
+      </c>
+      <c r="E139" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B140">
         <v>50613</v>
       </c>
       <c r="C140" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D140" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B141">
         <v>50613</v>
       </c>
       <c r="C141" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D141" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B142">
-        <v>50721</v>
+        <v>50613</v>
       </c>
       <c r="C142" t="s">
         <v>99</v>
       </c>
       <c r="D142" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B143">
-        <v>50721</v>
+        <v>50613</v>
       </c>
       <c r="C143" t="s">
         <v>99</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B144">
-        <v>50603</v>
+        <v>50613</v>
       </c>
       <c r="C144" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B145">
-        <v>50686</v>
+        <v>50613</v>
       </c>
       <c r="C145" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D145" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B146">
-        <v>50686</v>
+        <v>50613</v>
       </c>
       <c r="C146" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
-      </c>
-      <c r="E146" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B147">
-        <v>50686</v>
+        <v>50613</v>
       </c>
       <c r="C147" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B148">
-        <v>47131</v>
+        <v>50613</v>
       </c>
       <c r="C148" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D148" t="s">
-        <v>7</v>
-      </c>
-      <c r="E148" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B149">
-        <v>47131</v>
+        <v>50721</v>
       </c>
       <c r="C149" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
-      </c>
-      <c r="E149" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B150">
-        <v>47131</v>
+        <v>50721</v>
       </c>
       <c r="C150" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D150" t="s">
-        <v>11</v>
-      </c>
-      <c r="E150" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B151">
-        <v>47131</v>
+        <v>50603</v>
       </c>
       <c r="C151" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D151" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B152">
-        <v>47131</v>
+        <v>50686</v>
       </c>
       <c r="C152" t="s">
         <v>102</v>
       </c>
       <c r="D152" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B153">
-        <v>47131</v>
+        <v>50686</v>
       </c>
       <c r="C153" t="s">
         <v>102</v>
       </c>
       <c r="D153" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B154">
-        <v>47131</v>
+        <v>50686</v>
       </c>
       <c r="C154" t="s">
         <v>102</v>
       </c>
       <c r="D154" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B155">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C155" t="s">
         <v>103</v>
@@ -3279,13 +3276,16 @@
       <c r="D155" t="s">
         <v>7</v>
       </c>
+      <c r="E155" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B156">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C156" t="s">
         <v>103</v>
@@ -3293,13 +3293,16 @@
       <c r="D156" t="s">
         <v>9</v>
       </c>
+      <c r="E156" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B157">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C157" t="s">
         <v>103</v>
@@ -3307,13 +3310,16 @@
       <c r="D157" t="s">
         <v>11</v>
       </c>
+      <c r="E157" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B158">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C158" t="s">
         <v>103</v>
@@ -3327,7 +3333,7 @@
         <v>46</v>
       </c>
       <c r="B159">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C159" t="s">
         <v>103</v>
@@ -3338,10 +3344,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B160">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C160" t="s">
         <v>103</v>
@@ -3349,246 +3355,240 @@
       <c r="D160" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B161">
-        <v>50363</v>
+        <v>47131</v>
       </c>
       <c r="C161" t="s">
         <v>103</v>
       </c>
       <c r="D161" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B162">
         <v>50363</v>
       </c>
       <c r="C162" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D162" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B163">
         <v>50363</v>
       </c>
       <c r="C163" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D163" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B164">
         <v>50363</v>
       </c>
       <c r="C164" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D164" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B165">
         <v>50363</v>
       </c>
       <c r="C165" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D165" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B166">
         <v>50363</v>
       </c>
       <c r="C166" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D166" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B167">
         <v>50363</v>
       </c>
       <c r="C167" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D167" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B168">
-        <v>50622</v>
+        <v>50363</v>
       </c>
       <c r="C168" t="s">
         <v>104</v>
       </c>
       <c r="D168" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B169">
-        <v>50622</v>
+        <v>50363</v>
       </c>
       <c r="C169" t="s">
         <v>104</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B170">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C170" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D170" t="s">
-        <v>7</v>
-      </c>
-      <c r="E170" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B171">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C171" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
-      </c>
-      <c r="E171" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B172">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C172" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D172" t="s">
-        <v>11</v>
-      </c>
-      <c r="E172" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B173">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C173" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D173" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B174">
-        <v>50348</v>
+        <v>50363</v>
       </c>
       <c r="C174" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D174" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B175">
-        <v>50348</v>
+        <v>50622</v>
       </c>
       <c r="C175" t="s">
         <v>105</v>
       </c>
       <c r="D175" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B176">
-        <v>50348</v>
+        <v>50622</v>
       </c>
       <c r="C176" t="s">
         <v>105</v>
       </c>
       <c r="D176" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B177">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C177" t="s">
         <v>106</v>
@@ -3596,13 +3596,16 @@
       <c r="D177" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B178">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C178" t="s">
         <v>106</v>
@@ -3610,13 +3613,16 @@
       <c r="D178" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B179">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C179" t="s">
         <v>106</v>
@@ -3624,13 +3630,16 @@
       <c r="D179" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B180">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C180" t="s">
         <v>106</v>
@@ -3639,12 +3648,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B181">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C181" t="s">
         <v>106</v>
@@ -3653,12 +3662,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B182">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C182" t="s">
         <v>106</v>
@@ -3667,428 +3676,419 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B183">
-        <v>50733</v>
+        <v>50348</v>
       </c>
       <c r="C183" t="s">
         <v>106</v>
       </c>
       <c r="D183" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B184">
         <v>50733</v>
       </c>
       <c r="C184" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D184" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B185">
         <v>50733</v>
       </c>
       <c r="C185" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D185" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B186">
-        <v>50650</v>
+        <v>50733</v>
       </c>
       <c r="C186" t="s">
         <v>107</v>
       </c>
       <c r="D186" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B187">
-        <v>50650</v>
+        <v>50733</v>
       </c>
       <c r="C187" t="s">
         <v>107</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B188">
-        <v>50690</v>
+        <v>50733</v>
       </c>
       <c r="C188" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D188" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B189">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C189" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D189" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B190">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C190" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B191">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C191" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D191" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B192">
-        <v>50628</v>
+        <v>50733</v>
       </c>
       <c r="C192" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D192" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B193">
-        <v>50628</v>
+        <v>50650</v>
       </c>
       <c r="C193" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D193" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B194">
-        <v>50628</v>
+        <v>50650</v>
       </c>
       <c r="C194" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D194" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B195">
-        <v>50628</v>
+        <v>50690</v>
       </c>
       <c r="C195" t="s">
         <v>109</v>
       </c>
       <c r="D195" t="s">
-        <v>62</v>
-      </c>
-      <c r="E195" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B196">
         <v>50628</v>
       </c>
       <c r="C196" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D196" t="s">
-        <v>63</v>
-      </c>
-      <c r="E196" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B197">
         <v>50628</v>
       </c>
       <c r="C197" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D197" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B198">
         <v>50628</v>
       </c>
       <c r="C198" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D198" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B199">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C199" t="s">
         <v>110</v>
       </c>
       <c r="D199" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B200">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C200" t="s">
         <v>110</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B201">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C201" t="s">
         <v>110</v>
       </c>
       <c r="D201" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B202">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C202" t="s">
         <v>110</v>
       </c>
       <c r="D202" t="s">
-        <v>18</v>
+        <v>63</v>
+      </c>
+      <c r="E202" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B203">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C203" t="s">
         <v>110</v>
       </c>
       <c r="D203" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E203" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B204">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C204" t="s">
         <v>110</v>
       </c>
       <c r="D204" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B205">
-        <v>50607</v>
+        <v>50628</v>
       </c>
       <c r="C205" t="s">
         <v>110</v>
       </c>
       <c r="D205" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B206">
         <v>50607</v>
       </c>
       <c r="C206" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D206" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B207">
-        <v>50618</v>
+        <v>50607</v>
       </c>
       <c r="C207" t="s">
         <v>111</v>
       </c>
       <c r="D207" t="s">
-        <v>7</v>
-      </c>
-      <c r="E207" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B208">
-        <v>50618</v>
+        <v>50607</v>
       </c>
       <c r="C208" t="s">
         <v>111</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B209">
-        <v>50618</v>
+        <v>50607</v>
       </c>
       <c r="C209" t="s">
         <v>111</v>
       </c>
       <c r="D209" t="s">
-        <v>11</v>
-      </c>
-      <c r="E209" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B210">
-        <v>50618</v>
+        <v>50607</v>
       </c>
       <c r="C210" t="s">
         <v>111</v>
       </c>
       <c r="D210" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E210" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B211">
-        <v>50618</v>
+        <v>50607</v>
       </c>
       <c r="C211" t="s">
         <v>111</v>
       </c>
       <c r="D211" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -4096,153 +4096,162 @@
         <v>17</v>
       </c>
       <c r="B212">
-        <v>50618</v>
+        <v>50607</v>
       </c>
       <c r="C212" t="s">
         <v>111</v>
       </c>
       <c r="D212" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B213">
-        <v>50618</v>
+        <v>50607</v>
       </c>
       <c r="C213" t="s">
         <v>111</v>
       </c>
       <c r="D213" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B214">
         <v>50618</v>
       </c>
       <c r="C214" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D214" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="E214" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B215">
-        <v>50697</v>
+        <v>50618</v>
       </c>
       <c r="C215" t="s">
         <v>112</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B216">
-        <v>50697</v>
+        <v>50618</v>
       </c>
       <c r="C216" t="s">
         <v>112</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E216" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B217">
-        <v>50730</v>
+        <v>50618</v>
       </c>
       <c r="C217" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D217" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="E217" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B218">
-        <v>50730</v>
+        <v>50618</v>
       </c>
       <c r="C218" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B219">
-        <v>50730</v>
+        <v>50618</v>
       </c>
       <c r="C219" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B220">
-        <v>50730</v>
+        <v>50618</v>
       </c>
       <c r="C220" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D220" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B221">
-        <v>50730</v>
+        <v>50618</v>
       </c>
       <c r="C221" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D221" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="E221" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B222">
-        <v>50668</v>
+        <v>50697</v>
       </c>
       <c r="C222" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D222" t="s">
         <v>7</v>
@@ -4250,238 +4259,232 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B223">
-        <v>50668</v>
+        <v>50697</v>
       </c>
       <c r="C223" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D223" t="s">
         <v>9</v>
       </c>
-      <c r="E223" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B224">
-        <v>50668</v>
+        <v>50730</v>
       </c>
       <c r="C224" t="s">
         <v>114</v>
       </c>
       <c r="D224" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B225">
-        <v>50625</v>
+        <v>50730</v>
       </c>
       <c r="C225" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D225" t="s">
-        <v>7</v>
-      </c>
-      <c r="E225" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B226">
-        <v>50625</v>
+        <v>50730</v>
       </c>
       <c r="C226" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
-      </c>
-      <c r="E226" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B227">
-        <v>50737</v>
+        <v>50730</v>
       </c>
       <c r="C227" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D227" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B228">
-        <v>50737</v>
+        <v>50730</v>
       </c>
       <c r="C228" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B229">
-        <v>50737</v>
+        <v>50668</v>
       </c>
       <c r="C229" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D229" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B230">
-        <v>50736</v>
+        <v>50668</v>
       </c>
       <c r="C230" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D230" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E230" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B231">
-        <v>50700</v>
+        <v>50668</v>
       </c>
       <c r="C231" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D231" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B232">
-        <v>50698</v>
+        <v>50625</v>
       </c>
       <c r="C232" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D232" t="s">
         <v>7</v>
       </c>
       <c r="E232" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B233">
-        <v>50729</v>
+        <v>50625</v>
       </c>
       <c r="C233" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D233" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E233" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B234">
-        <v>50729</v>
+        <v>50737</v>
       </c>
       <c r="C234" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D234" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B235">
-        <v>50454</v>
+        <v>50737</v>
       </c>
       <c r="C235" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D235" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B236">
-        <v>50454</v>
+        <v>50737</v>
       </c>
       <c r="C236" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D236" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B237">
-        <v>50456</v>
+        <v>50737</v>
       </c>
       <c r="C237" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D237" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B238">
-        <v>50656</v>
+        <v>50736</v>
       </c>
       <c r="C238" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D238" t="s">
         <v>7</v>
@@ -4489,913 +4492,904 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B239">
-        <v>50656</v>
+        <v>50355</v>
       </c>
       <c r="C239" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B240">
-        <v>50656</v>
+        <v>50700</v>
       </c>
       <c r="C240" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D240" t="s">
-        <v>11</v>
-      </c>
-      <c r="E240" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B241">
-        <v>50642</v>
+        <v>50698</v>
       </c>
       <c r="C241" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D241" t="s">
         <v>7</v>
+      </c>
+      <c r="E241" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B242">
-        <v>51882</v>
+        <v>50729</v>
       </c>
       <c r="C242" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D242" t="s">
         <v>7</v>
       </c>
       <c r="E242" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B243">
-        <v>50728</v>
+        <v>50729</v>
       </c>
       <c r="C243" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D243" t="s">
-        <v>7</v>
-      </c>
-      <c r="E243" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B244">
-        <v>50645</v>
+        <v>50454</v>
       </c>
       <c r="C244" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D244" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B245">
-        <v>50645</v>
+        <v>50454</v>
       </c>
       <c r="C245" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D245" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B246">
-        <v>50645</v>
+        <v>50456</v>
       </c>
       <c r="C246" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D246" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B247">
-        <v>49891</v>
+        <v>50656</v>
       </c>
       <c r="C247" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D247" t="s">
-        <v>60</v>
-      </c>
-      <c r="E247" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B248">
-        <v>47664</v>
+        <v>50656</v>
       </c>
       <c r="C248" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D248" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B249">
-        <v>40705</v>
+        <v>50656</v>
       </c>
       <c r="C249" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D249" t="s">
-        <v>132</v>
+        <v>11</v>
+      </c>
+      <c r="E249" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B250">
-        <v>40705</v>
+        <v>50642</v>
       </c>
       <c r="C250" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D250" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B251">
-        <v>50455</v>
+        <v>51882</v>
       </c>
       <c r="C251" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D251" t="s">
-        <v>57</v>
+        <v>7</v>
+      </c>
+      <c r="E251" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B252">
-        <v>50461</v>
+        <v>50728</v>
       </c>
       <c r="C252" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D252" t="s">
-        <v>57</v>
+        <v>7</v>
+      </c>
+      <c r="E252" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B253">
-        <v>50702</v>
+        <v>50645</v>
       </c>
       <c r="C253" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D253" t="s">
         <v>7</v>
-      </c>
-      <c r="E253" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B254">
-        <v>50702</v>
+        <v>50645</v>
       </c>
       <c r="C254" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D254" t="s">
         <v>9</v>
       </c>
-      <c r="E254" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B255">
-        <v>50621</v>
+        <v>50645</v>
       </c>
       <c r="C255" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D255" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B256">
-        <v>50636</v>
+        <v>49891</v>
       </c>
       <c r="C256" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D256" t="s">
-        <v>7</v>
+        <v>61</v>
+      </c>
+      <c r="E256" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B257">
-        <v>50636</v>
+        <v>47664</v>
       </c>
       <c r="C257" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D257" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B258">
-        <v>50636</v>
+        <v>40705</v>
       </c>
       <c r="C258" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D258" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B259">
-        <v>46051</v>
+        <v>40705</v>
       </c>
       <c r="C259" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D259" t="s">
-        <v>7</v>
-      </c>
-      <c r="E259" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B260">
-        <v>46051</v>
+        <v>50455</v>
       </c>
       <c r="C260" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D260" t="s">
-        <v>9</v>
-      </c>
-      <c r="E260" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B261">
-        <v>50693</v>
+        <v>50461</v>
       </c>
       <c r="C261" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D261" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B262">
-        <v>50693</v>
+        <v>50702</v>
       </c>
       <c r="C262" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D262" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E262" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B263">
-        <v>50738</v>
+        <v>50702</v>
       </c>
       <c r="C263" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D263" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E263" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B264">
-        <v>50688</v>
+        <v>50621</v>
       </c>
       <c r="C264" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D264" t="s">
         <v>7</v>
-      </c>
-      <c r="E264" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B265">
-        <v>50688</v>
+        <v>50636</v>
       </c>
       <c r="C265" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D265" t="s">
-        <v>9</v>
-      </c>
-      <c r="E265" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B266">
-        <v>50688</v>
+        <v>50636</v>
       </c>
       <c r="C266" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D266" t="s">
-        <v>11</v>
-      </c>
-      <c r="E266" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B267">
-        <v>50688</v>
+        <v>50636</v>
       </c>
       <c r="C267" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D267" t="s">
-        <v>18</v>
-      </c>
-      <c r="E267" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B268">
-        <v>50631</v>
+        <v>46051</v>
       </c>
       <c r="C268" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D268" t="s">
         <v>7</v>
+      </c>
+      <c r="E268" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B269">
-        <v>50631</v>
+        <v>46051</v>
       </c>
       <c r="C269" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D269" t="s">
         <v>9</v>
       </c>
+      <c r="E269" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B270">
-        <v>50627</v>
+        <v>50693</v>
       </c>
       <c r="C270" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D270" t="s">
         <v>7</v>
-      </c>
-      <c r="E270" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B271">
-        <v>50735</v>
+        <v>50693</v>
       </c>
       <c r="C271" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D271" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B272">
-        <v>50735</v>
+        <v>50738</v>
       </c>
       <c r="C272" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D272" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B273">
-        <v>50735</v>
+        <v>50688</v>
       </c>
       <c r="C273" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D273" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="E273" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B274">
-        <v>50735</v>
+        <v>50688</v>
       </c>
       <c r="C274" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D274" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="E274" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B275">
-        <v>50365</v>
+        <v>50688</v>
       </c>
       <c r="C275" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D275" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E275" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B276">
-        <v>50365</v>
+        <v>50688</v>
       </c>
       <c r="C276" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D276" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="E276" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B277">
-        <v>50365</v>
+        <v>50631</v>
       </c>
       <c r="C277" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D277" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B278">
-        <v>50365</v>
+        <v>50631</v>
       </c>
       <c r="C278" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D278" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B279">
-        <v>50365</v>
+        <v>50627</v>
       </c>
       <c r="C279" t="s">
         <v>145</v>
       </c>
       <c r="D279" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="E279" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B280">
-        <v>50365</v>
+        <v>50735</v>
       </c>
       <c r="C280" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D280" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B281">
-        <v>50699</v>
+        <v>50735</v>
       </c>
       <c r="C281" t="s">
         <v>146</v>
       </c>
       <c r="D281" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B282">
-        <v>50699</v>
+        <v>50735</v>
       </c>
       <c r="C282" t="s">
         <v>146</v>
       </c>
       <c r="D282" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B283">
-        <v>50699</v>
+        <v>50735</v>
       </c>
       <c r="C283" t="s">
         <v>146</v>
       </c>
       <c r="D283" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B284">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C284" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D284" t="s">
-        <v>18</v>
-      </c>
-      <c r="E284" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B285">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C285" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D285" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B286">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C286" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D286" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B287">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C287" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D287" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B288">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C288" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D288" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B289">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C289" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D289" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B290">
-        <v>50699</v>
+        <v>50365</v>
       </c>
       <c r="C290" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D290" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B291">
         <v>50699</v>
       </c>
       <c r="C291" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D291" t="s">
-        <v>80</v>
-      </c>
-      <c r="E291" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B292">
         <v>50699</v>
       </c>
       <c r="C292" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D292" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B293">
-        <v>50694</v>
+        <v>50699</v>
       </c>
       <c r="C293" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D293" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B294">
-        <v>50694</v>
+        <v>50699</v>
       </c>
       <c r="C294" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D294" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="E294" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B295">
-        <v>50659</v>
+        <v>50699</v>
       </c>
       <c r="C295" t="s">
         <v>148</v>
       </c>
       <c r="D295" t="s">
-        <v>7</v>
-      </c>
-      <c r="E295" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B296">
-        <v>50659</v>
+        <v>50699</v>
       </c>
       <c r="C296" t="s">
         <v>148</v>
       </c>
       <c r="D296" t="s">
-        <v>9</v>
-      </c>
-      <c r="E296" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B297">
-        <v>50659</v>
+        <v>50699</v>
       </c>
       <c r="C297" t="s">
         <v>148</v>
       </c>
       <c r="D297" t="s">
-        <v>11</v>
-      </c>
-      <c r="E297" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B298">
-        <v>51890</v>
+        <v>50699</v>
       </c>
       <c r="C298" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D298" t="s">
-        <v>7</v>
-      </c>
-      <c r="E298" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B299">
-        <v>50705</v>
+        <v>50699</v>
       </c>
       <c r="C299" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D299" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -5403,995 +5397,1007 @@
         <v>27</v>
       </c>
       <c r="B300">
-        <v>50705</v>
+        <v>50699</v>
       </c>
       <c r="C300" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D300" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B301">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C301" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D301" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="E301" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B302">
-        <v>52029</v>
+        <v>50699</v>
       </c>
       <c r="C302" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D302" t="s">
-        <v>9</v>
-      </c>
-      <c r="E302" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B303">
-        <v>52029</v>
+        <v>50694</v>
       </c>
       <c r="C303" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D303" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B304">
-        <v>52029</v>
+        <v>50694</v>
       </c>
       <c r="C304" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D304" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B305">
-        <v>52029</v>
+        <v>50659</v>
       </c>
       <c r="C305" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D305" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="E305" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B306">
-        <v>52029</v>
+        <v>50659</v>
       </c>
       <c r="C306" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D306" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="E306" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B307">
-        <v>52029</v>
+        <v>50659</v>
       </c>
       <c r="C307" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D307" t="s">
-        <v>62</v>
+        <v>11</v>
+      </c>
+      <c r="E307" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B308">
-        <v>52029</v>
+        <v>51890</v>
       </c>
       <c r="C308" t="s">
         <v>151</v>
       </c>
       <c r="D308" t="s">
-        <v>63</v>
+        <v>7</v>
+      </c>
+      <c r="E308" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B309">
-        <v>52029</v>
+        <v>50705</v>
       </c>
       <c r="C309" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D309" t="s">
-        <v>64</v>
-      </c>
-      <c r="E309" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B310">
-        <v>52029</v>
+        <v>50705</v>
       </c>
       <c r="C310" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D310" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B311">
         <v>52029</v>
       </c>
       <c r="C311" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D311" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="E311" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B312">
         <v>52029</v>
       </c>
       <c r="C312" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D312" t="s">
-        <v>81</v>
+        <v>9</v>
+      </c>
+      <c r="E312" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B313">
         <v>52029</v>
       </c>
       <c r="C313" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D313" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B314">
         <v>52029</v>
       </c>
       <c r="C314" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D314" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B315">
         <v>52029</v>
       </c>
       <c r="C315" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D315" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B316">
         <v>52029</v>
       </c>
       <c r="C316" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D316" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B317">
         <v>52029</v>
       </c>
       <c r="C317" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D317" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B318">
         <v>52029</v>
       </c>
       <c r="C318" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D318" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B319">
         <v>52029</v>
       </c>
       <c r="C319" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D319" t="s">
-        <v>88</v>
+        <v>65</v>
+      </c>
+      <c r="E319" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B320">
         <v>52029</v>
       </c>
       <c r="C320" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D320" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B321">
         <v>52029</v>
       </c>
       <c r="C321" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D321" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B322">
         <v>52029</v>
       </c>
       <c r="C322" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D322" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B323">
         <v>52029</v>
       </c>
       <c r="C323" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D323" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B324">
         <v>52029</v>
       </c>
       <c r="C324" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D324" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B325">
         <v>52029</v>
       </c>
       <c r="C325" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D325" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B326">
         <v>52029</v>
       </c>
       <c r="C326" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D326" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B327">
         <v>52029</v>
       </c>
       <c r="C327" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D327" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B328">
         <v>52029</v>
       </c>
       <c r="C328" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D328" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B329">
         <v>52029</v>
       </c>
       <c r="C329" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D329" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B330">
         <v>52029</v>
       </c>
       <c r="C330" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D330" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B331">
         <v>52029</v>
       </c>
       <c r="C331" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D331" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B332">
         <v>52029</v>
       </c>
       <c r="C332" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D332" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B333">
         <v>52029</v>
       </c>
       <c r="C333" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D333" t="s">
-        <v>158</v>
-      </c>
-      <c r="E333" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B334">
         <v>52029</v>
       </c>
       <c r="C334" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D334" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B335">
         <v>52029</v>
       </c>
       <c r="C335" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D335" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B336">
         <v>52029</v>
       </c>
       <c r="C336" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D336" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B337">
-        <v>47188</v>
+        <v>52029</v>
       </c>
       <c r="C337" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D337" t="s">
-        <v>7</v>
-      </c>
-      <c r="E337" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B338">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C338" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D338" t="s">
-        <v>7</v>
-      </c>
-      <c r="E338" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B339">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C339" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D339" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B340">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C340" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D340" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B341">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C341" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D341" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B342">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C342" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D342" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B343">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C343" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D343" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="E343" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B344">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C344" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D344" t="s">
-        <v>62</v>
-      </c>
-      <c r="E344" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B345">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C345" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D345" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B346">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C346" t="s">
+        <v>153</v>
+      </c>
+      <c r="D346" t="s">
         <v>163</v>
-      </c>
-      <c r="D346" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B347">
-        <v>50664</v>
+        <v>52029</v>
       </c>
       <c r="C347" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D347" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B348">
-        <v>50629</v>
+        <v>52029</v>
       </c>
       <c r="C348" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D348" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B349">
-        <v>50629</v>
+        <v>52029</v>
       </c>
       <c r="C349" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D349" t="s">
-        <v>9</v>
-      </c>
-      <c r="E349" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B350">
-        <v>50629</v>
+        <v>52029</v>
       </c>
       <c r="C350" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D350" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B351">
-        <v>50680</v>
+        <v>47188</v>
       </c>
       <c r="C351" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D351" t="s">
         <v>7</v>
       </c>
       <c r="E351" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B352">
-        <v>50680</v>
+        <v>50664</v>
       </c>
       <c r="C352" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D352" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E352" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B353">
-        <v>50718</v>
+        <v>50664</v>
       </c>
       <c r="C353" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D353" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B354">
-        <v>50718</v>
+        <v>50664</v>
       </c>
       <c r="C354" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D354" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B355">
-        <v>50734</v>
+        <v>50664</v>
       </c>
       <c r="C355" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D355" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B356">
-        <v>50734</v>
+        <v>50664</v>
       </c>
       <c r="C356" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D356" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B357">
-        <v>50734</v>
+        <v>50664</v>
       </c>
       <c r="C357" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D357" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="E357" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B358">
-        <v>50734</v>
+        <v>50664</v>
       </c>
       <c r="C358" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D358" t="s">
-        <v>18</v>
+        <v>63</v>
+      </c>
+      <c r="E358" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B359">
-        <v>50722</v>
+        <v>50664</v>
       </c>
       <c r="C359" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D359" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B360">
-        <v>50717</v>
+        <v>50664</v>
       </c>
       <c r="C360" t="s">
         <v>169</v>
       </c>
       <c r="D360" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B361">
-        <v>50717</v>
+        <v>50664</v>
       </c>
       <c r="C361" t="s">
         <v>169</v>
       </c>
       <c r="D361" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B362">
-        <v>50717</v>
+        <v>50629</v>
       </c>
       <c r="C362" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D362" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B363">
-        <v>50655</v>
+        <v>50629</v>
       </c>
       <c r="C363" t="s">
         <v>170</v>
       </c>
       <c r="D363" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E363" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B364">
-        <v>50655</v>
+        <v>50629</v>
       </c>
       <c r="C364" t="s">
         <v>170</v>
       </c>
       <c r="D364" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B365">
-        <v>50655</v>
+        <v>50680</v>
       </c>
       <c r="C365" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D365" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="E365" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B366">
-        <v>50655</v>
+        <v>50680</v>
       </c>
       <c r="C366" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D366" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B367">
-        <v>50624</v>
+        <v>50718</v>
       </c>
       <c r="C367" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D367" t="s">
         <v>7</v>
-      </c>
-      <c r="E367" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B368">
-        <v>50624</v>
+        <v>50718</v>
       </c>
       <c r="C368" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D368" t="s">
         <v>9</v>
@@ -6399,84 +6405,72 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B369">
-        <v>50654</v>
+        <v>50734</v>
       </c>
       <c r="C369" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D369" t="s">
         <v>7</v>
-      </c>
-      <c r="E369" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B370">
-        <v>50654</v>
+        <v>50734</v>
       </c>
       <c r="C370" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D370" t="s">
         <v>9</v>
       </c>
-      <c r="E370" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B371">
-        <v>50678</v>
+        <v>50734</v>
       </c>
       <c r="C371" t="s">
         <v>173</v>
       </c>
       <c r="D371" t="s">
-        <v>7</v>
-      </c>
-      <c r="E371" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B372">
-        <v>50719</v>
+        <v>50734</v>
       </c>
       <c r="C372" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D372" t="s">
-        <v>7</v>
-      </c>
-      <c r="E372" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B373">
-        <v>50719</v>
+        <v>50734</v>
       </c>
       <c r="C373" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D373" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
@@ -6484,72 +6478,66 @@
         <v>40</v>
       </c>
       <c r="B374">
-        <v>50719</v>
+        <v>50722</v>
       </c>
       <c r="C374" t="s">
         <v>174</v>
       </c>
       <c r="D374" t="s">
-        <v>11</v>
-      </c>
-      <c r="E374" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B375">
-        <v>50719</v>
+        <v>50717</v>
       </c>
       <c r="C375" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D375" t="s">
-        <v>18</v>
-      </c>
-      <c r="E375" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B376">
-        <v>50719</v>
+        <v>50717</v>
       </c>
       <c r="C376" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D376" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B377">
-        <v>49623</v>
+        <v>50717</v>
       </c>
       <c r="C377" t="s">
         <v>175</v>
       </c>
       <c r="D377" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B378">
-        <v>50653</v>
+        <v>50655</v>
       </c>
       <c r="C378" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D378" t="s">
         <v>7</v>
@@ -6557,47 +6545,41 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B379">
-        <v>50653</v>
+        <v>50655</v>
       </c>
       <c r="C379" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D379" t="s">
         <v>9</v>
       </c>
-      <c r="E379" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B380">
-        <v>50653</v>
+        <v>50655</v>
       </c>
       <c r="C380" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D380" t="s">
         <v>11</v>
       </c>
-      <c r="E380" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B381">
-        <v>50653</v>
+        <v>50655</v>
       </c>
       <c r="C381" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D381" t="s">
         <v>18</v>
@@ -6605,470 +6587,491 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B382">
-        <v>50653</v>
+        <v>50624</v>
       </c>
       <c r="C382" t="s">
         <v>177</v>
       </c>
       <c r="D382" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="E382" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B383">
-        <v>50653</v>
+        <v>50624</v>
       </c>
       <c r="C383" t="s">
         <v>177</v>
       </c>
       <c r="D383" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B384">
-        <v>47673</v>
+        <v>50654</v>
       </c>
       <c r="C384" t="s">
         <v>178</v>
       </c>
       <c r="D384" t="s">
-        <v>130</v>
+        <v>7</v>
+      </c>
+      <c r="E384" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B385">
-        <v>50459</v>
+        <v>50654</v>
       </c>
       <c r="C385" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D385" t="s">
-        <v>57</v>
+        <v>9</v>
+      </c>
+      <c r="E385" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B386">
-        <v>50633</v>
+        <v>50678</v>
       </c>
       <c r="C386" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D386" t="s">
         <v>7</v>
+      </c>
+      <c r="E386" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B387">
-        <v>50633</v>
+        <v>50719</v>
       </c>
       <c r="C387" t="s">
         <v>180</v>
       </c>
       <c r="D387" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E387" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B388">
-        <v>50633</v>
+        <v>50719</v>
       </c>
       <c r="C388" t="s">
         <v>180</v>
       </c>
       <c r="D388" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B389">
-        <v>50633</v>
+        <v>50719</v>
       </c>
       <c r="C389" t="s">
         <v>180</v>
       </c>
       <c r="D389" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E389" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B390">
-        <v>50633</v>
+        <v>50719</v>
       </c>
       <c r="C390" t="s">
         <v>180</v>
       </c>
       <c r="D390" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E390" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B391">
-        <v>50633</v>
+        <v>50719</v>
       </c>
       <c r="C391" t="s">
         <v>180</v>
       </c>
       <c r="D391" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B392">
-        <v>50633</v>
+        <v>49623</v>
       </c>
       <c r="C392" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D392" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B393">
-        <v>50633</v>
+        <v>50653</v>
       </c>
       <c r="C393" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D393" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B394">
-        <v>50633</v>
+        <v>50653</v>
       </c>
       <c r="C394" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D394" t="s">
-        <v>64</v>
+        <v>9</v>
+      </c>
+      <c r="E394" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="B395">
-        <v>50364</v>
+        <v>50653</v>
       </c>
       <c r="C395" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D395" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E395" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B396">
-        <v>50364</v>
+        <v>50653</v>
       </c>
       <c r="C396" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D396" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B397">
-        <v>50657</v>
+        <v>50653</v>
       </c>
       <c r="C397" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D397" t="s">
-        <v>7</v>
-      </c>
-      <c r="E397" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B398">
-        <v>47059</v>
+        <v>50653</v>
       </c>
       <c r="C398" t="s">
         <v>183</v>
       </c>
       <c r="D398" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B399">
-        <v>47059</v>
+        <v>50653</v>
       </c>
       <c r="C399" t="s">
         <v>183</v>
       </c>
       <c r="D399" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E399" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B400">
-        <v>47059</v>
+        <v>47673</v>
       </c>
       <c r="C400" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D400" t="s">
-        <v>11</v>
-      </c>
-      <c r="E400" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B401">
-        <v>47059</v>
+        <v>50459</v>
       </c>
       <c r="C401" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D401" t="s">
-        <v>18</v>
-      </c>
-      <c r="E401" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B402">
-        <v>37111</v>
+        <v>50633</v>
       </c>
       <c r="C402" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D402" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B403">
-        <v>37111</v>
+        <v>50633</v>
       </c>
       <c r="C403" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D403" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B404">
-        <v>50635</v>
+        <v>50633</v>
       </c>
       <c r="C404" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D404" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B405">
-        <v>50635</v>
+        <v>50633</v>
       </c>
       <c r="C405" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D405" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B406">
-        <v>50635</v>
+        <v>50633</v>
       </c>
       <c r="C406" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D406" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B407">
-        <v>50716</v>
+        <v>50633</v>
       </c>
       <c r="C407" t="s">
         <v>186</v>
       </c>
       <c r="D407" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B408">
-        <v>50651</v>
+        <v>50633</v>
       </c>
       <c r="C408" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D408" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B409">
-        <v>50651</v>
+        <v>50633</v>
       </c>
       <c r="C409" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D409" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B410">
-        <v>50651</v>
+        <v>50633</v>
       </c>
       <c r="C410" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D410" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B411">
-        <v>50651</v>
+        <v>50364</v>
       </c>
       <c r="C411" t="s">
         <v>187</v>
       </c>
       <c r="D411" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B412">
-        <v>50706</v>
+        <v>50364</v>
       </c>
       <c r="C412" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D412" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B413">
-        <v>50706</v>
+        <v>50657</v>
       </c>
       <c r="C413" t="s">
         <v>188</v>
       </c>
       <c r="D413" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E413" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B414">
-        <v>50670</v>
+        <v>47059</v>
       </c>
       <c r="C414" t="s">
         <v>189</v>
@@ -7076,16 +7079,13 @@
       <c r="D414" t="s">
         <v>7</v>
       </c>
-      <c r="E414" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B415">
-        <v>50670</v>
+        <v>47059</v>
       </c>
       <c r="C415" t="s">
         <v>189</v>
@@ -7094,15 +7094,15 @@
         <v>9</v>
       </c>
       <c r="E415" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B416">
-        <v>50670</v>
+        <v>47059</v>
       </c>
       <c r="C416" t="s">
         <v>189</v>
@@ -7110,13 +7110,16 @@
       <c r="D416" t="s">
         <v>11</v>
       </c>
+      <c r="E416" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B417">
-        <v>50670</v>
+        <v>47059</v>
       </c>
       <c r="C417" t="s">
         <v>189</v>
@@ -7124,89 +7127,86 @@
       <c r="D417" t="s">
         <v>18</v>
       </c>
+      <c r="E417" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B418">
-        <v>50670</v>
+        <v>37111</v>
       </c>
       <c r="C418" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D418" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B419">
-        <v>50670</v>
+        <v>37111</v>
       </c>
       <c r="C419" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D419" t="s">
-        <v>22</v>
-      </c>
-      <c r="E419" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B420">
-        <v>50670</v>
+        <v>50635</v>
       </c>
       <c r="C420" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D420" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B421">
-        <v>39728</v>
+        <v>50635</v>
       </c>
       <c r="C421" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D421" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B422">
-        <v>50711</v>
+        <v>50635</v>
       </c>
       <c r="C422" t="s">
         <v>191</v>
       </c>
       <c r="D422" t="s">
-        <v>7</v>
-      </c>
-      <c r="E422" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B423">
-        <v>50703</v>
+        <v>50716</v>
       </c>
       <c r="C423" t="s">
         <v>192</v>
@@ -7214,112 +7214,97 @@
       <c r="D423" t="s">
         <v>7</v>
       </c>
-      <c r="E423" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B424">
-        <v>46017</v>
+        <v>50651</v>
       </c>
       <c r="C424" t="s">
         <v>193</v>
       </c>
       <c r="D424" t="s">
-        <v>176</v>
-      </c>
-      <c r="E424" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B425">
-        <v>46017</v>
+        <v>50651</v>
       </c>
       <c r="C425" t="s">
         <v>193</v>
       </c>
       <c r="D425" t="s">
-        <v>176</v>
-      </c>
-      <c r="E425" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B426">
-        <v>46017</v>
+        <v>50651</v>
       </c>
       <c r="C426" t="s">
         <v>193</v>
       </c>
       <c r="D426" t="s">
-        <v>176</v>
-      </c>
-      <c r="E426" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B427">
-        <v>46017</v>
+        <v>50651</v>
       </c>
       <c r="C427" t="s">
         <v>193</v>
       </c>
       <c r="D427" t="s">
-        <v>176</v>
-      </c>
-      <c r="E427" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B428">
-        <v>46017</v>
+        <v>50706</v>
       </c>
       <c r="C428" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D428" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B429">
-        <v>50714</v>
+        <v>50706</v>
       </c>
       <c r="C429" t="s">
         <v>194</v>
       </c>
       <c r="D429" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B430">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C430" t="s">
         <v>195</v>
@@ -7327,13 +7312,16 @@
       <c r="D430" t="s">
         <v>7</v>
       </c>
+      <c r="E430" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B431">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C431" t="s">
         <v>195</v>
@@ -7341,13 +7329,16 @@
       <c r="D431" t="s">
         <v>9</v>
       </c>
+      <c r="E431" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B432">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C432" t="s">
         <v>195</v>
@@ -7358,10 +7349,10 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B433">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C433" t="s">
         <v>195</v>
@@ -7372,10 +7363,10 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B434">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C434" t="s">
         <v>195</v>
@@ -7383,16 +7374,13 @@
       <c r="D434" t="s">
         <v>20</v>
       </c>
-      <c r="E434" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B435">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C435" t="s">
         <v>195</v>
@@ -7400,765 +7388,1030 @@
       <c r="D435" t="s">
         <v>22</v>
       </c>
+      <c r="E435" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B436">
-        <v>52028</v>
+        <v>50670</v>
       </c>
       <c r="C436" t="s">
         <v>195</v>
       </c>
       <c r="D436" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B437">
-        <v>52028</v>
+        <v>39728</v>
       </c>
       <c r="C437" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D437" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B438">
-        <v>52028</v>
+        <v>50711</v>
       </c>
       <c r="C438" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D438" t="s">
-        <v>64</v>
+        <v>7</v>
+      </c>
+      <c r="E438" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B439">
-        <v>52028</v>
+        <v>50711</v>
       </c>
       <c r="C439" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D439" t="s">
-        <v>79</v>
+        <v>9</v>
+      </c>
+      <c r="E439" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B440">
-        <v>52028</v>
+        <v>50703</v>
       </c>
       <c r="C440" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D440" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="E440" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B441">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C441" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D441" t="s">
-        <v>81</v>
+        <v>182</v>
+      </c>
+      <c r="E441" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B442">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C442" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D442" t="s">
-        <v>82</v>
-      </c>
-      <c r="E442" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B443">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C443" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D443" t="s">
-        <v>83</v>
+        <v>182</v>
+      </c>
+      <c r="E443" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B444">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C444" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D444" t="s">
-        <v>84</v>
+        <v>182</v>
+      </c>
+      <c r="E444" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B445">
-        <v>52028</v>
+        <v>46017</v>
       </c>
       <c r="C445" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D445" t="s">
-        <v>85</v>
+        <v>182</v>
+      </c>
+      <c r="E445" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B446">
-        <v>52028</v>
+        <v>50714</v>
       </c>
       <c r="C446" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D446" t="s">
-        <v>86</v>
-      </c>
-      <c r="E446" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B447">
         <v>52028</v>
       </c>
       <c r="C447" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D447" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B448">
         <v>52028</v>
       </c>
       <c r="C448" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D448" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B449">
         <v>52028</v>
       </c>
       <c r="C449" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D449" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B450">
         <v>52028</v>
       </c>
       <c r="C450" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D450" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B451">
         <v>52028</v>
       </c>
       <c r="C451" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D451" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E451" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B452">
         <v>52028</v>
       </c>
       <c r="C452" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D452" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B453">
         <v>52028</v>
       </c>
       <c r="C453" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D453" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B454">
         <v>52028</v>
       </c>
       <c r="C454" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D454" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B455">
         <v>52028</v>
       </c>
       <c r="C455" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D455" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B456">
         <v>52028</v>
       </c>
       <c r="C456" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D456" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B457">
         <v>52028</v>
       </c>
       <c r="C457" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D457" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B458">
         <v>52028</v>
       </c>
       <c r="C458" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D458" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B459">
         <v>52028</v>
       </c>
       <c r="C459" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D459" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="E459" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B460">
         <v>52028</v>
       </c>
       <c r="C460" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D460" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B461">
         <v>52028</v>
       </c>
       <c r="C461" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D461" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B462">
         <v>52028</v>
       </c>
       <c r="C462" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D462" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B463">
         <v>52028</v>
       </c>
       <c r="C463" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D463" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="E463" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B464">
         <v>52028</v>
       </c>
       <c r="C464" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D464" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B465">
         <v>52028</v>
       </c>
       <c r="C465" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D465" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B466">
         <v>52028</v>
       </c>
       <c r="C466" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D466" t="s">
-        <v>196</v>
+        <v>90</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B467">
         <v>52028</v>
       </c>
       <c r="C467" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D467" t="s">
-        <v>197</v>
+        <v>91</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B468">
         <v>52028</v>
       </c>
       <c r="C468" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D468" t="s">
-        <v>198</v>
+        <v>92</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B469">
         <v>52028</v>
       </c>
       <c r="C469" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D469" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B470">
         <v>52028</v>
       </c>
       <c r="C470" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D470" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B471">
         <v>52028</v>
       </c>
       <c r="C471" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D471" t="s">
-        <v>201</v>
+        <v>95</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B472">
         <v>52028</v>
       </c>
       <c r="C472" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D472" t="s">
-        <v>202</v>
+        <v>96</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B473">
         <v>52028</v>
       </c>
       <c r="C473" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D473" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B474">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C474" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D474" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B475">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C475" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D475" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B476">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C476" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D476" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B477">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C477" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D477" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B478">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C478" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D478" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B479">
-        <v>47545</v>
+        <v>52028</v>
       </c>
       <c r="C479" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D479" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B480">
-        <v>51946</v>
+        <v>52028</v>
       </c>
       <c r="C480" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D480" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B481">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C481" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D481" t="s">
-        <v>7</v>
-      </c>
-      <c r="E481" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B482">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C482" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D482" t="s">
-        <v>9</v>
-      </c>
-      <c r="E482" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B483">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C483" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D483" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B484">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C484" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D484" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B485">
-        <v>50343</v>
+        <v>52028</v>
       </c>
       <c r="C485" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D485" t="s">
-        <v>20</v>
-      </c>
-      <c r="E485" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>21</v>
       </c>
       <c r="B486">
+        <v>52028</v>
+      </c>
+      <c r="C486" t="s">
+        <v>201</v>
+      </c>
+      <c r="D486" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>41</v>
+      </c>
+      <c r="B487">
+        <v>52028</v>
+      </c>
+      <c r="C487" t="s">
+        <v>201</v>
+      </c>
+      <c r="D487" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>41</v>
+      </c>
+      <c r="B488">
+        <v>52028</v>
+      </c>
+      <c r="C488" t="s">
+        <v>201</v>
+      </c>
+      <c r="D488" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>41</v>
+      </c>
+      <c r="B489">
+        <v>52028</v>
+      </c>
+      <c r="C489" t="s">
+        <v>201</v>
+      </c>
+      <c r="D489" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>41</v>
+      </c>
+      <c r="B490">
+        <v>52028</v>
+      </c>
+      <c r="C490" t="s">
+        <v>201</v>
+      </c>
+      <c r="D490" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>12</v>
+      </c>
+      <c r="B491">
+        <v>47545</v>
+      </c>
+      <c r="C491" t="s">
+        <v>206</v>
+      </c>
+      <c r="D491" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>15</v>
+      </c>
+      <c r="B492">
+        <v>47545</v>
+      </c>
+      <c r="C492" t="s">
+        <v>206</v>
+      </c>
+      <c r="D492" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>48</v>
+     